--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\4月报表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5A46EFCB-3FF8-45CF-B524-8DC64E29D8CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{498C9C5F-30AB-4936-AEA8-5BD359EC83F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="155">
   <si>
     <t>王成</t>
   </si>
@@ -316,37 +316,7 @@
     <t>杨勇</t>
   </si>
   <si>
-    <t>武汉公共平台仓6号库</t>
-  </si>
-  <si>
-    <t>武汉丰树外单分拣</t>
-  </si>
-  <si>
-    <t>18906</t>
-  </si>
-  <si>
-    <t>0028598</t>
-  </si>
-  <si>
     <t>鄂AHB101</t>
-  </si>
-  <si>
-    <t>16990</t>
-  </si>
-  <si>
-    <t>0021054</t>
-  </si>
-  <si>
-    <t>18881</t>
-  </si>
-  <si>
-    <t>0028597</t>
-  </si>
-  <si>
-    <t>19984</t>
-  </si>
-  <si>
-    <t>0028626</t>
   </si>
   <si>
     <t>车牌号</t>
@@ -526,6 +496,58 @@
   </si>
   <si>
     <t xml:space="preserve">单号公式 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李耀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18906</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028598</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕文杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16990</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0021054</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18881</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028597</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19984</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028626</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋军</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,9 +993,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1076,235 @@
     <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -1775,7 +2022,7 @@
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2228,7 +2475,7 @@
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2846,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BJ7"/>
+  <dimension ref="A1:BI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2863,15 +3110,15 @@
     <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -2908,30 +3155,28 @@
       <c r="L1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="53" t="s">
+      <c r="M1" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="53" t="s">
         <v>48</v>
       </c>
+      <c r="O1" s="52" t="s">
+        <v>49</v>
+      </c>
       <c r="P1" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="S1" s="54" t="s">
         <v>53</v>
       </c>
+      <c r="T1" s="48"/>
       <c r="U1" s="48"/>
       <c r="V1" s="48"/>
       <c r="W1" s="48"/>
@@ -2945,7 +3190,7 @@
       <c r="AE1" s="48"/>
       <c r="AF1" s="48"/>
       <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
+      <c r="AH1" s="49"/>
       <c r="AI1" s="49"/>
       <c r="AJ1" s="49"/>
       <c r="AK1" s="49"/>
@@ -2973,9 +3218,8 @@
       <c r="BG1" s="49"/>
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
     </row>
-    <row r="2" spans="1:62" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -3013,27 +3257,25 @@
       <c r="M2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="42" t="s">
+      <c r="N2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="P2" s="46">
+        <v>12</v>
+      </c>
       <c r="Q2" s="46">
+        <v>0</v>
+      </c>
+      <c r="R2" s="46">
         <v>12</v>
       </c>
-      <c r="R2" s="46">
-        <v>0</v>
-      </c>
-      <c r="S2" s="46">
-        <v>12</v>
-      </c>
-      <c r="T2" s="40" t="s">
+      <c r="S2" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="T2" s="41"/>
       <c r="U2" s="41"/>
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
@@ -3075,9 +3317,8 @@
       <c r="BG2" s="41"/>
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
-      <c r="BJ2" s="41"/>
     </row>
-    <row r="3" spans="1:62" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -3115,27 +3356,25 @@
       <c r="M3" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="42" t="s">
+      <c r="N3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="O3" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="P3" s="46">
+        <v>14</v>
+      </c>
       <c r="Q3" s="46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R3" s="46">
-        <v>0</v>
-      </c>
-      <c r="S3" s="46">
-        <v>14</v>
-      </c>
-      <c r="T3" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="T3" s="41"/>
       <c r="U3" s="41"/>
       <c r="V3" s="41"/>
       <c r="W3" s="41"/>
@@ -3177,9 +3416,8 @@
       <c r="BG3" s="41"/>
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
     </row>
-    <row r="4" spans="1:62" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -3217,27 +3455,25 @@
       <c r="M4" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="42" t="s">
+      <c r="N4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="O4" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="P4" s="46">
+        <v>14</v>
+      </c>
       <c r="Q4" s="46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R4" s="46">
-        <v>0</v>
-      </c>
-      <c r="S4" s="46">
-        <v>14</v>
-      </c>
-      <c r="T4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="T4" s="41"/>
       <c r="U4" s="41"/>
       <c r="V4" s="41"/>
       <c r="W4" s="41"/>
@@ -3279,9 +3515,8 @@
       <c r="BG4" s="41"/>
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
     </row>
-    <row r="5" spans="1:62" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -3319,27 +3554,25 @@
       <c r="M5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="42" t="s">
+      <c r="N5" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="O5" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="P5" s="46">
+        <v>14</v>
+      </c>
       <c r="Q5" s="46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R5" s="46">
-        <v>0</v>
-      </c>
-      <c r="S5" s="46">
-        <v>14</v>
-      </c>
-      <c r="T5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="T5" s="41"/>
       <c r="U5" s="41"/>
       <c r="V5" s="41"/>
       <c r="W5" s="41"/>
@@ -3381,9 +3614,8 @@
       <c r="BG5" s="41"/>
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
     </row>
-    <row r="6" spans="1:62" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -3421,27 +3653,25 @@
       <c r="M6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="42" t="s">
+      <c r="N6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="P6" s="46">
+        <v>14</v>
+      </c>
       <c r="Q6" s="46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R6" s="46">
-        <v>0</v>
-      </c>
-      <c r="S6" s="46">
-        <v>14</v>
-      </c>
-      <c r="T6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="T6" s="41"/>
       <c r="U6" s="41"/>
       <c r="V6" s="41"/>
       <c r="W6" s="41"/>
@@ -3483,9 +3713,8 @@
       <c r="BG6" s="41"/>
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
-      <c r="BJ6" s="41"/>
     </row>
-    <row r="7" spans="1:62" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -3523,27 +3752,25 @@
       <c r="M7" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="42" t="s">
+      <c r="N7" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="40" t="s">
+      <c r="O7" s="40" t="s">
         <v>10</v>
       </c>
+      <c r="P7" s="46">
+        <v>14</v>
+      </c>
       <c r="Q7" s="46">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R7" s="46">
-        <v>0</v>
-      </c>
-      <c r="S7" s="46">
-        <v>14</v>
-      </c>
-      <c r="T7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="T7" s="41"/>
       <c r="U7" s="41"/>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
@@ -3585,7 +3812,6 @@
       <c r="BG7" s="41"/>
       <c r="BH7" s="41"/>
       <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3598,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3624,519 +3850,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="66" t="s">
+      <c r="M1" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="59">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
         <v>43194</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="60">
+      <c r="B2" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="59">
         <v>1929</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="59">
         <v>2144</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="57" t="str">
+        <f t="shared" ref="L2:L5" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="67" t="str">
+        <f>VLOOKUP(O2,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="N2" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="68" t="s">
+      <c r="O2" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="57" t="str">
+        <f>IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>8</v>
+      </c>
+      <c r="R2" s="62">
+        <v>0</v>
+      </c>
+      <c r="S2" s="62">
+        <f t="shared" ref="S2:S5" si="1">SUM(Q2:R2)</f>
+        <v>8</v>
+      </c>
+      <c r="T2" s="57" t="str">
+        <f t="shared" ref="T2:T5" si="2">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="59">
+        <v>1230</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1411</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="G3" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="67" t="str">
+        <f>VLOOKUP(O3,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="57" t="str">
+        <f t="shared" ref="P3:P5" si="3">IF(A3&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>14</v>
+      </c>
+      <c r="R3" s="62">
+        <v>0</v>
+      </c>
+      <c r="S3" s="62">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="T3" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1715</v>
+      </c>
+      <c r="D4" s="59">
+        <v>1902</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="63">
-        <v>8</v>
-      </c>
-      <c r="R2" s="63">
+      <c r="G4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="67" t="str">
+        <f>VLOOKUP(O4,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>9.6米</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>14</v>
+      </c>
+      <c r="R4" s="62">
         <v>0</v>
       </c>
-      <c r="S2" s="63">
-        <v>8</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="70"/>
-      <c r="BB2" s="70"/>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="70"/>
+      <c r="S4" s="62">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="T4" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="59">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
         <v>43194</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="60">
-        <v>1230</v>
-      </c>
-      <c r="D3" s="60">
-        <v>1411</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="63">
-        <v>14</v>
-      </c>
-      <c r="R3" s="63">
+      <c r="B5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1825</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2027</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="57" t="str">
+        <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M5" s="67" t="str">
+        <f>VLOOKUP(O5,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="57" t="str">
+        <f>IF(A5&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>14</v>
+      </c>
+      <c r="R5" s="62">
         <v>0</v>
       </c>
-      <c r="S3" s="63">
-        <v>14</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="70"/>
-      <c r="BC3" s="70"/>
-      <c r="BD3" s="70"/>
-      <c r="BE3" s="70"/>
-      <c r="BF3" s="70"/>
-      <c r="BG3" s="70"/>
-      <c r="BH3" s="70"/>
-      <c r="BI3" s="70"/>
-      <c r="BJ3" s="70"/>
-    </row>
-    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="59">
-        <v>43194</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="60">
-        <v>1715</v>
-      </c>
-      <c r="D4" s="60">
-        <v>1902</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="63">
-        <v>14</v>
-      </c>
-      <c r="R4" s="63">
-        <v>0</v>
-      </c>
-      <c r="S4" s="63">
-        <v>14</v>
-      </c>
-      <c r="T4" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-    </row>
-    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
-        <v>43194</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="60">
-        <v>1825</v>
-      </c>
-      <c r="D5" s="60">
-        <v>2027</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="63">
-        <v>14</v>
-      </c>
-      <c r="R5" s="63">
-        <v>0</v>
-      </c>
-      <c r="S5" s="63">
-        <v>14</v>
-      </c>
-      <c r="T5" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
-      <c r="AT5" s="70"/>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="70"/>
-      <c r="BF5" s="70"/>
-      <c r="BG5" s="70"/>
-      <c r="BH5" s="70"/>
-      <c r="BI5" s="70"/>
-      <c r="BJ5" s="70"/>
+      <c r="S5" s="62">
+        <f>SUM(Q5:R5)</f>
+        <v>14</v>
+      </c>
+      <c r="T5" s="57" t="str">
+        <f>IF(A5&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I5:K5">
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I4">
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4146,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B506A77-FDAA-4A41-BF2C-505412586C6A}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4159,7 +4255,7 @@
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
@@ -4172,357 +4268,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="66" t="s">
+      <c r="M1" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+    </row>
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1920</v>
+      </c>
+      <c r="D2" s="59">
+        <v>2109</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-    </row>
-    <row r="2" spans="1:62" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="59">
-        <v>43195</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="60">
-        <v>1920</v>
-      </c>
-      <c r="D2" s="60">
-        <v>2109</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="58" t="str">
+      <c r="L2" s="57" t="str">
         <f t="shared" ref="L2:L5" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M2" s="68" t="str">
+      <c r="M2" s="67" t="str">
         <f>VLOOKUP(O2,[1]ch!$A$1:$B$31,2,0)</f>
         <v>鄂AAW309</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="58" t="str">
+      <c r="N2" s="59"/>
+      <c r="O2" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="57" t="str">
         <f t="shared" ref="P2:P5" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="Q2" s="63">
+      <c r="Q2" s="62">
         <v>11</v>
       </c>
-      <c r="R2" s="63">
+      <c r="R2" s="62">
         <v>0</v>
       </c>
-      <c r="S2" s="63">
+      <c r="S2" s="62">
         <f t="shared" ref="S2:S5" si="2">SUM(Q2:R2)</f>
         <v>11</v>
       </c>
-      <c r="T2" s="58" t="str">
+      <c r="T2" s="57" t="str">
         <f t="shared" ref="T2:T5" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="59">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
         <v>43195</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="60">
+      <c r="B3" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="59">
         <v>1640</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="59">
         <v>1835</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" s="58" t="str">
+      <c r="E3" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="57" t="str">
         <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M3" s="68" t="str">
+      <c r="M3" s="67" t="str">
         <f>VLOOKUP(O3,[1]ch!$A$1:$B$31,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="P3" s="58" t="str">
+      <c r="N3" s="59"/>
+      <c r="O3" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="57" t="str">
         <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
-      <c r="Q3" s="63">
-        <v>14</v>
-      </c>
-      <c r="R3" s="63">
+      <c r="Q3" s="62">
+        <v>14</v>
+      </c>
+      <c r="R3" s="62">
         <v>0</v>
       </c>
-      <c r="S3" s="63">
+      <c r="S3" s="62">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T3" s="58" t="str">
+      <c r="T3" s="57" t="str">
         <f t="shared" si="3"/>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="59">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
         <v>43195</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="60">
+      <c r="B4" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="59">
         <v>1930</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="59">
         <v>2107</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="61" t="s">
+      <c r="E4" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="G4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="58" t="str">
+      <c r="J4" s="59"/>
+      <c r="K4" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="57" t="str">
         <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M4" s="68" t="str">
+      <c r="M4" s="67" t="str">
         <f>VLOOKUP(O4,[1]ch!$A$1:$B$31,2,0)</f>
         <v>鄂ABY277</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="58" t="str">
+      <c r="N4" s="59"/>
+      <c r="O4" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="57" t="str">
         <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="62">
         <v>8</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="62">
         <v>0</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="62">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="T4" s="58" t="str">
+      <c r="T4" s="57" t="str">
         <f t="shared" si="3"/>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
         <v>43195</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="60">
+      <c r="B5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="59">
         <v>1458</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <v>1649</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="61" t="s">
+      <c r="E5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="58" t="str">
+      <c r="G5" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="57" t="str">
         <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M5" s="68" t="str">
+      <c r="M5" s="67" t="str">
         <f>VLOOKUP(O5,[1]ch!$A$1:$B$32,2,0)</f>
         <v>粤BGR032</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" s="58" t="str">
+      <c r="N5" s="59"/>
+      <c r="O5" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="57" t="str">
         <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="62">
         <v>9</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="62">
         <v>0</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="62">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="T5" s="58" t="str">
+      <c r="T5" s="57" t="str">
         <f t="shared" si="3"/>
         <v>分拣摆渡</v>
       </c>
@@ -4530,16 +4626,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4549,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E5BE0-E8C6-493F-857E-5BAC42C4EECC}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4577,373 +4673,373 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="72" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="66" t="s">
+      <c r="I1" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="66" t="s">
+      <c r="N1" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="U1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="59">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
         <v>43196</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="60">
+      <c r="B2" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="59">
         <v>1530</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="59">
         <v>1728</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" s="58" t="str">
+      <c r="E2" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="57" t="str">
         <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N2" s="68" t="str">
+      <c r="N2" s="67" t="str">
         <f>VLOOKUP(P2,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂ANH299</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="58" t="str">
+      <c r="O2" s="59"/>
+      <c r="P2" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="57" t="str">
         <f>IF(A2&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="R2" s="63">
-        <v>14</v>
-      </c>
-      <c r="S2" s="63">
+      <c r="R2" s="62">
+        <v>14</v>
+      </c>
+      <c r="S2" s="62">
         <v>0</v>
       </c>
-      <c r="T2" s="63">
+      <c r="T2" s="62">
         <f>SUM(R2:S2)</f>
         <v>14</v>
       </c>
-      <c r="U2" s="58" t="str">
+      <c r="U2" s="57" t="str">
         <f>IF(A2&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="59">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
         <v>43196</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="60">
+      <c r="B3" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="59">
         <v>1459</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="59">
         <v>1642</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="61" t="s">
+      <c r="E3" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" s="58" t="str">
+      <c r="G3" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="57" t="str">
         <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N3" s="68" t="str">
+      <c r="N3" s="67" t="str">
         <f>VLOOKUP(P3,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂AZR876</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" s="58" t="str">
+      <c r="O3" s="59"/>
+      <c r="P3" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="57" t="str">
         <f>IF(A3&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="R3" s="63">
+      <c r="R3" s="62">
         <v>11</v>
       </c>
-      <c r="S3" s="63">
+      <c r="S3" s="62">
         <v>0</v>
       </c>
-      <c r="T3" s="63">
+      <c r="T3" s="62">
         <f>SUM(R3:S3)</f>
         <v>11</v>
       </c>
-      <c r="U3" s="58" t="str">
+      <c r="U3" s="57" t="str">
         <f>IF(A3&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="59">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
         <v>43196</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="60">
+      <c r="B4" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="59">
         <v>1929</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="59">
         <v>2103</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="61" t="s">
+      <c r="E4" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="71" t="s">
+      <c r="G4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="M4" s="58" t="str">
+      <c r="J4" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="57" t="str">
         <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N4" s="68" t="str">
+      <c r="N4" s="67" t="str">
         <f>VLOOKUP(P4,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂AFE237</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="58" t="str">
+      <c r="O4" s="59"/>
+      <c r="P4" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="57" t="str">
         <f>IF(A4&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="R4" s="63">
-        <v>14</v>
-      </c>
-      <c r="S4" s="63">
+      <c r="R4" s="62">
+        <v>14</v>
+      </c>
+      <c r="S4" s="62">
         <v>0</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="62">
         <f>SUM(R4:S4)</f>
         <v>14</v>
       </c>
-      <c r="U4" s="58" t="str">
+      <c r="U4" s="57" t="str">
         <f>IF(A4&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="70" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
         <v>43196</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="60">
+      <c r="B5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="59">
         <v>1930</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="59">
         <v>2130</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="61" t="s">
+      <c r="E5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="58" t="str">
+      <c r="G5" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="57" t="str">
         <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N5" s="68" t="str">
+      <c r="N5" s="67" t="str">
         <f>VLOOKUP(P5,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂AZV377</v>
       </c>
-      <c r="O5" s="60"/>
-      <c r="P5" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="58" t="str">
+      <c r="O5" s="59"/>
+      <c r="P5" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="57" t="str">
         <f>IF(A5&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="62">
         <v>6</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="62">
         <v>0</v>
       </c>
-      <c r="T5" s="63">
+      <c r="T5" s="62">
         <f>SUM(R5:S5)</f>
         <v>6</v>
       </c>
-      <c r="U5" s="58" t="str">
+      <c r="U5" s="57" t="str">
         <f>IF(A5&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
@@ -4951,27 +5047,28 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:L5">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J5">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BH7"/>
+  <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5106,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -5160,7 +5257,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -5214,7 +5311,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -5376,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
@@ -5412,9 +5509,1858 @@
         <v>14</v>
       </c>
       <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1210</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1343</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="62">
+        <v>14</v>
+      </c>
+      <c r="P8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="62">
+        <v>14</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="34"/>
+      <c r="BC8" s="34"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+    </row>
+    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1618</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1755</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="62">
+        <v>14</v>
+      </c>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="62">
+        <v>14</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+    </row>
+    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1900</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2115</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="62">
+        <v>14</v>
+      </c>
+      <c r="P10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>14</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+    </row>
+    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1929</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2123</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="62">
+        <v>14</v>
+      </c>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>14</v>
+      </c>
+      <c r="R11" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+    </row>
+    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1140</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1331</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="62">
+        <v>14</v>
+      </c>
+      <c r="P12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>14</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="34"/>
+      <c r="BC12" s="34"/>
+      <c r="BD12" s="34"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+    </row>
+    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1459</v>
+      </c>
+      <c r="D13" s="44">
+        <v>1645</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="46">
+        <v>12</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>12</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+    </row>
+    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1825</v>
+      </c>
+      <c r="D14" s="44">
+        <v>2011</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="46">
+        <v>14</v>
+      </c>
+      <c r="P14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>14</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="41"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="41"/>
+      <c r="BD14" s="41"/>
+      <c r="BE14" s="41"/>
+      <c r="BF14" s="41"/>
+      <c r="BG14" s="41"/>
+      <c r="BH14" s="41"/>
+    </row>
+    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1929</v>
+      </c>
+      <c r="D15" s="44">
+        <v>2125</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="46">
+        <v>14</v>
+      </c>
+      <c r="P15" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>14</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+    </row>
+    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1620</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1810</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="46">
+        <v>14</v>
+      </c>
+      <c r="P16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>14</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="41"/>
+      <c r="BF16" s="41"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="41"/>
+    </row>
+    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1920</v>
+      </c>
+      <c r="D17" s="44">
+        <v>2123</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="46">
+        <v>14</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>14</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="41"/>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="41"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="41"/>
+    </row>
+    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1355</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1549</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="46">
+        <v>14</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>14</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="41"/>
+      <c r="BA18" s="41"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="41"/>
+      <c r="BE18" s="41"/>
+      <c r="BF18" s="41"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="41"/>
+    </row>
+    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="59">
+        <v>1929</v>
+      </c>
+      <c r="D19" s="59">
+        <v>2144</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="57" t="str">
+        <f>IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L19" s="67" t="str">
+        <f>VLOOKUP(M19,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="57" t="str">
+        <f>IF(A19&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O19" s="62">
+        <v>8</v>
+      </c>
+      <c r="P19" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" ref="Q19:Q22" si="0">SUM(O19:P19)</f>
+        <v>8</v>
+      </c>
+      <c r="R19" s="57" t="str">
+        <f>IF(A19&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="59">
+        <v>1230</v>
+      </c>
+      <c r="D20" s="59">
+        <v>1411</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="57" t="str">
+        <f>IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L20" s="67" t="str">
+        <f>VLOOKUP(M20,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="57" t="str">
+        <f>IF(A20&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O20" s="62">
+        <v>14</v>
+      </c>
+      <c r="P20" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R20" s="57" t="str">
+        <f>IF(A20&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="59">
+        <v>1715</v>
+      </c>
+      <c r="D21" s="59">
+        <v>1902</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="57" t="str">
+        <f>IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L21" s="67" t="str">
+        <f>VLOOKUP(M21,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="57" t="str">
+        <f>IF(A21&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O21" s="62">
+        <v>14</v>
+      </c>
+      <c r="P21" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="R21" s="57" t="str">
+        <f>IF(A21&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="59">
+        <v>1825</v>
+      </c>
+      <c r="D22" s="59">
+        <v>2027</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="57" t="str">
+        <f>IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L22" s="67" t="str">
+        <f>VLOOKUP(M22,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="57" t="str">
+        <f>IF(A22&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O22" s="62">
+        <v>14</v>
+      </c>
+      <c r="P22" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="62">
+        <f>SUM(O22:P22)</f>
+        <v>14</v>
+      </c>
+      <c r="R22" s="57" t="str">
+        <f>IF(A22&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="59">
+        <v>1920</v>
+      </c>
+      <c r="D23" s="59">
+        <v>2109</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="57" t="str">
+        <f>IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L23" s="67" t="str">
+        <f>VLOOKUP(M23,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="57" t="str">
+        <f>IF(A23&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O23" s="62">
+        <v>11</v>
+      </c>
+      <c r="P23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" ref="Q23:Q26" si="1">SUM(O23:P23)</f>
+        <v>11</v>
+      </c>
+      <c r="R23" s="57" t="str">
+        <f t="shared" ref="R23:R26" si="2">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="59">
+        <v>1640</v>
+      </c>
+      <c r="D24" s="59">
+        <v>1835</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="57" t="str">
+        <f>IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L24" s="67" t="str">
+        <f>VLOOKUP(M24,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="57" t="str">
+        <f>IF(A24&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O24" s="62">
+        <v>14</v>
+      </c>
+      <c r="P24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="R24" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D25" s="59">
+        <v>2107</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="57" t="str">
+        <f>IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L25" s="67" t="str">
+        <f>VLOOKUP(M25,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="M25" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="57" t="str">
+        <f>IF(A25&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O25" s="62">
+        <v>8</v>
+      </c>
+      <c r="P25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R25" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="59">
+        <v>1458</v>
+      </c>
+      <c r="D26" s="59">
+        <v>1649</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="57" t="str">
+        <f>IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L26" s="67" t="str">
+        <f>VLOOKUP(M26,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>粤BGR032</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="57" t="str">
+        <f>IF(A26&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O26" s="62">
+        <v>9</v>
+      </c>
+      <c r="P26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="62">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R26" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="59">
+        <v>1530</v>
+      </c>
+      <c r="D27" s="59">
+        <v>1728</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="57" t="str">
+        <f>IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L27" s="67" t="str">
+        <f>VLOOKUP(M27,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ANH299</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="57" t="str">
+        <f>IF(A27&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O27" s="62">
+        <v>14</v>
+      </c>
+      <c r="P27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62">
+        <f>SUM(O27:P27)</f>
+        <v>14</v>
+      </c>
+      <c r="R27" s="57" t="str">
+        <f>IF(A27&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="59">
+        <v>1459</v>
+      </c>
+      <c r="D28" s="59">
+        <v>1642</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="57" t="str">
+        <f>IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L28" s="67" t="str">
+        <f>VLOOKUP(M28,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="57" t="str">
+        <f>IF(A28&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O28" s="62">
+        <v>11</v>
+      </c>
+      <c r="P28" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="62">
+        <f>SUM(O28:P28)</f>
+        <v>11</v>
+      </c>
+      <c r="R28" s="57" t="str">
+        <f>IF(A28&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="59">
+        <v>1929</v>
+      </c>
+      <c r="D29" s="59">
+        <v>2103</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="57" t="str">
+        <f>IF(A29&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L29" s="67" t="str">
+        <f>VLOOKUP(M29,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="M29" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="57" t="str">
+        <f>IF(A29&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O29" s="62">
+        <v>14</v>
+      </c>
+      <c r="P29" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="62">
+        <f>SUM(O29:P29)</f>
+        <v>14</v>
+      </c>
+      <c r="R29" s="57" t="str">
+        <f>IF(A29&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D30" s="59">
+        <v>2130</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="57" t="str">
+        <f>IF(A30&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L30" s="67" t="str">
+        <f>VLOOKUP(M30,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="M30" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="57" t="str">
+        <f>IF(A30&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O30" s="62">
+        <v>6</v>
+      </c>
+      <c r="P30" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="62">
+        <f>SUM(O30:P30)</f>
+        <v>6</v>
+      </c>
+      <c r="R30" s="57" t="str">
+        <f>IF(A30&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I21">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I22">
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I26">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J26">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I26">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:J26">
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30">
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:J30">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{498C9C5F-30AB-4936-AEA8-5BD359EC83F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7FEF767C-9E47-4C98-AD11-5A1D1741B692}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6210" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="4-4" sheetId="5" r:id="rId4"/>
     <sheet name="4-5" sheetId="6" r:id="rId5"/>
     <sheet name="4-6" sheetId="7" r:id="rId6"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId7"/>
+    <sheet name="4-7" sheetId="8" r:id="rId7"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="169">
   <si>
     <t>王成</t>
   </si>
@@ -548,6 +549,62 @@
   </si>
   <si>
     <t>车牌号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉亚一分拣中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17859</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029794</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋辉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16179</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024221</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁鹏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15571</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029892</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明华</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18058</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029894</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19831</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029795</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1107,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1136,91 @@
     <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -1424,6 +1568,7 @@
       <sheetName val="4-4"/>
       <sheetName val="4-5"/>
       <sheetName val="4-6"/>
+      <sheetName val="4-7"/>
       <sheetName val="ch"/>
       <sheetName val="汇总明线"/>
     </sheetNames>
@@ -1434,7 +1579,8 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
             <v>陈和敏</v>
@@ -1692,7 +1838,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3095,7 +3241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -3986,7 +4132,7 @@
         <v>144</v>
       </c>
       <c r="L2" s="57" t="str">
-        <f t="shared" ref="L2:L5" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="L2:L4" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="M2" s="67" t="str">
@@ -4010,11 +4156,11 @@
         <v>0</v>
       </c>
       <c r="S2" s="62">
-        <f t="shared" ref="S2:S5" si="1">SUM(Q2:R2)</f>
+        <f t="shared" ref="S2:S4" si="1">SUM(Q2:R2)</f>
         <v>8</v>
       </c>
       <c r="T2" s="57" t="str">
-        <f t="shared" ref="T2:T5" si="2">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="T2:T4" si="2">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -4065,7 +4211,7 @@
         <v>127</v>
       </c>
       <c r="P3" s="57" t="str">
-        <f t="shared" ref="P3:P5" si="3">IF(A3&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="P3:P4" si="3">IF(A3&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="Q3" s="62">
@@ -4216,22 +4362,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4626,16 +4772,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4646,7 +4792,7 @@
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5047,16 +5193,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:L5">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J5">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5064,6 +5210,483 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFEE9F4-6675-4286-99D9-6D0C21F08F6A}">
+  <dimension ref="A1:BK6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+    </row>
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1540</v>
+      </c>
+      <c r="D2" s="59">
+        <v>1718</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="57" t="str">
+        <f t="shared" ref="M2:M6" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N2" s="67" t="str">
+        <f>VLOOKUP(P2,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="O2" s="59"/>
+      <c r="P2" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="57" t="str">
+        <f t="shared" ref="Q2:Q6" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R2" s="62">
+        <v>14</v>
+      </c>
+      <c r="S2" s="62">
+        <v>0</v>
+      </c>
+      <c r="T2" s="62">
+        <f t="shared" ref="T2:T6" si="2">SUM(R2:S2)</f>
+        <v>14</v>
+      </c>
+      <c r="U2" s="57" t="str">
+        <f t="shared" ref="U2:U6" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="59">
+        <v>1400</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1526</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N3" s="67" t="str">
+        <f>VLOOKUP(P3,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="O3" s="59"/>
+      <c r="P3" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R3" s="62">
+        <v>14</v>
+      </c>
+      <c r="S3" s="62">
+        <v>0</v>
+      </c>
+      <c r="T3" s="62">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U3" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1840</v>
+      </c>
+      <c r="D4" s="59">
+        <v>2040</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N4" s="67" t="str">
+        <f>VLOOKUP(P4,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="O4" s="59"/>
+      <c r="P4" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R4" s="62">
+        <v>14</v>
+      </c>
+      <c r="S4" s="62">
+        <v>0</v>
+      </c>
+      <c r="T4" s="62">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U4" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2115</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N5" s="67" t="str">
+        <f>VLOOKUP(P5,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="O5" s="59"/>
+      <c r="P5" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R5" s="62">
+        <v>7</v>
+      </c>
+      <c r="S5" s="62">
+        <v>0</v>
+      </c>
+      <c r="T5" s="62">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="U5" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1850</v>
+      </c>
+      <c r="D6" s="59">
+        <v>2040</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N6" s="67" t="str">
+        <f>VLOOKUP(P6,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R6" s="62">
+        <v>14</v>
+      </c>
+      <c r="S6" s="62">
+        <v>0</v>
+      </c>
+      <c r="T6" s="62">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U6" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:L6">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J6">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:L1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
@@ -6620,7 +7243,7 @@
         <v>144</v>
       </c>
       <c r="K19" s="57" t="str">
-        <f>IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" ref="K19:K30" si="0">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
       <c r="L19" s="67" t="str">
@@ -6631,7 +7254,7 @@
         <v>145</v>
       </c>
       <c r="N19" s="57" t="str">
-        <f>IF(A19&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" ref="N19:N30" si="1">IF(A19&lt;&gt;"","9.6米","--")</f>
         <v>9.6米</v>
       </c>
       <c r="O19" s="62">
@@ -6641,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="62">
-        <f t="shared" ref="Q19:Q22" si="0">SUM(O19:P19)</f>
+        <f t="shared" ref="Q19:Q21" si="2">SUM(O19:P19)</f>
         <v>8</v>
       </c>
       <c r="R19" s="57" t="str">
@@ -6681,7 +7304,7 @@
         <v>148</v>
       </c>
       <c r="K20" s="57" t="str">
-        <f>IF(A20&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L20" s="67" t="str">
@@ -6692,7 +7315,7 @@
         <v>127</v>
       </c>
       <c r="N20" s="57" t="str">
-        <f>IF(A20&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O20" s="62">
@@ -6702,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R20" s="57" t="str">
@@ -6742,7 +7365,7 @@
         <v>150</v>
       </c>
       <c r="K21" s="57" t="str">
-        <f>IF(A21&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L21" s="67" t="str">
@@ -6753,7 +7376,7 @@
         <v>142</v>
       </c>
       <c r="N21" s="57" t="str">
-        <f>IF(A21&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O21" s="62">
@@ -6763,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="R21" s="57" t="str">
@@ -6803,7 +7426,7 @@
         <v>152</v>
       </c>
       <c r="K22" s="57" t="str">
-        <f>IF(A22&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L22" s="67" t="str">
@@ -6814,7 +7437,7 @@
         <v>153</v>
       </c>
       <c r="N22" s="57" t="str">
-        <f>IF(A22&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O22" s="62">
@@ -6864,7 +7487,7 @@
         <v>106</v>
       </c>
       <c r="K23" s="57" t="str">
-        <f>IF(A23&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L23" s="67" t="str">
@@ -6875,7 +7498,7 @@
         <v>107</v>
       </c>
       <c r="N23" s="57" t="str">
-        <f>IF(A23&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O23" s="62">
@@ -6885,11 +7508,11 @@
         <v>0</v>
       </c>
       <c r="Q23" s="62">
-        <f t="shared" ref="Q23:Q26" si="1">SUM(O23:P23)</f>
+        <f t="shared" ref="Q23:Q26" si="3">SUM(O23:P23)</f>
         <v>11</v>
       </c>
       <c r="R23" s="57" t="str">
-        <f t="shared" ref="R23:R26" si="2">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
+        <f t="shared" ref="R23:R26" si="4">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -6925,7 +7548,7 @@
         <v>109</v>
       </c>
       <c r="K24" s="57" t="str">
-        <f>IF(A24&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L24" s="67" t="str">
@@ -6936,7 +7559,7 @@
         <v>110</v>
       </c>
       <c r="N24" s="57" t="str">
-        <f>IF(A24&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O24" s="62">
@@ -6946,11 +7569,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R24" s="57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -6986,7 +7609,7 @@
         <v>115</v>
       </c>
       <c r="K25" s="57" t="str">
-        <f>IF(A25&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L25" s="67" t="str">
@@ -6997,7 +7620,7 @@
         <v>116</v>
       </c>
       <c r="N25" s="57" t="str">
-        <f>IF(A25&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O25" s="62">
@@ -7007,11 +7630,11 @@
         <v>0</v>
       </c>
       <c r="Q25" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="R25" s="57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -7047,7 +7670,7 @@
         <v>118</v>
       </c>
       <c r="K26" s="57" t="str">
-        <f>IF(A26&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L26" s="67" t="str">
@@ -7058,7 +7681,7 @@
         <v>119</v>
       </c>
       <c r="N26" s="57" t="str">
-        <f>IF(A26&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O26" s="62">
@@ -7068,11 +7691,11 @@
         <v>0</v>
       </c>
       <c r="Q26" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="R26" s="57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>分拣摆渡</v>
       </c>
     </row>
@@ -7108,7 +7731,7 @@
         <v>122</v>
       </c>
       <c r="K27" s="57" t="str">
-        <f>IF(A27&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L27" s="67" t="str">
@@ -7119,7 +7742,7 @@
         <v>123</v>
       </c>
       <c r="N27" s="57" t="str">
-        <f>IF(A27&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O27" s="62">
@@ -7169,7 +7792,7 @@
         <v>126</v>
       </c>
       <c r="K28" s="57" t="str">
-        <f>IF(A28&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L28" s="67" t="str">
@@ -7180,7 +7803,7 @@
         <v>127</v>
       </c>
       <c r="N28" s="57" t="str">
-        <f>IF(A28&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O28" s="62">
@@ -7230,7 +7853,7 @@
         <v>129</v>
       </c>
       <c r="K29" s="57" t="str">
-        <f>IF(A29&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L29" s="67" t="str">
@@ -7241,7 +7864,7 @@
         <v>130</v>
       </c>
       <c r="N29" s="57" t="str">
-        <f>IF(A29&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O29" s="62">
@@ -7291,7 +7914,7 @@
         <v>132</v>
       </c>
       <c r="K30" s="57" t="str">
-        <f>IF(A30&lt;&gt;"","武汉威伟机械","------")</f>
+        <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
       <c r="L30" s="67" t="str">
@@ -7302,7 +7925,7 @@
         <v>133</v>
       </c>
       <c r="N30" s="57" t="str">
-        <f>IF(A30&lt;&gt;"","9.6米","--")</f>
+        <f t="shared" si="1"/>
         <v>9.6米</v>
       </c>
       <c r="O30" s="62">
@@ -7323,43 +7946,43 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I22">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J26">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J30">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7FEF767C-9E47-4C98-AD11-5A1D1741B692}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1328FB45-48E8-42D0-BCFD-96E45F3C2DA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6210" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="4-5" sheetId="6" r:id="rId5"/>
     <sheet name="4-6" sheetId="7" r:id="rId6"/>
     <sheet name="4-7" sheetId="8" r:id="rId7"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="186">
   <si>
     <t>王成</t>
   </si>
@@ -606,6 +607,65 @@
   <si>
     <t>0029795</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZV373</t>
+  </si>
+  <si>
+    <t>鄂AAW309</t>
+  </si>
+  <si>
+    <t>委托单单号1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单单号</t>
+  </si>
+  <si>
+    <t>杨攀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028627</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029921</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029889</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024216</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZR992</t>
+  </si>
+  <si>
+    <t>WW0019988</t>
+  </si>
+  <si>
+    <t>WW0019637</t>
+  </si>
+  <si>
+    <t>WW0015574</t>
+  </si>
+  <si>
+    <t>WW0016182</t>
+  </si>
+  <si>
+    <t>WW0017903</t>
   </si>
 </sst>
 </file>
@@ -889,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1170,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,7 +1199,43 @@
     <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -1569,7 +1668,9 @@
       <sheetName val="4-5"/>
       <sheetName val="4-6"/>
       <sheetName val="4-7"/>
+      <sheetName val="4-8"/>
       <sheetName val="ch"/>
+      <sheetName val="Sheet2"/>
       <sheetName val="汇总明线"/>
     </sheetNames>
     <sheetDataSet>
@@ -1580,7 +1681,8 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
             <v>陈和敏</v>
@@ -1838,7 +1940,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4362,22 +4465,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4385,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B506A77-FDAA-4A41-BF2C-505412586C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4772,23 +4875,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95E5BE0-E8C6-493F-857E-5BAC42C4EECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5193,16 +5296,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:L5">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J5">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5210,11 +5313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFEE9F4-6675-4286-99D9-6D0C21F08F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5232,8 +5335,8 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="19.25" bestFit="1" customWidth="1"/>
@@ -5389,7 +5492,9 @@
         <f>VLOOKUP(P2,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂AZV373</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="59" t="s">
+        <v>169</v>
+      </c>
       <c r="P2" s="68" t="s">
         <v>158</v>
       </c>
@@ -5453,7 +5558,9 @@
         <f>VLOOKUP(P3,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂AQQ353</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="59" t="s">
+        <v>83</v>
+      </c>
       <c r="P3" s="68" t="s">
         <v>161</v>
       </c>
@@ -5517,7 +5624,9 @@
         <f>VLOOKUP(P4,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂ALU151</v>
       </c>
-      <c r="O4" s="59"/>
+      <c r="O4" s="59" t="s">
+        <v>86</v>
+      </c>
       <c r="P4" s="68" t="s">
         <v>164</v>
       </c>
@@ -5581,7 +5690,9 @@
         <f>VLOOKUP(P5,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂AAW309</v>
       </c>
-      <c r="O5" s="59"/>
+      <c r="O5" s="59" t="s">
+        <v>170</v>
+      </c>
       <c r="P5" s="68" t="s">
         <v>107</v>
       </c>
@@ -5645,7 +5756,9 @@
         <f>VLOOKUP(P6,[1]ch!$A$1:$B$32,2,0)</f>
         <v>鄂ABY256</v>
       </c>
-      <c r="O6" s="59"/>
+      <c r="O6" s="59" t="s">
+        <v>64</v>
+      </c>
       <c r="P6" s="68" t="s">
         <v>110</v>
       </c>
@@ -5671,27 +5784,512 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BH30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73A938-33D7-4813-B8D6-1224ADDF80F7}">
+  <dimension ref="A1:BK6"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+    </row>
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
+        <v>43198</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1705</v>
+      </c>
+      <c r="D2" s="59">
+        <v>1903</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="57" t="str">
+        <f t="shared" ref="M2:M6" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N2" s="67" t="str">
+        <f>VLOOKUP(P2,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="O2" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" s="57" t="str">
+        <f t="shared" ref="Q2:Q6" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R2" s="62">
+        <v>14</v>
+      </c>
+      <c r="S2" s="62">
+        <v>0</v>
+      </c>
+      <c r="T2" s="62">
+        <f t="shared" ref="T2" si="2">SUM(R2:S2)</f>
+        <v>14</v>
+      </c>
+      <c r="U2" s="57" t="str">
+        <f t="shared" ref="U2:U6" si="3">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
+        <v>43198</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="59">
+        <v>1820</v>
+      </c>
+      <c r="D3" s="59">
+        <v>1903</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N3" s="67" t="str">
+        <f>VLOOKUP(P3,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q3" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R3" s="62">
+        <v>14</v>
+      </c>
+      <c r="S3" s="62">
+        <v>0</v>
+      </c>
+      <c r="T3" s="62">
+        <f t="shared" ref="T3:T6" si="4">SUM(R3:S3)</f>
+        <v>14</v>
+      </c>
+      <c r="U3" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
+        <v>43198</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1805</v>
+      </c>
+      <c r="D4" s="59">
+        <v>1954</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N4" s="67" t="str">
+        <f>VLOOKUP(P4,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R4" s="62">
+        <v>14</v>
+      </c>
+      <c r="S4" s="62">
+        <v>0</v>
+      </c>
+      <c r="T4" s="62">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U4" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
+        <v>43198</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1929</v>
+      </c>
+      <c r="D5" s="59">
+        <v>2125</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N5" s="67" t="str">
+        <f>VLOOKUP(P5,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R5" s="62">
+        <v>14</v>
+      </c>
+      <c r="S5" s="62">
+        <v>0</v>
+      </c>
+      <c r="T5" s="62">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U5" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="58">
+        <v>43198</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1910</v>
+      </c>
+      <c r="D6" s="59">
+        <v>2134</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N6" s="67" t="str">
+        <f>VLOOKUP(P6,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="R6" s="62">
+        <v>14</v>
+      </c>
+      <c r="S6" s="62">
+        <v>0</v>
+      </c>
+      <c r="T6" s="62">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U6" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I1:L1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:L6">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J6">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:BH35"/>
+  <sheetViews>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5700,7 +6298,8 @@
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
@@ -5745,7 +6344,7 @@
       <c r="K1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="65" t="s">
         <v>47</v>
       </c>
       <c r="M1" s="9" t="s">
@@ -7943,46 +8542,357 @@
         <v>分拣摆渡</v>
       </c>
     </row>
+    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="59">
+        <v>1540</v>
+      </c>
+      <c r="D31" s="59">
+        <v>1718</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="57" t="str">
+        <f t="shared" ref="K31:K35" si="5">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L31" s="67" t="str">
+        <f>VLOOKUP(M31,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="M31" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="N31" s="57" t="str">
+        <f t="shared" ref="N31:N32" si="6">IF(A31&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O31" s="62">
+        <v>14</v>
+      </c>
+      <c r="P31" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="62">
+        <f t="shared" ref="Q31:Q35" si="7">SUM(O31:P31)</f>
+        <v>14</v>
+      </c>
+      <c r="R31" s="57" t="str">
+        <f t="shared" ref="R31:R32" si="8">IF(A31&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="59">
+        <v>1400</v>
+      </c>
+      <c r="D32" s="59">
+        <v>1526</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L32" s="67" t="str">
+        <f>VLOOKUP(M32,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="57" t="str">
+        <f t="shared" si="6"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O32" s="62">
+        <v>14</v>
+      </c>
+      <c r="P32" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R32" s="57" t="str">
+        <f t="shared" si="8"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="59">
+        <v>1840</v>
+      </c>
+      <c r="D33" s="59">
+        <v>2040</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L33" s="67" t="str">
+        <f>VLOOKUP(M33,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="57" t="str">
+        <f>IF(A33&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O33" s="62">
+        <v>14</v>
+      </c>
+      <c r="P33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R33" s="57" t="str">
+        <f>IF(A33&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D34" s="59">
+        <v>2115</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L34" s="67" t="str">
+        <f>VLOOKUP(M34,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="57" t="str">
+        <f>IF(A34&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O34" s="62">
+        <v>7</v>
+      </c>
+      <c r="P34" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="62">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="R34" s="57" t="str">
+        <f>IF(A34&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="59">
+        <v>1850</v>
+      </c>
+      <c r="D35" s="59">
+        <v>2040</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L35" s="67" t="str">
+        <f>VLOOKUP(M35,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="57" t="str">
+        <f>IF(A35&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O35" s="62">
+        <v>14</v>
+      </c>
+      <c r="P35" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R35" s="57" t="str">
+        <f>IF(A35&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I22">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J26">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I26">
     <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J30">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J35">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I35">
+    <cfRule type="duplicateValues" dxfId="5" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:J35">
+    <cfRule type="duplicateValues" dxfId="4" priority="51"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1328FB45-48E8-42D0-BCFD-96E45F3C2DA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{003FB748-6612-445C-854F-26E4E261A3CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="4-5" sheetId="6" r:id="rId5"/>
     <sheet name="4-6" sheetId="7" r:id="rId6"/>
     <sheet name="4-7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId9"/>
+    <sheet name="4-8" sheetId="9" r:id="rId8"/>
+    <sheet name="4-9" sheetId="10" r:id="rId9"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="194">
   <si>
     <t>王成</t>
   </si>
@@ -666,6 +667,38 @@
   </si>
   <si>
     <t>WW0017903</t>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076491</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19991</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028628</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18780</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024186</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029882</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1199,7 +1232,55 @@
     <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -1669,6 +1750,7 @@
       <sheetName val="4-6"/>
       <sheetName val="4-7"/>
       <sheetName val="4-8"/>
+      <sheetName val="4-9"/>
       <sheetName val="ch"/>
       <sheetName val="Sheet2"/>
       <sheetName val="汇总明线"/>
@@ -1682,7 +1764,8 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="A1" t="str">
             <v>陈和敏</v>
@@ -1940,8 +2023,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2719,6 +2802,2621 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:BH35"/>
+  <sheetViews>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+    </row>
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="19">
+        <v>14</v>
+      </c>
+      <c r="P2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>14</v>
+      </c>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="19">
+        <v>14</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>14</v>
+      </c>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="19">
+        <v>14</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>14</v>
+      </c>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="19">
+        <v>14</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>14</v>
+      </c>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.62430555555555556</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="19">
+        <v>14</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>14</v>
+      </c>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>43191</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="19">
+        <v>14</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>14</v>
+      </c>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1210</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1343</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="62">
+        <v>14</v>
+      </c>
+      <c r="P8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="62">
+        <v>14</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+      <c r="AP8" s="34"/>
+      <c r="AQ8" s="34"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="34"/>
+      <c r="AU8" s="34"/>
+      <c r="AV8" s="34"/>
+      <c r="AW8" s="34"/>
+      <c r="AX8" s="34"/>
+      <c r="AY8" s="34"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="34"/>
+      <c r="BB8" s="34"/>
+      <c r="BC8" s="34"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="34"/>
+      <c r="BF8" s="34"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="34"/>
+    </row>
+    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1618</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1755</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="62">
+        <v>14</v>
+      </c>
+      <c r="P9" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="62">
+        <v>14</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+    </row>
+    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1900</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2115</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="62">
+        <v>14</v>
+      </c>
+      <c r="P10" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>14</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+    </row>
+    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1929</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2123</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="62">
+        <v>14</v>
+      </c>
+      <c r="P11" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>14</v>
+      </c>
+      <c r="R11" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+    </row>
+    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
+        <v>43192</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1140</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1331</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="62">
+        <v>14</v>
+      </c>
+      <c r="P12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>14</v>
+      </c>
+      <c r="R12" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="34"/>
+      <c r="BC12" s="34"/>
+      <c r="BD12" s="34"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+    </row>
+    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="44">
+        <v>1459</v>
+      </c>
+      <c r="D13" s="44">
+        <v>1645</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="46">
+        <v>12</v>
+      </c>
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>12</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+    </row>
+    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44">
+        <v>1825</v>
+      </c>
+      <c r="D14" s="44">
+        <v>2011</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="46">
+        <v>14</v>
+      </c>
+      <c r="P14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>14</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="41"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="41"/>
+      <c r="BD14" s="41"/>
+      <c r="BE14" s="41"/>
+      <c r="BF14" s="41"/>
+      <c r="BG14" s="41"/>
+      <c r="BH14" s="41"/>
+    </row>
+    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="44">
+        <v>1929</v>
+      </c>
+      <c r="D15" s="44">
+        <v>2125</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="46">
+        <v>14</v>
+      </c>
+      <c r="P15" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>14</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+    </row>
+    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="44">
+        <v>1620</v>
+      </c>
+      <c r="D16" s="44">
+        <v>1810</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="46">
+        <v>14</v>
+      </c>
+      <c r="P16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>14</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="41"/>
+      <c r="BF16" s="41"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="41"/>
+    </row>
+    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="44">
+        <v>1920</v>
+      </c>
+      <c r="D17" s="44">
+        <v>2123</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="46">
+        <v>14</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>14</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="41"/>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="41"/>
+      <c r="BF17" s="41"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="41"/>
+    </row>
+    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="39">
+        <v>43193</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="44">
+        <v>1355</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1549</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="46">
+        <v>14</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>14</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="41"/>
+      <c r="BA18" s="41"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="41"/>
+      <c r="BE18" s="41"/>
+      <c r="BF18" s="41"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="41"/>
+    </row>
+    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="59">
+        <v>1929</v>
+      </c>
+      <c r="D19" s="59">
+        <v>2144</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="57" t="str">
+        <f t="shared" ref="K19:K30" si="0">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L19" s="67" t="str">
+        <f>VLOOKUP(M19,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AHB101</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="57" t="str">
+        <f t="shared" ref="N19:N30" si="1">IF(A19&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O19" s="62">
+        <v>8</v>
+      </c>
+      <c r="P19" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" ref="Q19:Q21" si="2">SUM(O19:P19)</f>
+        <v>8</v>
+      </c>
+      <c r="R19" s="57" t="str">
+        <f>IF(A19&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="59">
+        <v>1230</v>
+      </c>
+      <c r="D20" s="59">
+        <v>1411</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L20" s="67" t="str">
+        <f>VLOOKUP(M20,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="M20" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O20" s="62">
+        <v>14</v>
+      </c>
+      <c r="P20" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="62">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R20" s="57" t="str">
+        <f>IF(A20&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="59">
+        <v>1715</v>
+      </c>
+      <c r="D21" s="59">
+        <v>1902</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L21" s="67" t="str">
+        <f>VLOOKUP(M21,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂FJU350</v>
+      </c>
+      <c r="M21" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="N21" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O21" s="62">
+        <v>14</v>
+      </c>
+      <c r="P21" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="62">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R21" s="57" t="str">
+        <f>IF(A21&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="58">
+        <v>43194</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="59">
+        <v>1825</v>
+      </c>
+      <c r="D22" s="59">
+        <v>2027</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L22" s="67" t="str">
+        <f>VLOOKUP(M22,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="M22" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O22" s="62">
+        <v>14</v>
+      </c>
+      <c r="P22" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="62">
+        <f>SUM(O22:P22)</f>
+        <v>14</v>
+      </c>
+      <c r="R22" s="57" t="str">
+        <f>IF(A22&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="59">
+        <v>1920</v>
+      </c>
+      <c r="D23" s="59">
+        <v>2109</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L23" s="67" t="str">
+        <f>VLOOKUP(M23,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="M23" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O23" s="62">
+        <v>11</v>
+      </c>
+      <c r="P23" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="62">
+        <f t="shared" ref="Q23:Q26" si="3">SUM(O23:P23)</f>
+        <v>11</v>
+      </c>
+      <c r="R23" s="57" t="str">
+        <f t="shared" ref="R23:R26" si="4">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="59">
+        <v>1640</v>
+      </c>
+      <c r="D24" s="59">
+        <v>1835</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L24" s="67" t="str">
+        <f>VLOOKUP(M24,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="M24" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O24" s="62">
+        <v>14</v>
+      </c>
+      <c r="P24" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="62">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R24" s="57" t="str">
+        <f t="shared" si="4"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D25" s="59">
+        <v>2107</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L25" s="67" t="str">
+        <f>VLOOKUP(M25,[1]ch!$A$1:$B$31,2,0)</f>
+        <v>鄂ABY277</v>
+      </c>
+      <c r="M25" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O25" s="62">
+        <v>8</v>
+      </c>
+      <c r="P25" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="62">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="R25" s="57" t="str">
+        <f t="shared" si="4"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="58">
+        <v>43195</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="59">
+        <v>1458</v>
+      </c>
+      <c r="D26" s="59">
+        <v>1649</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L26" s="67" t="str">
+        <f>VLOOKUP(M26,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>粤BGR032</v>
+      </c>
+      <c r="M26" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O26" s="62">
+        <v>9</v>
+      </c>
+      <c r="P26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="62">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="R26" s="57" t="str">
+        <f t="shared" si="4"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="59">
+        <v>1530</v>
+      </c>
+      <c r="D27" s="59">
+        <v>1728</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L27" s="67" t="str">
+        <f>VLOOKUP(M27,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ANH299</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O27" s="62">
+        <v>14</v>
+      </c>
+      <c r="P27" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62">
+        <f>SUM(O27:P27)</f>
+        <v>14</v>
+      </c>
+      <c r="R27" s="57" t="str">
+        <f>IF(A27&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="59">
+        <v>1459</v>
+      </c>
+      <c r="D28" s="59">
+        <v>1642</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="J28" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L28" s="67" t="str">
+        <f>VLOOKUP(M28,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O28" s="62">
+        <v>11</v>
+      </c>
+      <c r="P28" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="62">
+        <f>SUM(O28:P28)</f>
+        <v>11</v>
+      </c>
+      <c r="R28" s="57" t="str">
+        <f>IF(A28&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="59">
+        <v>1929</v>
+      </c>
+      <c r="D29" s="59">
+        <v>2103</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L29" s="67" t="str">
+        <f>VLOOKUP(M29,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="M29" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O29" s="62">
+        <v>14</v>
+      </c>
+      <c r="P29" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="62">
+        <f>SUM(O29:P29)</f>
+        <v>14</v>
+      </c>
+      <c r="R29" s="57" t="str">
+        <f>IF(A29&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="58">
+        <v>43196</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D30" s="59">
+        <v>2130</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L30" s="67" t="str">
+        <f>VLOOKUP(M30,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV377</v>
+      </c>
+      <c r="M30" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O30" s="62">
+        <v>6</v>
+      </c>
+      <c r="P30" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="62">
+        <f>SUM(O30:P30)</f>
+        <v>6</v>
+      </c>
+      <c r="R30" s="57" t="str">
+        <f>IF(A30&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="59">
+        <v>1540</v>
+      </c>
+      <c r="D31" s="59">
+        <v>1718</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="57" t="str">
+        <f t="shared" ref="K31:K35" si="5">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L31" s="67" t="str">
+        <f>VLOOKUP(M31,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZV373</v>
+      </c>
+      <c r="M31" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="N31" s="57" t="str">
+        <f t="shared" ref="N31:N32" si="6">IF(A31&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O31" s="62">
+        <v>14</v>
+      </c>
+      <c r="P31" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="62">
+        <f t="shared" ref="Q31:Q35" si="7">SUM(O31:P31)</f>
+        <v>14</v>
+      </c>
+      <c r="R31" s="57" t="str">
+        <f t="shared" ref="R31:R32" si="8">IF(A31&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A32" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="59">
+        <v>1400</v>
+      </c>
+      <c r="D32" s="59">
+        <v>1526</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L32" s="67" t="str">
+        <f>VLOOKUP(M32,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="57" t="str">
+        <f t="shared" si="6"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O32" s="62">
+        <v>14</v>
+      </c>
+      <c r="P32" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R32" s="57" t="str">
+        <f t="shared" si="8"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A33" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="59">
+        <v>1840</v>
+      </c>
+      <c r="D33" s="59">
+        <v>2040</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L33" s="67" t="str">
+        <f>VLOOKUP(M33,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU151</v>
+      </c>
+      <c r="M33" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="57" t="str">
+        <f>IF(A33&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O33" s="62">
+        <v>14</v>
+      </c>
+      <c r="P33" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R33" s="57" t="str">
+        <f>IF(A33&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="59">
+        <v>1930</v>
+      </c>
+      <c r="D34" s="59">
+        <v>2115</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L34" s="67" t="str">
+        <f>VLOOKUP(M34,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="M34" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="57" t="str">
+        <f>IF(A34&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O34" s="62">
+        <v>7</v>
+      </c>
+      <c r="P34" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="62">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="R34" s="57" t="str">
+        <f>IF(A34&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="58">
+        <v>43197</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="59">
+        <v>1850</v>
+      </c>
+      <c r="D35" s="59">
+        <v>2040</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L35" s="67" t="str">
+        <f>VLOOKUP(M35,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="M35" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="57" t="str">
+        <f>IF(A35&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O35" s="62">
+        <v>14</v>
+      </c>
+      <c r="P35" s="62">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="62">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="R35" s="57" t="str">
+        <f>IF(A35&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I21">
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I22">
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I26">
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J26">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30">
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:J26">
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30">
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:J30">
+    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J35">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:I35">
+    <cfRule type="duplicateValues" dxfId="4" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:J35">
+    <cfRule type="duplicateValues" dxfId="3" priority="51"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH6"/>
@@ -4465,22 +7163,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4875,16 +7573,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5296,16 +7994,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:L5">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J5">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5784,16 +8482,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5803,8 +8501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73A938-33D7-4813-B8D6-1224ADDF80F7}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6269,2632 +8967,428 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:BH35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D937CDF1-F200-43AE-9A28-3416BE150D25}">
+  <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
+        <v>43199</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1929</v>
+      </c>
+      <c r="D2" s="59">
+        <v>2105</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="57" t="str">
+        <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="67" t="str">
+        <f>VLOOKUP(O2,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="57" t="str">
+        <f>IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>14</v>
+      </c>
+      <c r="R2" s="62">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.75138888888888899</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="19">
-        <v>14</v>
-      </c>
-      <c r="P2" s="19">
+      <c r="S2" s="62">
+        <f t="shared" ref="S2:S5" si="0">SUM(Q2:R2)</f>
+        <v>14</v>
+      </c>
+      <c r="T2" s="57" t="str">
+        <f t="shared" ref="T2:T5" si="1">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
+        <v>43199</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="59">
+        <v>1828</v>
+      </c>
+      <c r="D3" s="59">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="57" t="str">
+        <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="67" t="str">
+        <f>VLOOKUP(O3,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="57" t="str">
+        <f>IF(A3&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>14</v>
+      </c>
+      <c r="R3" s="62">
         <v>0</v>
       </c>
-      <c r="Q2" s="19">
-        <v>14</v>
-      </c>
-      <c r="R2" s="19"/>
+      <c r="S3" s="62">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="T3" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.7583333333333333</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="14" t="s">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
+        <v>43199</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1640</v>
+      </c>
+      <c r="D4" s="59">
+        <v>1843</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="57" t="str">
+        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="67" t="str">
+        <f>VLOOKUP(O4,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>粤BGR032</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="57" t="str">
+        <f>IF(A4&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q4" s="62">
         <v>15</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="19">
-        <v>14</v>
-      </c>
-      <c r="P3" s="19">
+      <c r="R4" s="62">
         <v>0</v>
       </c>
-      <c r="Q3" s="19">
-        <v>14</v>
-      </c>
-      <c r="R3" s="19"/>
+      <c r="S4" s="62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T4" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>分拣摆渡</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="19">
-        <v>14</v>
-      </c>
-      <c r="P4" s="19">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
+        <v>43199</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1800</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1950</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="57" t="str">
+        <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M5" s="67" t="str">
+        <f>VLOOKUP(O5,[1]ch!$A$1:$B$32,2,0)</f>
+        <v>鄂AFE237</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="P5" s="57" t="str">
+        <f>IF(A5&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>14</v>
+      </c>
+      <c r="R5" s="62">
         <v>0</v>
       </c>
-      <c r="Q4" s="19">
-        <v>14</v>
-      </c>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="19">
-        <v>14</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>14</v>
-      </c>
-      <c r="R5" s="19"/>
-    </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.62430555555555556</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="19">
-        <v>14</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>14</v>
-      </c>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>43191</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.81180555555555556</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="19">
-        <v>14</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>14</v>
-      </c>
-      <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="58">
-        <v>43192</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1210</v>
-      </c>
-      <c r="D8" s="36">
-        <v>1343</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="62">
-        <v>14</v>
-      </c>
-      <c r="P8" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="62">
-        <v>14</v>
-      </c>
-      <c r="R8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="34"/>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-    </row>
-    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="58">
-        <v>43192</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="36">
-        <v>1618</v>
-      </c>
-      <c r="D9" s="36">
-        <v>1755</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="62">
-        <v>14</v>
-      </c>
-      <c r="P9" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="62">
-        <v>14</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="34"/>
-      <c r="AK9" s="34"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
-      <c r="AP9" s="34"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="34"/>
-      <c r="AS9" s="34"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="34"/>
-      <c r="AV9" s="34"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="34"/>
-      <c r="AY9" s="34"/>
-      <c r="AZ9" s="34"/>
-      <c r="BA9" s="34"/>
-      <c r="BB9" s="34"/>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="34"/>
-      <c r="BE9" s="34"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="34"/>
-      <c r="BH9" s="34"/>
-    </row>
-    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="58">
-        <v>43192</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1900</v>
-      </c>
-      <c r="D10" s="36">
-        <v>2115</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="62">
-        <v>14</v>
-      </c>
-      <c r="P10" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="62">
-        <v>14</v>
-      </c>
-      <c r="R10" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="34"/>
-      <c r="AK10" s="34"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="34"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="34"/>
-      <c r="BC10" s="34"/>
-      <c r="BD10" s="34"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-    </row>
-    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="58">
-        <v>43192</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="36">
-        <v>1929</v>
-      </c>
-      <c r="D11" s="36">
-        <v>2123</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="62">
-        <v>14</v>
-      </c>
-      <c r="P11" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="62">
-        <v>14</v>
-      </c>
-      <c r="R11" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-    </row>
-    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="58">
-        <v>43192</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1140</v>
-      </c>
-      <c r="D12" s="36">
-        <v>1331</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="62">
-        <v>14</v>
-      </c>
-      <c r="P12" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="62">
-        <v>14</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="34"/>
-      <c r="BC12" s="34"/>
-      <c r="BD12" s="34"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-    </row>
-    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="39">
-        <v>43193</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="44">
-        <v>1459</v>
-      </c>
-      <c r="D13" s="44">
-        <v>1645</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="46">
-        <v>12</v>
-      </c>
-      <c r="P13" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="46">
-        <v>12</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-    </row>
-    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="39">
-        <v>43193</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="44">
-        <v>1825</v>
-      </c>
-      <c r="D14" s="44">
-        <v>2011</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="46">
-        <v>14</v>
-      </c>
-      <c r="P14" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="46">
-        <v>14</v>
-      </c>
-      <c r="R14" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-    </row>
-    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="39">
-        <v>43193</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="44">
-        <v>1929</v>
-      </c>
-      <c r="D15" s="44">
-        <v>2125</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="46">
-        <v>14</v>
-      </c>
-      <c r="P15" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="46">
-        <v>14</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-    </row>
-    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="39">
-        <v>43193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="44">
-        <v>1620</v>
-      </c>
-      <c r="D16" s="44">
-        <v>1810</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="46">
-        <v>14</v>
-      </c>
-      <c r="P16" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="46">
-        <v>14</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="41"/>
-    </row>
-    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="39">
-        <v>43193</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="44">
-        <v>1920</v>
-      </c>
-      <c r="D17" s="44">
-        <v>2123</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="46">
-        <v>14</v>
-      </c>
-      <c r="P17" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="46">
-        <v>14</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="41"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="41"/>
-    </row>
-    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="39">
-        <v>43193</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="44">
-        <v>1355</v>
-      </c>
-      <c r="D18" s="44">
-        <v>1549</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="46">
-        <v>14</v>
-      </c>
-      <c r="P18" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>14</v>
-      </c>
-      <c r="R18" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="41"/>
-    </row>
-    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="58">
-        <v>43194</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="59">
-        <v>1929</v>
-      </c>
-      <c r="D19" s="59">
-        <v>2144</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="57" t="str">
-        <f t="shared" ref="K19:K30" si="0">IF(A19&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L19" s="67" t="str">
-        <f>VLOOKUP(M19,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AHB101</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" s="57" t="str">
-        <f t="shared" ref="N19:N30" si="1">IF(A19&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="O19" s="62">
-        <v>8</v>
-      </c>
-      <c r="P19" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="62">
-        <f t="shared" ref="Q19:Q21" si="2">SUM(O19:P19)</f>
-        <v>8</v>
-      </c>
-      <c r="R19" s="57" t="str">
-        <f>IF(A19&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="58">
-        <v>43194</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="59">
-        <v>1230</v>
-      </c>
-      <c r="D20" s="59">
-        <v>1411</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" s="57" t="str">
+      <c r="S5" s="62">
         <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L20" s="67" t="str">
-        <f>VLOOKUP(M20,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="M20" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="57" t="str">
+        <v>14</v>
+      </c>
+      <c r="T5" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O20" s="62">
-        <v>14</v>
-      </c>
-      <c r="P20" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="62">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="R20" s="57" t="str">
-        <f>IF(A20&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="58">
-        <v>43194</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="59">
-        <v>1715</v>
-      </c>
-      <c r="D21" s="59">
-        <v>1902</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="J21" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L21" s="67" t="str">
-        <f>VLOOKUP(M21,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂FJU350</v>
-      </c>
-      <c r="M21" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O21" s="62">
-        <v>14</v>
-      </c>
-      <c r="P21" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="62">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="R21" s="57" t="str">
-        <f>IF(A21&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="58">
-        <v>43194</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="59">
-        <v>1825</v>
-      </c>
-      <c r="D22" s="59">
-        <v>2027</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="K22" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L22" s="67" t="str">
-        <f>VLOOKUP(M22,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ALU291</v>
-      </c>
-      <c r="M22" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="N22" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O22" s="62">
-        <v>14</v>
-      </c>
-      <c r="P22" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="62">
-        <f>SUM(O22:P22)</f>
-        <v>14</v>
-      </c>
-      <c r="R22" s="57" t="str">
-        <f>IF(A22&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="58">
-        <v>43195</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="59">
-        <v>1920</v>
-      </c>
-      <c r="D23" s="59">
-        <v>2109</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L23" s="67" t="str">
-        <f>VLOOKUP(M23,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="M23" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O23" s="62">
-        <v>11</v>
-      </c>
-      <c r="P23" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="62">
-        <f t="shared" ref="Q23:Q26" si="3">SUM(O23:P23)</f>
-        <v>11</v>
-      </c>
-      <c r="R23" s="57" t="str">
-        <f t="shared" ref="R23:R26" si="4">IF(A23&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="58">
-        <v>43195</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="59">
-        <v>1640</v>
-      </c>
-      <c r="D24" s="59">
-        <v>1835</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L24" s="67" t="str">
-        <f>VLOOKUP(M24,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="M24" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="N24" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O24" s="62">
-        <v>14</v>
-      </c>
-      <c r="P24" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="62">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="R24" s="57" t="str">
-        <f t="shared" si="4"/>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="58">
-        <v>43195</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="59">
-        <v>1930</v>
-      </c>
-      <c r="D25" s="59">
-        <v>2107</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L25" s="67" t="str">
-        <f>VLOOKUP(M25,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂ABY277</v>
-      </c>
-      <c r="M25" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="N25" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O25" s="62">
-        <v>8</v>
-      </c>
-      <c r="P25" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="62">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="R25" s="57" t="str">
-        <f t="shared" si="4"/>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="58">
-        <v>43195</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="59">
-        <v>1458</v>
-      </c>
-      <c r="D26" s="59">
-        <v>1649</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="J26" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L26" s="67" t="str">
-        <f>VLOOKUP(M26,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>粤BGR032</v>
-      </c>
-      <c r="M26" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O26" s="62">
-        <v>9</v>
-      </c>
-      <c r="P26" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="62">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="R26" s="57" t="str">
-        <f t="shared" si="4"/>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="58">
-        <v>43196</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="59">
-        <v>1530</v>
-      </c>
-      <c r="D27" s="59">
-        <v>1728</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L27" s="67" t="str">
-        <f>VLOOKUP(M27,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ANH299</v>
-      </c>
-      <c r="M27" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O27" s="62">
-        <v>14</v>
-      </c>
-      <c r="P27" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="62">
-        <f>SUM(O27:P27)</f>
-        <v>14</v>
-      </c>
-      <c r="R27" s="57" t="str">
-        <f>IF(A27&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="58">
-        <v>43196</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="59">
-        <v>1459</v>
-      </c>
-      <c r="D28" s="59">
-        <v>1642</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L28" s="67" t="str">
-        <f>VLOOKUP(M28,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZR876</v>
-      </c>
-      <c r="M28" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="N28" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O28" s="62">
-        <v>11</v>
-      </c>
-      <c r="P28" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="62">
-        <f>SUM(O28:P28)</f>
-        <v>11</v>
-      </c>
-      <c r="R28" s="57" t="str">
-        <f>IF(A28&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="58">
-        <v>43196</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="59">
-        <v>1929</v>
-      </c>
-      <c r="D29" s="59">
-        <v>2103</v>
-      </c>
-      <c r="E29" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="J29" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L29" s="67" t="str">
-        <f>VLOOKUP(M29,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AFE237</v>
-      </c>
-      <c r="M29" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="N29" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O29" s="62">
-        <v>14</v>
-      </c>
-      <c r="P29" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="62">
-        <f>SUM(O29:P29)</f>
-        <v>14</v>
-      </c>
-      <c r="R29" s="57" t="str">
-        <f>IF(A29&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="58">
-        <v>43196</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="59">
-        <v>1930</v>
-      </c>
-      <c r="D30" s="59">
-        <v>2130</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K30" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L30" s="67" t="str">
-        <f>VLOOKUP(M30,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZV377</v>
-      </c>
-      <c r="M30" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="N30" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O30" s="62">
-        <v>6</v>
-      </c>
-      <c r="P30" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="62">
-        <f>SUM(O30:P30)</f>
-        <v>6</v>
-      </c>
-      <c r="R30" s="57" t="str">
-        <f>IF(A30&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="58">
-        <v>43197</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="59">
-        <v>1540</v>
-      </c>
-      <c r="D31" s="59">
-        <v>1718</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="57" t="str">
-        <f t="shared" ref="K31:K35" si="5">IF(A31&lt;&gt;"","武汉威伟机械","------")</f>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L31" s="67" t="str">
-        <f>VLOOKUP(M31,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZV373</v>
-      </c>
-      <c r="M31" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" s="57" t="str">
-        <f t="shared" ref="N31:N32" si="6">IF(A31&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="O31" s="62">
-        <v>14</v>
-      </c>
-      <c r="P31" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="62">
-        <f t="shared" ref="Q31:Q35" si="7">SUM(O31:P31)</f>
-        <v>14</v>
-      </c>
-      <c r="R31" s="57" t="str">
-        <f t="shared" ref="R31:R32" si="8">IF(A31&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="58">
-        <v>43197</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="59">
-        <v>1400</v>
-      </c>
-      <c r="D32" s="59">
-        <v>1526</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="J32" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="K32" s="57" t="str">
-        <f t="shared" si="5"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L32" s="67" t="str">
-        <f>VLOOKUP(M32,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AQQ353</v>
-      </c>
-      <c r="M32" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="N32" s="57" t="str">
-        <f t="shared" si="6"/>
-        <v>9.6米</v>
-      </c>
-      <c r="O32" s="62">
-        <v>14</v>
-      </c>
-      <c r="P32" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="62">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="R32" s="57" t="str">
-        <f t="shared" si="8"/>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="58">
-        <v>43197</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="59">
-        <v>1840</v>
-      </c>
-      <c r="D33" s="59">
-        <v>2040</v>
-      </c>
-      <c r="E33" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="K33" s="57" t="str">
-        <f t="shared" si="5"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L33" s="67" t="str">
-        <f>VLOOKUP(M33,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ALU151</v>
-      </c>
-      <c r="M33" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="N33" s="57" t="str">
-        <f>IF(A33&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="O33" s="62">
-        <v>14</v>
-      </c>
-      <c r="P33" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="62">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="R33" s="57" t="str">
-        <f>IF(A33&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="58">
-        <v>43197</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="59">
-        <v>1930</v>
-      </c>
-      <c r="D34" s="59">
-        <v>2115</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="J34" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" s="57" t="str">
-        <f t="shared" si="5"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L34" s="67" t="str">
-        <f>VLOOKUP(M34,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AAW309</v>
-      </c>
-      <c r="M34" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="N34" s="57" t="str">
-        <f>IF(A34&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="O34" s="62">
-        <v>7</v>
-      </c>
-      <c r="P34" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="62">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="R34" s="57" t="str">
-        <f>IF(A34&lt;&gt;"","分拣摆渡","----")</f>
-        <v>分拣摆渡</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="58">
-        <v>43197</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="59">
-        <v>1850</v>
-      </c>
-      <c r="D35" s="59">
-        <v>2040</v>
-      </c>
-      <c r="E35" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="57" t="str">
-        <f t="shared" si="5"/>
-        <v>武汉威伟机械</v>
-      </c>
-      <c r="L35" s="67" t="str">
-        <f>VLOOKUP(M35,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ABY256</v>
-      </c>
-      <c r="M35" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="N35" s="57" t="str">
-        <f>IF(A35&lt;&gt;"","9.6米","--")</f>
-        <v>9.6米</v>
-      </c>
-      <c r="O35" s="62">
-        <v>14</v>
-      </c>
-      <c r="P35" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="62">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="R35" s="57" t="str">
-        <f>IF(A35&lt;&gt;"","分拣摆渡","----")</f>
         <v>分拣摆渡</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+  <conditionalFormatting sqref="K2:K5">
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+  <conditionalFormatting sqref="I1:K1">
+    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I21">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+  <conditionalFormatting sqref="I2:K5">
+    <cfRule type="duplicateValues" dxfId="1" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J21">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I22">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J26">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J30">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J35">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:I35">
-    <cfRule type="duplicateValues" dxfId="5" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:J35">
-    <cfRule type="duplicateValues" dxfId="4" priority="51"/>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{003FB748-6612-445C-854F-26E4E261A3CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -22,17 +16,18 @@
     <sheet name="4-7" sheetId="8" r:id="rId7"/>
     <sheet name="4-8" sheetId="9" r:id="rId8"/>
     <sheet name="4-9" sheetId="10" r:id="rId9"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId10"/>
+    <sheet name="4-10" sheetId="11" r:id="rId10"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="214">
   <si>
     <t>王成</t>
   </si>
@@ -699,18 +694,78 @@
   <si>
     <t>0029882</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单单号1</t>
+  </si>
+  <si>
+    <t>车牌号（公式）</t>
+  </si>
+  <si>
+    <t>武汉丰树外单分拣</t>
+  </si>
+  <si>
+    <t>16183</t>
+  </si>
+  <si>
+    <t>0024223</t>
+  </si>
+  <si>
+    <t>19640</t>
+  </si>
+  <si>
+    <t>0029924</t>
+  </si>
+  <si>
+    <t>鄂AMR731</t>
+  </si>
+  <si>
+    <t>喻海涛</t>
+  </si>
+  <si>
+    <t>19992</t>
+  </si>
+  <si>
+    <t>0028629</t>
+  </si>
+  <si>
+    <t>19641</t>
+  </si>
+  <si>
+    <t>0029923</t>
+  </si>
+  <si>
+    <t>潘涛</t>
+  </si>
+  <si>
+    <t>崔义鹏</t>
+  </si>
+  <si>
+    <t>武汉公共平台6号库</t>
+  </si>
+  <si>
+    <t>16729</t>
+  </si>
+  <si>
+    <t>0028670</t>
+  </si>
+  <si>
+    <t>粤BES791</t>
+  </si>
+  <si>
+    <t>毛向飞</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,7 +972,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,8 +1036,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,29 +1272,77 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2" xfId="21"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 3 2" xfId="16"/>
+    <cellStyle name="常规 2 4" xfId="12"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 3 2" xfId="9"/>
+    <cellStyle name="常规 3 2 2" xfId="17"/>
+    <cellStyle name="常规 3 3" xfId="13"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 4 2" xfId="14"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 5 2" xfId="15"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 7" xfId="10"/>
+    <cellStyle name="常规 7 2" xfId="22"/>
+    <cellStyle name="常规 8" xfId="11"/>
+    <cellStyle name="常规 8 2" xfId="20"/>
+    <cellStyle name="常规 8 3" xfId="18"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="常规 9 2" xfId="19"/>
+    <cellStyle name="常规 9 2 2" xfId="23"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -1727,19 +1839,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -2031,7 +2135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2073,7 +2177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2105,27 +2209,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2157,24 +2243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2350,14 +2418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -2374,7 +2442,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -2472,7 +2540,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -2526,7 +2594,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -2580,7 +2648,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -2634,7 +2702,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -2688,7 +2756,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -2742,7 +2810,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -2803,14 +2871,673 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15">
+      <c r="A1" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75">
+      <c r="A2" s="78">
+        <v>43200</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="79">
+        <v>1650</v>
+      </c>
+      <c r="D2" s="79">
+        <v>1834</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="79"/>
+      <c r="L2" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="81">
+        <v>14</v>
+      </c>
+      <c r="S2" s="81">
+        <v>0</v>
+      </c>
+      <c r="T2" s="81">
+        <v>14</v>
+      </c>
+      <c r="U2" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="88"/>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+    </row>
+    <row r="3" spans="1:63" ht="18.75">
+      <c r="A3" s="78">
+        <v>43200</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="79">
+        <v>1750</v>
+      </c>
+      <c r="D3" s="79">
+        <v>1926</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q3" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="81">
+        <v>14</v>
+      </c>
+      <c r="S3" s="81">
+        <v>0</v>
+      </c>
+      <c r="T3" s="81">
+        <v>14</v>
+      </c>
+      <c r="U3" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="88"/>
+      <c r="BC3" s="88"/>
+      <c r="BD3" s="88"/>
+      <c r="BE3" s="88"/>
+      <c r="BF3" s="88"/>
+      <c r="BG3" s="88"/>
+      <c r="BH3" s="88"/>
+      <c r="BI3" s="88"/>
+      <c r="BJ3" s="88"/>
+      <c r="BK3" s="88"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75">
+      <c r="A4" s="78">
+        <v>43200</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="79">
+        <v>1929</v>
+      </c>
+      <c r="D4" s="79">
+        <v>2108</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="81">
+        <v>11</v>
+      </c>
+      <c r="S4" s="81">
+        <v>0</v>
+      </c>
+      <c r="T4" s="81">
+        <v>11</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+    </row>
+    <row r="5" spans="1:63" ht="18.75">
+      <c r="A5" s="78">
+        <v>43200</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="79">
+        <v>1902</v>
+      </c>
+      <c r="D5" s="79">
+        <v>2044</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="79"/>
+      <c r="L5" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="81">
+        <v>11</v>
+      </c>
+      <c r="S5" s="81">
+        <v>0</v>
+      </c>
+      <c r="T5" s="81">
+        <v>11</v>
+      </c>
+      <c r="U5" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+    </row>
+    <row r="6" spans="1:63" ht="18.75">
+      <c r="A6" s="78">
+        <v>43200</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="79">
+        <v>1920</v>
+      </c>
+      <c r="D6" s="79">
+        <v>2106</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="79"/>
+      <c r="L6" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="81">
+        <v>8</v>
+      </c>
+      <c r="S6" s="81">
+        <v>0</v>
+      </c>
+      <c r="T6" s="81">
+        <v>8</v>
+      </c>
+      <c r="U6" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH35"/>
   <sheetViews>
     <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -2828,7 +3555,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -2926,7 +3653,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -2980,7 +3707,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -3034,7 +3761,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -3088,7 +3815,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -3142,7 +3869,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -3196,7 +3923,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -3250,7 +3977,7 @@
       </c>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A8" s="58">
         <v>43192</v>
       </c>
@@ -3348,7 +4075,7 @@
       <c r="BG8" s="34"/>
       <c r="BH8" s="34"/>
     </row>
-    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A9" s="58">
         <v>43192</v>
       </c>
@@ -3446,7 +4173,7 @@
       <c r="BG9" s="34"/>
       <c r="BH9" s="34"/>
     </row>
-    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A10" s="58">
         <v>43192</v>
       </c>
@@ -3544,7 +4271,7 @@
       <c r="BG10" s="34"/>
       <c r="BH10" s="34"/>
     </row>
-    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A11" s="58">
         <v>43192</v>
       </c>
@@ -3642,7 +4369,7 @@
       <c r="BG11" s="34"/>
       <c r="BH11" s="34"/>
     </row>
-    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A12" s="58">
         <v>43192</v>
       </c>
@@ -3740,7 +4467,7 @@
       <c r="BG12" s="34"/>
       <c r="BH12" s="34"/>
     </row>
-    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A13" s="39">
         <v>43193</v>
       </c>
@@ -3838,7 +4565,7 @@
       <c r="BG13" s="41"/>
       <c r="BH13" s="41"/>
     </row>
-    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A14" s="39">
         <v>43193</v>
       </c>
@@ -3936,7 +4663,7 @@
       <c r="BG14" s="41"/>
       <c r="BH14" s="41"/>
     </row>
-    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A15" s="39">
         <v>43193</v>
       </c>
@@ -4034,7 +4761,7 @@
       <c r="BG15" s="41"/>
       <c r="BH15" s="41"/>
     </row>
-    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A16" s="39">
         <v>43193</v>
       </c>
@@ -4132,7 +4859,7 @@
       <c r="BG16" s="41"/>
       <c r="BH16" s="41"/>
     </row>
-    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A17" s="39">
         <v>43193</v>
       </c>
@@ -4230,7 +4957,7 @@
       <c r="BG17" s="41"/>
       <c r="BH17" s="41"/>
     </row>
-    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A18" s="39">
         <v>43193</v>
       </c>
@@ -4328,7 +5055,7 @@
       <c r="BG18" s="41"/>
       <c r="BH18" s="41"/>
     </row>
-    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A19" s="58">
         <v>43194</v>
       </c>
@@ -4389,7 +5116,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A20" s="58">
         <v>43194</v>
       </c>
@@ -4450,7 +5177,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A21" s="58">
         <v>43194</v>
       </c>
@@ -4511,7 +5238,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A22" s="58">
         <v>43194</v>
       </c>
@@ -4572,7 +5299,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A23" s="58">
         <v>43195</v>
       </c>
@@ -4633,7 +5360,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A24" s="58">
         <v>43195</v>
       </c>
@@ -4694,7 +5421,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A25" s="58">
         <v>43195</v>
       </c>
@@ -4755,7 +5482,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A26" s="58">
         <v>43195</v>
       </c>
@@ -4816,7 +5543,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A27" s="58">
         <v>43196</v>
       </c>
@@ -4877,7 +5604,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A28" s="58">
         <v>43196</v>
       </c>
@@ -4938,7 +5665,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A29" s="58">
         <v>43196</v>
       </c>
@@ -4999,7 +5726,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A30" s="58">
         <v>43196</v>
       </c>
@@ -5060,7 +5787,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A31" s="58">
         <v>43197</v>
       </c>
@@ -5121,7 +5848,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A32" s="58">
         <v>43197</v>
       </c>
@@ -5182,7 +5909,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75">
       <c r="A33" s="58">
         <v>43197</v>
       </c>
@@ -5243,7 +5970,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75">
       <c r="A34" s="58">
         <v>43197</v>
       </c>
@@ -5304,7 +6031,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75">
       <c r="A35" s="58">
         <v>43197</v>
       </c>
@@ -5368,49 +6095,49 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I22">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J26">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J30">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J35">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I35">
-    <cfRule type="duplicateValues" dxfId="4" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J35">
-    <cfRule type="duplicateValues" dxfId="3" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5418,14 +6145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -5443,7 +6170,7 @@
     <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="15">
       <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
@@ -5541,7 +6268,7 @@
       <c r="BG1" s="23"/>
       <c r="BH1" s="23"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" ht="18.75">
       <c r="A2" s="29">
         <v>43192</v>
       </c>
@@ -5639,7 +6366,7 @@
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" ht="18.75">
       <c r="A3" s="29">
         <v>43192</v>
       </c>
@@ -5737,7 +6464,7 @@
       <c r="BG3" s="34"/>
       <c r="BH3" s="34"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" ht="18.75">
       <c r="A4" s="29">
         <v>43192</v>
       </c>
@@ -5835,7 +6562,7 @@
       <c r="BG4" s="34"/>
       <c r="BH4" s="34"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" ht="18.75">
       <c r="A5" s="29">
         <v>43192</v>
       </c>
@@ -5933,7 +6660,7 @@
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" ht="18.75">
       <c r="A6" s="29">
         <v>43192</v>
       </c>
@@ -6039,14 +6766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6065,7 +6792,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" ht="15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -6166,7 +6893,7 @@
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
     </row>
-    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -6265,7 +6992,7 @@
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
     </row>
-    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -6364,7 +7091,7 @@
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
     </row>
-    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -6463,7 +7190,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -6562,7 +7289,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -6661,7 +7388,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -6768,14 +7495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6796,7 +7523,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -6900,7 +7627,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43194</v>
       </c>
@@ -6965,7 +7692,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43194</v>
       </c>
@@ -7030,7 +7757,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43194</v>
       </c>
@@ -7095,7 +7822,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43194</v>
       </c>
@@ -7186,14 +7913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7214,7 +7941,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="10" customFormat="1" ht="15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -7318,7 +8045,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43195</v>
       </c>
@@ -7381,7 +8108,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43195</v>
       </c>
@@ -7444,7 +8171,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43195</v>
       </c>
@@ -7507,7 +8234,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43195</v>
       </c>
@@ -7589,14 +8316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -7620,7 +8347,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -7727,7 +8454,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43196</v>
       </c>
@@ -7793,7 +8520,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43196</v>
       </c>
@@ -7859,7 +8586,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43196</v>
       </c>
@@ -7925,7 +8652,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43196</v>
       </c>
@@ -8011,14 +8738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -8042,7 +8769,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -8149,7 +8876,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43197</v>
       </c>
@@ -8215,7 +8942,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43197</v>
       </c>
@@ -8281,7 +9008,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43197</v>
       </c>
@@ -8347,7 +9074,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43197</v>
       </c>
@@ -8413,7 +9140,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A6" s="58">
         <v>43197</v>
       </c>
@@ -8498,14 +9225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B73A938-33D7-4813-B8D6-1224ADDF80F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8527,7 +9254,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -8634,7 +9361,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43198</v>
       </c>
@@ -8700,7 +9427,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43198</v>
       </c>
@@ -8766,7 +9493,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43198</v>
       </c>
@@ -8832,7 +9559,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43198</v>
       </c>
@@ -8898,7 +9625,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A6" s="58">
         <v>43198</v>
       </c>
@@ -8983,14 +9710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D937CDF1-F200-43AE-9A28-3416BE150D25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -9011,7 +9738,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -9115,7 +9842,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43199</v>
       </c>
@@ -9180,7 +9907,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43199</v>
       </c>
@@ -9245,7 +9972,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43199</v>
       </c>
@@ -9310,7 +10037,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43199</v>
       </c>
@@ -9381,13 +10108,13 @@
     <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:K1">
-    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="1" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="54"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="4-8" sheetId="9" r:id="rId8"/>
     <sheet name="4-9" sheetId="10" r:id="rId9"/>
     <sheet name="4-10" sheetId="11" r:id="rId10"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId11"/>
+    <sheet name="4-11" sheetId="12" r:id="rId11"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="232">
   <si>
     <t>王成</t>
   </si>
@@ -754,6 +755,61 @@
   </si>
   <si>
     <t>毛向飞</t>
+  </si>
+  <si>
+    <t>委托单单号（公式）</t>
+  </si>
+  <si>
+    <t>17862</t>
+  </si>
+  <si>
+    <t>0028671</t>
+  </si>
+  <si>
+    <t>19993</t>
+  </si>
+  <si>
+    <t>0028630</t>
+  </si>
+  <si>
+    <t>17483</t>
+  </si>
+  <si>
+    <t>0029926</t>
+  </si>
+  <si>
+    <t>19847</t>
+  </si>
+  <si>
+    <t>0028672</t>
+  </si>
+  <si>
+    <t>16852</t>
+  </si>
+  <si>
+    <t>16851</t>
+  </si>
+  <si>
+    <t>0029925</t>
+  </si>
+  <si>
+    <t>委托单单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017862</t>
+  </si>
+  <si>
+    <t>WW0019993</t>
+  </si>
+  <si>
+    <t>WW0017483</t>
+  </si>
+  <si>
+    <t>WW0019847</t>
+  </si>
+  <si>
+    <t>WW0016852</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,6 +1371,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2874,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3530,6 +3637,678 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" customWidth="1"/>
+    <col min="19" max="19" width="16.875" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15">
+      <c r="A1" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="91"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
+      <c r="BJ1" s="91"/>
+      <c r="BK1" s="91"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75">
+      <c r="A2" s="93">
+        <v>43201</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="94">
+        <v>1630</v>
+      </c>
+      <c r="D2" s="94">
+        <v>1809</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" s="94"/>
+      <c r="L2" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="96">
+        <v>14</v>
+      </c>
+      <c r="S2" s="96">
+        <v>0</v>
+      </c>
+      <c r="T2" s="96">
+        <v>14</v>
+      </c>
+      <c r="U2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="103"/>
+    </row>
+    <row r="3" spans="1:63" ht="18.75">
+      <c r="A3" s="93">
+        <v>43201</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="94">
+        <v>1459</v>
+      </c>
+      <c r="D3" s="94">
+        <v>1658</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="96">
+        <v>14</v>
+      </c>
+      <c r="S3" s="96">
+        <v>0</v>
+      </c>
+      <c r="T3" s="96">
+        <v>14</v>
+      </c>
+      <c r="U3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75">
+      <c r="A4" s="93">
+        <v>43201</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="94">
+        <v>1810</v>
+      </c>
+      <c r="D4" s="94">
+        <v>1943</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="96">
+        <v>14</v>
+      </c>
+      <c r="S4" s="96">
+        <v>0</v>
+      </c>
+      <c r="T4" s="96">
+        <v>14</v>
+      </c>
+      <c r="U4" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="103"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103"/>
+      <c r="AZ4" s="103"/>
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="103"/>
+      <c r="BG4" s="103"/>
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+    </row>
+    <row r="5" spans="1:63" ht="18.75">
+      <c r="A5" s="93">
+        <v>43201</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="94">
+        <v>1920</v>
+      </c>
+      <c r="D5" s="94">
+        <v>2102</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="105" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="96">
+        <v>14</v>
+      </c>
+      <c r="S5" s="96">
+        <v>0</v>
+      </c>
+      <c r="T5" s="96">
+        <v>14</v>
+      </c>
+      <c r="U5" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+    </row>
+    <row r="6" spans="1:63" ht="18.75">
+      <c r="A6" s="93">
+        <v>43201</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="94">
+        <v>1929</v>
+      </c>
+      <c r="D6" s="94">
+        <v>2112</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="M6" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="96">
+        <v>9</v>
+      </c>
+      <c r="S6" s="96">
+        <v>0</v>
+      </c>
+      <c r="T6" s="96">
+        <v>9</v>
+      </c>
+      <c r="U6" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="103"/>
+      <c r="AP6" s="103"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="103"/>
+      <c r="AT6" s="103"/>
+      <c r="AU6" s="103"/>
+      <c r="AV6" s="103"/>
+      <c r="AW6" s="103"/>
+      <c r="AX6" s="103"/>
+      <c r="AY6" s="103"/>
+      <c r="AZ6" s="103"/>
+      <c r="BA6" s="103"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="103"/>
+      <c r="BE6" s="103"/>
+      <c r="BF6" s="103"/>
+      <c r="BG6" s="103"/>
+      <c r="BH6" s="103"/>
+      <c r="BI6" s="103"/>
+      <c r="BJ6" s="103"/>
+      <c r="BK6" s="103"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH35"/>
   <sheetViews>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E3F6FCF7-A2BE-4B8F-9572-21E0F2B5EF18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -18,17 +24,18 @@
     <sheet name="4-9" sheetId="10" r:id="rId9"/>
     <sheet name="4-10" sheetId="11" r:id="rId10"/>
     <sheet name="4-11" sheetId="12" r:id="rId11"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId12"/>
+    <sheet name="4-12" sheetId="13" r:id="rId12"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="247">
   <si>
     <t>王成</t>
   </si>
@@ -810,18 +817,74 @@
   </si>
   <si>
     <t>WW0016852</t>
+  </si>
+  <si>
+    <t>委托单单号（公式）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16184</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024224</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16853</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029887</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻海涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16734</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029914</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛向飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18070</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0029939</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016184</t>
+  </si>
+  <si>
+    <t>WW0016853</t>
+  </si>
+  <si>
+    <t>WW0016734</t>
+  </si>
+  <si>
+    <t>WW0018070</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,31 +1490,31 @@
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 2 2 2" xfId="21"/>
-    <cellStyle name="常规 2 3" xfId="8"/>
-    <cellStyle name="常规 2 3 2" xfId="16"/>
-    <cellStyle name="常规 2 4" xfId="12"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 3 2" xfId="9"/>
-    <cellStyle name="常规 3 2 2" xfId="17"/>
-    <cellStyle name="常规 3 3" xfId="13"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 4 2" xfId="14"/>
-    <cellStyle name="常规 5" xfId="7"/>
-    <cellStyle name="常规 5 2" xfId="15"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 7" xfId="10"/>
-    <cellStyle name="常规 7 2" xfId="22"/>
-    <cellStyle name="常规 8" xfId="11"/>
-    <cellStyle name="常规 8 2" xfId="20"/>
-    <cellStyle name="常规 8 3" xfId="18"/>
-    <cellStyle name="常规 9" xfId="1"/>
-    <cellStyle name="常规 9 2" xfId="19"/>
-    <cellStyle name="常规 9 2 2" xfId="23"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 7 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 9 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="49">
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -1570,6 +1633,100 @@
             <color rgb="FFFFC000"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1946,11 +2103,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -1962,6 +2127,9 @@
       <sheetName val="4-7"/>
       <sheetName val="4-8"/>
       <sheetName val="4-9"/>
+      <sheetName val="4-10"/>
+      <sheetName val="4-11"/>
+      <sheetName val="4-12"/>
       <sheetName val="ch"/>
       <sheetName val="Sheet2"/>
       <sheetName val="汇总明线"/>
@@ -1976,7 +2144,10 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
             <v>陈和敏</v>
@@ -1995,7 +2166,7 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>杨勇</v>
+            <v>危志坤</v>
           </cell>
           <cell r="B3" t="str">
             <v>鄂ANH299</v>
@@ -2233,16 +2404,32 @@
             <v>粤BGR032</v>
           </cell>
         </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>毛向飞</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>粤BES791</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>喻海涛</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>鄂AMR731</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2284,7 +2471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2316,9 +2503,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2350,6 +2555,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2525,14 +2748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -2549,7 +2772,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.5" customHeight="1">
+    <row r="1" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -2647,7 +2870,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -2701,7 +2924,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -2755,7 +2978,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -2809,7 +3032,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -2863,7 +3086,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -2917,7 +3140,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -2978,14 +3201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -3007,7 +3230,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>36</v>
       </c>
@@ -3114,7 +3337,7 @@
       <c r="BJ1" s="76"/>
       <c r="BK1" s="76"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="78">
         <v>43200</v>
       </c>
@@ -3217,7 +3440,7 @@
       <c r="BJ2" s="88"/>
       <c r="BK2" s="88"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="78">
         <v>43200</v>
       </c>
@@ -3320,7 +3543,7 @@
       <c r="BJ3" s="88"/>
       <c r="BK3" s="88"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="78">
         <v>43200</v>
       </c>
@@ -3423,7 +3646,7 @@
       <c r="BJ4" s="88"/>
       <c r="BK4" s="88"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="78">
         <v>43200</v>
       </c>
@@ -3526,7 +3749,7 @@
       <c r="BJ5" s="88"/>
       <c r="BK5" s="88"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="78">
         <v>43200</v>
       </c>
@@ -3637,14 +3860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -3667,7 +3890,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -3774,7 +3997,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="93">
         <v>43201</v>
       </c>
@@ -3879,7 +4102,7 @@
       <c r="BJ2" s="103"/>
       <c r="BK2" s="103"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="93">
         <v>43201</v>
       </c>
@@ -3984,7 +4207,7 @@
       <c r="BJ3" s="103"/>
       <c r="BK3" s="103"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="93">
         <v>43201</v>
       </c>
@@ -4089,7 +4312,7 @@
       <c r="BJ4" s="103"/>
       <c r="BK4" s="103"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="93">
         <v>43201</v>
       </c>
@@ -4194,7 +4417,7 @@
       <c r="BJ5" s="103"/>
       <c r="BK5" s="103"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="93">
         <v>43201</v>
       </c>
@@ -4309,14 +4532,453 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636C0F04-1D0E-4075-83A4-3E16DD8CA478}">
+  <dimension ref="A1:BK5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="99" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="91"/>
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="91"/>
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="91"/>
+      <c r="BI1" s="91"/>
+      <c r="BJ1" s="91"/>
+      <c r="BK1" s="91"/>
+    </row>
+    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="93">
+        <v>43202</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="94">
+        <v>1845</v>
+      </c>
+      <c r="D2" s="94">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="94"/>
+      <c r="L2" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" s="92" t="str">
+        <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N2" s="101" t="str">
+        <f>VLOOKUP(P2,[1]ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AQQ353</v>
+      </c>
+      <c r="O2" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="92" t="str">
+        <f>IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R2" s="96">
+        <v>14</v>
+      </c>
+      <c r="S2" s="96">
+        <v>0</v>
+      </c>
+      <c r="T2" s="96">
+        <f t="shared" ref="T2:T5" si="0">SUM(R2:S2)</f>
+        <v>14</v>
+      </c>
+      <c r="U2" s="92" t="str">
+        <f t="shared" ref="U2:U5" si="1">IF(A2&lt;&gt;"","分拣摆渡","----")</f>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="93">
+        <v>43202</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="94">
+        <v>1924</v>
+      </c>
+      <c r="D3" s="94">
+        <v>2108</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="94" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3" s="92" t="str">
+        <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N3" s="101" t="str">
+        <f>VLOOKUP(P3,[1]ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AMR731</v>
+      </c>
+      <c r="O3" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="92" t="str">
+        <f>IF(A3&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R3" s="96">
+        <v>14</v>
+      </c>
+      <c r="S3" s="96">
+        <v>0</v>
+      </c>
+      <c r="T3" s="96">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="U3" s="92" t="str">
+        <f t="shared" si="1"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="93">
+        <v>43202</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="94">
+        <v>1929</v>
+      </c>
+      <c r="D4" s="94">
+        <v>2115</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="L4" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="92" t="str">
+        <f>IF(A4&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N4" s="101" t="str">
+        <f>VLOOKUP(P4,[1]ch!$A$1:$B$34,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="92" t="str">
+        <f>IF(A4&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R4" s="96">
+        <v>9</v>
+      </c>
+      <c r="S4" s="96">
+        <v>0</v>
+      </c>
+      <c r="T4" s="96">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="U4" s="92" t="str">
+        <f t="shared" si="1"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="93">
+        <v>43202</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="94">
+        <v>1740</v>
+      </c>
+      <c r="D5" s="94">
+        <v>1920</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="94" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="94"/>
+      <c r="L5" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="M5" s="92" t="str">
+        <f>IF(A5&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="N5" s="101" t="str">
+        <f>VLOOKUP(P5,[1]ch!$A$1:$B$34,2,0)</f>
+        <v>鄂AAW309</v>
+      </c>
+      <c r="O5" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="P5" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="92" t="str">
+        <f>IF(A5&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="R5" s="96">
+        <v>14</v>
+      </c>
+      <c r="S5" s="96">
+        <v>0</v>
+      </c>
+      <c r="T5" s="96">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="U5" s="92" t="str">
+        <f t="shared" si="1"/>
+        <v>分拣摆渡</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="K2:L5 I2:I5">
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L5">
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J5">
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I5">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:L1">
+    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BH35"/>
   <sheetViews>
     <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -4334,7 +4996,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +5094,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -4486,7 +5148,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -4540,7 +5202,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -4594,7 +5256,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -4648,7 +5310,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -4702,7 +5364,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -4756,7 +5418,7 @@
       </c>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75">
+    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="58">
         <v>43192</v>
       </c>
@@ -4854,7 +5516,7 @@
       <c r="BG8" s="34"/>
       <c r="BH8" s="34"/>
     </row>
-    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75">
+    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="58">
         <v>43192</v>
       </c>
@@ -4952,7 +5614,7 @@
       <c r="BG9" s="34"/>
       <c r="BH9" s="34"/>
     </row>
-    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75">
+    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="58">
         <v>43192</v>
       </c>
@@ -5050,7 +5712,7 @@
       <c r="BG10" s="34"/>
       <c r="BH10" s="34"/>
     </row>
-    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75">
+    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="58">
         <v>43192</v>
       </c>
@@ -5148,7 +5810,7 @@
       <c r="BG11" s="34"/>
       <c r="BH11" s="34"/>
     </row>
-    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75">
+    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="58">
         <v>43192</v>
       </c>
@@ -5246,7 +5908,7 @@
       <c r="BG12" s="34"/>
       <c r="BH12" s="34"/>
     </row>
-    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75">
+    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="39">
         <v>43193</v>
       </c>
@@ -5344,7 +6006,7 @@
       <c r="BG13" s="41"/>
       <c r="BH13" s="41"/>
     </row>
-    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75">
+    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="39">
         <v>43193</v>
       </c>
@@ -5442,7 +6104,7 @@
       <c r="BG14" s="41"/>
       <c r="BH14" s="41"/>
     </row>
-    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75">
+    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="39">
         <v>43193</v>
       </c>
@@ -5540,7 +6202,7 @@
       <c r="BG15" s="41"/>
       <c r="BH15" s="41"/>
     </row>
-    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75">
+    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="39">
         <v>43193</v>
       </c>
@@ -5638,7 +6300,7 @@
       <c r="BG16" s="41"/>
       <c r="BH16" s="41"/>
     </row>
-    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75">
+    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="39">
         <v>43193</v>
       </c>
@@ -5736,7 +6398,7 @@
       <c r="BG17" s="41"/>
       <c r="BH17" s="41"/>
     </row>
-    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75">
+    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="39">
         <v>43193</v>
       </c>
@@ -5834,7 +6496,7 @@
       <c r="BG18" s="41"/>
       <c r="BH18" s="41"/>
     </row>
-    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="58">
         <v>43194</v>
       </c>
@@ -5895,7 +6557,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="58">
         <v>43194</v>
       </c>
@@ -5956,7 +6618,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="58">
         <v>43194</v>
       </c>
@@ -6017,7 +6679,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="58">
         <v>43194</v>
       </c>
@@ -6078,7 +6740,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="58">
         <v>43195</v>
       </c>
@@ -6139,7 +6801,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="58">
         <v>43195</v>
       </c>
@@ -6200,7 +6862,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="58">
         <v>43195</v>
       </c>
@@ -6261,7 +6923,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="58">
         <v>43195</v>
       </c>
@@ -6322,7 +6984,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="58">
         <v>43196</v>
       </c>
@@ -6357,9 +7019,9 @@
         <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="L27" s="67" t="str">
+      <c r="L27" s="67" t="e">
         <f>VLOOKUP(M27,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ANH299</v>
+        <v>#N/A</v>
       </c>
       <c r="M27" s="68" t="s">
         <v>123</v>
@@ -6383,7 +7045,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="58">
         <v>43196</v>
       </c>
@@ -6444,7 +7106,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="58">
         <v>43196</v>
       </c>
@@ -6505,7 +7167,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="58">
         <v>43196</v>
       </c>
@@ -6566,7 +7228,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="58">
         <v>43197</v>
       </c>
@@ -6627,7 +7289,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75">
+    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="58">
         <v>43197</v>
       </c>
@@ -6688,7 +7350,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75">
+    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="58">
         <v>43197</v>
       </c>
@@ -6749,7 +7411,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75">
+    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="58">
         <v>43197</v>
       </c>
@@ -6810,7 +7472,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75">
+    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="58">
         <v>43197</v>
       </c>
@@ -6874,49 +7536,49 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I22">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J26">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J35">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I35">
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J35">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="51"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6924,14 +7586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6949,7 +7611,7 @@
     <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15">
+    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
@@ -7047,7 +7709,7 @@
       <c r="BG1" s="23"/>
       <c r="BH1" s="23"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75">
+    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="29">
         <v>43192</v>
       </c>
@@ -7145,7 +7807,7 @@
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75">
+    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>43192</v>
       </c>
@@ -7243,7 +7905,7 @@
       <c r="BG3" s="34"/>
       <c r="BH3" s="34"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75">
+    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>43192</v>
       </c>
@@ -7341,7 +8003,7 @@
       <c r="BG4" s="34"/>
       <c r="BH4" s="34"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75">
+    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>43192</v>
       </c>
@@ -7439,7 +8101,7 @@
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75">
+    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>43192</v>
       </c>
@@ -7545,14 +8207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7571,7 +8233,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -7672,7 +8334,7 @@
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
     </row>
-    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -7771,7 +8433,7 @@
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
     </row>
-    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -7870,7 +8532,7 @@
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
     </row>
-    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -7969,7 +8631,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -8068,7 +8730,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -8167,7 +8829,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -8274,14 +8936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8302,7 +8964,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -8406,7 +9068,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43194</v>
       </c>
@@ -8471,7 +9133,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43194</v>
       </c>
@@ -8536,7 +9198,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43194</v>
       </c>
@@ -8601,7 +9263,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43194</v>
       </c>
@@ -8669,22 +9331,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8692,14 +9354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8720,7 +9382,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="15">
+    <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -8824,7 +9486,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43195</v>
       </c>
@@ -8887,7 +9549,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43195</v>
       </c>
@@ -8950,7 +9612,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43195</v>
       </c>
@@ -9013,7 +9675,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43195</v>
       </c>
@@ -9079,30 +9741,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -9126,7 +9788,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -9233,7 +9895,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43196</v>
       </c>
@@ -9272,9 +9934,9 @@
         <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N2" s="67" t="str">
+      <c r="N2" s="67" t="e">
         <f>VLOOKUP(P2,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂ANH299</v>
+        <v>#N/A</v>
       </c>
       <c r="O2" s="59"/>
       <c r="P2" s="68" t="s">
@@ -9299,7 +9961,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43196</v>
       </c>
@@ -9365,7 +10027,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43196</v>
       </c>
@@ -9431,7 +10093,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43196</v>
       </c>
@@ -9500,16 +10162,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:L5">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J5">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9517,14 +10179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -9548,7 +10210,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -9655,7 +10317,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43197</v>
       </c>
@@ -9721,7 +10383,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43197</v>
       </c>
@@ -9787,7 +10449,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43197</v>
       </c>
@@ -9853,7 +10515,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43197</v>
       </c>
@@ -9919,7 +10581,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="58">
         <v>43197</v>
       </c>
@@ -9988,30 +10650,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -10033,7 +10695,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -10140,7 +10802,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43198</v>
       </c>
@@ -10206,7 +10868,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43198</v>
       </c>
@@ -10272,7 +10934,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43198</v>
       </c>
@@ -10338,7 +11000,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43198</v>
       </c>
@@ -10404,7 +11066,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="58">
         <v>43198</v>
       </c>
@@ -10473,30 +11135,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -10517,7 +11179,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -10621,7 +11283,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43199</v>
       </c>
@@ -10686,7 +11348,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43199</v>
       </c>
@@ -10751,7 +11413,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43199</v>
       </c>
@@ -10816,7 +11478,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43199</v>
       </c>
@@ -10884,16 +11546,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:K1">
-    <cfRule type="duplicateValues" dxfId="17" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="16" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="15" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="54"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\4月报表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E3F6FCF7-A2BE-4B8F-9572-21E0F2B5EF18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -26,16 +20,17 @@
     <sheet name="4-11" sheetId="12" r:id="rId11"/>
     <sheet name="4-12" sheetId="13" r:id="rId12"/>
     <sheet name="汇总明线" sheetId="3" r:id="rId13"/>
+    <sheet name="4-13" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="262">
   <si>
     <t>王成</t>
   </si>
@@ -873,18 +868,63 @@
   </si>
   <si>
     <t>WW0018070</t>
+  </si>
+  <si>
+    <t>吴义超</t>
+  </si>
+  <si>
+    <t>19994</t>
+  </si>
+  <si>
+    <t>0028631</t>
+  </si>
+  <si>
+    <t>16185</t>
+  </si>
+  <si>
+    <t>0021186</t>
+  </si>
+  <si>
+    <t>16855</t>
+  </si>
+  <si>
+    <t>0028674</t>
+  </si>
+  <si>
+    <t>17769</t>
+  </si>
+  <si>
+    <t>0028673</t>
+  </si>
+  <si>
+    <t>鄂AMT870</t>
+  </si>
+  <si>
+    <t>周华安</t>
+  </si>
+  <si>
+    <t>WW0019994</t>
+  </si>
+  <si>
+    <t>WW0016185</t>
+  </si>
+  <si>
+    <t>WW0016855</t>
+  </si>
+  <si>
+    <t>WW0017769</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,7 +1205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,34 +1525,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 7 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 9 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2" xfId="21"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 3 2" xfId="16"/>
+    <cellStyle name="常规 2 4" xfId="12"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 3 2" xfId="9"/>
+    <cellStyle name="常规 3 2 2" xfId="17"/>
+    <cellStyle name="常规 3 3" xfId="13"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 4 2" xfId="14"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 5 2" xfId="15"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 7" xfId="10"/>
+    <cellStyle name="常规 7 2" xfId="22"/>
+    <cellStyle name="常规 8" xfId="11"/>
+    <cellStyle name="常规 8 2" xfId="20"/>
+    <cellStyle name="常规 8 3" xfId="18"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="常规 9 2" xfId="19"/>
+    <cellStyle name="常规 9 2 2" xfId="23"/>
   </cellStyles>
   <dxfs count="49">
     <dxf>
@@ -2103,19 +2191,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -2429,7 +2509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2471,7 +2551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2503,27 +2583,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2555,24 +2617,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2748,14 +2792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -2772,7 +2816,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -2870,7 +2914,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -2924,7 +2968,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -2978,7 +3022,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -3032,7 +3076,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -3086,7 +3130,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -3140,7 +3184,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -3201,14 +3245,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -3230,7 +3274,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="83" t="s">
         <v>36</v>
       </c>
@@ -3337,7 +3381,7 @@
       <c r="BJ1" s="76"/>
       <c r="BK1" s="76"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="78">
         <v>43200</v>
       </c>
@@ -3440,7 +3484,7 @@
       <c r="BJ2" s="88"/>
       <c r="BK2" s="88"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="78">
         <v>43200</v>
       </c>
@@ -3543,7 +3587,7 @@
       <c r="BJ3" s="88"/>
       <c r="BK3" s="88"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="78">
         <v>43200</v>
       </c>
@@ -3646,7 +3690,7 @@
       <c r="BJ4" s="88"/>
       <c r="BK4" s="88"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="78">
         <v>43200</v>
       </c>
@@ -3749,7 +3793,7 @@
       <c r="BJ5" s="88"/>
       <c r="BK5" s="88"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="18.75">
       <c r="A6" s="78">
         <v>43200</v>
       </c>
@@ -3860,14 +3904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -3890,7 +3934,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -3997,7 +4041,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="93">
         <v>43201</v>
       </c>
@@ -4102,7 +4146,7 @@
       <c r="BJ2" s="103"/>
       <c r="BK2" s="103"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="93">
         <v>43201</v>
       </c>
@@ -4207,7 +4251,7 @@
       <c r="BJ3" s="103"/>
       <c r="BK3" s="103"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="93">
         <v>43201</v>
       </c>
@@ -4312,7 +4356,7 @@
       <c r="BJ4" s="103"/>
       <c r="BK4" s="103"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="93">
         <v>43201</v>
       </c>
@@ -4417,7 +4461,7 @@
       <c r="BJ5" s="103"/>
       <c r="BK5" s="103"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="18.75">
       <c r="A6" s="93">
         <v>43201</v>
       </c>
@@ -4532,14 +4576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636C0F04-1D0E-4075-83A4-3E16DD8CA478}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -4561,7 +4605,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -4668,7 +4712,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A2" s="93">
         <v>43202</v>
       </c>
@@ -4736,7 +4780,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A3" s="93">
         <v>43202</v>
       </c>
@@ -4804,7 +4848,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A4" s="93">
         <v>43202</v>
       </c>
@@ -4872,7 +4916,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A5" s="93">
         <v>43202</v>
       </c>
@@ -4961,24 +5005,24 @@
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="57"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH35"/>
   <sheetViews>
     <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -4996,7 +5040,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" s="10" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -5094,7 +5138,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -5148,7 +5192,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -5202,7 +5246,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -5256,7 +5300,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -5310,7 +5354,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -5364,7 +5408,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -5418,7 +5462,7 @@
       </c>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A8" s="58">
         <v>43192</v>
       </c>
@@ -5516,7 +5560,7 @@
       <c r="BG8" s="34"/>
       <c r="BH8" s="34"/>
     </row>
-    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A9" s="58">
         <v>43192</v>
       </c>
@@ -5614,7 +5658,7 @@
       <c r="BG9" s="34"/>
       <c r="BH9" s="34"/>
     </row>
-    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A10" s="58">
         <v>43192</v>
       </c>
@@ -5712,7 +5756,7 @@
       <c r="BG10" s="34"/>
       <c r="BH10" s="34"/>
     </row>
-    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A11" s="58">
         <v>43192</v>
       </c>
@@ -5810,7 +5854,7 @@
       <c r="BG11" s="34"/>
       <c r="BH11" s="34"/>
     </row>
-    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60" s="10" customFormat="1" ht="18.75">
       <c r="A12" s="58">
         <v>43192</v>
       </c>
@@ -5908,7 +5952,7 @@
       <c r="BG12" s="34"/>
       <c r="BH12" s="34"/>
     </row>
-    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A13" s="39">
         <v>43193</v>
       </c>
@@ -6006,7 +6050,7 @@
       <c r="BG13" s="41"/>
       <c r="BH13" s="41"/>
     </row>
-    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A14" s="39">
         <v>43193</v>
       </c>
@@ -6104,7 +6148,7 @@
       <c r="BG14" s="41"/>
       <c r="BH14" s="41"/>
     </row>
-    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A15" s="39">
         <v>43193</v>
       </c>
@@ -6202,7 +6246,7 @@
       <c r="BG15" s="41"/>
       <c r="BH15" s="41"/>
     </row>
-    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A16" s="39">
         <v>43193</v>
       </c>
@@ -6300,7 +6344,7 @@
       <c r="BG16" s="41"/>
       <c r="BH16" s="41"/>
     </row>
-    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A17" s="39">
         <v>43193</v>
       </c>
@@ -6398,7 +6442,7 @@
       <c r="BG17" s="41"/>
       <c r="BH17" s="41"/>
     </row>
-    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" s="45" customFormat="1" ht="18.75">
       <c r="A18" s="39">
         <v>43193</v>
       </c>
@@ -6496,7 +6540,7 @@
       <c r="BG18" s="41"/>
       <c r="BH18" s="41"/>
     </row>
-    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A19" s="58">
         <v>43194</v>
       </c>
@@ -6557,7 +6601,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A20" s="58">
         <v>43194</v>
       </c>
@@ -6618,7 +6662,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A21" s="58">
         <v>43194</v>
       </c>
@@ -6679,7 +6723,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A22" s="58">
         <v>43194</v>
       </c>
@@ -6740,7 +6784,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A23" s="58">
         <v>43195</v>
       </c>
@@ -6801,7 +6845,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A24" s="58">
         <v>43195</v>
       </c>
@@ -6862,7 +6906,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A25" s="58">
         <v>43195</v>
       </c>
@@ -6923,7 +6967,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A26" s="58">
         <v>43195</v>
       </c>
@@ -6984,7 +7028,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A27" s="58">
         <v>43196</v>
       </c>
@@ -7045,7 +7089,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A28" s="58">
         <v>43196</v>
       </c>
@@ -7106,7 +7150,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A29" s="58">
         <v>43196</v>
       </c>
@@ -7167,7 +7211,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A30" s="58">
         <v>43196</v>
       </c>
@@ -7228,7 +7272,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A31" s="58">
         <v>43197</v>
       </c>
@@ -7289,7 +7333,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" s="69" customFormat="1" ht="18.75">
       <c r="A32" s="58">
         <v>43197</v>
       </c>
@@ -7350,7 +7394,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" s="69" customFormat="1" ht="18.75">
       <c r="A33" s="58">
         <v>43197</v>
       </c>
@@ -7411,7 +7455,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" s="69" customFormat="1" ht="18.75">
       <c r="A34" s="58">
         <v>43197</v>
       </c>
@@ -7472,7 +7516,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" s="69" customFormat="1" ht="18.75">
       <c r="A35" s="58">
         <v>43197</v>
       </c>
@@ -7536,64 +7580,628 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I22">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:J21">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I22">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I26">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:J26">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J30">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:I30">
-    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J35">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I35">
-    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J35">
-    <cfRule type="duplicateValues" dxfId="2" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15">
+      <c r="A1" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="116" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75">
+      <c r="A2" s="110">
+        <v>43203</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="111">
+        <v>1720</v>
+      </c>
+      <c r="D2" s="111">
+        <v>1920</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="111"/>
+      <c r="L2" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="118" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="113">
+        <v>14</v>
+      </c>
+      <c r="S2" s="113">
+        <v>0</v>
+      </c>
+      <c r="T2" s="113">
+        <v>14</v>
+      </c>
+      <c r="U2" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="120"/>
+      <c r="AX2" s="120"/>
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="120"/>
+      <c r="BD2" s="120"/>
+      <c r="BE2" s="120"/>
+      <c r="BF2" s="120"/>
+      <c r="BG2" s="120"/>
+      <c r="BH2" s="120"/>
+      <c r="BI2" s="120"/>
+      <c r="BJ2" s="120"/>
+      <c r="BK2" s="120"/>
+    </row>
+    <row r="3" spans="1:63" ht="18.75">
+      <c r="A3" s="110">
+        <v>43203</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="111">
+        <v>1929</v>
+      </c>
+      <c r="D3" s="111">
+        <v>2115</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="112" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="121" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="111"/>
+      <c r="L3" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="113">
+        <v>12</v>
+      </c>
+      <c r="S3" s="113">
+        <v>0</v>
+      </c>
+      <c r="T3" s="113">
+        <v>12</v>
+      </c>
+      <c r="U3" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120"/>
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="120"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="120"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="120"/>
+      <c r="BA3" s="120"/>
+      <c r="BB3" s="120"/>
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="120"/>
+      <c r="BE3" s="120"/>
+      <c r="BF3" s="120"/>
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="120"/>
+      <c r="BI3" s="120"/>
+      <c r="BJ3" s="120"/>
+      <c r="BK3" s="120"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75">
+      <c r="A4" s="110">
+        <v>43203</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="111">
+        <v>1920</v>
+      </c>
+      <c r="D4" s="111">
+        <v>2059</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="111"/>
+      <c r="L4" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="113">
+        <v>14</v>
+      </c>
+      <c r="S4" s="113">
+        <v>0</v>
+      </c>
+      <c r="T4" s="113">
+        <v>14</v>
+      </c>
+      <c r="U4" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120"/>
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="120"/>
+      <c r="BI4" s="120"/>
+      <c r="BJ4" s="120"/>
+      <c r="BK4" s="120"/>
+    </row>
+    <row r="5" spans="1:63" ht="18.75">
+      <c r="A5" s="110">
+        <v>43203</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="111">
+        <v>1815</v>
+      </c>
+      <c r="D5" s="111">
+        <v>1940</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="122" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="111"/>
+      <c r="L5" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="P5" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q5" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="113">
+        <v>14</v>
+      </c>
+      <c r="S5" s="113">
+        <v>0</v>
+      </c>
+      <c r="T5" s="113">
+        <v>14</v>
+      </c>
+      <c r="U5" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="120"/>
+      <c r="AJ5" s="120"/>
+      <c r="AK5" s="120"/>
+      <c r="AL5" s="120"/>
+      <c r="AM5" s="120"/>
+      <c r="AN5" s="120"/>
+      <c r="AO5" s="120"/>
+      <c r="AP5" s="120"/>
+      <c r="AQ5" s="120"/>
+      <c r="AR5" s="120"/>
+      <c r="AS5" s="120"/>
+      <c r="AT5" s="120"/>
+      <c r="AU5" s="120"/>
+      <c r="AV5" s="120"/>
+      <c r="AW5" s="120"/>
+      <c r="AX5" s="120"/>
+      <c r="AY5" s="120"/>
+      <c r="AZ5" s="120"/>
+      <c r="BA5" s="120"/>
+      <c r="BB5" s="120"/>
+      <c r="BC5" s="120"/>
+      <c r="BD5" s="120"/>
+      <c r="BE5" s="120"/>
+      <c r="BF5" s="120"/>
+      <c r="BG5" s="120"/>
+      <c r="BH5" s="120"/>
+      <c r="BI5" s="120"/>
+      <c r="BJ5" s="120"/>
+      <c r="BK5" s="120"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7611,7 +8219,7 @@
     <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="15">
       <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
@@ -7709,7 +8317,7 @@
       <c r="BG1" s="23"/>
       <c r="BH1" s="23"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" ht="18.75">
       <c r="A2" s="29">
         <v>43192</v>
       </c>
@@ -7807,7 +8415,7 @@
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" ht="18.75">
       <c r="A3" s="29">
         <v>43192</v>
       </c>
@@ -7905,7 +8513,7 @@
       <c r="BG3" s="34"/>
       <c r="BH3" s="34"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" ht="18.75">
       <c r="A4" s="29">
         <v>43192</v>
       </c>
@@ -8003,7 +8611,7 @@
       <c r="BG4" s="34"/>
       <c r="BH4" s="34"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" ht="18.75">
       <c r="A5" s="29">
         <v>43192</v>
       </c>
@@ -8101,7 +8709,7 @@
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" ht="18.75">
       <c r="A6" s="29">
         <v>43192</v>
       </c>
@@ -8207,14 +8815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8233,7 +8841,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" ht="15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -8334,7 +8942,7 @@
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
     </row>
-    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -8433,7 +9041,7 @@
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
     </row>
-    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -8532,7 +9140,7 @@
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
     </row>
-    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -8631,7 +9239,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -8730,7 +9338,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -8829,7 +9437,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -8936,14 +9544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8964,7 +9572,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -9068,7 +9676,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43194</v>
       </c>
@@ -9133,7 +9741,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43194</v>
       </c>
@@ -9198,7 +9806,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43194</v>
       </c>
@@ -9263,7 +9871,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43194</v>
       </c>
@@ -9354,14 +9962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -9382,7 +9990,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="10" customFormat="1" ht="15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -9486,7 +10094,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43195</v>
       </c>
@@ -9549,7 +10157,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43195</v>
       </c>
@@ -9612,7 +10220,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43195</v>
       </c>
@@ -9675,7 +10283,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43195</v>
       </c>
@@ -9757,14 +10365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -9788,7 +10396,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -9895,7 +10503,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43196</v>
       </c>
@@ -9961,7 +10569,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43196</v>
       </c>
@@ -10027,7 +10635,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43196</v>
       </c>
@@ -10093,7 +10701,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43196</v>
       </c>
@@ -10179,14 +10787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -10210,7 +10818,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -10317,7 +10925,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43197</v>
       </c>
@@ -10383,7 +10991,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43197</v>
       </c>
@@ -10449,7 +11057,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43197</v>
       </c>
@@ -10515,7 +11123,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43197</v>
       </c>
@@ -10581,7 +11189,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A6" s="58">
         <v>43197</v>
       </c>
@@ -10666,14 +11274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -10695,7 +11303,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -10802,7 +11410,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43198</v>
       </c>
@@ -10868,7 +11476,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43198</v>
       </c>
@@ -10934,7 +11542,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43198</v>
       </c>
@@ -11000,7 +11608,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43198</v>
       </c>
@@ -11066,7 +11674,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A6" s="58">
         <v>43198</v>
       </c>
@@ -11151,14 +11759,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -11179,7 +11787,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -11283,7 +11891,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43199</v>
       </c>
@@ -11348,7 +11956,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43199</v>
       </c>
@@ -11413,7 +12021,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43199</v>
       </c>
@@ -11478,7 +12086,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43199</v>
       </c>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="4-12" sheetId="13" r:id="rId12"/>
     <sheet name="汇总明线" sheetId="3" r:id="rId13"/>
     <sheet name="4-13" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="271">
   <si>
     <t>王成</t>
   </si>
@@ -913,6 +914,33 @@
   </si>
   <si>
     <t>WW0017769</t>
+  </si>
+  <si>
+    <t>0028675</t>
+  </si>
+  <si>
+    <t>14板4袋</t>
+  </si>
+  <si>
+    <t>0028636</t>
+  </si>
+  <si>
+    <t>0029987</t>
+  </si>
+  <si>
+    <t>0029922</t>
+  </si>
+  <si>
+    <t>WW0017486</t>
+  </si>
+  <si>
+    <t>WW0019996</t>
+  </si>
+  <si>
+    <t>WW0016736</t>
+  </si>
+  <si>
+    <t>WW0016187</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1553,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7633,7 +7709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -8185,6 +8261,562 @@
       <c r="BI5" s="120"/>
       <c r="BJ5" s="120"/>
       <c r="BK5" s="120"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15">
+      <c r="A1" s="131" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="131" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75">
+      <c r="A2" s="126">
+        <v>43204</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="127">
+        <v>1730</v>
+      </c>
+      <c r="D2" s="127">
+        <v>1923</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="127"/>
+      <c r="L2" s="130" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="135" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="S2" s="129">
+        <v>0</v>
+      </c>
+      <c r="T2" s="129" t="s">
+        <v>263</v>
+      </c>
+      <c r="U2" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+    </row>
+    <row r="3" spans="1:63" ht="18.75">
+      <c r="A3" s="126">
+        <v>43204</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="127">
+        <v>1825</v>
+      </c>
+      <c r="D3" s="127">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="127"/>
+      <c r="L3" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="129">
+        <v>14</v>
+      </c>
+      <c r="S3" s="129">
+        <v>0</v>
+      </c>
+      <c r="T3" s="129">
+        <v>14</v>
+      </c>
+      <c r="U3" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75">
+      <c r="A4" s="126">
+        <v>43204</v>
+      </c>
+      <c r="B4" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="127">
+        <v>1920</v>
+      </c>
+      <c r="D4" s="127">
+        <v>2100</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="128" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="137"/>
+      <c r="J4" s="138" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="127"/>
+      <c r="L4" s="130" t="s">
+        <v>265</v>
+      </c>
+      <c r="M4" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="134" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="135" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="129">
+        <v>14</v>
+      </c>
+      <c r="S4" s="129">
+        <v>0</v>
+      </c>
+      <c r="T4" s="129">
+        <v>14</v>
+      </c>
+      <c r="U4" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+    </row>
+    <row r="5" spans="1:63" ht="18.75">
+      <c r="A5" s="126">
+        <v>43204</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="127">
+        <v>1929</v>
+      </c>
+      <c r="D5" s="127">
+        <v>2113</v>
+      </c>
+      <c r="E5" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="128" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="137"/>
+      <c r="J5" s="138" t="s">
+        <v>270</v>
+      </c>
+      <c r="K5" s="127"/>
+      <c r="L5" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="M5" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="129">
+        <v>9</v>
+      </c>
+      <c r="S5" s="129">
+        <v>0</v>
+      </c>
+      <c r="T5" s="129">
+        <v>9</v>
+      </c>
+      <c r="U5" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="136"/>
+      <c r="AF5" s="136"/>
+      <c r="AG5" s="136"/>
+      <c r="AH5" s="136"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+      <c r="BC5" s="136"/>
+      <c r="BD5" s="136"/>
+      <c r="BE5" s="136"/>
+      <c r="BF5" s="136"/>
+      <c r="BG5" s="136"/>
+      <c r="BH5" s="136"/>
+      <c r="BI5" s="136"/>
+      <c r="BJ5" s="136"/>
+      <c r="BK5" s="136"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,19 @@
     <sheet name="4-13" sheetId="14" r:id="rId13"/>
     <sheet name="4-14" sheetId="15" r:id="rId14"/>
     <sheet name="4-15" sheetId="16" r:id="rId15"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId16"/>
-    <sheet name="4-16" sheetId="17" r:id="rId17"/>
+    <sheet name="4-16" sheetId="17" r:id="rId16"/>
+    <sheet name="4-17" sheetId="18" r:id="rId17"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="365">
   <si>
     <t>王成</t>
   </si>
@@ -1133,6 +1134,105 @@
   </si>
   <si>
     <t>WW0017279</t>
+  </si>
+  <si>
+    <t>WW0019997</t>
+  </si>
+  <si>
+    <t>0028637</t>
+  </si>
+  <si>
+    <t>14盘2筐1袋</t>
+  </si>
+  <si>
+    <t>WW0017491</t>
+  </si>
+  <si>
+    <t>0029928</t>
+  </si>
+  <si>
+    <t>14盘2袋</t>
+  </si>
+  <si>
+    <t>WW0017868</t>
+  </si>
+  <si>
+    <t>0028679</t>
+  </si>
+  <si>
+    <t>WW0017111</t>
+  </si>
+  <si>
+    <t>0085700</t>
+  </si>
+  <si>
+    <t>14盘3袋</t>
+  </si>
+  <si>
+    <t>武汉公共平台1号库</t>
+  </si>
+  <si>
+    <t>WW0016934</t>
+  </si>
+  <si>
+    <t>0076605</t>
+  </si>
+  <si>
+    <t>WW0016190</t>
+  </si>
+  <si>
+    <t>0028651</t>
+  </si>
+  <si>
+    <t>WW0019739</t>
+  </si>
+  <si>
+    <t>0028676</t>
+  </si>
+  <si>
+    <t>鄂ABV256</t>
+  </si>
+  <si>
+    <t>WW0017869</t>
+  </si>
+  <si>
+    <t>0028677</t>
+  </si>
+  <si>
+    <t>14盘12袋</t>
+  </si>
+  <si>
+    <t>田结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉公共平台6号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0016861</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚东明</t>
+  </si>
+  <si>
+    <t>WW0018103</t>
+  </si>
+  <si>
+    <t>0028678</t>
+  </si>
+  <si>
+    <t>0076710</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AMR731</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻海涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1425,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1950,6 +2050,96 @@
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7276,9 +7466,1820 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BJ5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="15">
+      <c r="A1" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="169" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="169" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="169" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="169" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="169" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="170" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="170" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="169" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="171" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
+      <c r="AJ1" s="162"/>
+      <c r="AK1" s="162"/>
+      <c r="AL1" s="162"/>
+      <c r="AM1" s="162"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
+      <c r="BA1" s="162"/>
+      <c r="BB1" s="162"/>
+      <c r="BC1" s="162"/>
+      <c r="BD1" s="162"/>
+      <c r="BE1" s="162"/>
+      <c r="BF1" s="162"/>
+      <c r="BG1" s="162"/>
+      <c r="BH1" s="162"/>
+      <c r="BI1" s="162"/>
+      <c r="BJ1" s="162"/>
+    </row>
+    <row r="2" spans="1:62" ht="18.75">
+      <c r="A2" s="164">
+        <v>43206</v>
+      </c>
+      <c r="B2" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="165">
+        <v>1720</v>
+      </c>
+      <c r="D2" s="165">
+        <v>1858</v>
+      </c>
+      <c r="E2" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="175" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="165"/>
+      <c r="K2" s="168" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="172" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="167" t="s">
+        <v>325</v>
+      </c>
+      <c r="R2" s="167">
+        <v>0</v>
+      </c>
+      <c r="S2" s="167" t="s">
+        <v>325</v>
+      </c>
+      <c r="T2" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="174"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="174"/>
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="174"/>
+      <c r="AY2" s="174"/>
+      <c r="AZ2" s="174"/>
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="174"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="174"/>
+      <c r="BH2" s="174"/>
+      <c r="BI2" s="174"/>
+      <c r="BJ2" s="174"/>
+    </row>
+    <row r="3" spans="1:62" ht="18.75">
+      <c r="A3" s="164">
+        <v>43206</v>
+      </c>
+      <c r="B3" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="165">
+        <v>1925</v>
+      </c>
+      <c r="D3" s="165">
+        <v>2059</v>
+      </c>
+      <c r="E3" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="175" t="s">
+        <v>331</v>
+      </c>
+      <c r="J3" s="165"/>
+      <c r="K3" s="168" t="s">
+        <v>326</v>
+      </c>
+      <c r="L3" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="172" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="165" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="173" t="s">
+        <v>202</v>
+      </c>
+      <c r="P3" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="167">
+        <v>14</v>
+      </c>
+      <c r="R3" s="167">
+        <v>0</v>
+      </c>
+      <c r="S3" s="167">
+        <v>14</v>
+      </c>
+      <c r="T3" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
+      <c r="AU3" s="174"/>
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="174"/>
+      <c r="BB3" s="174"/>
+      <c r="BC3" s="174"/>
+      <c r="BD3" s="174"/>
+      <c r="BE3" s="174"/>
+      <c r="BF3" s="174"/>
+      <c r="BG3" s="174"/>
+      <c r="BH3" s="174"/>
+      <c r="BI3" s="174"/>
+      <c r="BJ3" s="174"/>
+    </row>
+    <row r="4" spans="1:62" ht="18.75">
+      <c r="A4" s="164">
+        <v>43206</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="165">
+        <v>1929</v>
+      </c>
+      <c r="D4" s="165">
+        <v>2119</v>
+      </c>
+      <c r="E4" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="175" t="s">
+        <v>332</v>
+      </c>
+      <c r="J4" s="165" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="L4" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="173" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="167">
+        <v>10</v>
+      </c>
+      <c r="R4" s="167">
+        <v>0</v>
+      </c>
+      <c r="S4" s="167">
+        <v>10</v>
+      </c>
+      <c r="T4" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
+      <c r="Z4" s="174"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="174"/>
+      <c r="AF4" s="174"/>
+      <c r="AG4" s="174"/>
+      <c r="AH4" s="174"/>
+      <c r="AI4" s="174"/>
+      <c r="AJ4" s="174"/>
+      <c r="AK4" s="174"/>
+      <c r="AL4" s="174"/>
+      <c r="AM4" s="174"/>
+      <c r="AN4" s="174"/>
+      <c r="AO4" s="174"/>
+      <c r="AP4" s="174"/>
+      <c r="AQ4" s="174"/>
+      <c r="AR4" s="174"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="174"/>
+      <c r="AW4" s="174"/>
+      <c r="AX4" s="174"/>
+      <c r="AY4" s="174"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="174"/>
+      <c r="BB4" s="174"/>
+      <c r="BC4" s="174"/>
+      <c r="BD4" s="174"/>
+      <c r="BE4" s="174"/>
+      <c r="BF4" s="174"/>
+      <c r="BG4" s="174"/>
+      <c r="BH4" s="174"/>
+      <c r="BI4" s="174"/>
+      <c r="BJ4" s="174"/>
+    </row>
+    <row r="5" spans="1:62" ht="18.75">
+      <c r="A5" s="164">
+        <v>43206</v>
+      </c>
+      <c r="B5" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="165">
+        <v>1850</v>
+      </c>
+      <c r="D5" s="165">
+        <v>2009</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="166" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="166" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="175" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="165"/>
+      <c r="K5" s="168" t="s">
+        <v>329</v>
+      </c>
+      <c r="L5" s="163" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="165" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="173" t="s">
+        <v>257</v>
+      </c>
+      <c r="P5" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="167">
+        <v>14</v>
+      </c>
+      <c r="R5" s="167">
+        <v>0</v>
+      </c>
+      <c r="S5" s="167">
+        <v>14</v>
+      </c>
+      <c r="T5" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="174"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="174"/>
+      <c r="AH5" s="174"/>
+      <c r="AI5" s="174"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="174"/>
+      <c r="AL5" s="174"/>
+      <c r="AM5" s="174"/>
+      <c r="AN5" s="174"/>
+      <c r="AO5" s="174"/>
+      <c r="AP5" s="174"/>
+      <c r="AQ5" s="174"/>
+      <c r="AR5" s="174"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="174"/>
+      <c r="AU5" s="174"/>
+      <c r="AV5" s="174"/>
+      <c r="AW5" s="174"/>
+      <c r="AX5" s="174"/>
+      <c r="AY5" s="174"/>
+      <c r="AZ5" s="174"/>
+      <c r="BA5" s="174"/>
+      <c r="BB5" s="174"/>
+      <c r="BC5" s="174"/>
+      <c r="BD5" s="174"/>
+      <c r="BE5" s="174"/>
+      <c r="BF5" s="174"/>
+      <c r="BG5" s="174"/>
+      <c r="BH5" s="174"/>
+      <c r="BI5" s="174"/>
+      <c r="BJ5" s="174"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BJ28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.25" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="15">
+      <c r="A1" s="185" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="185" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="185" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="185" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="185" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="185" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="186" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="185" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="186" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="186" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="186" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="185" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="185" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="178"/>
+      <c r="AK1" s="178"/>
+      <c r="AL1" s="178"/>
+      <c r="AM1" s="178"/>
+      <c r="AN1" s="178"/>
+      <c r="AO1" s="178"/>
+      <c r="AP1" s="178"/>
+      <c r="AQ1" s="178"/>
+      <c r="AR1" s="178"/>
+      <c r="AS1" s="178"/>
+      <c r="AT1" s="178"/>
+      <c r="AU1" s="178"/>
+      <c r="AV1" s="178"/>
+      <c r="AW1" s="178"/>
+      <c r="AX1" s="178"/>
+      <c r="AY1" s="178"/>
+      <c r="AZ1" s="178"/>
+      <c r="BA1" s="178"/>
+      <c r="BB1" s="178"/>
+      <c r="BC1" s="178"/>
+      <c r="BD1" s="178"/>
+      <c r="BE1" s="178"/>
+      <c r="BF1" s="178"/>
+      <c r="BG1" s="178"/>
+      <c r="BH1" s="178"/>
+      <c r="BI1" s="178"/>
+      <c r="BJ1" s="178"/>
+    </row>
+    <row r="2" spans="1:62" ht="18.75">
+      <c r="A2" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B2" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="181">
+        <v>1640</v>
+      </c>
+      <c r="D2" s="181">
+        <v>1837</v>
+      </c>
+      <c r="E2" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="205" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="181"/>
+      <c r="K2" s="184" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="188" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="181" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="189" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="R2" s="183">
+        <v>0</v>
+      </c>
+      <c r="S2" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="T2" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="190"/>
+      <c r="AB2" s="190"/>
+      <c r="AC2" s="190"/>
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="190"/>
+      <c r="AL2" s="190"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="190"/>
+      <c r="AP2" s="190"/>
+      <c r="AQ2" s="190"/>
+      <c r="AR2" s="190"/>
+      <c r="AS2" s="190"/>
+      <c r="AT2" s="190"/>
+      <c r="AU2" s="190"/>
+      <c r="AV2" s="190"/>
+      <c r="AW2" s="190"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="190"/>
+      <c r="AZ2" s="190"/>
+      <c r="BA2" s="190"/>
+      <c r="BB2" s="190"/>
+      <c r="BC2" s="190"/>
+      <c r="BD2" s="190"/>
+      <c r="BE2" s="190"/>
+      <c r="BF2" s="190"/>
+      <c r="BG2" s="190"/>
+      <c r="BH2" s="190"/>
+      <c r="BI2" s="190"/>
+      <c r="BJ2" s="190"/>
+    </row>
+    <row r="3" spans="1:62" ht="18.75">
+      <c r="A3" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B3" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="181">
+        <v>1120</v>
+      </c>
+      <c r="D3" s="181">
+        <v>1302</v>
+      </c>
+      <c r="E3" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="205" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="181"/>
+      <c r="K3" s="184" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="188" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="189" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="183" t="s">
+        <v>339</v>
+      </c>
+      <c r="R3" s="183">
+        <v>0</v>
+      </c>
+      <c r="S3" s="183" t="s">
+        <v>339</v>
+      </c>
+      <c r="T3" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="190"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="190"/>
+      <c r="AE3" s="190"/>
+      <c r="AF3" s="190"/>
+      <c r="AG3" s="190"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="190"/>
+      <c r="AJ3" s="190"/>
+      <c r="AK3" s="190"/>
+      <c r="AL3" s="190"/>
+      <c r="AM3" s="190"/>
+      <c r="AN3" s="190"/>
+      <c r="AO3" s="190"/>
+      <c r="AP3" s="190"/>
+      <c r="AQ3" s="190"/>
+      <c r="AR3" s="190"/>
+      <c r="AS3" s="190"/>
+      <c r="AT3" s="190"/>
+      <c r="AU3" s="190"/>
+      <c r="AV3" s="190"/>
+      <c r="AW3" s="190"/>
+      <c r="AX3" s="190"/>
+      <c r="AY3" s="190"/>
+      <c r="AZ3" s="190"/>
+      <c r="BA3" s="190"/>
+      <c r="BB3" s="190"/>
+      <c r="BC3" s="190"/>
+      <c r="BD3" s="190"/>
+      <c r="BE3" s="190"/>
+      <c r="BF3" s="190"/>
+      <c r="BG3" s="190"/>
+      <c r="BH3" s="190"/>
+      <c r="BI3" s="190"/>
+      <c r="BJ3" s="190"/>
+    </row>
+    <row r="4" spans="1:62" ht="18.75">
+      <c r="A4" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B4" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="181">
+        <v>1825</v>
+      </c>
+      <c r="D4" s="181">
+        <v>2114</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="205" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" s="181"/>
+      <c r="K4" s="184" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="181" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="189" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="183">
+        <v>14</v>
+      </c>
+      <c r="R4" s="183">
+        <v>0</v>
+      </c>
+      <c r="S4" s="183">
+        <v>14</v>
+      </c>
+      <c r="T4" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="190"/>
+      <c r="V4" s="190"/>
+      <c r="W4" s="190"/>
+      <c r="X4" s="190"/>
+      <c r="Y4" s="190"/>
+      <c r="Z4" s="190"/>
+      <c r="AA4" s="190"/>
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="190"/>
+      <c r="AD4" s="190"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="190"/>
+      <c r="AG4" s="190"/>
+      <c r="AH4" s="190"/>
+      <c r="AI4" s="190"/>
+      <c r="AJ4" s="190"/>
+      <c r="AK4" s="190"/>
+      <c r="AL4" s="190"/>
+      <c r="AM4" s="190"/>
+      <c r="AN4" s="190"/>
+      <c r="AO4" s="190"/>
+      <c r="AP4" s="190"/>
+      <c r="AQ4" s="190"/>
+      <c r="AR4" s="190"/>
+      <c r="AS4" s="190"/>
+      <c r="AT4" s="190"/>
+      <c r="AU4" s="190"/>
+      <c r="AV4" s="190"/>
+      <c r="AW4" s="190"/>
+      <c r="AX4" s="190"/>
+      <c r="AY4" s="190"/>
+      <c r="AZ4" s="190"/>
+      <c r="BA4" s="190"/>
+      <c r="BB4" s="190"/>
+      <c r="BC4" s="190"/>
+      <c r="BD4" s="190"/>
+      <c r="BE4" s="190"/>
+      <c r="BF4" s="190"/>
+      <c r="BG4" s="190"/>
+      <c r="BH4" s="190"/>
+      <c r="BI4" s="190"/>
+      <c r="BJ4" s="190"/>
+    </row>
+    <row r="5" spans="1:62" ht="18.75">
+      <c r="A5" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B5" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="181">
+        <v>1250</v>
+      </c>
+      <c r="D5" s="181">
+        <v>1425</v>
+      </c>
+      <c r="E5" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="205" t="s">
+        <v>342</v>
+      </c>
+      <c r="J5" s="181"/>
+      <c r="K5" s="184" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="188" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" s="181" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="189" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="183" t="s">
+        <v>344</v>
+      </c>
+      <c r="R5" s="183">
+        <v>0</v>
+      </c>
+      <c r="S5" s="183" t="s">
+        <v>344</v>
+      </c>
+      <c r="T5" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="190"/>
+      <c r="AI5" s="190"/>
+      <c r="AJ5" s="190"/>
+      <c r="AK5" s="190"/>
+      <c r="AL5" s="190"/>
+      <c r="AM5" s="190"/>
+      <c r="AN5" s="190"/>
+      <c r="AO5" s="190"/>
+      <c r="AP5" s="190"/>
+      <c r="AQ5" s="190"/>
+      <c r="AR5" s="190"/>
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="190"/>
+      <c r="BG5" s="190"/>
+      <c r="BH5" s="190"/>
+      <c r="BI5" s="190"/>
+      <c r="BJ5" s="190"/>
+    </row>
+    <row r="6" spans="1:62" ht="18.75">
+      <c r="A6" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B6" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="181">
+        <v>1830</v>
+      </c>
+      <c r="D6" s="181">
+        <v>2010</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="182" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="205" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="181"/>
+      <c r="K6" s="184" t="s">
+        <v>347</v>
+      </c>
+      <c r="L6" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="181" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="189" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="183">
+        <v>14</v>
+      </c>
+      <c r="R6" s="183">
+        <v>0</v>
+      </c>
+      <c r="S6" s="183">
+        <v>14</v>
+      </c>
+      <c r="T6" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="190"/>
+      <c r="V6" s="190"/>
+      <c r="W6" s="190"/>
+      <c r="X6" s="190"/>
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="190"/>
+      <c r="AC6" s="190"/>
+      <c r="AD6" s="190"/>
+      <c r="AE6" s="190"/>
+      <c r="AF6" s="190"/>
+      <c r="AG6" s="190"/>
+      <c r="AH6" s="190"/>
+      <c r="AI6" s="190"/>
+      <c r="AJ6" s="190"/>
+      <c r="AK6" s="190"/>
+      <c r="AL6" s="190"/>
+      <c r="AM6" s="190"/>
+      <c r="AN6" s="190"/>
+      <c r="AO6" s="190"/>
+      <c r="AP6" s="190"/>
+      <c r="AQ6" s="190"/>
+      <c r="AR6" s="190"/>
+      <c r="AS6" s="190"/>
+      <c r="AT6" s="190"/>
+      <c r="AU6" s="190"/>
+      <c r="AV6" s="190"/>
+      <c r="AW6" s="190"/>
+      <c r="AX6" s="190"/>
+      <c r="AY6" s="190"/>
+      <c r="AZ6" s="190"/>
+      <c r="BA6" s="190"/>
+      <c r="BB6" s="190"/>
+      <c r="BC6" s="190"/>
+      <c r="BD6" s="190"/>
+      <c r="BE6" s="190"/>
+      <c r="BF6" s="190"/>
+      <c r="BG6" s="190"/>
+      <c r="BH6" s="190"/>
+      <c r="BI6" s="190"/>
+      <c r="BJ6" s="190"/>
+    </row>
+    <row r="7" spans="1:62" ht="18.75">
+      <c r="A7" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="181">
+        <v>1929</v>
+      </c>
+      <c r="D7" s="181">
+        <v>2110</v>
+      </c>
+      <c r="E7" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="205" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" s="181"/>
+      <c r="K7" s="184" t="s">
+        <v>349</v>
+      </c>
+      <c r="L7" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="188" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="189" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="183">
+        <v>14</v>
+      </c>
+      <c r="R7" s="183">
+        <v>0</v>
+      </c>
+      <c r="S7" s="183">
+        <v>14</v>
+      </c>
+      <c r="T7" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="190"/>
+      <c r="V7" s="190"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="190"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="190"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="190"/>
+      <c r="AG7" s="190"/>
+      <c r="AH7" s="190"/>
+      <c r="AI7" s="190"/>
+      <c r="AJ7" s="190"/>
+      <c r="AK7" s="190"/>
+      <c r="AL7" s="190"/>
+      <c r="AM7" s="190"/>
+      <c r="AN7" s="190"/>
+      <c r="AO7" s="190"/>
+      <c r="AP7" s="190"/>
+      <c r="AQ7" s="190"/>
+      <c r="AR7" s="190"/>
+      <c r="AS7" s="190"/>
+      <c r="AT7" s="190"/>
+      <c r="AU7" s="190"/>
+      <c r="AV7" s="190"/>
+      <c r="AW7" s="190"/>
+      <c r="AX7" s="190"/>
+      <c r="AY7" s="190"/>
+      <c r="AZ7" s="190"/>
+      <c r="BA7" s="190"/>
+      <c r="BB7" s="190"/>
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="190"/>
+      <c r="BE7" s="190"/>
+      <c r="BF7" s="190"/>
+      <c r="BG7" s="190"/>
+      <c r="BH7" s="190"/>
+      <c r="BI7" s="190"/>
+      <c r="BJ7" s="190"/>
+    </row>
+    <row r="8" spans="1:62" ht="18.75">
+      <c r="A8" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B8" s="181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="181">
+        <v>1900</v>
+      </c>
+      <c r="D8" s="181">
+        <v>2050</v>
+      </c>
+      <c r="E8" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="205" t="s">
+        <v>350</v>
+      </c>
+      <c r="J8" s="181"/>
+      <c r="K8" s="184" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="188" t="s">
+        <v>352</v>
+      </c>
+      <c r="N8" s="181" t="s">
+        <v>352</v>
+      </c>
+      <c r="O8" s="189" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="183">
+        <v>14</v>
+      </c>
+      <c r="R8" s="183">
+        <v>0</v>
+      </c>
+      <c r="S8" s="183">
+        <v>14</v>
+      </c>
+      <c r="T8" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="190"/>
+      <c r="V8" s="190"/>
+      <c r="W8" s="190"/>
+      <c r="X8" s="190"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="190"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="190"/>
+      <c r="AF8" s="190"/>
+      <c r="AG8" s="190"/>
+      <c r="AH8" s="190"/>
+      <c r="AI8" s="190"/>
+      <c r="AJ8" s="190"/>
+      <c r="AK8" s="190"/>
+      <c r="AL8" s="190"/>
+      <c r="AM8" s="190"/>
+      <c r="AN8" s="190"/>
+      <c r="AO8" s="190"/>
+      <c r="AP8" s="190"/>
+      <c r="AQ8" s="190"/>
+      <c r="AR8" s="190"/>
+      <c r="AS8" s="190"/>
+      <c r="AT8" s="190"/>
+      <c r="AU8" s="190"/>
+      <c r="AV8" s="190"/>
+      <c r="AW8" s="190"/>
+      <c r="AX8" s="190"/>
+      <c r="AY8" s="190"/>
+      <c r="AZ8" s="190"/>
+      <c r="BA8" s="190"/>
+      <c r="BB8" s="190"/>
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="190"/>
+      <c r="BE8" s="190"/>
+      <c r="BF8" s="190"/>
+      <c r="BG8" s="190"/>
+      <c r="BH8" s="190"/>
+      <c r="BI8" s="190"/>
+      <c r="BJ8" s="190"/>
+    </row>
+    <row r="9" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A9" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B9" s="181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="181">
+        <v>1800</v>
+      </c>
+      <c r="D9" s="181">
+        <v>1946</v>
+      </c>
+      <c r="E9" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="182" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="205" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" s="181"/>
+      <c r="K9" s="184" t="s">
+        <v>354</v>
+      </c>
+      <c r="L9" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="188" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="O9" s="189" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="183" t="s">
+        <v>355</v>
+      </c>
+      <c r="R9" s="183">
+        <v>0</v>
+      </c>
+      <c r="S9" s="183" t="s">
+        <v>355</v>
+      </c>
+      <c r="T9" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="190"/>
+      <c r="X9" s="190"/>
+      <c r="Y9" s="190"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="190"/>
+      <c r="AE9" s="190"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="190"/>
+      <c r="AH9" s="190"/>
+      <c r="AI9" s="190"/>
+      <c r="AJ9" s="190"/>
+      <c r="AK9" s="190"/>
+      <c r="AL9" s="190"/>
+      <c r="AM9" s="190"/>
+      <c r="AN9" s="190"/>
+      <c r="AO9" s="190"/>
+      <c r="AP9" s="190"/>
+      <c r="AQ9" s="190"/>
+      <c r="AR9" s="190"/>
+      <c r="AS9" s="190"/>
+      <c r="AT9" s="190"/>
+      <c r="AU9" s="190"/>
+      <c r="AV9" s="190"/>
+      <c r="AW9" s="190"/>
+      <c r="AX9" s="190"/>
+      <c r="AY9" s="190"/>
+      <c r="AZ9" s="190"/>
+      <c r="BA9" s="190"/>
+      <c r="BB9" s="190"/>
+      <c r="BC9" s="190"/>
+      <c r="BD9" s="190"/>
+      <c r="BE9" s="190"/>
+      <c r="BF9" s="190"/>
+      <c r="BG9" s="190"/>
+      <c r="BH9" s="190"/>
+      <c r="BI9" s="190"/>
+      <c r="BJ9" s="190"/>
+    </row>
+    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="180">
+        <v>43207</v>
+      </c>
+      <c r="B10" s="181" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="181">
+        <v>1925</v>
+      </c>
+      <c r="D10" s="181">
+        <v>2151</v>
+      </c>
+      <c r="E10" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="182" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="182" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="205" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="181"/>
+      <c r="K10" s="203" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="201" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="188"/>
+      <c r="N10" s="202" t="s">
+        <v>363</v>
+      </c>
+      <c r="O10" s="204" t="s">
+        <v>364</v>
+      </c>
+      <c r="P10" s="201" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="183">
+        <v>14</v>
+      </c>
+      <c r="R10" s="183">
+        <v>0</v>
+      </c>
+      <c r="S10" s="183">
+        <v>14</v>
+      </c>
+      <c r="T10" s="201" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" s="190"/>
+      <c r="V10" s="190"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="190"/>
+      <c r="Y10" s="190"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="190"/>
+      <c r="AJ10" s="190"/>
+      <c r="AK10" s="190"/>
+      <c r="AL10" s="190"/>
+      <c r="AM10" s="190"/>
+      <c r="AN10" s="190"/>
+      <c r="AO10" s="190"/>
+      <c r="AP10" s="190"/>
+      <c r="AQ10" s="190"/>
+      <c r="AR10" s="190"/>
+      <c r="AS10" s="190"/>
+      <c r="AT10" s="190"/>
+      <c r="AU10" s="190"/>
+      <c r="AV10" s="190"/>
+      <c r="AW10" s="190"/>
+      <c r="AX10" s="190"/>
+      <c r="AY10" s="190"/>
+      <c r="AZ10" s="190"/>
+      <c r="BA10" s="190"/>
+      <c r="BB10" s="190"/>
+      <c r="BC10" s="190"/>
+      <c r="BD10" s="190"/>
+      <c r="BE10" s="190"/>
+      <c r="BF10" s="190"/>
+      <c r="BG10" s="190"/>
+      <c r="BH10" s="190"/>
+      <c r="BI10" s="190"/>
+      <c r="BJ10" s="190"/>
+    </row>
+    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="194">
+        <v>43207</v>
+      </c>
+      <c r="B11" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="195">
+        <v>1957</v>
+      </c>
+      <c r="D11" s="195">
+        <v>2137</v>
+      </c>
+      <c r="E11" s="196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="196" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="196" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="205" t="s">
+        <v>360</v>
+      </c>
+      <c r="J11" s="200" t="s">
+        <v>360</v>
+      </c>
+      <c r="K11" s="198" t="s">
+        <v>361</v>
+      </c>
+      <c r="L11" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="O11" s="199" t="s">
+        <v>359</v>
+      </c>
+      <c r="P11" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="197">
+        <v>11</v>
+      </c>
+      <c r="R11" s="197">
+        <v>0</v>
+      </c>
+      <c r="S11" s="197">
+        <v>11</v>
+      </c>
+      <c r="T11" s="193" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="192"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="192"/>
+      <c r="AF11" s="192"/>
+      <c r="AG11" s="192"/>
+      <c r="AH11" s="192"/>
+      <c r="AI11" s="192"/>
+      <c r="AJ11" s="192"/>
+      <c r="AK11" s="192"/>
+      <c r="AL11" s="192"/>
+      <c r="AM11" s="192"/>
+      <c r="AN11" s="192"/>
+      <c r="AO11" s="192"/>
+      <c r="AP11" s="192"/>
+      <c r="AQ11" s="192"/>
+      <c r="AR11" s="192"/>
+      <c r="AS11" s="192"/>
+      <c r="AT11" s="192"/>
+      <c r="AU11" s="192"/>
+      <c r="AV11" s="192"/>
+      <c r="AW11" s="192"/>
+      <c r="AX11" s="192"/>
+      <c r="AY11" s="192"/>
+      <c r="AZ11" s="192"/>
+      <c r="BA11" s="192"/>
+      <c r="BB11" s="192"/>
+      <c r="BC11" s="192"/>
+      <c r="BD11" s="192"/>
+      <c r="BE11" s="192"/>
+      <c r="BF11" s="192"/>
+      <c r="BG11" s="192"/>
+      <c r="BH11" s="192"/>
+      <c r="BI11" s="192"/>
+    </row>
+    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="190"/>
+      <c r="AK12" s="190"/>
+      <c r="AL12" s="190"/>
+      <c r="AM12" s="190"/>
+      <c r="AN12" s="190"/>
+      <c r="AO12" s="190"/>
+      <c r="AP12" s="190"/>
+      <c r="AQ12" s="190"/>
+      <c r="AR12" s="190"/>
+      <c r="AS12" s="190"/>
+      <c r="AT12" s="190"/>
+      <c r="AU12" s="190"/>
+      <c r="AV12" s="190"/>
+      <c r="AW12" s="190"/>
+      <c r="AX12" s="190"/>
+      <c r="AY12" s="190"/>
+      <c r="AZ12" s="190"/>
+      <c r="BA12" s="190"/>
+      <c r="BB12" s="190"/>
+      <c r="BC12" s="190"/>
+      <c r="BD12" s="190"/>
+      <c r="BE12" s="190"/>
+      <c r="BF12" s="190"/>
+      <c r="BG12" s="190"/>
+      <c r="BH12" s="190"/>
+      <c r="BI12" s="190"/>
+      <c r="BJ12" s="190"/>
+    </row>
+    <row r="17" spans="13:14">
+      <c r="M17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14">
+      <c r="M23">
+        <v>309</v>
+      </c>
+      <c r="N23">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14">
+      <c r="M24">
+        <v>353</v>
+      </c>
+      <c r="N24">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14">
+      <c r="M25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14">
+      <c r="M26">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14">
+      <c r="M27">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14">
+      <c r="M28">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
@@ -13019,556 +15020,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:62" ht="15">
-      <c r="A1" s="169" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="169" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="169" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="169" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="169" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="169" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="169" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="169" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" s="169" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="170" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="169" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="170" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="169" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="169" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="169" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="171" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="161"/>
-      <c r="AA1" s="161"/>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="161"/>
-      <c r="AD1" s="161"/>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="162"/>
-      <c r="AK1" s="162"/>
-      <c r="AL1" s="162"/>
-      <c r="AM1" s="162"/>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
-      <c r="BB1" s="162"/>
-      <c r="BC1" s="162"/>
-      <c r="BD1" s="162"/>
-      <c r="BE1" s="162"/>
-      <c r="BF1" s="162"/>
-      <c r="BG1" s="162"/>
-      <c r="BH1" s="162"/>
-      <c r="BI1" s="162"/>
-      <c r="BJ1" s="162"/>
-    </row>
-    <row r="2" spans="1:62" ht="18.75">
-      <c r="A2" s="164">
-        <v>43206</v>
-      </c>
-      <c r="B2" s="165" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="165">
-        <v>1720</v>
-      </c>
-      <c r="D2" s="165">
-        <v>1858</v>
-      </c>
-      <c r="E2" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="175" t="s">
-        <v>330</v>
-      </c>
-      <c r="J2" s="165"/>
-      <c r="K2" s="168" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="172" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="165" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="173" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="163" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="167" t="s">
-        <v>325</v>
-      </c>
-      <c r="R2" s="167">
-        <v>0</v>
-      </c>
-      <c r="S2" s="167" t="s">
-        <v>325</v>
-      </c>
-      <c r="T2" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="174"/>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="174"/>
-      <c r="AU2" s="174"/>
-      <c r="AV2" s="174"/>
-      <c r="AW2" s="174"/>
-      <c r="AX2" s="174"/>
-      <c r="AY2" s="174"/>
-      <c r="AZ2" s="174"/>
-      <c r="BA2" s="174"/>
-      <c r="BB2" s="174"/>
-      <c r="BC2" s="174"/>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
-      <c r="BI2" s="174"/>
-      <c r="BJ2" s="174"/>
-    </row>
-    <row r="3" spans="1:62" ht="18.75">
-      <c r="A3" s="164">
-        <v>43206</v>
-      </c>
-      <c r="B3" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="165">
-        <v>1925</v>
-      </c>
-      <c r="D3" s="165">
-        <v>2059</v>
-      </c>
-      <c r="E3" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" s="175" t="s">
-        <v>331</v>
-      </c>
-      <c r="J3" s="165"/>
-      <c r="K3" s="168" t="s">
-        <v>326</v>
-      </c>
-      <c r="L3" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="172" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" s="165" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="173" t="s">
-        <v>202</v>
-      </c>
-      <c r="P3" s="163" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="167">
-        <v>14</v>
-      </c>
-      <c r="R3" s="167">
-        <v>0</v>
-      </c>
-      <c r="S3" s="167">
-        <v>14</v>
-      </c>
-      <c r="T3" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="174"/>
-      <c r="AM3" s="174"/>
-      <c r="AN3" s="174"/>
-      <c r="AO3" s="174"/>
-      <c r="AP3" s="174"/>
-      <c r="AQ3" s="174"/>
-      <c r="AR3" s="174"/>
-      <c r="AS3" s="174"/>
-      <c r="AT3" s="174"/>
-      <c r="AU3" s="174"/>
-      <c r="AV3" s="174"/>
-      <c r="AW3" s="174"/>
-      <c r="AX3" s="174"/>
-      <c r="AY3" s="174"/>
-      <c r="AZ3" s="174"/>
-      <c r="BA3" s="174"/>
-      <c r="BB3" s="174"/>
-      <c r="BC3" s="174"/>
-      <c r="BD3" s="174"/>
-      <c r="BE3" s="174"/>
-      <c r="BF3" s="174"/>
-      <c r="BG3" s="174"/>
-      <c r="BH3" s="174"/>
-      <c r="BI3" s="174"/>
-      <c r="BJ3" s="174"/>
-    </row>
-    <row r="4" spans="1:62" ht="18.75">
-      <c r="A4" s="164">
-        <v>43206</v>
-      </c>
-      <c r="B4" s="165" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="165">
-        <v>1929</v>
-      </c>
-      <c r="D4" s="165">
-        <v>2119</v>
-      </c>
-      <c r="E4" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" s="175" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="165" t="s">
-        <v>327</v>
-      </c>
-      <c r="K4" s="168" t="s">
-        <v>328</v>
-      </c>
-      <c r="L4" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="172" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="165" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="173" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="163" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="167">
-        <v>10</v>
-      </c>
-      <c r="R4" s="167">
-        <v>0</v>
-      </c>
-      <c r="S4" s="167">
-        <v>10</v>
-      </c>
-      <c r="T4" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="174"/>
-      <c r="AA4" s="174"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="174"/>
-      <c r="AD4" s="174"/>
-      <c r="AE4" s="174"/>
-      <c r="AF4" s="174"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="174"/>
-      <c r="AI4" s="174"/>
-      <c r="AJ4" s="174"/>
-      <c r="AK4" s="174"/>
-      <c r="AL4" s="174"/>
-      <c r="AM4" s="174"/>
-      <c r="AN4" s="174"/>
-      <c r="AO4" s="174"/>
-      <c r="AP4" s="174"/>
-      <c r="AQ4" s="174"/>
-      <c r="AR4" s="174"/>
-      <c r="AS4" s="174"/>
-      <c r="AT4" s="174"/>
-      <c r="AU4" s="174"/>
-      <c r="AV4" s="174"/>
-      <c r="AW4" s="174"/>
-      <c r="AX4" s="174"/>
-      <c r="AY4" s="174"/>
-      <c r="AZ4" s="174"/>
-      <c r="BA4" s="174"/>
-      <c r="BB4" s="174"/>
-      <c r="BC4" s="174"/>
-      <c r="BD4" s="174"/>
-      <c r="BE4" s="174"/>
-      <c r="BF4" s="174"/>
-      <c r="BG4" s="174"/>
-      <c r="BH4" s="174"/>
-      <c r="BI4" s="174"/>
-      <c r="BJ4" s="174"/>
-    </row>
-    <row r="5" spans="1:62" ht="18.75">
-      <c r="A5" s="164">
-        <v>43206</v>
-      </c>
-      <c r="B5" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="165">
-        <v>1850</v>
-      </c>
-      <c r="D5" s="165">
-        <v>2009</v>
-      </c>
-      <c r="E5" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" s="175" t="s">
-        <v>333</v>
-      </c>
-      <c r="J5" s="165"/>
-      <c r="K5" s="168" t="s">
-        <v>329</v>
-      </c>
-      <c r="L5" s="163" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="172" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="165" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="173" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" s="163" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="167">
-        <v>14</v>
-      </c>
-      <c r="R5" s="167">
-        <v>0</v>
-      </c>
-      <c r="S5" s="167">
-        <v>14</v>
-      </c>
-      <c r="T5" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="U5" s="174"/>
-      <c r="V5" s="174"/>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
-      <c r="AA5" s="174"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="174"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="174"/>
-      <c r="AG5" s="174"/>
-      <c r="AH5" s="174"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="174"/>
-      <c r="AL5" s="174"/>
-      <c r="AM5" s="174"/>
-      <c r="AN5" s="174"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="174"/>
-      <c r="AQ5" s="174"/>
-      <c r="AR5" s="174"/>
-      <c r="AS5" s="174"/>
-      <c r="AT5" s="174"/>
-      <c r="AU5" s="174"/>
-      <c r="AV5" s="174"/>
-      <c r="AW5" s="174"/>
-      <c r="AX5" s="174"/>
-      <c r="AY5" s="174"/>
-      <c r="AZ5" s="174"/>
-      <c r="BA5" s="174"/>
-      <c r="BB5" s="174"/>
-      <c r="BC5" s="174"/>
-      <c r="BD5" s="174"/>
-      <c r="BE5" s="174"/>
-      <c r="BF5" s="174"/>
-      <c r="BG5" s="174"/>
-      <c r="BH5" s="174"/>
-      <c r="BI5" s="174"/>
-      <c r="BJ5" s="174"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH6"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,18 @@
     <sheet name="4-15" sheetId="16" r:id="rId15"/>
     <sheet name="4-16" sheetId="17" r:id="rId16"/>
     <sheet name="4-17" sheetId="18" r:id="rId17"/>
-    <sheet name="汇总明线" sheetId="3" r:id="rId18"/>
+    <sheet name="4-18" sheetId="19" r:id="rId18"/>
+    <sheet name="汇总明线" sheetId="3" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="412">
   <si>
     <t>王成</t>
   </si>
@@ -1232,6 +1233,149 @@
   </si>
   <si>
     <t>喻海涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19998</t>
+  </si>
+  <si>
+    <t>0028638</t>
+  </si>
+  <si>
+    <t>5袋</t>
+  </si>
+  <si>
+    <t>17115</t>
+  </si>
+  <si>
+    <t>0029927</t>
+  </si>
+  <si>
+    <t>16745</t>
+  </si>
+  <si>
+    <t>0024795</t>
+  </si>
+  <si>
+    <t>16862</t>
+  </si>
+  <si>
+    <t>0029930</t>
+  </si>
+  <si>
+    <t>16191</t>
+  </si>
+  <si>
+    <t>0028650</t>
+  </si>
+  <si>
+    <t>1袋</t>
+  </si>
+  <si>
+    <t>16812</t>
+  </si>
+  <si>
+    <t>0024794</t>
+  </si>
+  <si>
+    <t>13袋</t>
+  </si>
+  <si>
+    <t>17245</t>
+  </si>
+  <si>
+    <t>0029929</t>
+  </si>
+  <si>
+    <t>19742</t>
+  </si>
+  <si>
+    <t>0028585</t>
+  </si>
+  <si>
+    <t>17173</t>
+  </si>
+  <si>
+    <t>0024797</t>
+  </si>
+  <si>
+    <t>程斌</t>
+  </si>
+  <si>
+    <t>武汉公共平台六号库</t>
+  </si>
+  <si>
+    <t>12524</t>
+  </si>
+  <si>
+    <t>0021745</t>
+  </si>
+  <si>
+    <t>鄂AMT850</t>
+  </si>
+  <si>
+    <t>吴正德</t>
+  </si>
+  <si>
+    <t>WW0019998</t>
+  </si>
+  <si>
+    <t>WW0017115</t>
+  </si>
+  <si>
+    <t>WW0016745</t>
+  </si>
+  <si>
+    <t>WW0016862</t>
+  </si>
+  <si>
+    <t>WW0016191</t>
+  </si>
+  <si>
+    <t>WW0016812</t>
+  </si>
+  <si>
+    <t>WW0017245</t>
+  </si>
+  <si>
+    <t>WW0019742</t>
+  </si>
+  <si>
+    <t>WW0017173</t>
+  </si>
+  <si>
+    <t>WW0012524</t>
+  </si>
+  <si>
+    <t>17.5米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈丹丹</t>
+  </si>
+  <si>
+    <t>新地园区</t>
+  </si>
+  <si>
+    <t>武汉新地分拣退货组</t>
+  </si>
+  <si>
+    <t>弗兰西蒂</t>
+  </si>
+  <si>
+    <t>退货组</t>
+  </si>
+  <si>
+    <t>17116</t>
+  </si>
+  <si>
+    <t>0085704</t>
+  </si>
+  <si>
+    <t>WW0017116</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1451,7 +1595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,8 +1668,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2144,12 +2297,97 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 2" xfId="21"/>
+    <cellStyle name="常规 2 2 3" xfId="24"/>
     <cellStyle name="常规 2 3" xfId="8"/>
     <cellStyle name="常规 2 3 2" xfId="16"/>
     <cellStyle name="常规 2 4" xfId="12"/>
@@ -2164,12 +2402,14 @@
     <cellStyle name="常规 6" xfId="3"/>
     <cellStyle name="常规 7" xfId="10"/>
     <cellStyle name="常规 7 2" xfId="22"/>
+    <cellStyle name="常规 7 3" xfId="25"/>
     <cellStyle name="常规 8" xfId="11"/>
     <cellStyle name="常规 8 2" xfId="20"/>
     <cellStyle name="常规 8 3" xfId="18"/>
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="常规 9 2" xfId="19"/>
     <cellStyle name="常规 9 2 2" xfId="23"/>
+    <cellStyle name="常规 9 2 3" xfId="26"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -8018,7 +8258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -9276,6 +9516,1310 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BK15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.25" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" ht="15">
+      <c r="A1" s="214" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="214" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="214" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="214" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="214" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="214" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="214" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="214" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="214" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="214" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="214" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="215" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="214" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="215" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="215" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="215" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="214" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="214" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="214" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="214" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="216" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="206"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206"/>
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="206"/>
+      <c r="AJ1" s="207"/>
+      <c r="AK1" s="207"/>
+      <c r="AL1" s="207"/>
+      <c r="AM1" s="207"/>
+      <c r="AN1" s="207"/>
+      <c r="AO1" s="207"/>
+      <c r="AP1" s="207"/>
+      <c r="AQ1" s="207"/>
+      <c r="AR1" s="207"/>
+      <c r="AS1" s="207"/>
+      <c r="AT1" s="207"/>
+      <c r="AU1" s="207"/>
+      <c r="AV1" s="207"/>
+      <c r="AW1" s="207"/>
+      <c r="AX1" s="207"/>
+      <c r="AY1" s="207"/>
+      <c r="AZ1" s="207"/>
+      <c r="BA1" s="207"/>
+      <c r="BB1" s="207"/>
+      <c r="BC1" s="207"/>
+      <c r="BD1" s="207"/>
+      <c r="BE1" s="207"/>
+      <c r="BF1" s="207"/>
+      <c r="BG1" s="207"/>
+      <c r="BH1" s="207"/>
+      <c r="BI1" s="207"/>
+      <c r="BJ1" s="207"/>
+      <c r="BK1" s="207"/>
+    </row>
+    <row r="2" spans="1:63" ht="18.75">
+      <c r="A2" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B2" s="210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="210">
+        <v>1240</v>
+      </c>
+      <c r="D2" s="210">
+        <v>1420</v>
+      </c>
+      <c r="E2" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="233" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="220" t="s">
+        <v>365</v>
+      </c>
+      <c r="K2" s="210"/>
+      <c r="L2" s="213" t="s">
+        <v>366</v>
+      </c>
+      <c r="M2" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="217" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="210" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="218" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="212">
+        <v>14</v>
+      </c>
+      <c r="S2" s="212">
+        <v>0</v>
+      </c>
+      <c r="T2" s="212">
+        <v>14</v>
+      </c>
+      <c r="U2" s="208" t="s">
+        <v>367</v>
+      </c>
+      <c r="V2" s="219"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="219"/>
+      <c r="Y2" s="219"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
+      <c r="AB2" s="219"/>
+      <c r="AC2" s="219"/>
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
+      <c r="AF2" s="219"/>
+      <c r="AG2" s="219"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="219"/>
+      <c r="AJ2" s="219"/>
+      <c r="AK2" s="219"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="219"/>
+      <c r="AN2" s="219"/>
+      <c r="AO2" s="219"/>
+      <c r="AP2" s="219"/>
+      <c r="AQ2" s="219"/>
+      <c r="AR2" s="219"/>
+      <c r="AS2" s="219"/>
+      <c r="AT2" s="219"/>
+      <c r="AU2" s="219"/>
+      <c r="AV2" s="219"/>
+      <c r="AW2" s="219"/>
+      <c r="AX2" s="219"/>
+      <c r="AY2" s="219"/>
+      <c r="AZ2" s="219"/>
+      <c r="BA2" s="219"/>
+      <c r="BB2" s="219"/>
+      <c r="BC2" s="219"/>
+      <c r="BD2" s="219"/>
+      <c r="BE2" s="219"/>
+      <c r="BF2" s="219"/>
+      <c r="BG2" s="219"/>
+      <c r="BH2" s="219"/>
+      <c r="BI2" s="219"/>
+      <c r="BJ2" s="219"/>
+      <c r="BK2" s="219"/>
+    </row>
+    <row r="3" spans="1:63" ht="18.75">
+      <c r="A3" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B3" s="210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="210">
+        <v>1020</v>
+      </c>
+      <c r="D3" s="210">
+        <v>1157</v>
+      </c>
+      <c r="E3" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="233" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="220" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="210"/>
+      <c r="L3" s="213" t="s">
+        <v>369</v>
+      </c>
+      <c r="M3" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="217" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="210" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" s="218" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="212">
+        <v>14</v>
+      </c>
+      <c r="S3" s="212">
+        <v>0</v>
+      </c>
+      <c r="T3" s="212">
+        <v>14</v>
+      </c>
+      <c r="U3" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
+      <c r="AC3" s="219"/>
+      <c r="AD3" s="219"/>
+      <c r="AE3" s="219"/>
+      <c r="AF3" s="219"/>
+      <c r="AG3" s="219"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="219"/>
+      <c r="AJ3" s="219"/>
+      <c r="AK3" s="219"/>
+      <c r="AL3" s="219"/>
+      <c r="AM3" s="219"/>
+      <c r="AN3" s="219"/>
+      <c r="AO3" s="219"/>
+      <c r="AP3" s="219"/>
+      <c r="AQ3" s="219"/>
+      <c r="AR3" s="219"/>
+      <c r="AS3" s="219"/>
+      <c r="AT3" s="219"/>
+      <c r="AU3" s="219"/>
+      <c r="AV3" s="219"/>
+      <c r="AW3" s="219"/>
+      <c r="AX3" s="219"/>
+      <c r="AY3" s="219"/>
+      <c r="AZ3" s="219"/>
+      <c r="BA3" s="219"/>
+      <c r="BB3" s="219"/>
+      <c r="BC3" s="219"/>
+      <c r="BD3" s="219"/>
+      <c r="BE3" s="219"/>
+      <c r="BF3" s="219"/>
+      <c r="BG3" s="219"/>
+      <c r="BH3" s="219"/>
+      <c r="BI3" s="219"/>
+      <c r="BJ3" s="219"/>
+      <c r="BK3" s="219"/>
+    </row>
+    <row r="4" spans="1:63" ht="18.75">
+      <c r="A4" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B4" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="210">
+        <v>1815</v>
+      </c>
+      <c r="D4" s="210">
+        <v>1952</v>
+      </c>
+      <c r="E4" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="233" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="220" t="s">
+        <v>370</v>
+      </c>
+      <c r="K4" s="210"/>
+      <c r="L4" s="213" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="217" t="s">
+        <v>212</v>
+      </c>
+      <c r="O4" s="210" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="218" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="212">
+        <v>14</v>
+      </c>
+      <c r="S4" s="212">
+        <v>0</v>
+      </c>
+      <c r="T4" s="212">
+        <v>14</v>
+      </c>
+      <c r="U4" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="219"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="219"/>
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="219"/>
+      <c r="AG4" s="219"/>
+      <c r="AH4" s="219"/>
+      <c r="AI4" s="219"/>
+      <c r="AJ4" s="219"/>
+      <c r="AK4" s="219"/>
+      <c r="AL4" s="219"/>
+      <c r="AM4" s="219"/>
+      <c r="AN4" s="219"/>
+      <c r="AO4" s="219"/>
+      <c r="AP4" s="219"/>
+      <c r="AQ4" s="219"/>
+      <c r="AR4" s="219"/>
+      <c r="AS4" s="219"/>
+      <c r="AT4" s="219"/>
+      <c r="AU4" s="219"/>
+      <c r="AV4" s="219"/>
+      <c r="AW4" s="219"/>
+      <c r="AX4" s="219"/>
+      <c r="AY4" s="219"/>
+      <c r="AZ4" s="219"/>
+      <c r="BA4" s="219"/>
+      <c r="BB4" s="219"/>
+      <c r="BC4" s="219"/>
+      <c r="BD4" s="219"/>
+      <c r="BE4" s="219"/>
+      <c r="BF4" s="219"/>
+      <c r="BG4" s="219"/>
+      <c r="BH4" s="219"/>
+      <c r="BI4" s="219"/>
+      <c r="BJ4" s="219"/>
+      <c r="BK4" s="219"/>
+    </row>
+    <row r="5" spans="1:63" ht="18.75">
+      <c r="A5" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B5" s="210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="210">
+        <v>1450</v>
+      </c>
+      <c r="D5" s="210">
+        <v>1634</v>
+      </c>
+      <c r="E5" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="233" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="220" t="s">
+        <v>372</v>
+      </c>
+      <c r="K5" s="210"/>
+      <c r="L5" s="213" t="s">
+        <v>373</v>
+      </c>
+      <c r="M5" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="217" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="210" t="s">
+        <v>201</v>
+      </c>
+      <c r="P5" s="218" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="212">
+        <v>14</v>
+      </c>
+      <c r="S5" s="212">
+        <v>0</v>
+      </c>
+      <c r="T5" s="212">
+        <v>14</v>
+      </c>
+      <c r="U5" s="208" t="s">
+        <v>367</v>
+      </c>
+      <c r="V5" s="219"/>
+      <c r="W5" s="219"/>
+      <c r="X5" s="219"/>
+      <c r="Y5" s="219"/>
+      <c r="Z5" s="219"/>
+      <c r="AA5" s="219"/>
+      <c r="AB5" s="219"/>
+      <c r="AC5" s="219"/>
+      <c r="AD5" s="219"/>
+      <c r="AE5" s="219"/>
+      <c r="AF5" s="219"/>
+      <c r="AG5" s="219"/>
+      <c r="AH5" s="219"/>
+      <c r="AI5" s="219"/>
+      <c r="AJ5" s="219"/>
+      <c r="AK5" s="219"/>
+      <c r="AL5" s="219"/>
+      <c r="AM5" s="219"/>
+      <c r="AN5" s="219"/>
+      <c r="AO5" s="219"/>
+      <c r="AP5" s="219"/>
+      <c r="AQ5" s="219"/>
+      <c r="AR5" s="219"/>
+      <c r="AS5" s="219"/>
+      <c r="AT5" s="219"/>
+      <c r="AU5" s="219"/>
+      <c r="AV5" s="219"/>
+      <c r="AW5" s="219"/>
+      <c r="AX5" s="219"/>
+      <c r="AY5" s="219"/>
+      <c r="AZ5" s="219"/>
+      <c r="BA5" s="219"/>
+      <c r="BB5" s="219"/>
+      <c r="BC5" s="219"/>
+      <c r="BD5" s="219"/>
+      <c r="BE5" s="219"/>
+      <c r="BF5" s="219"/>
+      <c r="BG5" s="219"/>
+      <c r="BH5" s="219"/>
+      <c r="BI5" s="219"/>
+      <c r="BJ5" s="219"/>
+      <c r="BK5" s="219"/>
+    </row>
+    <row r="6" spans="1:63" ht="18.75">
+      <c r="A6" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B6" s="210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="210">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="210">
+        <v>1135</v>
+      </c>
+      <c r="E6" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="233" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" s="220" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="210"/>
+      <c r="L6" s="213" t="s">
+        <v>375</v>
+      </c>
+      <c r="M6" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="217" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="210" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="212">
+        <v>12</v>
+      </c>
+      <c r="S6" s="212">
+        <v>0</v>
+      </c>
+      <c r="T6" s="212">
+        <v>12</v>
+      </c>
+      <c r="U6" s="208" t="s">
+        <v>376</v>
+      </c>
+      <c r="V6" s="219"/>
+      <c r="W6" s="219"/>
+      <c r="X6" s="219"/>
+      <c r="Y6" s="219"/>
+      <c r="Z6" s="219"/>
+      <c r="AA6" s="219"/>
+      <c r="AB6" s="219"/>
+      <c r="AC6" s="219"/>
+      <c r="AD6" s="219"/>
+      <c r="AE6" s="219"/>
+      <c r="AF6" s="219"/>
+      <c r="AG6" s="219"/>
+      <c r="AH6" s="219"/>
+      <c r="AI6" s="219"/>
+      <c r="AJ6" s="219"/>
+      <c r="AK6" s="219"/>
+      <c r="AL6" s="219"/>
+      <c r="AM6" s="219"/>
+      <c r="AN6" s="219"/>
+      <c r="AO6" s="219"/>
+      <c r="AP6" s="219"/>
+      <c r="AQ6" s="219"/>
+      <c r="AR6" s="219"/>
+      <c r="AS6" s="219"/>
+      <c r="AT6" s="219"/>
+      <c r="AU6" s="219"/>
+      <c r="AV6" s="219"/>
+      <c r="AW6" s="219"/>
+      <c r="AX6" s="219"/>
+      <c r="AY6" s="219"/>
+      <c r="AZ6" s="219"/>
+      <c r="BA6" s="219"/>
+      <c r="BB6" s="219"/>
+      <c r="BC6" s="219"/>
+      <c r="BD6" s="219"/>
+      <c r="BE6" s="219"/>
+      <c r="BF6" s="219"/>
+      <c r="BG6" s="219"/>
+      <c r="BH6" s="219"/>
+      <c r="BI6" s="219"/>
+      <c r="BJ6" s="219"/>
+      <c r="BK6" s="219"/>
+    </row>
+    <row r="7" spans="1:63" ht="18.75">
+      <c r="A7" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B7" s="210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="210">
+        <v>1750</v>
+      </c>
+      <c r="D7" s="210">
+        <v>1921</v>
+      </c>
+      <c r="E7" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="233" t="s">
+        <v>397</v>
+      </c>
+      <c r="J7" s="220" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="210"/>
+      <c r="L7" s="213" t="s">
+        <v>378</v>
+      </c>
+      <c r="M7" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="217" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="210" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="218" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="212">
+        <v>14</v>
+      </c>
+      <c r="S7" s="212">
+        <v>0</v>
+      </c>
+      <c r="T7" s="212">
+        <v>14</v>
+      </c>
+      <c r="U7" s="208" t="s">
+        <v>379</v>
+      </c>
+      <c r="V7" s="219"/>
+      <c r="W7" s="219"/>
+      <c r="X7" s="219"/>
+      <c r="Y7" s="219"/>
+      <c r="Z7" s="219"/>
+      <c r="AA7" s="219"/>
+      <c r="AB7" s="219"/>
+      <c r="AC7" s="219"/>
+      <c r="AD7" s="219"/>
+      <c r="AE7" s="219"/>
+      <c r="AF7" s="219"/>
+      <c r="AG7" s="219"/>
+      <c r="AH7" s="219"/>
+      <c r="AI7" s="219"/>
+      <c r="AJ7" s="219"/>
+      <c r="AK7" s="219"/>
+      <c r="AL7" s="219"/>
+      <c r="AM7" s="219"/>
+      <c r="AN7" s="219"/>
+      <c r="AO7" s="219"/>
+      <c r="AP7" s="219"/>
+      <c r="AQ7" s="219"/>
+      <c r="AR7" s="219"/>
+      <c r="AS7" s="219"/>
+      <c r="AT7" s="219"/>
+      <c r="AU7" s="219"/>
+      <c r="AV7" s="219"/>
+      <c r="AW7" s="219"/>
+      <c r="AX7" s="219"/>
+      <c r="AY7" s="219"/>
+      <c r="AZ7" s="219"/>
+      <c r="BA7" s="219"/>
+      <c r="BB7" s="219"/>
+      <c r="BC7" s="219"/>
+      <c r="BD7" s="219"/>
+      <c r="BE7" s="219"/>
+      <c r="BF7" s="219"/>
+      <c r="BG7" s="219"/>
+      <c r="BH7" s="219"/>
+      <c r="BI7" s="219"/>
+      <c r="BJ7" s="219"/>
+      <c r="BK7" s="219"/>
+    </row>
+    <row r="8" spans="1:63" ht="18.75">
+      <c r="A8" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B8" s="210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="210">
+        <v>1459</v>
+      </c>
+      <c r="D8" s="210">
+        <v>1650</v>
+      </c>
+      <c r="E8" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="233" t="s">
+        <v>398</v>
+      </c>
+      <c r="J8" s="220" t="s">
+        <v>380</v>
+      </c>
+      <c r="K8" s="210"/>
+      <c r="L8" s="213" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="217" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="210" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="218" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="212">
+        <v>14</v>
+      </c>
+      <c r="S8" s="212">
+        <v>0</v>
+      </c>
+      <c r="T8" s="212">
+        <v>14</v>
+      </c>
+      <c r="U8" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="219"/>
+      <c r="AG8" s="219"/>
+      <c r="AH8" s="219"/>
+      <c r="AI8" s="219"/>
+      <c r="AJ8" s="219"/>
+      <c r="AK8" s="219"/>
+      <c r="AL8" s="219"/>
+      <c r="AM8" s="219"/>
+      <c r="AN8" s="219"/>
+      <c r="AO8" s="219"/>
+      <c r="AP8" s="219"/>
+      <c r="AQ8" s="219"/>
+      <c r="AR8" s="219"/>
+      <c r="AS8" s="219"/>
+      <c r="AT8" s="219"/>
+      <c r="AU8" s="219"/>
+      <c r="AV8" s="219"/>
+      <c r="AW8" s="219"/>
+      <c r="AX8" s="219"/>
+      <c r="AY8" s="219"/>
+      <c r="AZ8" s="219"/>
+      <c r="BA8" s="219"/>
+      <c r="BB8" s="219"/>
+      <c r="BC8" s="219"/>
+      <c r="BD8" s="219"/>
+      <c r="BE8" s="219"/>
+      <c r="BF8" s="219"/>
+      <c r="BG8" s="219"/>
+      <c r="BH8" s="219"/>
+      <c r="BI8" s="219"/>
+      <c r="BJ8" s="219"/>
+      <c r="BK8" s="219"/>
+    </row>
+    <row r="9" spans="1:63" ht="18.75">
+      <c r="A9" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B9" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="210">
+        <v>1910</v>
+      </c>
+      <c r="D9" s="210">
+        <v>2044</v>
+      </c>
+      <c r="E9" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="233" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" s="220" t="s">
+        <v>382</v>
+      </c>
+      <c r="K9" s="210"/>
+      <c r="L9" s="213" t="s">
+        <v>383</v>
+      </c>
+      <c r="M9" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="217" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="210" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="218" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="212">
+        <v>14</v>
+      </c>
+      <c r="S9" s="212">
+        <v>0</v>
+      </c>
+      <c r="T9" s="212">
+        <v>14</v>
+      </c>
+      <c r="U9" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" s="219"/>
+      <c r="W9" s="219"/>
+      <c r="X9" s="219"/>
+      <c r="Y9" s="219"/>
+      <c r="Z9" s="219"/>
+      <c r="AA9" s="219"/>
+      <c r="AB9" s="219"/>
+      <c r="AC9" s="219"/>
+      <c r="AD9" s="219"/>
+      <c r="AE9" s="219"/>
+      <c r="AF9" s="219"/>
+      <c r="AG9" s="219"/>
+      <c r="AH9" s="219"/>
+      <c r="AI9" s="219"/>
+      <c r="AJ9" s="219"/>
+      <c r="AK9" s="219"/>
+      <c r="AL9" s="219"/>
+      <c r="AM9" s="219"/>
+      <c r="AN9" s="219"/>
+      <c r="AO9" s="219"/>
+      <c r="AP9" s="219"/>
+      <c r="AQ9" s="219"/>
+      <c r="AR9" s="219"/>
+      <c r="AS9" s="219"/>
+      <c r="AT9" s="219"/>
+      <c r="AU9" s="219"/>
+      <c r="AV9" s="219"/>
+      <c r="AW9" s="219"/>
+      <c r="AX9" s="219"/>
+      <c r="AY9" s="219"/>
+      <c r="AZ9" s="219"/>
+      <c r="BA9" s="219"/>
+      <c r="BB9" s="219"/>
+      <c r="BC9" s="219"/>
+      <c r="BD9" s="219"/>
+      <c r="BE9" s="219"/>
+      <c r="BF9" s="219"/>
+      <c r="BG9" s="219"/>
+      <c r="BH9" s="219"/>
+      <c r="BI9" s="219"/>
+      <c r="BJ9" s="219"/>
+      <c r="BK9" s="219"/>
+    </row>
+    <row r="10" spans="1:63" ht="18.75">
+      <c r="A10" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B10" s="210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="210">
+        <v>1929</v>
+      </c>
+      <c r="D10" s="210">
+        <v>2125</v>
+      </c>
+      <c r="E10" s="211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="233" t="s">
+        <v>400</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="K10" s="210"/>
+      <c r="L10" s="213" t="s">
+        <v>385</v>
+      </c>
+      <c r="M10" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="210" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="218" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q10" s="208" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="212">
+        <v>10</v>
+      </c>
+      <c r="S10" s="212">
+        <v>0</v>
+      </c>
+      <c r="T10" s="212">
+        <v>10</v>
+      </c>
+      <c r="U10" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="219"/>
+      <c r="W10" s="219"/>
+      <c r="X10" s="219"/>
+      <c r="Y10" s="219"/>
+      <c r="Z10" s="219"/>
+      <c r="AA10" s="219"/>
+      <c r="AB10" s="219"/>
+      <c r="AC10" s="219"/>
+      <c r="AD10" s="219"/>
+      <c r="AE10" s="219"/>
+      <c r="AF10" s="219"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="219"/>
+      <c r="AJ10" s="219"/>
+      <c r="AK10" s="219"/>
+      <c r="AL10" s="219"/>
+      <c r="AM10" s="219"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="219"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="219"/>
+      <c r="AT10" s="219"/>
+      <c r="AU10" s="219"/>
+      <c r="AV10" s="219"/>
+      <c r="AW10" s="219"/>
+      <c r="AX10" s="219"/>
+      <c r="AY10" s="219"/>
+      <c r="AZ10" s="219"/>
+      <c r="BA10" s="219"/>
+      <c r="BB10" s="219"/>
+      <c r="BC10" s="219"/>
+      <c r="BD10" s="219"/>
+      <c r="BE10" s="219"/>
+      <c r="BF10" s="219"/>
+      <c r="BG10" s="219"/>
+      <c r="BH10" s="219"/>
+      <c r="BI10" s="219"/>
+      <c r="BJ10" s="219"/>
+      <c r="BK10" s="219"/>
+    </row>
+    <row r="11" spans="1:63" ht="18.75">
+      <c r="A11" s="209">
+        <v>43208</v>
+      </c>
+      <c r="B11" s="210" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="210">
+        <v>1925</v>
+      </c>
+      <c r="D11" s="210">
+        <v>2057</v>
+      </c>
+      <c r="E11" s="211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="211" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="211" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="233" t="s">
+        <v>401</v>
+      </c>
+      <c r="J11" s="220" t="s">
+        <v>388</v>
+      </c>
+      <c r="K11" s="210"/>
+      <c r="L11" s="213" t="s">
+        <v>389</v>
+      </c>
+      <c r="M11" s="208" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="217" t="s">
+        <v>390</v>
+      </c>
+      <c r="O11" s="210" t="s">
+        <v>390</v>
+      </c>
+      <c r="P11" s="218" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q11" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="R11" s="212">
+        <v>24</v>
+      </c>
+      <c r="S11" s="212">
+        <v>0</v>
+      </c>
+      <c r="T11" s="212">
+        <v>24</v>
+      </c>
+      <c r="U11" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="219"/>
+      <c r="W11" s="219"/>
+      <c r="X11" s="219"/>
+      <c r="Y11" s="219"/>
+      <c r="Z11" s="219"/>
+      <c r="AA11" s="219"/>
+      <c r="AB11" s="219"/>
+      <c r="AC11" s="219"/>
+      <c r="AD11" s="219"/>
+      <c r="AE11" s="219"/>
+      <c r="AF11" s="219"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="219"/>
+      <c r="AJ11" s="219"/>
+      <c r="AK11" s="219"/>
+      <c r="AL11" s="219"/>
+      <c r="AM11" s="219"/>
+      <c r="AN11" s="219"/>
+      <c r="AO11" s="219"/>
+      <c r="AP11" s="219"/>
+      <c r="AQ11" s="219"/>
+      <c r="AR11" s="219"/>
+      <c r="AS11" s="219"/>
+      <c r="AT11" s="219"/>
+      <c r="AU11" s="219"/>
+      <c r="AV11" s="219"/>
+      <c r="AW11" s="219"/>
+      <c r="AX11" s="219"/>
+      <c r="AY11" s="219"/>
+      <c r="AZ11" s="219"/>
+      <c r="BA11" s="219"/>
+      <c r="BB11" s="219"/>
+      <c r="BC11" s="219"/>
+      <c r="BD11" s="219"/>
+      <c r="BE11" s="219"/>
+      <c r="BF11" s="219"/>
+      <c r="BG11" s="219"/>
+      <c r="BH11" s="219"/>
+      <c r="BI11" s="219"/>
+      <c r="BJ11" s="219"/>
+      <c r="BK11" s="219"/>
+    </row>
+    <row r="12" spans="1:63" ht="18.75">
+      <c r="A12" s="224">
+        <v>43208</v>
+      </c>
+      <c r="B12" s="225" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="225">
+        <v>1800</v>
+      </c>
+      <c r="D12" s="225">
+        <v>1955</v>
+      </c>
+      <c r="E12" s="226" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="226" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="226" t="s">
+        <v>406</v>
+      </c>
+      <c r="H12" s="226" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" s="233" t="s">
+        <v>410</v>
+      </c>
+      <c r="J12" s="232" t="s">
+        <v>408</v>
+      </c>
+      <c r="K12" s="225"/>
+      <c r="L12" s="228" t="s">
+        <v>409</v>
+      </c>
+      <c r="M12" s="223" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="229" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="225" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="230" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q12" s="223" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="227">
+        <v>14</v>
+      </c>
+      <c r="S12" s="227">
+        <v>0</v>
+      </c>
+      <c r="T12" s="227">
+        <v>14</v>
+      </c>
+      <c r="U12" s="223" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" s="231"/>
+      <c r="W12" s="231"/>
+      <c r="X12" s="231"/>
+      <c r="Y12" s="231"/>
+      <c r="Z12" s="231"/>
+      <c r="AA12" s="231"/>
+      <c r="AB12" s="231"/>
+      <c r="AC12" s="231"/>
+      <c r="AD12" s="231"/>
+      <c r="AE12" s="231"/>
+      <c r="AF12" s="231"/>
+      <c r="AG12" s="231"/>
+      <c r="AH12" s="231"/>
+      <c r="AI12" s="231"/>
+      <c r="AJ12" s="231"/>
+      <c r="AK12" s="231"/>
+      <c r="AL12" s="231"/>
+      <c r="AM12" s="231"/>
+      <c r="AN12" s="231"/>
+      <c r="AO12" s="231"/>
+      <c r="AP12" s="231"/>
+      <c r="AQ12" s="231"/>
+      <c r="AR12" s="231"/>
+      <c r="AS12" s="231"/>
+      <c r="AT12" s="231"/>
+      <c r="AU12" s="231"/>
+      <c r="AV12" s="231"/>
+      <c r="AW12" s="231"/>
+      <c r="AX12" s="231"/>
+      <c r="AY12" s="231"/>
+      <c r="AZ12" s="231"/>
+      <c r="BA12" s="231"/>
+      <c r="BB12" s="231"/>
+      <c r="BC12" s="231"/>
+      <c r="BD12" s="231"/>
+      <c r="BE12" s="231"/>
+      <c r="BF12" s="231"/>
+      <c r="BG12" s="231"/>
+      <c r="BH12" s="231"/>
+      <c r="BI12" s="231"/>
+      <c r="BJ12" s="231"/>
+      <c r="BK12" s="231"/>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="O15" s="222" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI71"/>
   <sheetViews>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,17 @@
     <sheet name="4-17" sheetId="18" r:id="rId17"/>
     <sheet name="4-18" sheetId="19" r:id="rId18"/>
     <sheet name="汇总明线" sheetId="3" r:id="rId19"/>
+    <sheet name="4-19" sheetId="20" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="438">
   <si>
     <t>王成</t>
   </si>
@@ -1376,6 +1377,91 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028635</t>
+  </si>
+  <si>
+    <t>4袋（1盘退货）</t>
+  </si>
+  <si>
+    <t>0024806</t>
+  </si>
+  <si>
+    <t>邓军</t>
+  </si>
+  <si>
+    <t>11袋</t>
+  </si>
+  <si>
+    <t>0024877</t>
+  </si>
+  <si>
+    <t>0024804</t>
+  </si>
+  <si>
+    <t>3袋</t>
+  </si>
+  <si>
+    <t>0024805</t>
+  </si>
+  <si>
+    <t>19袋</t>
+  </si>
+  <si>
+    <t>0024802</t>
+  </si>
+  <si>
+    <t>0024868</t>
+  </si>
+  <si>
+    <t>WW0019999</t>
+  </si>
+  <si>
+    <t>WW0017134</t>
+  </si>
+  <si>
+    <t>WW0016815</t>
+  </si>
+  <si>
+    <t>WW0017497</t>
+  </si>
+  <si>
+    <t>WW0017117</t>
+  </si>
+  <si>
+    <t>WW0017873</t>
+  </si>
+  <si>
+    <t>WW0016863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常福园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分拣退货组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0069933</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0017293</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周华安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂AZR876</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1678,7 +1764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2379,6 +2465,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9519,8 +9647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17185,6 +17313,923 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BH14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" ht="15">
+      <c r="A1" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="242" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="242" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="242" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="242" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="242" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="242" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="243" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="243" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="242" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="242" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="242" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="244" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="234"/>
+      <c r="AE1" s="234"/>
+      <c r="AF1" s="234"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="235"/>
+      <c r="AL1" s="235"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
+      <c r="AS1" s="235"/>
+      <c r="AT1" s="235"/>
+      <c r="AU1" s="235"/>
+      <c r="AV1" s="235"/>
+      <c r="AW1" s="235"/>
+      <c r="AX1" s="235"/>
+      <c r="AY1" s="235"/>
+      <c r="AZ1" s="235"/>
+      <c r="BA1" s="235"/>
+      <c r="BB1" s="235"/>
+      <c r="BC1" s="235"/>
+      <c r="BD1" s="235"/>
+      <c r="BE1" s="235"/>
+      <c r="BF1" s="235"/>
+      <c r="BG1" s="235"/>
+      <c r="BH1" s="235"/>
+    </row>
+    <row r="2" spans="1:60" ht="18.75">
+      <c r="A2" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B2" s="238" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="238">
+        <v>1225</v>
+      </c>
+      <c r="D2" s="238">
+        <v>1430</v>
+      </c>
+      <c r="E2" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="233" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" s="241" t="s">
+        <v>412</v>
+      </c>
+      <c r="K2" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="245" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="246" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="240">
+        <v>14</v>
+      </c>
+      <c r="P2" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="240">
+        <v>14</v>
+      </c>
+      <c r="R2" s="236" t="s">
+        <v>413</v>
+      </c>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="247"/>
+      <c r="AD2" s="247"/>
+      <c r="AE2" s="247"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="247"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="247"/>
+      <c r="AJ2" s="247"/>
+      <c r="AK2" s="247"/>
+      <c r="AL2" s="247"/>
+      <c r="AM2" s="247"/>
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="247"/>
+      <c r="AP2" s="247"/>
+      <c r="AQ2" s="247"/>
+      <c r="AR2" s="247"/>
+      <c r="AS2" s="247"/>
+      <c r="AT2" s="247"/>
+      <c r="AU2" s="247"/>
+      <c r="AV2" s="247"/>
+      <c r="AW2" s="247"/>
+      <c r="AX2" s="247"/>
+      <c r="AY2" s="247"/>
+      <c r="AZ2" s="247"/>
+      <c r="BA2" s="247"/>
+      <c r="BB2" s="247"/>
+      <c r="BC2" s="247"/>
+      <c r="BD2" s="247"/>
+      <c r="BE2" s="247"/>
+      <c r="BF2" s="247"/>
+      <c r="BG2" s="247"/>
+      <c r="BH2" s="247"/>
+    </row>
+    <row r="3" spans="1:60" ht="18.75">
+      <c r="A3" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B3" s="238" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="238">
+        <v>1840</v>
+      </c>
+      <c r="D3" s="238">
+        <v>2116</v>
+      </c>
+      <c r="E3" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="233" t="s">
+        <v>425</v>
+      </c>
+      <c r="J3" s="241" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="245" t="s">
+        <v>323</v>
+      </c>
+      <c r="M3" s="246" t="s">
+        <v>415</v>
+      </c>
+      <c r="N3" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="240">
+        <v>14</v>
+      </c>
+      <c r="P3" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="240">
+        <v>14</v>
+      </c>
+      <c r="R3" s="236" t="s">
+        <v>416</v>
+      </c>
+      <c r="S3" s="247"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="247"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="247"/>
+      <c r="AC3" s="247"/>
+      <c r="AD3" s="247"/>
+      <c r="AE3" s="247"/>
+      <c r="AF3" s="247"/>
+      <c r="AG3" s="247"/>
+      <c r="AH3" s="247"/>
+      <c r="AI3" s="247"/>
+      <c r="AJ3" s="247"/>
+      <c r="AK3" s="247"/>
+      <c r="AL3" s="247"/>
+      <c r="AM3" s="247"/>
+      <c r="AN3" s="247"/>
+      <c r="AO3" s="247"/>
+      <c r="AP3" s="247"/>
+      <c r="AQ3" s="247"/>
+      <c r="AR3" s="247"/>
+      <c r="AS3" s="247"/>
+      <c r="AT3" s="247"/>
+      <c r="AU3" s="247"/>
+      <c r="AV3" s="247"/>
+      <c r="AW3" s="247"/>
+      <c r="AX3" s="247"/>
+      <c r="AY3" s="247"/>
+      <c r="AZ3" s="247"/>
+      <c r="BA3" s="247"/>
+      <c r="BB3" s="247"/>
+      <c r="BC3" s="247"/>
+      <c r="BD3" s="247"/>
+      <c r="BE3" s="247"/>
+      <c r="BF3" s="247"/>
+      <c r="BG3" s="247"/>
+      <c r="BH3" s="247"/>
+    </row>
+    <row r="4" spans="1:60" ht="18.75">
+      <c r="A4" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B4" s="238" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="238">
+        <v>1920</v>
+      </c>
+      <c r="D4" s="238">
+        <v>2058</v>
+      </c>
+      <c r="E4" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="233" t="s">
+        <v>426</v>
+      </c>
+      <c r="J4" s="241" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="245" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="240">
+        <v>14</v>
+      </c>
+      <c r="P4" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="240">
+        <v>14</v>
+      </c>
+      <c r="R4" s="236" t="s">
+        <v>416</v>
+      </c>
+      <c r="S4" s="247"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="247"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="247"/>
+      <c r="Z4" s="247"/>
+      <c r="AA4" s="247"/>
+      <c r="AB4" s="247"/>
+      <c r="AC4" s="247"/>
+      <c r="AD4" s="247"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="247"/>
+      <c r="AG4" s="247"/>
+      <c r="AH4" s="247"/>
+      <c r="AI4" s="247"/>
+      <c r="AJ4" s="247"/>
+      <c r="AK4" s="247"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="247"/>
+      <c r="AN4" s="247"/>
+      <c r="AO4" s="247"/>
+      <c r="AP4" s="247"/>
+      <c r="AQ4" s="247"/>
+      <c r="AR4" s="247"/>
+      <c r="AS4" s="247"/>
+      <c r="AT4" s="247"/>
+      <c r="AU4" s="247"/>
+      <c r="AV4" s="247"/>
+      <c r="AW4" s="247"/>
+      <c r="AX4" s="247"/>
+      <c r="AY4" s="247"/>
+      <c r="AZ4" s="247"/>
+      <c r="BA4" s="247"/>
+      <c r="BB4" s="247"/>
+      <c r="BC4" s="247"/>
+      <c r="BD4" s="247"/>
+      <c r="BE4" s="247"/>
+      <c r="BF4" s="247"/>
+      <c r="BG4" s="247"/>
+      <c r="BH4" s="247"/>
+    </row>
+    <row r="5" spans="1:60" ht="18.75">
+      <c r="A5" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B5" s="238" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="238">
+        <v>1735</v>
+      </c>
+      <c r="D5" s="238">
+        <v>2028</v>
+      </c>
+      <c r="E5" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="233" t="s">
+        <v>427</v>
+      </c>
+      <c r="J5" s="241" t="s">
+        <v>418</v>
+      </c>
+      <c r="K5" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="245" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="246" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="240">
+        <v>14</v>
+      </c>
+      <c r="P5" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="240">
+        <v>14</v>
+      </c>
+      <c r="R5" s="236" t="s">
+        <v>419</v>
+      </c>
+      <c r="S5" s="247"/>
+      <c r="T5" s="247"/>
+      <c r="U5" s="247"/>
+      <c r="V5" s="247"/>
+      <c r="W5" s="247"/>
+      <c r="X5" s="247"/>
+      <c r="Y5" s="247"/>
+      <c r="Z5" s="247"/>
+      <c r="AA5" s="247"/>
+      <c r="AB5" s="247"/>
+      <c r="AC5" s="247"/>
+      <c r="AD5" s="247"/>
+      <c r="AE5" s="247"/>
+      <c r="AF5" s="247"/>
+      <c r="AG5" s="247"/>
+      <c r="AH5" s="247"/>
+      <c r="AI5" s="247"/>
+      <c r="AJ5" s="247"/>
+      <c r="AK5" s="247"/>
+      <c r="AL5" s="247"/>
+      <c r="AM5" s="247"/>
+      <c r="AN5" s="247"/>
+      <c r="AO5" s="247"/>
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="247"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="247"/>
+      <c r="AW5" s="247"/>
+      <c r="AX5" s="247"/>
+      <c r="AY5" s="247"/>
+      <c r="AZ5" s="247"/>
+      <c r="BA5" s="247"/>
+      <c r="BB5" s="247"/>
+      <c r="BC5" s="247"/>
+      <c r="BD5" s="247"/>
+      <c r="BE5" s="247"/>
+      <c r="BF5" s="247"/>
+      <c r="BG5" s="247"/>
+      <c r="BH5" s="247"/>
+    </row>
+    <row r="6" spans="1:60" ht="18.75">
+      <c r="A6" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B6" s="238" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="238">
+        <v>1820</v>
+      </c>
+      <c r="D6" s="238">
+        <v>2004</v>
+      </c>
+      <c r="E6" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="233" t="s">
+        <v>428</v>
+      </c>
+      <c r="J6" s="241" t="s">
+        <v>420</v>
+      </c>
+      <c r="K6" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="245" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="246" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="240">
+        <v>14</v>
+      </c>
+      <c r="P6" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="240">
+        <v>14</v>
+      </c>
+      <c r="R6" s="236" t="s">
+        <v>421</v>
+      </c>
+      <c r="S6" s="247"/>
+      <c r="T6" s="247"/>
+      <c r="U6" s="247"/>
+      <c r="V6" s="247"/>
+      <c r="W6" s="247"/>
+      <c r="X6" s="247"/>
+      <c r="Y6" s="247"/>
+      <c r="Z6" s="247"/>
+      <c r="AA6" s="247"/>
+      <c r="AB6" s="247"/>
+      <c r="AC6" s="247"/>
+      <c r="AD6" s="247"/>
+      <c r="AE6" s="247"/>
+      <c r="AF6" s="247"/>
+      <c r="AG6" s="247"/>
+      <c r="AH6" s="247"/>
+      <c r="AI6" s="247"/>
+      <c r="AJ6" s="247"/>
+      <c r="AK6" s="247"/>
+      <c r="AL6" s="247"/>
+      <c r="AM6" s="247"/>
+      <c r="AN6" s="247"/>
+      <c r="AO6" s="247"/>
+      <c r="AP6" s="247"/>
+      <c r="AQ6" s="247"/>
+      <c r="AR6" s="247"/>
+      <c r="AS6" s="247"/>
+      <c r="AT6" s="247"/>
+      <c r="AU6" s="247"/>
+      <c r="AV6" s="247"/>
+      <c r="AW6" s="247"/>
+      <c r="AX6" s="247"/>
+      <c r="AY6" s="247"/>
+      <c r="AZ6" s="247"/>
+      <c r="BA6" s="247"/>
+      <c r="BB6" s="247"/>
+      <c r="BC6" s="247"/>
+      <c r="BD6" s="247"/>
+      <c r="BE6" s="247"/>
+      <c r="BF6" s="247"/>
+      <c r="BG6" s="247"/>
+      <c r="BH6" s="247"/>
+    </row>
+    <row r="7" spans="1:60" ht="18.75">
+      <c r="A7" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B7" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="238">
+        <v>1929</v>
+      </c>
+      <c r="D7" s="238">
+        <v>2108</v>
+      </c>
+      <c r="E7" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="233" t="s">
+        <v>429</v>
+      </c>
+      <c r="J7" s="241" t="s">
+        <v>422</v>
+      </c>
+      <c r="K7" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="245" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="246" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="240">
+        <v>12</v>
+      </c>
+      <c r="P7" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="240">
+        <v>12</v>
+      </c>
+      <c r="R7" s="236"/>
+      <c r="S7" s="247"/>
+      <c r="T7" s="247"/>
+      <c r="U7" s="247"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="247"/>
+      <c r="X7" s="247"/>
+      <c r="Y7" s="247"/>
+      <c r="Z7" s="247"/>
+      <c r="AA7" s="247"/>
+      <c r="AB7" s="247"/>
+      <c r="AC7" s="247"/>
+      <c r="AD7" s="247"/>
+      <c r="AE7" s="247"/>
+      <c r="AF7" s="247"/>
+      <c r="AG7" s="247"/>
+      <c r="AH7" s="247"/>
+      <c r="AI7" s="247"/>
+      <c r="AJ7" s="247"/>
+      <c r="AK7" s="247"/>
+      <c r="AL7" s="247"/>
+      <c r="AM7" s="247"/>
+      <c r="AN7" s="247"/>
+      <c r="AO7" s="247"/>
+      <c r="AP7" s="247"/>
+      <c r="AQ7" s="247"/>
+      <c r="AR7" s="247"/>
+      <c r="AS7" s="247"/>
+      <c r="AT7" s="247"/>
+      <c r="AU7" s="247"/>
+      <c r="AV7" s="247"/>
+      <c r="AW7" s="247"/>
+      <c r="AX7" s="247"/>
+      <c r="AY7" s="247"/>
+      <c r="AZ7" s="247"/>
+      <c r="BA7" s="247"/>
+      <c r="BB7" s="247"/>
+      <c r="BC7" s="247"/>
+      <c r="BD7" s="247"/>
+      <c r="BE7" s="247"/>
+      <c r="BF7" s="247"/>
+      <c r="BG7" s="247"/>
+      <c r="BH7" s="247"/>
+    </row>
+    <row r="8" spans="1:60" ht="18.75">
+      <c r="A8" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B8" s="238" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="238">
+        <v>1825</v>
+      </c>
+      <c r="D8" s="238">
+        <v>2006</v>
+      </c>
+      <c r="E8" s="239" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="239" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="239" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="239" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="233" t="s">
+        <v>430</v>
+      </c>
+      <c r="J8" s="241" t="s">
+        <v>423</v>
+      </c>
+      <c r="K8" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="245" t="s">
+        <v>201</v>
+      </c>
+      <c r="M8" s="246" t="s">
+        <v>202</v>
+      </c>
+      <c r="N8" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="240">
+        <v>14</v>
+      </c>
+      <c r="P8" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="240">
+        <v>14</v>
+      </c>
+      <c r="R8" s="236"/>
+      <c r="S8" s="247"/>
+      <c r="T8" s="247"/>
+      <c r="U8" s="247"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="247"/>
+      <c r="X8" s="247"/>
+      <c r="Y8" s="247"/>
+      <c r="Z8" s="247"/>
+      <c r="AA8" s="247"/>
+      <c r="AB8" s="247"/>
+      <c r="AC8" s="247"/>
+      <c r="AD8" s="247"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="247"/>
+      <c r="AG8" s="247"/>
+      <c r="AH8" s="247"/>
+      <c r="AI8" s="247"/>
+      <c r="AJ8" s="247"/>
+      <c r="AK8" s="247"/>
+      <c r="AL8" s="247"/>
+      <c r="AM8" s="247"/>
+      <c r="AN8" s="247"/>
+      <c r="AO8" s="247"/>
+      <c r="AP8" s="247"/>
+      <c r="AQ8" s="247"/>
+      <c r="AR8" s="247"/>
+      <c r="AS8" s="247"/>
+      <c r="AT8" s="247"/>
+      <c r="AU8" s="247"/>
+      <c r="AV8" s="247"/>
+      <c r="AW8" s="247"/>
+      <c r="AX8" s="247"/>
+      <c r="AY8" s="247"/>
+      <c r="AZ8" s="247"/>
+      <c r="BA8" s="247"/>
+      <c r="BB8" s="247"/>
+      <c r="BC8" s="247"/>
+      <c r="BD8" s="247"/>
+      <c r="BE8" s="247"/>
+      <c r="BF8" s="247"/>
+      <c r="BG8" s="247"/>
+      <c r="BH8" s="247"/>
+    </row>
+    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75">
+      <c r="A9" s="237">
+        <v>43209</v>
+      </c>
+      <c r="B9" s="238" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="238">
+        <v>1800</v>
+      </c>
+      <c r="D9" s="238">
+        <v>1955</v>
+      </c>
+      <c r="E9" s="239" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="239" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="239" t="s">
+        <v>432</v>
+      </c>
+      <c r="H9" s="239" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" s="233" t="s">
+        <v>435</v>
+      </c>
+      <c r="J9" s="241" t="s">
+        <v>434</v>
+      </c>
+      <c r="K9" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="245" t="s">
+        <v>437</v>
+      </c>
+      <c r="M9" s="246" t="s">
+        <v>436</v>
+      </c>
+      <c r="N9" s="236" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="240">
+        <v>10</v>
+      </c>
+      <c r="P9" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="240">
+        <v>14</v>
+      </c>
+      <c r="R9" s="236" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="247"/>
+      <c r="T9" s="247"/>
+      <c r="U9" s="247"/>
+      <c r="V9" s="247"/>
+      <c r="W9" s="247"/>
+      <c r="X9" s="247"/>
+      <c r="Y9" s="247"/>
+      <c r="Z9" s="247"/>
+      <c r="AA9" s="247"/>
+      <c r="AB9" s="247"/>
+      <c r="AC9" s="247"/>
+      <c r="AD9" s="247"/>
+      <c r="AE9" s="247"/>
+      <c r="AF9" s="247"/>
+      <c r="AG9" s="247"/>
+      <c r="AH9" s="247"/>
+      <c r="AI9" s="247"/>
+      <c r="AJ9" s="247"/>
+      <c r="AK9" s="247"/>
+      <c r="AL9" s="247"/>
+      <c r="AM9" s="247"/>
+      <c r="AN9" s="247"/>
+      <c r="AO9" s="247"/>
+      <c r="AP9" s="247"/>
+      <c r="AQ9" s="247"/>
+      <c r="AR9" s="247"/>
+      <c r="AS9" s="247"/>
+      <c r="AT9" s="247"/>
+      <c r="AU9" s="247"/>
+      <c r="AV9" s="247"/>
+      <c r="AW9" s="247"/>
+      <c r="AX9" s="247"/>
+      <c r="AY9" s="247"/>
+      <c r="AZ9" s="247"/>
+      <c r="BA9" s="247"/>
+      <c r="BB9" s="247"/>
+      <c r="BC9" s="247"/>
+      <c r="BD9" s="247"/>
+      <c r="BE9" s="247"/>
+      <c r="BF9" s="247"/>
+      <c r="BG9" s="247"/>
+      <c r="BH9" s="247"/>
+    </row>
+    <row r="14" spans="1:60">
+      <c r="L14" s="222" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI7"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\weiwei\4月报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3E66C819-5B1C-44AC-9FBD-D6B7345A8E46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="10" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -27,16 +33,17 @@
     <sheet name="4-18" sheetId="19" r:id="rId18"/>
     <sheet name="汇总明线" sheetId="3" r:id="rId19"/>
     <sheet name="4-19" sheetId="20" r:id="rId20"/>
+    <sheet name="4-20" sheetId="21" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="460">
   <si>
     <t>王成</t>
   </si>
@@ -1462,19 +1469,107 @@
   </si>
   <si>
     <t>鄂AZR876</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16751</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024878</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17258</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024816</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17294</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024798</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18654</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024819</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16192</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028649</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16864</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024801</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028634</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0018233</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024803</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂ANH299</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王加先</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9袋</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,6 +1699,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1764,7 +1865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2507,37 +2608,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 2 2 2" xfId="21"/>
-    <cellStyle name="常规 2 2 3" xfId="24"/>
-    <cellStyle name="常规 2 3" xfId="8"/>
-    <cellStyle name="常规 2 3 2" xfId="16"/>
-    <cellStyle name="常规 2 4" xfId="12"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 3 2" xfId="9"/>
-    <cellStyle name="常规 3 2 2" xfId="17"/>
-    <cellStyle name="常规 3 3" xfId="13"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 4 2" xfId="14"/>
-    <cellStyle name="常规 5" xfId="7"/>
-    <cellStyle name="常规 5 2" xfId="15"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 7" xfId="10"/>
-    <cellStyle name="常规 7 2" xfId="22"/>
-    <cellStyle name="常规 7 3" xfId="25"/>
-    <cellStyle name="常规 8" xfId="11"/>
-    <cellStyle name="常规 8 2" xfId="20"/>
-    <cellStyle name="常规 8 3" xfId="18"/>
-    <cellStyle name="常规 9" xfId="1"/>
-    <cellStyle name="常规 9 2" xfId="19"/>
-    <cellStyle name="常规 9 2 2" xfId="23"/>
-    <cellStyle name="常规 9 2 3" xfId="26"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 7 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 7 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 9 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 9 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -3224,11 +3328,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -3246,8 +3358,13 @@
       <sheetName val="4-13"/>
       <sheetName val="4-14"/>
       <sheetName val="4-15"/>
+      <sheetName val="4-16"/>
+      <sheetName val="4-17"/>
+      <sheetName val="4-18"/>
+      <sheetName val="4-19"/>
+      <sheetName val="4-20"/>
       <sheetName val="ch"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="分析"/>
       <sheetName val="汇总明线"/>
     </sheetNames>
     <sheetDataSet>
@@ -3266,7 +3383,12 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15">
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>陈和敏</v>
@@ -3540,15 +3662,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3590,7 +3712,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3622,9 +3744,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3656,6 +3796,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3831,14 +3989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -3855,7 +4013,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.5" customHeight="1">
+    <row r="1" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -3953,7 +4111,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -4007,7 +4165,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -4061,7 +4219,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -4115,7 +4273,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -4169,7 +4327,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -4223,7 +4381,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -4284,14 +4442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -4313,7 +4471,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>36</v>
       </c>
@@ -4420,7 +4578,7 @@
       <c r="BJ1" s="76"/>
       <c r="BK1" s="76"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="78">
         <v>43200</v>
       </c>
@@ -4523,7 +4681,7 @@
       <c r="BJ2" s="88"/>
       <c r="BK2" s="88"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="78">
         <v>43200</v>
       </c>
@@ -4626,7 +4784,7 @@
       <c r="BJ3" s="88"/>
       <c r="BK3" s="88"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="78">
         <v>43200</v>
       </c>
@@ -4729,7 +4887,7 @@
       <c r="BJ4" s="88"/>
       <c r="BK4" s="88"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="78">
         <v>43200</v>
       </c>
@@ -4832,7 +4990,7 @@
       <c r="BJ5" s="88"/>
       <c r="BK5" s="88"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="78">
         <v>43200</v>
       </c>
@@ -4943,14 +5101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -4973,7 +5131,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -5080,7 +5238,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="93">
         <v>43201</v>
       </c>
@@ -5185,7 +5343,7 @@
       <c r="BJ2" s="103"/>
       <c r="BK2" s="103"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="93">
         <v>43201</v>
       </c>
@@ -5290,7 +5448,7 @@
       <c r="BJ3" s="103"/>
       <c r="BK3" s="103"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="93">
         <v>43201</v>
       </c>
@@ -5395,7 +5553,7 @@
       <c r="BJ4" s="103"/>
       <c r="BK4" s="103"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="93">
         <v>43201</v>
       </c>
@@ -5500,7 +5658,7 @@
       <c r="BJ5" s="103"/>
       <c r="BK5" s="103"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="93">
         <v>43201</v>
       </c>
@@ -5615,14 +5773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -5644,7 +5802,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -5751,7 +5909,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="93">
         <v>43202</v>
       </c>
@@ -5819,7 +5977,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="93">
         <v>43202</v>
       </c>
@@ -5887,7 +6045,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="93">
         <v>43202</v>
       </c>
@@ -5955,7 +6113,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="93">
         <v>43202</v>
       </c>
@@ -6054,14 +6212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6083,7 +6241,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
         <v>36</v>
       </c>
@@ -6190,7 +6348,7 @@
       <c r="BJ1" s="108"/>
       <c r="BK1" s="108"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="110">
         <v>43203</v>
       </c>
@@ -6295,7 +6453,7 @@
       <c r="BJ2" s="120"/>
       <c r="BK2" s="120"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="110">
         <v>43203</v>
       </c>
@@ -6400,7 +6558,7 @@
       <c r="BJ3" s="120"/>
       <c r="BK3" s="120"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="110">
         <v>43203</v>
       </c>
@@ -6505,7 +6663,7 @@
       <c r="BJ4" s="120"/>
       <c r="BK4" s="120"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="110">
         <v>43203</v>
       </c>
@@ -6618,14 +6776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6647,7 +6805,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="131" t="s">
         <v>36</v>
       </c>
@@ -6754,7 +6912,7 @@
       <c r="BJ1" s="124"/>
       <c r="BK1" s="124"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="126">
         <v>43204</v>
       </c>
@@ -6857,7 +7015,7 @@
       <c r="BJ2" s="136"/>
       <c r="BK2" s="136"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="126">
         <v>43204</v>
       </c>
@@ -6960,7 +7118,7 @@
       <c r="BJ3" s="136"/>
       <c r="BK3" s="136"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="126">
         <v>43204</v>
       </c>
@@ -7063,7 +7221,7 @@
       <c r="BJ4" s="136"/>
       <c r="BK4" s="136"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="126">
         <v>43204</v>
       </c>
@@ -7174,14 +7332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7203,7 +7361,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="150" t="s">
         <v>36</v>
       </c>
@@ -7310,7 +7468,7 @@
       <c r="BJ1" s="142"/>
       <c r="BK1" s="142"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="144">
         <v>43205</v>
       </c>
@@ -7413,7 +7571,7 @@
       <c r="BJ2" s="155"/>
       <c r="BK2" s="155"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="144">
         <v>43205</v>
       </c>
@@ -7516,7 +7674,7 @@
       <c r="BJ3" s="155"/>
       <c r="BK3" s="155"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="144">
         <v>43205</v>
       </c>
@@ -7619,7 +7777,7 @@
       <c r="BJ4" s="155"/>
       <c r="BK4" s="155"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="144">
         <v>43205</v>
       </c>
@@ -7722,7 +7880,7 @@
       <c r="BJ5" s="155"/>
       <c r="BK5" s="155"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="144">
         <v>43205</v>
       </c>
@@ -7833,14 +7991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7861,7 +8019,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="169" t="s">
         <v>36</v>
       </c>
@@ -7965,7 +8123,7 @@
       <c r="BI1" s="162"/>
       <c r="BJ1" s="162"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75">
+    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="164">
         <v>43206</v>
       </c>
@@ -8067,7 +8225,7 @@
       <c r="BI2" s="174"/>
       <c r="BJ2" s="174"/>
     </row>
-    <row r="3" spans="1:62" ht="18.75">
+    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="164">
         <v>43206</v>
       </c>
@@ -8169,7 +8327,7 @@
       <c r="BI3" s="174"/>
       <c r="BJ3" s="174"/>
     </row>
-    <row r="4" spans="1:62" ht="18.75">
+    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="164">
         <v>43206</v>
       </c>
@@ -8273,7 +8431,7 @@
       <c r="BI4" s="174"/>
       <c r="BJ4" s="174"/>
     </row>
-    <row r="5" spans="1:62" ht="18.75">
+    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="164">
         <v>43206</v>
       </c>
@@ -8383,14 +8541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8411,7 +8569,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="185" t="s">
         <v>36</v>
       </c>
@@ -8515,7 +8673,7 @@
       <c r="BI1" s="178"/>
       <c r="BJ1" s="178"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75">
+    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="180">
         <v>43207</v>
       </c>
@@ -8617,7 +8775,7 @@
       <c r="BI2" s="190"/>
       <c r="BJ2" s="190"/>
     </row>
-    <row r="3" spans="1:62" ht="18.75">
+    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="180">
         <v>43207</v>
       </c>
@@ -8719,7 +8877,7 @@
       <c r="BI3" s="190"/>
       <c r="BJ3" s="190"/>
     </row>
-    <row r="4" spans="1:62" ht="18.75">
+    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="180">
         <v>43207</v>
       </c>
@@ -8821,7 +8979,7 @@
       <c r="BI4" s="190"/>
       <c r="BJ4" s="190"/>
     </row>
-    <row r="5" spans="1:62" ht="18.75">
+    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="180">
         <v>43207</v>
       </c>
@@ -8923,7 +9081,7 @@
       <c r="BI5" s="190"/>
       <c r="BJ5" s="190"/>
     </row>
-    <row r="6" spans="1:62" ht="18.75">
+    <row r="6" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="180">
         <v>43207</v>
       </c>
@@ -9025,7 +9183,7 @@
       <c r="BI6" s="190"/>
       <c r="BJ6" s="190"/>
     </row>
-    <row r="7" spans="1:62" ht="18.75">
+    <row r="7" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="180">
         <v>43207</v>
       </c>
@@ -9127,7 +9285,7 @@
       <c r="BI7" s="190"/>
       <c r="BJ7" s="190"/>
     </row>
-    <row r="8" spans="1:62" ht="18.75">
+    <row r="8" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="180">
         <v>43207</v>
       </c>
@@ -9229,7 +9387,7 @@
       <c r="BI8" s="190"/>
       <c r="BJ8" s="190"/>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="180">
         <v>43207</v>
       </c>
@@ -9331,7 +9489,7 @@
       <c r="BI9" s="190"/>
       <c r="BJ9" s="190"/>
     </row>
-    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="180">
         <v>43207</v>
       </c>
@@ -9431,7 +9589,7 @@
       <c r="BI10" s="190"/>
       <c r="BJ10" s="190"/>
     </row>
-    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="194">
         <v>43207</v>
       </c>
@@ -9531,7 +9689,7 @@
       <c r="BH11" s="192"/>
       <c r="BI11" s="192"/>
     </row>
-    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="180"/>
       <c r="B12" s="181"/>
       <c r="C12" s="181"/>
@@ -9595,12 +9753,12 @@
       <c r="BI12" s="190"/>
       <c r="BJ12" s="190"/>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M17">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="13:14">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M23">
         <v>309</v>
       </c>
@@ -9608,7 +9766,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="13:14">
+    <row r="24" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M24">
         <v>353</v>
       </c>
@@ -9616,22 +9774,22 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="13:14">
+    <row r="25" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M25">
         <v>791</v>
       </c>
     </row>
-    <row r="26" spans="13:14">
+    <row r="26" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M26">
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="13:14">
+    <row r="27" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M27">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="13:14">
+    <row r="28" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M28">
         <v>291</v>
       </c>
@@ -9644,14 +9802,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -9673,7 +9831,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="214" t="s">
         <v>36</v>
       </c>
@@ -9780,7 +9938,7 @@
       <c r="BJ1" s="207"/>
       <c r="BK1" s="207"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="209">
         <v>43208</v>
       </c>
@@ -9885,7 +10043,7 @@
       <c r="BJ2" s="219"/>
       <c r="BK2" s="219"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="209">
         <v>43208</v>
       </c>
@@ -9990,7 +10148,7 @@
       <c r="BJ3" s="219"/>
       <c r="BK3" s="219"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="209">
         <v>43208</v>
       </c>
@@ -10095,7 +10253,7 @@
       <c r="BJ4" s="219"/>
       <c r="BK4" s="219"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="209">
         <v>43208</v>
       </c>
@@ -10200,7 +10358,7 @@
       <c r="BJ5" s="219"/>
       <c r="BK5" s="219"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="209">
         <v>43208</v>
       </c>
@@ -10305,7 +10463,7 @@
       <c r="BJ6" s="219"/>
       <c r="BK6" s="219"/>
     </row>
-    <row r="7" spans="1:63" ht="18.75">
+    <row r="7" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="209">
         <v>43208</v>
       </c>
@@ -10410,7 +10568,7 @@
       <c r="BJ7" s="219"/>
       <c r="BK7" s="219"/>
     </row>
-    <row r="8" spans="1:63" ht="18.75">
+    <row r="8" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="209">
         <v>43208</v>
       </c>
@@ -10515,7 +10673,7 @@
       <c r="BJ8" s="219"/>
       <c r="BK8" s="219"/>
     </row>
-    <row r="9" spans="1:63" ht="18.75">
+    <row r="9" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="209">
         <v>43208</v>
       </c>
@@ -10620,7 +10778,7 @@
       <c r="BJ9" s="219"/>
       <c r="BK9" s="219"/>
     </row>
-    <row r="10" spans="1:63" ht="18.75">
+    <row r="10" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="209">
         <v>43208</v>
       </c>
@@ -10725,7 +10883,7 @@
       <c r="BJ10" s="219"/>
       <c r="BK10" s="219"/>
     </row>
-    <row r="11" spans="1:63" ht="18.75">
+    <row r="11" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="209">
         <v>43208</v>
       </c>
@@ -10830,7 +10988,7 @@
       <c r="BJ11" s="219"/>
       <c r="BK11" s="219"/>
     </row>
-    <row r="12" spans="1:63" ht="18.75">
+    <row r="12" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="224">
         <v>43208</v>
       </c>
@@ -10935,7 +11093,7 @@
       <c r="BJ12" s="231"/>
       <c r="BK12" s="231"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.15">
       <c r="O15" s="222" t="s">
         <v>411</v>
       </c>
@@ -10948,14 +11106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BI71"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -10975,7 +11133,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="10" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:61" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -11076,7 +11234,7 @@
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
     </row>
-    <row r="2" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="2" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -11133,7 +11291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="3" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -11190,7 +11348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="4" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -11247,7 +11405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="5" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -11304,7 +11462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="6" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -11361,7 +11519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="7" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -11418,7 +11576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="8" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="58">
         <v>43192</v>
       </c>
@@ -11517,7 +11675,7 @@
       <c r="BH8" s="34"/>
       <c r="BI8" s="34"/>
     </row>
-    <row r="9" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="9" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="58">
         <v>43192</v>
       </c>
@@ -11616,7 +11774,7 @@
       <c r="BH9" s="34"/>
       <c r="BI9" s="34"/>
     </row>
-    <row r="10" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="10" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="58">
         <v>43192</v>
       </c>
@@ -11715,7 +11873,7 @@
       <c r="BH10" s="34"/>
       <c r="BI10" s="34"/>
     </row>
-    <row r="11" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="11" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="58">
         <v>43192</v>
       </c>
@@ -11814,7 +11972,7 @@
       <c r="BH11" s="34"/>
       <c r="BI11" s="34"/>
     </row>
-    <row r="12" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="12" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="58">
         <v>43192</v>
       </c>
@@ -11913,7 +12071,7 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
     </row>
-    <row r="13" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="13" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="39">
         <v>43193</v>
       </c>
@@ -12012,7 +12170,7 @@
       <c r="BH13" s="41"/>
       <c r="BI13" s="41"/>
     </row>
-    <row r="14" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="14" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="39">
         <v>43193</v>
       </c>
@@ -12111,7 +12269,7 @@
       <c r="BH14" s="41"/>
       <c r="BI14" s="41"/>
     </row>
-    <row r="15" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="15" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="39">
         <v>43193</v>
       </c>
@@ -12210,7 +12368,7 @@
       <c r="BH15" s="41"/>
       <c r="BI15" s="41"/>
     </row>
-    <row r="16" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="16" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="39">
         <v>43193</v>
       </c>
@@ -12309,7 +12467,7 @@
       <c r="BH16" s="41"/>
       <c r="BI16" s="41"/>
     </row>
-    <row r="17" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="17" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="39">
         <v>43193</v>
       </c>
@@ -12408,7 +12566,7 @@
       <c r="BH17" s="41"/>
       <c r="BI17" s="41"/>
     </row>
-    <row r="18" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="18" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="39">
         <v>43193</v>
       </c>
@@ -12507,7 +12665,7 @@
       <c r="BH18" s="41"/>
       <c r="BI18" s="41"/>
     </row>
-    <row r="19" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="19" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="58">
         <v>43194</v>
       </c>
@@ -12568,7 +12726,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="20" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="20" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="58">
         <v>43194</v>
       </c>
@@ -12629,7 +12787,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="21" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="58">
         <v>43194</v>
       </c>
@@ -12690,7 +12848,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="22" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="22" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="58">
         <v>43194</v>
       </c>
@@ -12751,7 +12909,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="23" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="23" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="58">
         <v>43195</v>
       </c>
@@ -12812,7 +12970,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="24" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="58">
         <v>43195</v>
       </c>
@@ -12873,7 +13031,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="25" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="58">
         <v>43195</v>
       </c>
@@ -12934,7 +13092,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="26" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="26" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="58">
         <v>43195</v>
       </c>
@@ -12995,7 +13153,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="27" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="27" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="58">
         <v>43196</v>
       </c>
@@ -13056,7 +13214,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="28" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="28" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="58">
         <v>43196</v>
       </c>
@@ -13117,7 +13275,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="29" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="58">
         <v>43196</v>
       </c>
@@ -13178,7 +13336,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="30" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="30" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="58">
         <v>43196</v>
       </c>
@@ -13239,7 +13397,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="31" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="31" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="58">
         <v>43197</v>
       </c>
@@ -13300,7 +13458,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="32" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="58">
         <v>43197</v>
       </c>
@@ -13361,7 +13519,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="33" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="33" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="58">
         <v>43197</v>
       </c>
@@ -13422,7 +13580,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="34" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="34" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="58">
         <v>43197</v>
       </c>
@@ -13483,7 +13641,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="35" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="35" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="58">
         <v>43197</v>
       </c>
@@ -13544,7 +13702,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="36" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="36" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="144">
         <v>43198</v>
       </c>
@@ -13605,7 +13763,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="37" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="37" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="144">
         <v>43198</v>
       </c>
@@ -13666,7 +13824,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="38" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="38" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="144">
         <v>43198</v>
       </c>
@@ -13727,7 +13885,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="39" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="39" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="144">
         <v>43198</v>
       </c>
@@ -13788,7 +13946,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="40" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="40" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="144">
         <v>43198</v>
       </c>
@@ -13849,7 +14007,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="41" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="41" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="144">
         <v>43199</v>
       </c>
@@ -13910,7 +14068,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="42" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="42" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="144">
         <v>43199</v>
       </c>
@@ -13971,7 +14129,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="43" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="43" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A43" s="144">
         <v>43199</v>
       </c>
@@ -14032,7 +14190,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="44" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="44" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A44" s="144">
         <v>43199</v>
       </c>
@@ -14093,7 +14251,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="45" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="45" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A45" s="144">
         <v>43200</v>
       </c>
@@ -14192,7 +14350,7 @@
       <c r="BH45" s="155"/>
       <c r="BI45" s="155"/>
     </row>
-    <row r="46" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="46" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A46" s="144">
         <v>43200</v>
       </c>
@@ -14291,7 +14449,7 @@
       <c r="BH46" s="155"/>
       <c r="BI46" s="155"/>
     </row>
-    <row r="47" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="47" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A47" s="144">
         <v>43200</v>
       </c>
@@ -14390,7 +14548,7 @@
       <c r="BH47" s="155"/>
       <c r="BI47" s="155"/>
     </row>
-    <row r="48" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="48" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="144">
         <v>43200</v>
       </c>
@@ -14489,7 +14647,7 @@
       <c r="BH48" s="155"/>
       <c r="BI48" s="155"/>
     </row>
-    <row r="49" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="49" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A49" s="144">
         <v>43200</v>
       </c>
@@ -14588,7 +14746,7 @@
       <c r="BH49" s="155"/>
       <c r="BI49" s="155"/>
     </row>
-    <row r="50" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="50" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A50" s="144">
         <v>43201</v>
       </c>
@@ -14687,7 +14845,7 @@
       <c r="BH50" s="155"/>
       <c r="BI50" s="155"/>
     </row>
-    <row r="51" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="51" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A51" s="144">
         <v>43201</v>
       </c>
@@ -14786,7 +14944,7 @@
       <c r="BH51" s="155"/>
       <c r="BI51" s="155"/>
     </row>
-    <row r="52" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="52" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="144">
         <v>43201</v>
       </c>
@@ -14885,7 +15043,7 @@
       <c r="BH52" s="155"/>
       <c r="BI52" s="155"/>
     </row>
-    <row r="53" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="53" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A53" s="144">
         <v>43201</v>
       </c>
@@ -14984,7 +15142,7 @@
       <c r="BH53" s="155"/>
       <c r="BI53" s="155"/>
     </row>
-    <row r="54" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="54" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A54" s="144">
         <v>43201</v>
       </c>
@@ -15085,7 +15243,7 @@
       <c r="BH54" s="155"/>
       <c r="BI54" s="155"/>
     </row>
-    <row r="55" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="55" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A55" s="144">
         <v>43202</v>
       </c>
@@ -15146,7 +15304,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="56" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="56" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A56" s="144">
         <v>43202</v>
       </c>
@@ -15207,7 +15365,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="57" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="57" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A57" s="144">
         <v>43202</v>
       </c>
@@ -15268,7 +15426,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="58" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="58" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A58" s="144">
         <v>43202</v>
       </c>
@@ -15329,7 +15487,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="59" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="59" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A59" s="144">
         <v>43203</v>
       </c>
@@ -15428,7 +15586,7 @@
       <c r="BH59" s="155"/>
       <c r="BI59" s="155"/>
     </row>
-    <row r="60" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="60" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A60" s="144">
         <v>43203</v>
       </c>
@@ -15527,7 +15685,7 @@
       <c r="BH60" s="155"/>
       <c r="BI60" s="155"/>
     </row>
-    <row r="61" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="61" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A61" s="144">
         <v>43203</v>
       </c>
@@ -15626,7 +15784,7 @@
       <c r="BH61" s="155"/>
       <c r="BI61" s="155"/>
     </row>
-    <row r="62" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="62" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A62" s="144">
         <v>43203</v>
       </c>
@@ -15725,7 +15883,7 @@
       <c r="BH62" s="155"/>
       <c r="BI62" s="155"/>
     </row>
-    <row r="63" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="63" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A63" s="144">
         <v>43204</v>
       </c>
@@ -15824,7 +15982,7 @@
       <c r="BH63" s="155"/>
       <c r="BI63" s="155"/>
     </row>
-    <row r="64" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="64" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A64" s="144">
         <v>43204</v>
       </c>
@@ -15923,7 +16081,7 @@
       <c r="BH64" s="155"/>
       <c r="BI64" s="155"/>
     </row>
-    <row r="65" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="65" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A65" s="144">
         <v>43204</v>
       </c>
@@ -16022,7 +16180,7 @@
       <c r="BH65" s="155"/>
       <c r="BI65" s="155"/>
     </row>
-    <row r="66" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="66" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A66" s="144">
         <v>43204</v>
       </c>
@@ -16121,7 +16279,7 @@
       <c r="BH66" s="155"/>
       <c r="BI66" s="155"/>
     </row>
-    <row r="67" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="67" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A67" s="144">
         <v>43205</v>
       </c>
@@ -16220,7 +16378,7 @@
       <c r="BH67" s="155"/>
       <c r="BI67" s="155"/>
     </row>
-    <row r="68" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="68" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A68" s="144">
         <v>43205</v>
       </c>
@@ -16319,7 +16477,7 @@
       <c r="BH68" s="155"/>
       <c r="BI68" s="155"/>
     </row>
-    <row r="69" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="69" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A69" s="144">
         <v>43205</v>
       </c>
@@ -16418,7 +16576,7 @@
       <c r="BH69" s="155"/>
       <c r="BI69" s="155"/>
     </row>
-    <row r="70" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="70" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A70" s="144">
         <v>43205</v>
       </c>
@@ -16517,7 +16675,7 @@
       <c r="BH70" s="155"/>
       <c r="BI70" s="155"/>
     </row>
-    <row r="71" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="71" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A71" s="144">
         <v>43205</v>
       </c>
@@ -16693,14 +16851,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -16718,7 +16876,7 @@
     <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15">
+    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
@@ -16816,7 +16974,7 @@
       <c r="BG1" s="23"/>
       <c r="BH1" s="23"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75">
+    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="29">
         <v>43192</v>
       </c>
@@ -16914,7 +17072,7 @@
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75">
+    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>43192</v>
       </c>
@@ -17012,7 +17170,7 @@
       <c r="BG3" s="34"/>
       <c r="BH3" s="34"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75">
+    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>43192</v>
       </c>
@@ -17110,7 +17268,7 @@
       <c r="BG4" s="34"/>
       <c r="BH4" s="34"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75">
+    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>43192</v>
       </c>
@@ -17208,7 +17366,7 @@
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75">
+    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>43192</v>
       </c>
@@ -17314,14 +17472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:BH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -17340,7 +17498,7 @@
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15">
+    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="242" t="s">
         <v>36</v>
       </c>
@@ -17438,7 +17596,7 @@
       <c r="BG1" s="235"/>
       <c r="BH1" s="235"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75">
+    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="237">
         <v>43209</v>
       </c>
@@ -17536,7 +17694,7 @@
       <c r="BG2" s="247"/>
       <c r="BH2" s="247"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75">
+    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="237">
         <v>43209</v>
       </c>
@@ -17634,7 +17792,7 @@
       <c r="BG3" s="247"/>
       <c r="BH3" s="247"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75">
+    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="237">
         <v>43209</v>
       </c>
@@ -17732,7 +17890,7 @@
       <c r="BG4" s="247"/>
       <c r="BH4" s="247"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75">
+    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="237">
         <v>43209</v>
       </c>
@@ -17830,7 +17988,7 @@
       <c r="BG5" s="247"/>
       <c r="BH5" s="247"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75">
+    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="237">
         <v>43209</v>
       </c>
@@ -17928,7 +18086,7 @@
       <c r="BG6" s="247"/>
       <c r="BH6" s="247"/>
     </row>
-    <row r="7" spans="1:60" ht="18.75">
+    <row r="7" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="237">
         <v>43209</v>
       </c>
@@ -18024,7 +18182,7 @@
       <c r="BG7" s="247"/>
       <c r="BH7" s="247"/>
     </row>
-    <row r="8" spans="1:60" ht="18.75">
+    <row r="8" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="237">
         <v>43209</v>
       </c>
@@ -18120,7 +18278,7 @@
       <c r="BG8" s="247"/>
       <c r="BH8" s="247"/>
     </row>
-    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75">
+    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="237">
         <v>43209</v>
       </c>
@@ -18218,7 +18376,7 @@
       <c r="BG9" s="247"/>
       <c r="BH9" s="247"/>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="L14" s="222" t="s">
         <v>431</v>
       </c>
@@ -18230,15 +18388,611 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8654AC27-C3F6-4439-BC11-0D6972788A0D}">
+  <dimension ref="A1:BH9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="242" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="242" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="242" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="242" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="242" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="242" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="242" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="242" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="243" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="242" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="243" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="243" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="242" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="242" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="242" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="244" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="234"/>
+      <c r="AD1" s="234"/>
+      <c r="AE1" s="234"/>
+      <c r="AF1" s="234"/>
+      <c r="AG1" s="235"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
+      <c r="AK1" s="235"/>
+      <c r="AL1" s="235"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="235"/>
+      <c r="AO1" s="235"/>
+      <c r="AP1" s="235"/>
+      <c r="AQ1" s="235"/>
+      <c r="AR1" s="235"/>
+      <c r="AS1" s="235"/>
+      <c r="AT1" s="235"/>
+      <c r="AU1" s="235"/>
+      <c r="AV1" s="235"/>
+      <c r="AW1" s="235"/>
+      <c r="AX1" s="235"/>
+      <c r="AY1" s="235"/>
+      <c r="AZ1" s="235"/>
+      <c r="BA1" s="235"/>
+      <c r="BB1" s="235"/>
+      <c r="BC1" s="235"/>
+      <c r="BD1" s="235"/>
+      <c r="BE1" s="235"/>
+      <c r="BF1" s="235"/>
+      <c r="BG1" s="235"/>
+      <c r="BH1" s="235"/>
+    </row>
+    <row r="2" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B2" s="238" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="238">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="238">
+        <v>2040</v>
+      </c>
+      <c r="E2" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="232" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="241" t="s">
+        <v>439</v>
+      </c>
+      <c r="K2" s="236" t="str">
+        <f t="shared" ref="K2:K8" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L2" s="248" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="246" t="s">
+        <v>240</v>
+      </c>
+      <c r="N2" s="236" t="str">
+        <f t="shared" ref="N2:N8" si="1">IF(A2&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O2" s="240">
+        <v>14</v>
+      </c>
+      <c r="P2" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="240">
+        <f t="shared" ref="Q2:Q8" si="2">SUM(O2:P2)</f>
+        <v>14</v>
+      </c>
+      <c r="R2" s="236"/>
+    </row>
+    <row r="3" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B3" s="238" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="238">
+        <v>1825</v>
+      </c>
+      <c r="D3" s="238">
+        <v>2050</v>
+      </c>
+      <c r="E3" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="232" t="s">
+        <v>440</v>
+      </c>
+      <c r="J3" s="241" t="s">
+        <v>441</v>
+      </c>
+      <c r="K3" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L3" s="248" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="246" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O3" s="240">
+        <v>14</v>
+      </c>
+      <c r="P3" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="240">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R3" s="236" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B4" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="238">
+        <v>1800</v>
+      </c>
+      <c r="D4" s="238">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="232" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="241" t="s">
+        <v>444</v>
+      </c>
+      <c r="K4" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L4" s="248" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="246" t="s">
+        <v>436</v>
+      </c>
+      <c r="N4" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O4" s="240">
+        <v>14</v>
+      </c>
+      <c r="P4" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="240">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R4" s="236" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B5" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="238">
+        <v>1455</v>
+      </c>
+      <c r="D5" s="238">
+        <v>1643</v>
+      </c>
+      <c r="E5" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="232" t="s">
+        <v>446</v>
+      </c>
+      <c r="J5" s="241" t="s">
+        <v>447</v>
+      </c>
+      <c r="K5" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L5" s="248" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="246" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O5" s="240">
+        <v>13</v>
+      </c>
+      <c r="P5" s="240">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="240">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R5" s="236" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B6" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="238">
+        <v>1255</v>
+      </c>
+      <c r="D6" s="238">
+        <v>1430</v>
+      </c>
+      <c r="E6" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="232" t="s">
+        <v>448</v>
+      </c>
+      <c r="J6" s="241" t="s">
+        <v>449</v>
+      </c>
+      <c r="K6" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L6" s="248" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="246" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O6" s="240">
+        <v>14</v>
+      </c>
+      <c r="P6" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="240">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R6" s="236" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B7" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="238">
+        <v>170</v>
+      </c>
+      <c r="D7" s="238">
+        <v>1912</v>
+      </c>
+      <c r="E7" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="232" t="s">
+        <v>451</v>
+      </c>
+      <c r="J7" s="241" t="s">
+        <v>452</v>
+      </c>
+      <c r="K7" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L7" s="248" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="246" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O7" s="240">
+        <v>14</v>
+      </c>
+      <c r="P7" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="240">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R7" s="236"/>
+    </row>
+    <row r="8" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B8" s="238" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="238">
+        <v>1929</v>
+      </c>
+      <c r="D8" s="238">
+        <v>2103</v>
+      </c>
+      <c r="E8" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="232" t="s">
+        <v>453</v>
+      </c>
+      <c r="J8" s="241" t="s">
+        <v>454</v>
+      </c>
+      <c r="K8" s="236" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L8" s="248" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="246" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="236" t="str">
+        <f t="shared" si="1"/>
+        <v>9.6米</v>
+      </c>
+      <c r="O8" s="240">
+        <v>14</v>
+      </c>
+      <c r="P8" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="240">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R8" s="236"/>
+    </row>
+    <row r="9" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="237">
+        <v>43210</v>
+      </c>
+      <c r="B9" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="238">
+        <v>1300</v>
+      </c>
+      <c r="D9" s="238">
+        <v>1638</v>
+      </c>
+      <c r="E9" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="239" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="239" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="239" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="233" t="s">
+        <v>455</v>
+      </c>
+      <c r="J9" s="241" t="s">
+        <v>456</v>
+      </c>
+      <c r="K9" s="236" t="str">
+        <f>IF(A9&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="L9" s="248" t="s">
+        <v>457</v>
+      </c>
+      <c r="M9" s="246" t="s">
+        <v>458</v>
+      </c>
+      <c r="N9" s="236" t="str">
+        <f>IF(A9&lt;&gt;"","9.6米","--")</f>
+        <v>9.6米</v>
+      </c>
+      <c r="O9" s="240">
+        <v>7</v>
+      </c>
+      <c r="P9" s="240">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="240">
+        <f t="shared" ref="Q9" si="3">SUM(O9:P9)</f>
+        <v>8</v>
+      </c>
+      <c r="R9" s="236" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -18257,7 +19011,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -18358,7 +19112,7 @@
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
     </row>
-    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -18457,7 +19211,7 @@
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
     </row>
-    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -18556,7 +19310,7 @@
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
     </row>
-    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -18655,7 +19409,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -18754,7 +19508,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -18853,7 +19607,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -18960,14 +19714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -18988,7 +19742,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -19092,7 +19846,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43194</v>
       </c>
@@ -19157,7 +19911,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43194</v>
       </c>
@@ -19193,9 +19947,9 @@
         <f t="shared" si="0"/>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M3" s="67" t="str">
+      <c r="M3" s="67" t="e">
         <f>VLOOKUP(O3,[1]ch!$A$1:$B$31,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>#N/A</v>
       </c>
       <c r="N3" s="59" t="s">
         <v>60</v>
@@ -19222,7 +19976,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43194</v>
       </c>
@@ -19287,7 +20041,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43194</v>
       </c>
@@ -19378,14 +20132,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -19406,7 +20160,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="15">
+    <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -19510,7 +20264,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43195</v>
       </c>
@@ -19573,7 +20327,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43195</v>
       </c>
@@ -19636,7 +20390,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43195</v>
       </c>
@@ -19699,7 +20453,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43195</v>
       </c>
@@ -19781,14 +20535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -19812,7 +20566,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -19919,7 +20673,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43196</v>
       </c>
@@ -19985,7 +20739,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43196</v>
       </c>
@@ -20024,9 +20778,9 @@
         <f>IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="N3" s="67" t="str">
+      <c r="N3" s="67" t="e">
         <f>VLOOKUP(P3,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>#N/A</v>
       </c>
       <c r="O3" s="59"/>
       <c r="P3" s="68" t="s">
@@ -20051,7 +20805,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43196</v>
       </c>
@@ -20117,7 +20871,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43196</v>
       </c>
@@ -20203,14 +20957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -20234,7 +20988,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -20341,7 +21095,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43197</v>
       </c>
@@ -20407,7 +21161,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43197</v>
       </c>
@@ -20473,7 +21227,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43197</v>
       </c>
@@ -20539,7 +21293,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43197</v>
       </c>
@@ -20605,7 +21359,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="58">
         <v>43197</v>
       </c>
@@ -20690,14 +21444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -20719,7 +21473,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -20826,7 +21580,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43198</v>
       </c>
@@ -20892,7 +21646,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43198</v>
       </c>
@@ -20958,7 +21712,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43198</v>
       </c>
@@ -21024,7 +21778,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43198</v>
       </c>
@@ -21090,7 +21844,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="58">
         <v>43198</v>
       </c>
@@ -21175,14 +21929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -21203,7 +21957,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -21307,7 +22061,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43199</v>
       </c>
@@ -21343,9 +22097,9 @@
         <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
         <v>武汉威伟机械</v>
       </c>
-      <c r="M2" s="67" t="str">
+      <c r="M2" s="67" t="e">
         <f>VLOOKUP(O2,[1]ch!$A$1:$B$32,2,0)</f>
-        <v>鄂AZR876</v>
+        <v>#N/A</v>
       </c>
       <c r="N2" s="59" t="s">
         <v>60</v>
@@ -21372,7 +22126,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43199</v>
       </c>
@@ -21437,7 +22191,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43199</v>
       </c>
@@ -21502,7 +22256,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43199</v>
       </c>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\weiwei\4月报表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3E66C819-5B1C-44AC-9FBD-D6B7345A8E46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -34,16 +28,17 @@
     <sheet name="汇总明线" sheetId="3" r:id="rId19"/>
     <sheet name="4-19" sheetId="20" r:id="rId20"/>
     <sheet name="4-20" sheetId="21" r:id="rId21"/>
+    <sheet name="4-21" sheetId="22" r:id="rId22"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="484">
   <si>
     <t>王成</t>
   </si>
@@ -1558,18 +1553,90 @@
   <si>
     <t>9袋</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨攀</t>
+  </si>
+  <si>
+    <t>16949</t>
+  </si>
+  <si>
+    <t>0076609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4袋 </t>
+  </si>
+  <si>
+    <t>16451</t>
+  </si>
+  <si>
+    <t>0024853</t>
+  </si>
+  <si>
+    <t>（1盘退货）</t>
+  </si>
+  <si>
+    <t>16194</t>
+  </si>
+  <si>
+    <t>0028648</t>
+  </si>
+  <si>
+    <t>18701</t>
+  </si>
+  <si>
+    <t>0024796</t>
+  </si>
+  <si>
+    <t>17433</t>
+  </si>
+  <si>
+    <t>0024855</t>
+  </si>
+  <si>
+    <t>17984</t>
+  </si>
+  <si>
+    <t>0024879</t>
+  </si>
+  <si>
+    <t>17295</t>
+  </si>
+  <si>
+    <t>0024854</t>
+  </si>
+  <si>
+    <t>2袋</t>
+  </si>
+  <si>
+    <t>武汉新地园区退货组</t>
+  </si>
+  <si>
+    <t>分拣退货中心</t>
+  </si>
+  <si>
+    <t>16453</t>
+  </si>
+  <si>
+    <t>19381</t>
+  </si>
+  <si>
+    <t>18262</t>
+  </si>
+  <si>
+    <t>0028605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2608,6 +2675,81 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2616,32 +2758,32 @@
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="常规 7 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 7 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="常规 9 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 9 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
+    <cellStyle name="常规 2 2 2" xfId="21"/>
+    <cellStyle name="常规 2 2 3" xfId="24"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 3 2" xfId="16"/>
+    <cellStyle name="常规 2 4" xfId="12"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 3 2" xfId="9"/>
+    <cellStyle name="常规 3 2 2" xfId="17"/>
+    <cellStyle name="常规 3 3" xfId="13"/>
+    <cellStyle name="常规 4" xfId="6"/>
+    <cellStyle name="常规 4 2" xfId="14"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 5 2" xfId="15"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 7" xfId="10"/>
+    <cellStyle name="常规 7 2" xfId="22"/>
+    <cellStyle name="常规 7 3" xfId="25"/>
+    <cellStyle name="常规 8" xfId="11"/>
+    <cellStyle name="常规 8 2" xfId="20"/>
+    <cellStyle name="常规 8 3" xfId="18"/>
+    <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="常规 9 2" xfId="19"/>
+    <cellStyle name="常规 9 2 2" xfId="23"/>
+    <cellStyle name="常规 9 2 3" xfId="26"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -3328,19 +3470,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -3670,7 +3804,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3712,7 +3846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3744,27 +3878,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3796,24 +3912,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3989,14 +4087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -4013,7 +4111,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -4111,7 +4209,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -4165,7 +4263,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -4219,7 +4317,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -4273,7 +4371,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -4327,7 +4425,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -4381,7 +4479,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -4442,14 +4540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -4471,7 +4569,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="83" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +4676,7 @@
       <c r="BJ1" s="76"/>
       <c r="BK1" s="76"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="78">
         <v>43200</v>
       </c>
@@ -4681,7 +4779,7 @@
       <c r="BJ2" s="88"/>
       <c r="BK2" s="88"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="78">
         <v>43200</v>
       </c>
@@ -4784,7 +4882,7 @@
       <c r="BJ3" s="88"/>
       <c r="BK3" s="88"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="78">
         <v>43200</v>
       </c>
@@ -4887,7 +4985,7 @@
       <c r="BJ4" s="88"/>
       <c r="BK4" s="88"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="78">
         <v>43200</v>
       </c>
@@ -4990,7 +5088,7 @@
       <c r="BJ5" s="88"/>
       <c r="BK5" s="88"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="18.75">
       <c r="A6" s="78">
         <v>43200</v>
       </c>
@@ -5101,14 +5199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -5131,7 +5229,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -5238,7 +5336,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="93">
         <v>43201</v>
       </c>
@@ -5343,7 +5441,7 @@
       <c r="BJ2" s="103"/>
       <c r="BK2" s="103"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="93">
         <v>43201</v>
       </c>
@@ -5448,7 +5546,7 @@
       <c r="BJ3" s="103"/>
       <c r="BK3" s="103"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="93">
         <v>43201</v>
       </c>
@@ -5553,7 +5651,7 @@
       <c r="BJ4" s="103"/>
       <c r="BK4" s="103"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="93">
         <v>43201</v>
       </c>
@@ -5658,7 +5756,7 @@
       <c r="BJ5" s="103"/>
       <c r="BK5" s="103"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="18.75">
       <c r="A6" s="93">
         <v>43201</v>
       </c>
@@ -5773,14 +5871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -5802,7 +5900,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -5909,7 +6007,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A2" s="93">
         <v>43202</v>
       </c>
@@ -5977,7 +6075,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A3" s="93">
         <v>43202</v>
       </c>
@@ -6045,7 +6143,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A4" s="93">
         <v>43202</v>
       </c>
@@ -6113,7 +6211,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75">
       <c r="A5" s="93">
         <v>43202</v>
       </c>
@@ -6212,14 +6310,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6241,7 +6339,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="115" t="s">
         <v>36</v>
       </c>
@@ -6348,7 +6446,7 @@
       <c r="BJ1" s="108"/>
       <c r="BK1" s="108"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="110">
         <v>43203</v>
       </c>
@@ -6453,7 +6551,7 @@
       <c r="BJ2" s="120"/>
       <c r="BK2" s="120"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="110">
         <v>43203</v>
       </c>
@@ -6558,7 +6656,7 @@
       <c r="BJ3" s="120"/>
       <c r="BK3" s="120"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="110">
         <v>43203</v>
       </c>
@@ -6663,7 +6761,7 @@
       <c r="BJ4" s="120"/>
       <c r="BK4" s="120"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="110">
         <v>43203</v>
       </c>
@@ -6776,14 +6874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6805,7 +6903,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="131" t="s">
         <v>36</v>
       </c>
@@ -6912,7 +7010,7 @@
       <c r="BJ1" s="124"/>
       <c r="BK1" s="124"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="126">
         <v>43204</v>
       </c>
@@ -7015,7 +7113,7 @@
       <c r="BJ2" s="136"/>
       <c r="BK2" s="136"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="126">
         <v>43204</v>
       </c>
@@ -7118,7 +7216,7 @@
       <c r="BJ3" s="136"/>
       <c r="BK3" s="136"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="126">
         <v>43204</v>
       </c>
@@ -7221,7 +7319,7 @@
       <c r="BJ4" s="136"/>
       <c r="BK4" s="136"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="126">
         <v>43204</v>
       </c>
@@ -7332,14 +7430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7361,7 +7459,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="150" t="s">
         <v>36</v>
       </c>
@@ -7468,7 +7566,7 @@
       <c r="BJ1" s="142"/>
       <c r="BK1" s="142"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="144">
         <v>43205</v>
       </c>
@@ -7571,7 +7669,7 @@
       <c r="BJ2" s="155"/>
       <c r="BK2" s="155"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="144">
         <v>43205</v>
       </c>
@@ -7674,7 +7772,7 @@
       <c r="BJ3" s="155"/>
       <c r="BK3" s="155"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="144">
         <v>43205</v>
       </c>
@@ -7777,7 +7875,7 @@
       <c r="BJ4" s="155"/>
       <c r="BK4" s="155"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="144">
         <v>43205</v>
       </c>
@@ -7880,7 +7978,7 @@
       <c r="BJ5" s="155"/>
       <c r="BK5" s="155"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="18.75">
       <c r="A6" s="144">
         <v>43205</v>
       </c>
@@ -7991,14 +8089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8019,7 +8117,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="15">
       <c r="A1" s="169" t="s">
         <v>36</v>
       </c>
@@ -8123,7 +8221,7 @@
       <c r="BI1" s="162"/>
       <c r="BJ1" s="162"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" ht="18.75">
       <c r="A2" s="164">
         <v>43206</v>
       </c>
@@ -8225,7 +8323,7 @@
       <c r="BI2" s="174"/>
       <c r="BJ2" s="174"/>
     </row>
-    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" ht="18.75">
       <c r="A3" s="164">
         <v>43206</v>
       </c>
@@ -8327,7 +8425,7 @@
       <c r="BI3" s="174"/>
       <c r="BJ3" s="174"/>
     </row>
-    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" ht="18.75">
       <c r="A4" s="164">
         <v>43206</v>
       </c>
@@ -8431,7 +8529,7 @@
       <c r="BI4" s="174"/>
       <c r="BJ4" s="174"/>
     </row>
-    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" ht="18.75">
       <c r="A5" s="164">
         <v>43206</v>
       </c>
@@ -8541,14 +8639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8569,7 +8667,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="15">
       <c r="A1" s="185" t="s">
         <v>36</v>
       </c>
@@ -8673,7 +8771,7 @@
       <c r="BI1" s="178"/>
       <c r="BJ1" s="178"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" ht="18.75">
       <c r="A2" s="180">
         <v>43207</v>
       </c>
@@ -8775,7 +8873,7 @@
       <c r="BI2" s="190"/>
       <c r="BJ2" s="190"/>
     </row>
-    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" ht="18.75">
       <c r="A3" s="180">
         <v>43207</v>
       </c>
@@ -8877,7 +8975,7 @@
       <c r="BI3" s="190"/>
       <c r="BJ3" s="190"/>
     </row>
-    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" ht="18.75">
       <c r="A4" s="180">
         <v>43207</v>
       </c>
@@ -8979,7 +9077,7 @@
       <c r="BI4" s="190"/>
       <c r="BJ4" s="190"/>
     </row>
-    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" ht="18.75">
       <c r="A5" s="180">
         <v>43207</v>
       </c>
@@ -9081,7 +9179,7 @@
       <c r="BI5" s="190"/>
       <c r="BJ5" s="190"/>
     </row>
-    <row r="6" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" ht="18.75">
       <c r="A6" s="180">
         <v>43207</v>
       </c>
@@ -9183,7 +9281,7 @@
       <c r="BI6" s="190"/>
       <c r="BJ6" s="190"/>
     </row>
-    <row r="7" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" ht="18.75">
       <c r="A7" s="180">
         <v>43207</v>
       </c>
@@ -9285,7 +9383,7 @@
       <c r="BI7" s="190"/>
       <c r="BJ7" s="190"/>
     </row>
-    <row r="8" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" ht="18.75">
       <c r="A8" s="180">
         <v>43207</v>
       </c>
@@ -9387,7 +9485,7 @@
       <c r="BI8" s="190"/>
       <c r="BJ8" s="190"/>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1">
       <c r="A9" s="180">
         <v>43207</v>
       </c>
@@ -9489,7 +9587,7 @@
       <c r="BI9" s="190"/>
       <c r="BJ9" s="190"/>
     </row>
-    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="180">
         <v>43207</v>
       </c>
@@ -9589,7 +9687,7 @@
       <c r="BI10" s="190"/>
       <c r="BJ10" s="190"/>
     </row>
-    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="194">
         <v>43207</v>
       </c>
@@ -9689,7 +9787,7 @@
       <c r="BH11" s="192"/>
       <c r="BI11" s="192"/>
     </row>
-    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="180"/>
       <c r="B12" s="181"/>
       <c r="C12" s="181"/>
@@ -9753,12 +9851,12 @@
       <c r="BI12" s="190"/>
       <c r="BJ12" s="190"/>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="13:14">
       <c r="M17">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="13:14">
       <c r="M23">
         <v>309</v>
       </c>
@@ -9766,7 +9864,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="13:14">
       <c r="M24">
         <v>353</v>
       </c>
@@ -9774,22 +9872,22 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="13:14">
       <c r="M25">
         <v>791</v>
       </c>
     </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="13:14">
       <c r="M26">
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="13:14">
       <c r="M27">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="13:14">
       <c r="M28">
         <v>291</v>
       </c>
@@ -9802,14 +9900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -9831,7 +9929,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" ht="15">
       <c r="A1" s="214" t="s">
         <v>36</v>
       </c>
@@ -9938,7 +10036,7 @@
       <c r="BJ1" s="207"/>
       <c r="BK1" s="207"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="18.75">
       <c r="A2" s="209">
         <v>43208</v>
       </c>
@@ -10043,7 +10141,7 @@
       <c r="BJ2" s="219"/>
       <c r="BK2" s="219"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" ht="18.75">
       <c r="A3" s="209">
         <v>43208</v>
       </c>
@@ -10148,7 +10246,7 @@
       <c r="BJ3" s="219"/>
       <c r="BK3" s="219"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" ht="18.75">
       <c r="A4" s="209">
         <v>43208</v>
       </c>
@@ -10253,7 +10351,7 @@
       <c r="BJ4" s="219"/>
       <c r="BK4" s="219"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" ht="18.75">
       <c r="A5" s="209">
         <v>43208</v>
       </c>
@@ -10358,7 +10456,7 @@
       <c r="BJ5" s="219"/>
       <c r="BK5" s="219"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" ht="18.75">
       <c r="A6" s="209">
         <v>43208</v>
       </c>
@@ -10463,7 +10561,7 @@
       <c r="BJ6" s="219"/>
       <c r="BK6" s="219"/>
     </row>
-    <row r="7" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:63" ht="18.75">
       <c r="A7" s="209">
         <v>43208</v>
       </c>
@@ -10568,7 +10666,7 @@
       <c r="BJ7" s="219"/>
       <c r="BK7" s="219"/>
     </row>
-    <row r="8" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:63" ht="18.75">
       <c r="A8" s="209">
         <v>43208</v>
       </c>
@@ -10673,7 +10771,7 @@
       <c r="BJ8" s="219"/>
       <c r="BK8" s="219"/>
     </row>
-    <row r="9" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:63" ht="18.75">
       <c r="A9" s="209">
         <v>43208</v>
       </c>
@@ -10778,7 +10876,7 @@
       <c r="BJ9" s="219"/>
       <c r="BK9" s="219"/>
     </row>
-    <row r="10" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:63" ht="18.75">
       <c r="A10" s="209">
         <v>43208</v>
       </c>
@@ -10883,7 +10981,7 @@
       <c r="BJ10" s="219"/>
       <c r="BK10" s="219"/>
     </row>
-    <row r="11" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:63" ht="18.75">
       <c r="A11" s="209">
         <v>43208</v>
       </c>
@@ -10988,7 +11086,7 @@
       <c r="BJ11" s="219"/>
       <c r="BK11" s="219"/>
     </row>
-    <row r="12" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:63" ht="18.75">
       <c r="A12" s="224">
         <v>43208</v>
       </c>
@@ -11093,7 +11191,7 @@
       <c r="BJ12" s="231"/>
       <c r="BK12" s="231"/>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:63">
       <c r="O15" s="222" t="s">
         <v>411</v>
       </c>
@@ -11106,14 +11204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI71"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -11133,7 +11231,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" s="10" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -11234,7 +11332,7 @@
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
     </row>
-    <row r="2" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" s="20" customFormat="1" ht="18.75">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -11291,7 +11389,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" s="20" customFormat="1" ht="18.75">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -11348,7 +11446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" s="20" customFormat="1" ht="18.75">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -11405,7 +11503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" s="20" customFormat="1" ht="18.75">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -11462,7 +11560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" s="20" customFormat="1" ht="18.75">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -11519,7 +11617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" s="20" customFormat="1" ht="18.75">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -11576,7 +11674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:61" s="10" customFormat="1" ht="18.75">
       <c r="A8" s="58">
         <v>43192</v>
       </c>
@@ -11675,7 +11773,7 @@
       <c r="BH8" s="34"/>
       <c r="BI8" s="34"/>
     </row>
-    <row r="9" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:61" s="10" customFormat="1" ht="18.75">
       <c r="A9" s="58">
         <v>43192</v>
       </c>
@@ -11774,7 +11872,7 @@
       <c r="BH9" s="34"/>
       <c r="BI9" s="34"/>
     </row>
-    <row r="10" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:61" s="10" customFormat="1" ht="18.75">
       <c r="A10" s="58">
         <v>43192</v>
       </c>
@@ -11873,7 +11971,7 @@
       <c r="BH10" s="34"/>
       <c r="BI10" s="34"/>
     </row>
-    <row r="11" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:61" s="10" customFormat="1" ht="18.75">
       <c r="A11" s="58">
         <v>43192</v>
       </c>
@@ -11972,7 +12070,7 @@
       <c r="BH11" s="34"/>
       <c r="BI11" s="34"/>
     </row>
-    <row r="12" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:61" s="10" customFormat="1" ht="18.75">
       <c r="A12" s="58">
         <v>43192</v>
       </c>
@@ -12071,7 +12169,7 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
     </row>
-    <row r="13" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A13" s="39">
         <v>43193</v>
       </c>
@@ -12170,7 +12268,7 @@
       <c r="BH13" s="41"/>
       <c r="BI13" s="41"/>
     </row>
-    <row r="14" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A14" s="39">
         <v>43193</v>
       </c>
@@ -12269,7 +12367,7 @@
       <c r="BH14" s="41"/>
       <c r="BI14" s="41"/>
     </row>
-    <row r="15" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A15" s="39">
         <v>43193</v>
       </c>
@@ -12368,7 +12466,7 @@
       <c r="BH15" s="41"/>
       <c r="BI15" s="41"/>
     </row>
-    <row r="16" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A16" s="39">
         <v>43193</v>
       </c>
@@ -12467,7 +12565,7 @@
       <c r="BH16" s="41"/>
       <c r="BI16" s="41"/>
     </row>
-    <row r="17" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A17" s="39">
         <v>43193</v>
       </c>
@@ -12566,7 +12664,7 @@
       <c r="BH17" s="41"/>
       <c r="BI17" s="41"/>
     </row>
-    <row r="18" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A18" s="39">
         <v>43193</v>
       </c>
@@ -12665,7 +12763,7 @@
       <c r="BH18" s="41"/>
       <c r="BI18" s="41"/>
     </row>
-    <row r="19" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A19" s="58">
         <v>43194</v>
       </c>
@@ -12726,7 +12824,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="20" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A20" s="58">
         <v>43194</v>
       </c>
@@ -12787,7 +12885,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A21" s="58">
         <v>43194</v>
       </c>
@@ -12848,7 +12946,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="22" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A22" s="58">
         <v>43194</v>
       </c>
@@ -12909,7 +13007,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="23" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A23" s="58">
         <v>43195</v>
       </c>
@@ -12970,7 +13068,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A24" s="58">
         <v>43195</v>
       </c>
@@ -13031,7 +13129,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A25" s="58">
         <v>43195</v>
       </c>
@@ -13092,7 +13190,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="26" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A26" s="58">
         <v>43195</v>
       </c>
@@ -13153,7 +13251,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="27" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A27" s="58">
         <v>43196</v>
       </c>
@@ -13214,7 +13312,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="28" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A28" s="58">
         <v>43196</v>
       </c>
@@ -13275,7 +13373,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A29" s="58">
         <v>43196</v>
       </c>
@@ -13336,7 +13434,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="30" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A30" s="58">
         <v>43196</v>
       </c>
@@ -13397,7 +13495,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="31" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A31" s="58">
         <v>43197</v>
       </c>
@@ -13458,7 +13556,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A32" s="58">
         <v>43197</v>
       </c>
@@ -13519,7 +13617,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="33" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A33" s="58">
         <v>43197</v>
       </c>
@@ -13580,7 +13678,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="34" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A34" s="58">
         <v>43197</v>
       </c>
@@ -13641,7 +13739,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="35" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:61" s="69" customFormat="1" ht="18.75">
       <c r="A35" s="58">
         <v>43197</v>
       </c>
@@ -13702,7 +13800,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="36" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A36" s="144">
         <v>43198</v>
       </c>
@@ -13763,7 +13861,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="37" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A37" s="144">
         <v>43198</v>
       </c>
@@ -13824,7 +13922,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="38" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A38" s="144">
         <v>43198</v>
       </c>
@@ -13885,7 +13983,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="39" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A39" s="144">
         <v>43198</v>
       </c>
@@ -13946,7 +14044,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="40" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A40" s="144">
         <v>43198</v>
       </c>
@@ -14007,7 +14105,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="41" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A41" s="144">
         <v>43199</v>
       </c>
@@ -14068,7 +14166,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="42" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A42" s="144">
         <v>43199</v>
       </c>
@@ -14129,7 +14227,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="43" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A43" s="144">
         <v>43199</v>
       </c>
@@ -14190,7 +14288,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="44" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A44" s="144">
         <v>43199</v>
       </c>
@@ -14251,7 +14349,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="45" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A45" s="144">
         <v>43200</v>
       </c>
@@ -14350,7 +14448,7 @@
       <c r="BH45" s="155"/>
       <c r="BI45" s="155"/>
     </row>
-    <row r="46" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A46" s="144">
         <v>43200</v>
       </c>
@@ -14449,7 +14547,7 @@
       <c r="BH46" s="155"/>
       <c r="BI46" s="155"/>
     </row>
-    <row r="47" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A47" s="144">
         <v>43200</v>
       </c>
@@ -14548,7 +14646,7 @@
       <c r="BH47" s="155"/>
       <c r="BI47" s="155"/>
     </row>
-    <row r="48" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A48" s="144">
         <v>43200</v>
       </c>
@@ -14647,7 +14745,7 @@
       <c r="BH48" s="155"/>
       <c r="BI48" s="155"/>
     </row>
-    <row r="49" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A49" s="144">
         <v>43200</v>
       </c>
@@ -14746,7 +14844,7 @@
       <c r="BH49" s="155"/>
       <c r="BI49" s="155"/>
     </row>
-    <row r="50" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A50" s="144">
         <v>43201</v>
       </c>
@@ -14845,7 +14943,7 @@
       <c r="BH50" s="155"/>
       <c r="BI50" s="155"/>
     </row>
-    <row r="51" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A51" s="144">
         <v>43201</v>
       </c>
@@ -14944,7 +15042,7 @@
       <c r="BH51" s="155"/>
       <c r="BI51" s="155"/>
     </row>
-    <row r="52" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A52" s="144">
         <v>43201</v>
       </c>
@@ -15043,7 +15141,7 @@
       <c r="BH52" s="155"/>
       <c r="BI52" s="155"/>
     </row>
-    <row r="53" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A53" s="144">
         <v>43201</v>
       </c>
@@ -15142,7 +15240,7 @@
       <c r="BH53" s="155"/>
       <c r="BI53" s="155"/>
     </row>
-    <row r="54" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A54" s="144">
         <v>43201</v>
       </c>
@@ -15243,7 +15341,7 @@
       <c r="BH54" s="155"/>
       <c r="BI54" s="155"/>
     </row>
-    <row r="55" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A55" s="144">
         <v>43202</v>
       </c>
@@ -15304,7 +15402,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="56" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A56" s="144">
         <v>43202</v>
       </c>
@@ -15365,7 +15463,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="57" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A57" s="144">
         <v>43202</v>
       </c>
@@ -15426,7 +15524,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="58" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:61" s="155" customFormat="1" ht="18.75">
       <c r="A58" s="144">
         <v>43202</v>
       </c>
@@ -15487,7 +15585,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="59" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A59" s="144">
         <v>43203</v>
       </c>
@@ -15586,7 +15684,7 @@
       <c r="BH59" s="155"/>
       <c r="BI59" s="155"/>
     </row>
-    <row r="60" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A60" s="144">
         <v>43203</v>
       </c>
@@ -15685,7 +15783,7 @@
       <c r="BH60" s="155"/>
       <c r="BI60" s="155"/>
     </row>
-    <row r="61" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A61" s="144">
         <v>43203</v>
       </c>
@@ -15784,7 +15882,7 @@
       <c r="BH61" s="155"/>
       <c r="BI61" s="155"/>
     </row>
-    <row r="62" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A62" s="144">
         <v>43203</v>
       </c>
@@ -15883,7 +15981,7 @@
       <c r="BH62" s="155"/>
       <c r="BI62" s="155"/>
     </row>
-    <row r="63" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A63" s="144">
         <v>43204</v>
       </c>
@@ -15982,7 +16080,7 @@
       <c r="BH63" s="155"/>
       <c r="BI63" s="155"/>
     </row>
-    <row r="64" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A64" s="144">
         <v>43204</v>
       </c>
@@ -16081,7 +16179,7 @@
       <c r="BH64" s="155"/>
       <c r="BI64" s="155"/>
     </row>
-    <row r="65" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A65" s="144">
         <v>43204</v>
       </c>
@@ -16180,7 +16278,7 @@
       <c r="BH65" s="155"/>
       <c r="BI65" s="155"/>
     </row>
-    <row r="66" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A66" s="144">
         <v>43204</v>
       </c>
@@ -16279,7 +16377,7 @@
       <c r="BH66" s="155"/>
       <c r="BI66" s="155"/>
     </row>
-    <row r="67" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A67" s="144">
         <v>43205</v>
       </c>
@@ -16378,7 +16476,7 @@
       <c r="BH67" s="155"/>
       <c r="BI67" s="155"/>
     </row>
-    <row r="68" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A68" s="144">
         <v>43205</v>
       </c>
@@ -16477,7 +16575,7 @@
       <c r="BH68" s="155"/>
       <c r="BI68" s="155"/>
     </row>
-    <row r="69" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A69" s="144">
         <v>43205</v>
       </c>
@@ -16576,7 +16674,7 @@
       <c r="BH69" s="155"/>
       <c r="BI69" s="155"/>
     </row>
-    <row r="70" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A70" s="144">
         <v>43205</v>
       </c>
@@ -16675,7 +16773,7 @@
       <c r="BH70" s="155"/>
       <c r="BI70" s="155"/>
     </row>
-    <row r="71" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:61" s="140" customFormat="1" ht="18.75">
       <c r="A71" s="144">
         <v>43205</v>
       </c>
@@ -16851,14 +16949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -16876,7 +16974,7 @@
     <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="15">
       <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
@@ -16974,7 +17072,7 @@
       <c r="BG1" s="23"/>
       <c r="BH1" s="23"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" ht="18.75">
       <c r="A2" s="29">
         <v>43192</v>
       </c>
@@ -17072,7 +17170,7 @@
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" ht="18.75">
       <c r="A3" s="29">
         <v>43192</v>
       </c>
@@ -17170,7 +17268,7 @@
       <c r="BG3" s="34"/>
       <c r="BH3" s="34"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" ht="18.75">
       <c r="A4" s="29">
         <v>43192</v>
       </c>
@@ -17268,7 +17366,7 @@
       <c r="BG4" s="34"/>
       <c r="BH4" s="34"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" ht="18.75">
       <c r="A5" s="29">
         <v>43192</v>
       </c>
@@ -17366,7 +17464,7 @@
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" ht="18.75">
       <c r="A6" s="29">
         <v>43192</v>
       </c>
@@ -17472,14 +17570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -17498,7 +17596,7 @@
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" ht="15">
       <c r="A1" s="242" t="s">
         <v>36</v>
       </c>
@@ -17596,7 +17694,7 @@
       <c r="BG1" s="235"/>
       <c r="BH1" s="235"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" ht="18.75">
       <c r="A2" s="237">
         <v>43209</v>
       </c>
@@ -17694,7 +17792,7 @@
       <c r="BG2" s="247"/>
       <c r="BH2" s="247"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" ht="18.75">
       <c r="A3" s="237">
         <v>43209</v>
       </c>
@@ -17792,7 +17890,7 @@
       <c r="BG3" s="247"/>
       <c r="BH3" s="247"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" ht="18.75">
       <c r="A4" s="237">
         <v>43209</v>
       </c>
@@ -17890,7 +17988,7 @@
       <c r="BG4" s="247"/>
       <c r="BH4" s="247"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" ht="18.75">
       <c r="A5" s="237">
         <v>43209</v>
       </c>
@@ -17988,7 +18086,7 @@
       <c r="BG5" s="247"/>
       <c r="BH5" s="247"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" ht="18.75">
       <c r="A6" s="237">
         <v>43209</v>
       </c>
@@ -18086,7 +18184,7 @@
       <c r="BG6" s="247"/>
       <c r="BH6" s="247"/>
     </row>
-    <row r="7" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" ht="18.75">
       <c r="A7" s="237">
         <v>43209</v>
       </c>
@@ -18182,7 +18280,7 @@
       <c r="BG7" s="247"/>
       <c r="BH7" s="247"/>
     </row>
-    <row r="8" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" ht="18.75">
       <c r="A8" s="237">
         <v>43209</v>
       </c>
@@ -18278,7 +18376,7 @@
       <c r="BG8" s="247"/>
       <c r="BH8" s="247"/>
     </row>
-    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75">
       <c r="A9" s="237">
         <v>43209</v>
       </c>
@@ -18376,7 +18474,7 @@
       <c r="BG9" s="247"/>
       <c r="BH9" s="247"/>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60">
       <c r="L14" s="222" t="s">
         <v>431</v>
       </c>
@@ -18389,14 +18487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8654AC27-C3F6-4439-BC11-0D6972788A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -18414,7 +18512,7 @@
     <col min="17" max="18" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:60" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="242" t="s">
         <v>36</v>
       </c>
@@ -18512,7 +18610,7 @@
       <c r="BG1" s="235"/>
       <c r="BH1" s="235"/>
     </row>
-    <row r="2" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A2" s="237">
         <v>43210</v>
       </c>
@@ -18569,7 +18667,7 @@
       </c>
       <c r="R2" s="236"/>
     </row>
-    <row r="3" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A3" s="237">
         <v>43210</v>
       </c>
@@ -18628,7 +18726,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A4" s="237">
         <v>43210</v>
       </c>
@@ -18687,7 +18785,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A5" s="237">
         <v>43210</v>
       </c>
@@ -18746,7 +18844,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A6" s="237">
         <v>43210</v>
       </c>
@@ -18805,7 +18903,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A7" s="237">
         <v>43210</v>
       </c>
@@ -18862,7 +18960,7 @@
       </c>
       <c r="R7" s="236"/>
     </row>
-    <row r="8" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A8" s="237">
         <v>43210</v>
       </c>
@@ -18919,7 +19017,7 @@
       </c>
       <c r="R8" s="236"/>
     </row>
-    <row r="9" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" s="247" customFormat="1" ht="18.75">
       <c r="A9" s="237">
         <v>43210</v>
       </c>
@@ -18984,15 +19082,1032 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="15">
+      <c r="A1" s="257" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="257" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="257" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="257" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="257" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="257" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="257" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="257" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="257" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="257" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="258" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="257" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="258" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="258" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="257" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="257" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="257" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="257" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="259" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="249"/>
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="249"/>
+      <c r="AD1" s="249"/>
+      <c r="AE1" s="249"/>
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="249"/>
+      <c r="AH1" s="250"/>
+      <c r="AI1" s="250"/>
+      <c r="AJ1" s="250"/>
+      <c r="AK1" s="250"/>
+      <c r="AL1" s="250"/>
+      <c r="AM1" s="250"/>
+      <c r="AN1" s="250"/>
+      <c r="AO1" s="250"/>
+      <c r="AP1" s="250"/>
+      <c r="AQ1" s="250"/>
+      <c r="AR1" s="250"/>
+      <c r="AS1" s="250"/>
+      <c r="AT1" s="250"/>
+      <c r="AU1" s="250"/>
+      <c r="AV1" s="250"/>
+      <c r="AW1" s="250"/>
+      <c r="AX1" s="250"/>
+      <c r="AY1" s="250"/>
+      <c r="AZ1" s="250"/>
+      <c r="BA1" s="250"/>
+      <c r="BB1" s="250"/>
+      <c r="BC1" s="250"/>
+      <c r="BD1" s="250"/>
+      <c r="BE1" s="250"/>
+      <c r="BF1" s="250"/>
+      <c r="BG1" s="250"/>
+      <c r="BH1" s="250"/>
+      <c r="BI1" s="250"/>
+    </row>
+    <row r="2" spans="1:61" ht="18.75">
+      <c r="A2" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B2" s="253" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="253">
+        <v>1830</v>
+      </c>
+      <c r="D2" s="253">
+        <v>1956</v>
+      </c>
+      <c r="E2" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="262" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" s="253"/>
+      <c r="K2" s="256" t="s">
+        <v>462</v>
+      </c>
+      <c r="L2" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="263" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="260" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="255">
+        <v>0</v>
+      </c>
+      <c r="R2" s="255">
+        <v>14</v>
+      </c>
+      <c r="S2" s="255" t="s">
+        <v>463</v>
+      </c>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="261"/>
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="261"/>
+      <c r="AH2" s="261"/>
+      <c r="AI2" s="261"/>
+      <c r="AJ2" s="261"/>
+      <c r="AK2" s="261"/>
+      <c r="AL2" s="261"/>
+      <c r="AM2" s="261"/>
+      <c r="AN2" s="261"/>
+      <c r="AO2" s="261"/>
+      <c r="AP2" s="261"/>
+      <c r="AQ2" s="261"/>
+      <c r="AR2" s="261"/>
+      <c r="AS2" s="261"/>
+      <c r="AT2" s="261"/>
+      <c r="AU2" s="261"/>
+      <c r="AV2" s="261"/>
+      <c r="AW2" s="261"/>
+      <c r="AX2" s="261"/>
+      <c r="AY2" s="261"/>
+      <c r="AZ2" s="261"/>
+      <c r="BA2" s="261"/>
+      <c r="BB2" s="261"/>
+      <c r="BC2" s="261"/>
+      <c r="BD2" s="261"/>
+      <c r="BE2" s="261"/>
+      <c r="BF2" s="261"/>
+      <c r="BG2" s="261"/>
+      <c r="BH2" s="261"/>
+      <c r="BI2" s="261"/>
+    </row>
+    <row r="3" spans="1:61" ht="18.75">
+      <c r="A3" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B3" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253">
+        <v>1230</v>
+      </c>
+      <c r="D3" s="253">
+        <v>1408</v>
+      </c>
+      <c r="E3" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="262" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" s="253"/>
+      <c r="K3" s="256" t="s">
+        <v>465</v>
+      </c>
+      <c r="L3" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="263" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="260" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="255">
+        <v>0</v>
+      </c>
+      <c r="R3" s="255">
+        <v>14</v>
+      </c>
+      <c r="S3" s="255" t="s">
+        <v>466</v>
+      </c>
+      <c r="T3" s="261"/>
+      <c r="U3" s="261"/>
+      <c r="V3" s="261"/>
+      <c r="W3" s="261"/>
+      <c r="X3" s="261"/>
+      <c r="Y3" s="261"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="261"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="261"/>
+      <c r="AD3" s="261"/>
+      <c r="AE3" s="261"/>
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="261"/>
+      <c r="AH3" s="261"/>
+      <c r="AI3" s="261"/>
+      <c r="AJ3" s="261"/>
+      <c r="AK3" s="261"/>
+      <c r="AL3" s="261"/>
+      <c r="AM3" s="261"/>
+      <c r="AN3" s="261"/>
+      <c r="AO3" s="261"/>
+      <c r="AP3" s="261"/>
+      <c r="AQ3" s="261"/>
+      <c r="AR3" s="261"/>
+      <c r="AS3" s="261"/>
+      <c r="AT3" s="261"/>
+      <c r="AU3" s="261"/>
+      <c r="AV3" s="261"/>
+      <c r="AW3" s="261"/>
+      <c r="AX3" s="261"/>
+      <c r="AY3" s="261"/>
+      <c r="AZ3" s="261"/>
+      <c r="BA3" s="261"/>
+      <c r="BB3" s="261"/>
+      <c r="BC3" s="261"/>
+      <c r="BD3" s="261"/>
+      <c r="BE3" s="261"/>
+      <c r="BF3" s="261"/>
+      <c r="BG3" s="261"/>
+      <c r="BH3" s="261"/>
+      <c r="BI3" s="261"/>
+    </row>
+    <row r="4" spans="1:61" ht="18.75">
+      <c r="A4" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B4" s="253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="253">
+        <v>1459</v>
+      </c>
+      <c r="D4" s="253">
+        <v>1648</v>
+      </c>
+      <c r="E4" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="262" t="s">
+        <v>467</v>
+      </c>
+      <c r="J4" s="253"/>
+      <c r="K4" s="256" t="s">
+        <v>468</v>
+      </c>
+      <c r="L4" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="263" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="260" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="255">
+        <v>0</v>
+      </c>
+      <c r="R4" s="255">
+        <v>14</v>
+      </c>
+      <c r="S4" s="255"/>
+      <c r="T4" s="261"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="261"/>
+      <c r="W4" s="261"/>
+      <c r="X4" s="261"/>
+      <c r="Y4" s="261"/>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="261"/>
+      <c r="AB4" s="261"/>
+      <c r="AC4" s="261"/>
+      <c r="AD4" s="261"/>
+      <c r="AE4" s="261"/>
+      <c r="AF4" s="261"/>
+      <c r="AG4" s="261"/>
+      <c r="AH4" s="261"/>
+      <c r="AI4" s="261"/>
+      <c r="AJ4" s="261"/>
+      <c r="AK4" s="261"/>
+      <c r="AL4" s="261"/>
+      <c r="AM4" s="261"/>
+      <c r="AN4" s="261"/>
+      <c r="AO4" s="261"/>
+      <c r="AP4" s="261"/>
+      <c r="AQ4" s="261"/>
+      <c r="AR4" s="261"/>
+      <c r="AS4" s="261"/>
+      <c r="AT4" s="261"/>
+      <c r="AU4" s="261"/>
+      <c r="AV4" s="261"/>
+      <c r="AW4" s="261"/>
+      <c r="AX4" s="261"/>
+      <c r="AY4" s="261"/>
+      <c r="AZ4" s="261"/>
+      <c r="BA4" s="261"/>
+      <c r="BB4" s="261"/>
+      <c r="BC4" s="261"/>
+      <c r="BD4" s="261"/>
+      <c r="BE4" s="261"/>
+      <c r="BF4" s="261"/>
+      <c r="BG4" s="261"/>
+      <c r="BH4" s="261"/>
+      <c r="BI4" s="261"/>
+    </row>
+    <row r="5" spans="1:61" ht="18.75">
+      <c r="A5" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B5" s="253" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="253">
+        <v>1805</v>
+      </c>
+      <c r="D5" s="253">
+        <v>1924</v>
+      </c>
+      <c r="E5" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="262" t="s">
+        <v>469</v>
+      </c>
+      <c r="J5" s="253"/>
+      <c r="K5" s="256" t="s">
+        <v>470</v>
+      </c>
+      <c r="L5" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="263" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="260" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="255">
+        <v>1</v>
+      </c>
+      <c r="R5" s="255">
+        <v>15</v>
+      </c>
+      <c r="S5" s="255" t="s">
+        <v>463</v>
+      </c>
+      <c r="T5" s="261"/>
+      <c r="U5" s="261"/>
+      <c r="V5" s="261"/>
+      <c r="W5" s="261"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="261"/>
+      <c r="Z5" s="261"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="261"/>
+      <c r="AC5" s="261"/>
+      <c r="AD5" s="261"/>
+      <c r="AE5" s="261"/>
+      <c r="AF5" s="261"/>
+      <c r="AG5" s="261"/>
+      <c r="AH5" s="261"/>
+      <c r="AI5" s="261"/>
+      <c r="AJ5" s="261"/>
+      <c r="AK5" s="261"/>
+      <c r="AL5" s="261"/>
+      <c r="AM5" s="261"/>
+      <c r="AN5" s="261"/>
+      <c r="AO5" s="261"/>
+      <c r="AP5" s="261"/>
+      <c r="AQ5" s="261"/>
+      <c r="AR5" s="261"/>
+      <c r="AS5" s="261"/>
+      <c r="AT5" s="261"/>
+      <c r="AU5" s="261"/>
+      <c r="AV5" s="261"/>
+      <c r="AW5" s="261"/>
+      <c r="AX5" s="261"/>
+      <c r="AY5" s="261"/>
+      <c r="AZ5" s="261"/>
+      <c r="BA5" s="261"/>
+      <c r="BB5" s="261"/>
+      <c r="BC5" s="261"/>
+      <c r="BD5" s="261"/>
+      <c r="BE5" s="261"/>
+      <c r="BF5" s="261"/>
+      <c r="BG5" s="261"/>
+      <c r="BH5" s="261"/>
+      <c r="BI5" s="261"/>
+    </row>
+    <row r="6" spans="1:61" ht="18.75">
+      <c r="A6" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B6" s="253" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="253">
+        <v>1929</v>
+      </c>
+      <c r="D6" s="253">
+        <v>2115</v>
+      </c>
+      <c r="E6" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="262" t="s">
+        <v>471</v>
+      </c>
+      <c r="J6" s="253"/>
+      <c r="K6" s="256" t="s">
+        <v>472</v>
+      </c>
+      <c r="L6" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="263" t="s">
+        <v>169</v>
+      </c>
+      <c r="N6" s="260" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="255">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="255">
+        <v>0</v>
+      </c>
+      <c r="R6" s="255">
+        <v>7</v>
+      </c>
+      <c r="S6" s="255"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="261"/>
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="261"/>
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="261"/>
+      <c r="AC6" s="261"/>
+      <c r="AD6" s="261"/>
+      <c r="AE6" s="261"/>
+      <c r="AF6" s="261"/>
+      <c r="AG6" s="261"/>
+      <c r="AH6" s="261"/>
+      <c r="AI6" s="261"/>
+      <c r="AJ6" s="261"/>
+      <c r="AK6" s="261"/>
+      <c r="AL6" s="261"/>
+      <c r="AM6" s="261"/>
+      <c r="AN6" s="261"/>
+      <c r="AO6" s="261"/>
+      <c r="AP6" s="261"/>
+      <c r="AQ6" s="261"/>
+      <c r="AR6" s="261"/>
+      <c r="AS6" s="261"/>
+      <c r="AT6" s="261"/>
+      <c r="AU6" s="261"/>
+      <c r="AV6" s="261"/>
+      <c r="AW6" s="261"/>
+      <c r="AX6" s="261"/>
+      <c r="AY6" s="261"/>
+      <c r="AZ6" s="261"/>
+      <c r="BA6" s="261"/>
+      <c r="BB6" s="261"/>
+      <c r="BC6" s="261"/>
+      <c r="BD6" s="261"/>
+      <c r="BE6" s="261"/>
+      <c r="BF6" s="261"/>
+      <c r="BG6" s="261"/>
+      <c r="BH6" s="261"/>
+      <c r="BI6" s="261"/>
+    </row>
+    <row r="7" spans="1:61" ht="18.75">
+      <c r="A7" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B7" s="253" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="253">
+        <v>1900</v>
+      </c>
+      <c r="D7" s="253">
+        <v>2038</v>
+      </c>
+      <c r="E7" s="254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="254" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="262" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" s="253"/>
+      <c r="K7" s="256" t="s">
+        <v>474</v>
+      </c>
+      <c r="L7" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="263" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="260" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="255">
+        <v>0</v>
+      </c>
+      <c r="R7" s="255">
+        <v>14</v>
+      </c>
+      <c r="S7" s="255"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
+      <c r="AD7" s="261"/>
+      <c r="AE7" s="261"/>
+      <c r="AF7" s="261"/>
+      <c r="AG7" s="261"/>
+      <c r="AH7" s="261"/>
+      <c r="AI7" s="261"/>
+      <c r="AJ7" s="261"/>
+      <c r="AK7" s="261"/>
+      <c r="AL7" s="261"/>
+      <c r="AM7" s="261"/>
+      <c r="AN7" s="261"/>
+      <c r="AO7" s="261"/>
+      <c r="AP7" s="261"/>
+      <c r="AQ7" s="261"/>
+      <c r="AR7" s="261"/>
+      <c r="AS7" s="261"/>
+      <c r="AT7" s="261"/>
+      <c r="AU7" s="261"/>
+      <c r="AV7" s="261"/>
+      <c r="AW7" s="261"/>
+      <c r="AX7" s="261"/>
+      <c r="AY7" s="261"/>
+      <c r="AZ7" s="261"/>
+      <c r="BA7" s="261"/>
+      <c r="BB7" s="261"/>
+      <c r="BC7" s="261"/>
+      <c r="BD7" s="261"/>
+      <c r="BE7" s="261"/>
+      <c r="BF7" s="261"/>
+      <c r="BG7" s="261"/>
+      <c r="BH7" s="261"/>
+      <c r="BI7" s="261"/>
+    </row>
+    <row r="8" spans="1:61" ht="18.75">
+      <c r="A8" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B8" s="253" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="253">
+        <v>1920</v>
+      </c>
+      <c r="D8" s="253">
+        <v>2044</v>
+      </c>
+      <c r="E8" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="254" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="262" t="s">
+        <v>475</v>
+      </c>
+      <c r="J8" s="253"/>
+      <c r="K8" s="256" t="s">
+        <v>476</v>
+      </c>
+      <c r="L8" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="263" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="260" t="s">
+        <v>257</v>
+      </c>
+      <c r="O8" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="255">
+        <v>0</v>
+      </c>
+      <c r="R8" s="255">
+        <v>14</v>
+      </c>
+      <c r="S8" s="255" t="s">
+        <v>477</v>
+      </c>
+      <c r="T8" s="261"/>
+      <c r="U8" s="261"/>
+      <c r="V8" s="261"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="261"/>
+      <c r="Y8" s="261"/>
+      <c r="Z8" s="261"/>
+      <c r="AA8" s="261"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="261"/>
+      <c r="AD8" s="261"/>
+      <c r="AE8" s="261"/>
+      <c r="AF8" s="261"/>
+      <c r="AG8" s="261"/>
+      <c r="AH8" s="261"/>
+      <c r="AI8" s="261"/>
+      <c r="AJ8" s="261"/>
+      <c r="AK8" s="261"/>
+      <c r="AL8" s="261"/>
+      <c r="AM8" s="261"/>
+      <c r="AN8" s="261"/>
+      <c r="AO8" s="261"/>
+      <c r="AP8" s="261"/>
+      <c r="AQ8" s="261"/>
+      <c r="AR8" s="261"/>
+      <c r="AS8" s="261"/>
+      <c r="AT8" s="261"/>
+      <c r="AU8" s="261"/>
+      <c r="AV8" s="261"/>
+      <c r="AW8" s="261"/>
+      <c r="AX8" s="261"/>
+      <c r="AY8" s="261"/>
+      <c r="AZ8" s="261"/>
+      <c r="BA8" s="261"/>
+      <c r="BB8" s="261"/>
+      <c r="BC8" s="261"/>
+      <c r="BD8" s="261"/>
+      <c r="BE8" s="261"/>
+      <c r="BF8" s="261"/>
+      <c r="BG8" s="261"/>
+      <c r="BH8" s="261"/>
+      <c r="BI8" s="261"/>
+    </row>
+    <row r="9" spans="1:61" ht="18.75">
+      <c r="A9" s="252">
+        <v>43211</v>
+      </c>
+      <c r="B9" s="253" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="253">
+        <v>1610</v>
+      </c>
+      <c r="D9" s="253">
+        <v>1820</v>
+      </c>
+      <c r="E9" s="254" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="254" t="s">
+        <v>478</v>
+      </c>
+      <c r="G9" s="254" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="254" t="s">
+        <v>479</v>
+      </c>
+      <c r="I9" s="262" t="s">
+        <v>480</v>
+      </c>
+      <c r="J9" s="253"/>
+      <c r="K9" s="256" t="s">
+        <v>481</v>
+      </c>
+      <c r="L9" s="251" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="263" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="260" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="251" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="255">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="255">
+        <v>0</v>
+      </c>
+      <c r="R9" s="255">
+        <v>14</v>
+      </c>
+      <c r="S9" s="255"/>
+      <c r="T9" s="261"/>
+      <c r="U9" s="261"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="261"/>
+      <c r="X9" s="261"/>
+      <c r="Y9" s="261"/>
+      <c r="Z9" s="261"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="261"/>
+      <c r="AD9" s="261"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="261"/>
+      <c r="AG9" s="261"/>
+      <c r="AH9" s="261"/>
+      <c r="AI9" s="261"/>
+      <c r="AJ9" s="261"/>
+      <c r="AK9" s="261"/>
+      <c r="AL9" s="261"/>
+      <c r="AM9" s="261"/>
+      <c r="AN9" s="261"/>
+      <c r="AO9" s="261"/>
+      <c r="AP9" s="261"/>
+      <c r="AQ9" s="261"/>
+      <c r="AR9" s="261"/>
+      <c r="AS9" s="261"/>
+      <c r="AT9" s="261"/>
+      <c r="AU9" s="261"/>
+      <c r="AV9" s="261"/>
+      <c r="AW9" s="261"/>
+      <c r="AX9" s="261"/>
+      <c r="AY9" s="261"/>
+      <c r="AZ9" s="261"/>
+      <c r="BA9" s="261"/>
+      <c r="BB9" s="261"/>
+      <c r="BC9" s="261"/>
+      <c r="BD9" s="261"/>
+      <c r="BE9" s="261"/>
+      <c r="BF9" s="261"/>
+      <c r="BG9" s="261"/>
+      <c r="BH9" s="261"/>
+      <c r="BI9" s="261"/>
+    </row>
+    <row r="10" spans="1:61" ht="18.75">
+      <c r="A10" s="265">
+        <v>43211</v>
+      </c>
+      <c r="B10" s="266" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="266">
+        <v>1840</v>
+      </c>
+      <c r="D10" s="266">
+        <v>2040</v>
+      </c>
+      <c r="E10" s="267" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="267" t="s">
+        <v>478</v>
+      </c>
+      <c r="G10" s="267" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="267" t="s">
+        <v>479</v>
+      </c>
+      <c r="I10" s="272" t="s">
+        <v>482</v>
+      </c>
+      <c r="J10" s="266"/>
+      <c r="K10" s="269" t="s">
+        <v>483</v>
+      </c>
+      <c r="L10" s="264" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="273" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="270" t="s">
+        <v>386</v>
+      </c>
+      <c r="O10" s="264" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="268">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="268">
+        <v>0</v>
+      </c>
+      <c r="R10" s="268">
+        <v>3</v>
+      </c>
+      <c r="S10" s="268"/>
+      <c r="T10" s="271"/>
+      <c r="U10" s="271"/>
+      <c r="V10" s="271"/>
+      <c r="W10" s="271"/>
+      <c r="X10" s="271"/>
+      <c r="Y10" s="271"/>
+      <c r="Z10" s="271"/>
+      <c r="AA10" s="271"/>
+      <c r="AB10" s="271"/>
+      <c r="AC10" s="271"/>
+      <c r="AD10" s="271"/>
+      <c r="AE10" s="271"/>
+      <c r="AF10" s="271"/>
+      <c r="AG10" s="271"/>
+      <c r="AH10" s="271"/>
+      <c r="AI10" s="271"/>
+      <c r="AJ10" s="271"/>
+      <c r="AK10" s="271"/>
+      <c r="AL10" s="271"/>
+      <c r="AM10" s="271"/>
+      <c r="AN10" s="271"/>
+      <c r="AO10" s="271"/>
+      <c r="AP10" s="271"/>
+      <c r="AQ10" s="271"/>
+      <c r="AR10" s="271"/>
+      <c r="AS10" s="271"/>
+      <c r="AT10" s="271"/>
+      <c r="AU10" s="271"/>
+      <c r="AV10" s="271"/>
+      <c r="AW10" s="271"/>
+      <c r="AX10" s="271"/>
+      <c r="AY10" s="271"/>
+      <c r="AZ10" s="271"/>
+      <c r="BA10" s="271"/>
+      <c r="BB10" s="271"/>
+      <c r="BC10" s="271"/>
+      <c r="BD10" s="271"/>
+      <c r="BE10" s="271"/>
+      <c r="BF10" s="271"/>
+      <c r="BG10" s="271"/>
+      <c r="BH10" s="271"/>
+      <c r="BI10" s="271"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -19011,7 +20126,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" ht="15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -19112,7 +20227,7 @@
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
     </row>
-    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -19211,7 +20326,7 @@
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
     </row>
-    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -19310,7 +20425,7 @@
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
     </row>
-    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -19409,7 +20524,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -19508,7 +20623,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -19607,7 +20722,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -19714,14 +20829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -19742,7 +20857,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -19846,7 +20961,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43194</v>
       </c>
@@ -19911,7 +21026,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43194</v>
       </c>
@@ -19976,7 +21091,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43194</v>
       </c>
@@ -20041,7 +21156,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43194</v>
       </c>
@@ -20132,14 +21247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -20160,7 +21275,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="10" customFormat="1" ht="15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -20264,7 +21379,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43195</v>
       </c>
@@ -20327,7 +21442,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43195</v>
       </c>
@@ -20390,7 +21505,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43195</v>
       </c>
@@ -20453,7 +21568,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43195</v>
       </c>
@@ -20535,14 +21650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -20566,7 +21681,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -20673,7 +21788,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43196</v>
       </c>
@@ -20739,7 +21854,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43196</v>
       </c>
@@ -20805,7 +21920,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43196</v>
       </c>
@@ -20871,7 +21986,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43196</v>
       </c>
@@ -20957,14 +22072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -20988,7 +22103,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -21095,7 +22210,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43197</v>
       </c>
@@ -21161,7 +22276,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43197</v>
       </c>
@@ -21227,7 +22342,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43197</v>
       </c>
@@ -21293,7 +22408,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43197</v>
       </c>
@@ -21359,7 +22474,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A6" s="58">
         <v>43197</v>
       </c>
@@ -21444,14 +22559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -21473,7 +22588,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -21580,7 +22695,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43198</v>
       </c>
@@ -21646,7 +22761,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43198</v>
       </c>
@@ -21712,7 +22827,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43198</v>
       </c>
@@ -21778,7 +22893,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43198</v>
       </c>
@@ -21844,7 +22959,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
       <c r="A6" s="58">
         <v>43198</v>
       </c>
@@ -21929,14 +23044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -21957,7 +23072,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -22061,7 +23176,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A2" s="58">
         <v>43199</v>
       </c>
@@ -22126,7 +23241,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A3" s="58">
         <v>43199</v>
       </c>
@@ -22191,7 +23306,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A4" s="58">
         <v>43199</v>
       </c>
@@ -22256,7 +23371,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
       <c r="A5" s="58">
         <v>43199</v>
       </c>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="13" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -29,16 +29,17 @@
     <sheet name="4-19" sheetId="20" r:id="rId20"/>
     <sheet name="4-20" sheetId="21" r:id="rId21"/>
     <sheet name="4-21" sheetId="22" r:id="rId22"/>
+    <sheet name="4-22" sheetId="23" r:id="rId23"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="502">
   <si>
     <t>王成</t>
   </si>
@@ -1625,6 +1626,60 @@
   </si>
   <si>
     <t>0028605</t>
+  </si>
+  <si>
+    <t>0028632</t>
+  </si>
+  <si>
+    <t>0076610</t>
+  </si>
+  <si>
+    <t>13袋子</t>
+  </si>
+  <si>
+    <t>0024857</t>
+  </si>
+  <si>
+    <t>3袋子</t>
+  </si>
+  <si>
+    <t>0024858</t>
+  </si>
+  <si>
+    <t>鄂ADU616</t>
+  </si>
+  <si>
+    <t>胡充源</t>
+  </si>
+  <si>
+    <t>0028646</t>
+  </si>
+  <si>
+    <t>0024881</t>
+  </si>
+  <si>
+    <t>WW0020001</t>
+  </si>
+  <si>
+    <t>WW0016950</t>
+  </si>
+  <si>
+    <t>WW0017727</t>
+  </si>
+  <si>
+    <t>WW0015984</t>
+  </si>
+  <si>
+    <t>WW0016197</t>
+  </si>
+  <si>
+    <t>WW0018703</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>0028633</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2748,6 +2803,78 @@
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19086,8 +19213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20091,6 +20218,787 @@
       <c r="BG10" s="271"/>
       <c r="BH10" s="271"/>
       <c r="BI10" s="271"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="15">
+      <c r="A1" s="282" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="282" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="282" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="282" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="282" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="282" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="282" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="282" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="282" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="283" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="282" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="283" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="283" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="282" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="282" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="282" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="282" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="284" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="274"/>
+      <c r="AG1" s="274"/>
+      <c r="AH1" s="275"/>
+      <c r="AI1" s="275"/>
+      <c r="AJ1" s="275"/>
+      <c r="AK1" s="275"/>
+      <c r="AL1" s="275"/>
+      <c r="AM1" s="275"/>
+      <c r="AN1" s="275"/>
+      <c r="AO1" s="275"/>
+      <c r="AP1" s="275"/>
+      <c r="AQ1" s="275"/>
+      <c r="AR1" s="275"/>
+      <c r="AS1" s="275"/>
+      <c r="AT1" s="275"/>
+      <c r="AU1" s="275"/>
+      <c r="AV1" s="275"/>
+      <c r="AW1" s="275"/>
+      <c r="AX1" s="275"/>
+      <c r="AY1" s="275"/>
+      <c r="AZ1" s="275"/>
+      <c r="BA1" s="275"/>
+      <c r="BB1" s="275"/>
+      <c r="BC1" s="275"/>
+      <c r="BD1" s="275"/>
+      <c r="BE1" s="275"/>
+      <c r="BF1" s="275"/>
+      <c r="BG1" s="275"/>
+      <c r="BH1" s="275"/>
+      <c r="BI1" s="275"/>
+    </row>
+    <row r="2" spans="1:61" ht="18.75">
+      <c r="A2" s="277">
+        <v>43212</v>
+      </c>
+      <c r="B2" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="278">
+        <v>1325</v>
+      </c>
+      <c r="D2" s="278">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="279" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="279" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="287" t="s">
+        <v>494</v>
+      </c>
+      <c r="J2" s="278"/>
+      <c r="K2" s="281" t="s">
+        <v>484</v>
+      </c>
+      <c r="L2" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="288" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="285" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="276" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="280">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="280">
+        <v>0</v>
+      </c>
+      <c r="R2" s="280">
+        <v>14</v>
+      </c>
+      <c r="S2" s="280"/>
+      <c r="T2" s="286"/>
+      <c r="U2" s="286"/>
+      <c r="V2" s="286"/>
+      <c r="W2" s="286"/>
+      <c r="X2" s="286"/>
+      <c r="Y2" s="286"/>
+      <c r="Z2" s="286"/>
+      <c r="AA2" s="286"/>
+      <c r="AB2" s="286"/>
+      <c r="AC2" s="286"/>
+      <c r="AD2" s="286"/>
+      <c r="AE2" s="286"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="286"/>
+      <c r="AH2" s="286"/>
+      <c r="AI2" s="286"/>
+      <c r="AJ2" s="286"/>
+      <c r="AK2" s="286"/>
+      <c r="AL2" s="286"/>
+      <c r="AM2" s="286"/>
+      <c r="AN2" s="286"/>
+      <c r="AO2" s="286"/>
+      <c r="AP2" s="286"/>
+      <c r="AQ2" s="286"/>
+      <c r="AR2" s="286"/>
+      <c r="AS2" s="286"/>
+      <c r="AT2" s="286"/>
+      <c r="AU2" s="286"/>
+      <c r="AV2" s="286"/>
+      <c r="AW2" s="286"/>
+      <c r="AX2" s="286"/>
+      <c r="AY2" s="286"/>
+      <c r="AZ2" s="286"/>
+      <c r="BA2" s="286"/>
+      <c r="BB2" s="286"/>
+      <c r="BC2" s="286"/>
+      <c r="BD2" s="286"/>
+      <c r="BE2" s="286"/>
+      <c r="BF2" s="286"/>
+      <c r="BG2" s="286"/>
+      <c r="BH2" s="286"/>
+      <c r="BI2" s="286"/>
+    </row>
+    <row r="3" spans="1:61" ht="18.75">
+      <c r="A3" s="277">
+        <v>43212</v>
+      </c>
+      <c r="B3" s="278" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="278">
+        <v>1807</v>
+      </c>
+      <c r="D3" s="278">
+        <v>1946</v>
+      </c>
+      <c r="E3" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="279" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="279" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="287" t="s">
+        <v>495</v>
+      </c>
+      <c r="J3" s="278"/>
+      <c r="K3" s="281" t="s">
+        <v>485</v>
+      </c>
+      <c r="L3" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="288" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="285" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="276" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="280">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="280">
+        <v>0</v>
+      </c>
+      <c r="R3" s="280">
+        <v>14</v>
+      </c>
+      <c r="S3" s="280" t="s">
+        <v>486</v>
+      </c>
+      <c r="T3" s="286"/>
+      <c r="U3" s="286"/>
+      <c r="V3" s="286"/>
+      <c r="W3" s="286"/>
+      <c r="X3" s="286"/>
+      <c r="Y3" s="286"/>
+      <c r="Z3" s="286"/>
+      <c r="AA3" s="286"/>
+      <c r="AB3" s="286"/>
+      <c r="AC3" s="286"/>
+      <c r="AD3" s="286"/>
+      <c r="AE3" s="286"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="286"/>
+      <c r="AH3" s="286"/>
+      <c r="AI3" s="286"/>
+      <c r="AJ3" s="286"/>
+      <c r="AK3" s="286"/>
+      <c r="AL3" s="286"/>
+      <c r="AM3" s="286"/>
+      <c r="AN3" s="286"/>
+      <c r="AO3" s="286"/>
+      <c r="AP3" s="286"/>
+      <c r="AQ3" s="286"/>
+      <c r="AR3" s="286"/>
+      <c r="AS3" s="286"/>
+      <c r="AT3" s="286"/>
+      <c r="AU3" s="286"/>
+      <c r="AV3" s="286"/>
+      <c r="AW3" s="286"/>
+      <c r="AX3" s="286"/>
+      <c r="AY3" s="286"/>
+      <c r="AZ3" s="286"/>
+      <c r="BA3" s="286"/>
+      <c r="BB3" s="286"/>
+      <c r="BC3" s="286"/>
+      <c r="BD3" s="286"/>
+      <c r="BE3" s="286"/>
+      <c r="BF3" s="286"/>
+      <c r="BG3" s="286"/>
+      <c r="BH3" s="286"/>
+      <c r="BI3" s="286"/>
+    </row>
+    <row r="4" spans="1:61" ht="18.75">
+      <c r="A4" s="277">
+        <v>43212</v>
+      </c>
+      <c r="B4" s="278" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="278">
+        <v>1750</v>
+      </c>
+      <c r="D4" s="278">
+        <v>1914</v>
+      </c>
+      <c r="E4" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="279" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="279" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="287" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="278"/>
+      <c r="K4" s="281" t="s">
+        <v>487</v>
+      </c>
+      <c r="L4" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="288" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="285" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="276" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="280">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="280">
+        <v>0</v>
+      </c>
+      <c r="R4" s="280">
+        <v>14</v>
+      </c>
+      <c r="S4" s="280" t="s">
+        <v>488</v>
+      </c>
+      <c r="T4" s="286"/>
+      <c r="U4" s="286"/>
+      <c r="V4" s="286"/>
+      <c r="W4" s="286"/>
+      <c r="X4" s="286"/>
+      <c r="Y4" s="286"/>
+      <c r="Z4" s="286"/>
+      <c r="AA4" s="286"/>
+      <c r="AB4" s="286"/>
+      <c r="AC4" s="286"/>
+      <c r="AD4" s="286"/>
+      <c r="AE4" s="286"/>
+      <c r="AF4" s="286"/>
+      <c r="AG4" s="286"/>
+      <c r="AH4" s="286"/>
+      <c r="AI4" s="286"/>
+      <c r="AJ4" s="286"/>
+      <c r="AK4" s="286"/>
+      <c r="AL4" s="286"/>
+      <c r="AM4" s="286"/>
+      <c r="AN4" s="286"/>
+      <c r="AO4" s="286"/>
+      <c r="AP4" s="286"/>
+      <c r="AQ4" s="286"/>
+      <c r="AR4" s="286"/>
+      <c r="AS4" s="286"/>
+      <c r="AT4" s="286"/>
+      <c r="AU4" s="286"/>
+      <c r="AV4" s="286"/>
+      <c r="AW4" s="286"/>
+      <c r="AX4" s="286"/>
+      <c r="AY4" s="286"/>
+      <c r="AZ4" s="286"/>
+      <c r="BA4" s="286"/>
+      <c r="BB4" s="286"/>
+      <c r="BC4" s="286"/>
+      <c r="BD4" s="286"/>
+      <c r="BE4" s="286"/>
+      <c r="BF4" s="286"/>
+      <c r="BG4" s="286"/>
+      <c r="BH4" s="286"/>
+      <c r="BI4" s="286"/>
+    </row>
+    <row r="5" spans="1:61" ht="18.75">
+      <c r="A5" s="277">
+        <v>43212</v>
+      </c>
+      <c r="B5" s="278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="278">
+        <v>1459</v>
+      </c>
+      <c r="D5" s="278">
+        <v>1641</v>
+      </c>
+      <c r="E5" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="279" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="279" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="287" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" s="278"/>
+      <c r="K5" s="281" t="s">
+        <v>489</v>
+      </c>
+      <c r="L5" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="288" t="s">
+        <v>490</v>
+      </c>
+      <c r="N5" s="285" t="s">
+        <v>491</v>
+      </c>
+      <c r="O5" s="276" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="280">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="280">
+        <v>1</v>
+      </c>
+      <c r="R5" s="280">
+        <v>15</v>
+      </c>
+      <c r="S5" s="280" t="s">
+        <v>488</v>
+      </c>
+      <c r="T5" s="286"/>
+      <c r="U5" s="286"/>
+      <c r="V5" s="286"/>
+      <c r="W5" s="286"/>
+      <c r="X5" s="286"/>
+      <c r="Y5" s="286"/>
+      <c r="Z5" s="286"/>
+      <c r="AA5" s="286"/>
+      <c r="AB5" s="286"/>
+      <c r="AC5" s="286"/>
+      <c r="AD5" s="286"/>
+      <c r="AE5" s="286"/>
+      <c r="AF5" s="286"/>
+      <c r="AG5" s="286"/>
+      <c r="AH5" s="286"/>
+      <c r="AI5" s="286"/>
+      <c r="AJ5" s="286"/>
+      <c r="AK5" s="286"/>
+      <c r="AL5" s="286"/>
+      <c r="AM5" s="286"/>
+      <c r="AN5" s="286"/>
+      <c r="AO5" s="286"/>
+      <c r="AP5" s="286"/>
+      <c r="AQ5" s="286"/>
+      <c r="AR5" s="286"/>
+      <c r="AS5" s="286"/>
+      <c r="AT5" s="286"/>
+      <c r="AU5" s="286"/>
+      <c r="AV5" s="286"/>
+      <c r="AW5" s="286"/>
+      <c r="AX5" s="286"/>
+      <c r="AY5" s="286"/>
+      <c r="AZ5" s="286"/>
+      <c r="BA5" s="286"/>
+      <c r="BB5" s="286"/>
+      <c r="BC5" s="286"/>
+      <c r="BD5" s="286"/>
+      <c r="BE5" s="286"/>
+      <c r="BF5" s="286"/>
+      <c r="BG5" s="286"/>
+      <c r="BH5" s="286"/>
+      <c r="BI5" s="286"/>
+    </row>
+    <row r="6" spans="1:61" ht="18.75">
+      <c r="A6" s="277">
+        <v>43212</v>
+      </c>
+      <c r="B6" s="278" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="278">
+        <v>1929</v>
+      </c>
+      <c r="D6" s="278">
+        <v>2100</v>
+      </c>
+      <c r="E6" s="279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="279" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="279" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="279" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="287" t="s">
+        <v>498</v>
+      </c>
+      <c r="J6" s="278"/>
+      <c r="K6" s="281" t="s">
+        <v>492</v>
+      </c>
+      <c r="L6" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="288" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="285" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="276" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="280">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="280">
+        <v>0</v>
+      </c>
+      <c r="R6" s="280">
+        <v>14</v>
+      </c>
+      <c r="S6" s="280" t="s">
+        <v>488</v>
+      </c>
+      <c r="T6" s="286"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="286"/>
+      <c r="Y6" s="286"/>
+      <c r="Z6" s="286"/>
+      <c r="AA6" s="286"/>
+      <c r="AB6" s="286"/>
+      <c r="AC6" s="286"/>
+      <c r="AD6" s="286"/>
+      <c r="AE6" s="286"/>
+      <c r="AF6" s="286"/>
+      <c r="AG6" s="286"/>
+      <c r="AH6" s="286"/>
+      <c r="AI6" s="286"/>
+      <c r="AJ6" s="286"/>
+      <c r="AK6" s="286"/>
+      <c r="AL6" s="286"/>
+      <c r="AM6" s="286"/>
+      <c r="AN6" s="286"/>
+      <c r="AO6" s="286"/>
+      <c r="AP6" s="286"/>
+      <c r="AQ6" s="286"/>
+      <c r="AR6" s="286"/>
+      <c r="AS6" s="286"/>
+      <c r="AT6" s="286"/>
+      <c r="AU6" s="286"/>
+      <c r="AV6" s="286"/>
+      <c r="AW6" s="286"/>
+      <c r="AX6" s="286"/>
+      <c r="AY6" s="286"/>
+      <c r="AZ6" s="286"/>
+      <c r="BA6" s="286"/>
+      <c r="BB6" s="286"/>
+      <c r="BC6" s="286"/>
+      <c r="BD6" s="286"/>
+      <c r="BE6" s="286"/>
+      <c r="BF6" s="286"/>
+      <c r="BG6" s="286"/>
+      <c r="BH6" s="286"/>
+      <c r="BI6" s="286"/>
+    </row>
+    <row r="7" spans="1:61" ht="18.75">
+      <c r="A7" s="277">
+        <v>43212</v>
+      </c>
+      <c r="B7" s="278" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="278">
+        <v>1929</v>
+      </c>
+      <c r="D7" s="278">
+        <v>2100</v>
+      </c>
+      <c r="E7" s="279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="279" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="279" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="279" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="287" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="278"/>
+      <c r="K7" s="281" t="s">
+        <v>493</v>
+      </c>
+      <c r="L7" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="288" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="285" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="276" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="280">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="280">
+        <v>0</v>
+      </c>
+      <c r="R7" s="280">
+        <v>10</v>
+      </c>
+      <c r="S7" s="280"/>
+      <c r="T7" s="286"/>
+      <c r="U7" s="286"/>
+      <c r="V7" s="286"/>
+      <c r="W7" s="286"/>
+      <c r="X7" s="286"/>
+      <c r="Y7" s="286"/>
+      <c r="Z7" s="286"/>
+      <c r="AA7" s="286"/>
+      <c r="AB7" s="286"/>
+      <c r="AC7" s="286"/>
+      <c r="AD7" s="286"/>
+      <c r="AE7" s="286"/>
+      <c r="AF7" s="286"/>
+      <c r="AG7" s="286"/>
+      <c r="AH7" s="286"/>
+      <c r="AI7" s="286"/>
+      <c r="AJ7" s="286"/>
+      <c r="AK7" s="286"/>
+      <c r="AL7" s="286"/>
+      <c r="AM7" s="286"/>
+      <c r="AN7" s="286"/>
+      <c r="AO7" s="286"/>
+      <c r="AP7" s="286"/>
+      <c r="AQ7" s="286"/>
+      <c r="AR7" s="286"/>
+      <c r="AS7" s="286"/>
+      <c r="AT7" s="286"/>
+      <c r="AU7" s="286"/>
+      <c r="AV7" s="286"/>
+      <c r="AW7" s="286"/>
+      <c r="AX7" s="286"/>
+      <c r="AY7" s="286"/>
+      <c r="AZ7" s="286"/>
+      <c r="BA7" s="286"/>
+      <c r="BB7" s="286"/>
+      <c r="BC7" s="286"/>
+      <c r="BD7" s="286"/>
+      <c r="BE7" s="286"/>
+      <c r="BF7" s="286"/>
+      <c r="BG7" s="286"/>
+      <c r="BH7" s="286"/>
+      <c r="BI7" s="286"/>
+    </row>
+    <row r="8" spans="1:61" ht="18.75">
+      <c r="A8" s="290">
+        <v>43212</v>
+      </c>
+      <c r="B8" s="291" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="291">
+        <v>1800</v>
+      </c>
+      <c r="D8" s="291">
+        <v>2008</v>
+      </c>
+      <c r="E8" s="292" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="292" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="292" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="292" t="s">
+        <v>407</v>
+      </c>
+      <c r="I8" s="296" t="s">
+        <v>500</v>
+      </c>
+      <c r="J8" s="291"/>
+      <c r="K8" s="294" t="s">
+        <v>501</v>
+      </c>
+      <c r="L8" s="289" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="297" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="295" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="289" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="293">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="293">
+        <v>0</v>
+      </c>
+      <c r="R8" s="293">
+        <v>14</v>
+      </c>
+      <c r="S8" s="293"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="13" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,17 @@
     <sheet name="4-20" sheetId="21" r:id="rId21"/>
     <sheet name="4-21" sheetId="22" r:id="rId22"/>
     <sheet name="4-22" sheetId="23" r:id="rId23"/>
+    <sheet name="4-23" sheetId="24" r:id="rId24"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="527">
   <si>
     <t>王成</t>
   </si>
@@ -1680,6 +1681,83 @@
   </si>
   <si>
     <t>0028633</t>
+  </si>
+  <si>
+    <t>0028645</t>
+  </si>
+  <si>
+    <t>陈安寿</t>
+  </si>
+  <si>
+    <t>0024859</t>
+  </si>
+  <si>
+    <t>徐思</t>
+  </si>
+  <si>
+    <t>武汉商超A休闲食品1号仓</t>
+  </si>
+  <si>
+    <t>宇培园区</t>
+  </si>
+  <si>
+    <t>汉南生鲜仓</t>
+  </si>
+  <si>
+    <t>0020606</t>
+  </si>
+  <si>
+    <t>0024182</t>
+  </si>
+  <si>
+    <t>0024860</t>
+  </si>
+  <si>
+    <t>6袋8箱</t>
+  </si>
+  <si>
+    <t>0051260</t>
+  </si>
+  <si>
+    <t>8袋</t>
+  </si>
+  <si>
+    <t>杨明强</t>
+  </si>
+  <si>
+    <t>0024846</t>
+  </si>
+  <si>
+    <t>WW0016199</t>
+  </si>
+  <si>
+    <t>WW0017450</t>
+  </si>
+  <si>
+    <t>WW0016462</t>
+  </si>
+  <si>
+    <t>WW0016460</t>
+  </si>
+  <si>
+    <t>WW0016867</t>
+  </si>
+  <si>
+    <t>WW0016757</t>
+  </si>
+  <si>
+    <t>WW0017729</t>
+  </si>
+  <si>
+    <t>WW0018264</t>
+  </si>
+  <si>
+    <t>16822</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076696</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1987,7 +2065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2878,6 +2956,63 @@
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20230,8 +20365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20999,6 +21134,981 @@
         <v>14</v>
       </c>
       <c r="S8" s="293"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="15">
+      <c r="A1" s="307" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="307" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="307" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="307" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="307" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="307" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="307" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="307" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="307" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="307" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="308" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="307" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="308" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="308" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="307" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="307" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="307" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="307" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="309" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="299"/>
+      <c r="U1" s="299"/>
+      <c r="V1" s="299"/>
+      <c r="W1" s="299"/>
+      <c r="X1" s="299"/>
+      <c r="Y1" s="299"/>
+      <c r="Z1" s="299"/>
+      <c r="AA1" s="299"/>
+      <c r="AB1" s="299"/>
+      <c r="AC1" s="299"/>
+      <c r="AD1" s="299"/>
+      <c r="AE1" s="299"/>
+      <c r="AF1" s="299"/>
+      <c r="AG1" s="299"/>
+      <c r="AH1" s="300"/>
+      <c r="AI1" s="300"/>
+      <c r="AJ1" s="300"/>
+      <c r="AK1" s="300"/>
+      <c r="AL1" s="300"/>
+      <c r="AM1" s="300"/>
+      <c r="AN1" s="300"/>
+      <c r="AO1" s="300"/>
+      <c r="AP1" s="300"/>
+      <c r="AQ1" s="300"/>
+      <c r="AR1" s="300"/>
+      <c r="AS1" s="300"/>
+      <c r="AT1" s="300"/>
+      <c r="AU1" s="300"/>
+      <c r="AV1" s="300"/>
+      <c r="AW1" s="300"/>
+      <c r="AX1" s="300"/>
+      <c r="AY1" s="300"/>
+      <c r="AZ1" s="300"/>
+      <c r="BA1" s="300"/>
+      <c r="BB1" s="300"/>
+      <c r="BC1" s="300"/>
+      <c r="BD1" s="300"/>
+      <c r="BE1" s="300"/>
+      <c r="BF1" s="300"/>
+      <c r="BG1" s="300"/>
+      <c r="BH1" s="300"/>
+      <c r="BI1" s="300"/>
+    </row>
+    <row r="2" spans="1:61" ht="18.75">
+      <c r="A2" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B2" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="303">
+        <v>1330</v>
+      </c>
+      <c r="D2" s="303">
+        <v>1512</v>
+      </c>
+      <c r="E2" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="304" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="304" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="304" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="313" t="s">
+        <v>517</v>
+      </c>
+      <c r="J2" s="303"/>
+      <c r="K2" s="306" t="s">
+        <v>502</v>
+      </c>
+      <c r="L2" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="314" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="310" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="305">
+        <v>0</v>
+      </c>
+      <c r="R2" s="305">
+        <v>14</v>
+      </c>
+      <c r="S2" s="305" t="s">
+        <v>367</v>
+      </c>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="311"/>
+      <c r="AA2" s="311"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="311"/>
+      <c r="AD2" s="311"/>
+      <c r="AE2" s="311"/>
+      <c r="AF2" s="311"/>
+      <c r="AG2" s="311"/>
+      <c r="AH2" s="311"/>
+      <c r="AI2" s="311"/>
+      <c r="AJ2" s="311"/>
+      <c r="AK2" s="311"/>
+      <c r="AL2" s="311"/>
+      <c r="AM2" s="311"/>
+      <c r="AN2" s="311"/>
+      <c r="AO2" s="311"/>
+      <c r="AP2" s="311"/>
+      <c r="AQ2" s="311"/>
+      <c r="AR2" s="311"/>
+      <c r="AS2" s="311"/>
+      <c r="AT2" s="311"/>
+      <c r="AU2" s="311"/>
+      <c r="AV2" s="311"/>
+      <c r="AW2" s="311"/>
+      <c r="AX2" s="311"/>
+      <c r="AY2" s="311"/>
+      <c r="AZ2" s="311"/>
+      <c r="BA2" s="311"/>
+      <c r="BB2" s="311"/>
+      <c r="BC2" s="311"/>
+      <c r="BD2" s="311"/>
+      <c r="BE2" s="311"/>
+      <c r="BF2" s="311"/>
+      <c r="BG2" s="311"/>
+      <c r="BH2" s="311"/>
+      <c r="BI2" s="311"/>
+    </row>
+    <row r="3" spans="1:61" ht="18.75">
+      <c r="A3" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B3" s="303" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="303">
+        <v>1855</v>
+      </c>
+      <c r="D3" s="303">
+        <v>2030</v>
+      </c>
+      <c r="E3" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="304" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="304" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="313" t="s">
+        <v>518</v>
+      </c>
+      <c r="J3" s="303"/>
+      <c r="K3" s="306" t="s">
+        <v>504</v>
+      </c>
+      <c r="L3" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="314" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="310" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="305">
+        <v>0</v>
+      </c>
+      <c r="R3" s="305">
+        <v>14</v>
+      </c>
+      <c r="S3" s="305" t="s">
+        <v>419</v>
+      </c>
+      <c r="T3" s="311"/>
+      <c r="U3" s="311"/>
+      <c r="V3" s="311"/>
+      <c r="W3" s="311"/>
+      <c r="X3" s="311"/>
+      <c r="Y3" s="311"/>
+      <c r="Z3" s="311"/>
+      <c r="AA3" s="311"/>
+      <c r="AB3" s="311"/>
+      <c r="AC3" s="311"/>
+      <c r="AD3" s="311"/>
+      <c r="AE3" s="311"/>
+      <c r="AF3" s="311"/>
+      <c r="AG3" s="311"/>
+      <c r="AH3" s="311"/>
+      <c r="AI3" s="311"/>
+      <c r="AJ3" s="311"/>
+      <c r="AK3" s="311"/>
+      <c r="AL3" s="311"/>
+      <c r="AM3" s="311"/>
+      <c r="AN3" s="311"/>
+      <c r="AO3" s="311"/>
+      <c r="AP3" s="311"/>
+      <c r="AQ3" s="311"/>
+      <c r="AR3" s="311"/>
+      <c r="AS3" s="311"/>
+      <c r="AT3" s="311"/>
+      <c r="AU3" s="311"/>
+      <c r="AV3" s="311"/>
+      <c r="AW3" s="311"/>
+      <c r="AX3" s="311"/>
+      <c r="AY3" s="311"/>
+      <c r="AZ3" s="311"/>
+      <c r="BA3" s="311"/>
+      <c r="BB3" s="311"/>
+      <c r="BC3" s="311"/>
+      <c r="BD3" s="311"/>
+      <c r="BE3" s="311"/>
+      <c r="BF3" s="311"/>
+      <c r="BG3" s="311"/>
+      <c r="BH3" s="311"/>
+      <c r="BI3" s="311"/>
+    </row>
+    <row r="4" spans="1:61" ht="18.75">
+      <c r="A4" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B4" s="303" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="303">
+        <v>1705</v>
+      </c>
+      <c r="D4" s="303">
+        <v>1750</v>
+      </c>
+      <c r="E4" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="304" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4" s="304" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="304" t="s">
+        <v>508</v>
+      </c>
+      <c r="I4" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" s="303"/>
+      <c r="K4" s="306" t="s">
+        <v>509</v>
+      </c>
+      <c r="L4" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="314" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="310" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="305">
+        <v>0</v>
+      </c>
+      <c r="R4" s="305">
+        <v>14</v>
+      </c>
+      <c r="S4" s="305"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="311"/>
+      <c r="AB4" s="311"/>
+      <c r="AC4" s="311"/>
+      <c r="AD4" s="311"/>
+      <c r="AE4" s="311"/>
+      <c r="AF4" s="311"/>
+      <c r="AG4" s="311"/>
+      <c r="AH4" s="311"/>
+      <c r="AI4" s="311"/>
+      <c r="AJ4" s="311"/>
+      <c r="AK4" s="311"/>
+      <c r="AL4" s="311"/>
+      <c r="AM4" s="311"/>
+      <c r="AN4" s="311"/>
+      <c r="AO4" s="311"/>
+      <c r="AP4" s="311"/>
+      <c r="AQ4" s="311"/>
+      <c r="AR4" s="311"/>
+      <c r="AS4" s="311"/>
+      <c r="AT4" s="311"/>
+      <c r="AU4" s="311"/>
+      <c r="AV4" s="311"/>
+      <c r="AW4" s="311"/>
+      <c r="AX4" s="311"/>
+      <c r="AY4" s="311"/>
+      <c r="AZ4" s="311"/>
+      <c r="BA4" s="311"/>
+      <c r="BB4" s="311"/>
+      <c r="BC4" s="311"/>
+      <c r="BD4" s="311"/>
+      <c r="BE4" s="311"/>
+      <c r="BF4" s="311"/>
+      <c r="BG4" s="311"/>
+      <c r="BH4" s="311"/>
+      <c r="BI4" s="311"/>
+    </row>
+    <row r="5" spans="1:61" ht="18.75">
+      <c r="A5" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B5" s="303" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="303">
+        <v>1440</v>
+      </c>
+      <c r="D5" s="303">
+        <v>1525</v>
+      </c>
+      <c r="E5" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="304" t="s">
+        <v>506</v>
+      </c>
+      <c r="G5" s="304" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="304" t="s">
+        <v>508</v>
+      </c>
+      <c r="I5" s="313" t="s">
+        <v>520</v>
+      </c>
+      <c r="J5" s="303"/>
+      <c r="K5" s="306" t="s">
+        <v>510</v>
+      </c>
+      <c r="L5" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="314" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="310" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="305">
+        <v>0</v>
+      </c>
+      <c r="R5" s="305">
+        <v>14</v>
+      </c>
+      <c r="S5" s="305"/>
+      <c r="T5" s="311"/>
+      <c r="U5" s="311"/>
+      <c r="V5" s="311"/>
+      <c r="W5" s="311"/>
+      <c r="X5" s="311"/>
+      <c r="Y5" s="311"/>
+      <c r="Z5" s="311"/>
+      <c r="AA5" s="311"/>
+      <c r="AB5" s="311"/>
+      <c r="AC5" s="311"/>
+      <c r="AD5" s="311"/>
+      <c r="AE5" s="311"/>
+      <c r="AF5" s="311"/>
+      <c r="AG5" s="311"/>
+      <c r="AH5" s="311"/>
+      <c r="AI5" s="311"/>
+      <c r="AJ5" s="311"/>
+      <c r="AK5" s="311"/>
+      <c r="AL5" s="311"/>
+      <c r="AM5" s="311"/>
+      <c r="AN5" s="311"/>
+      <c r="AO5" s="311"/>
+      <c r="AP5" s="311"/>
+      <c r="AQ5" s="311"/>
+      <c r="AR5" s="311"/>
+      <c r="AS5" s="311"/>
+      <c r="AT5" s="311"/>
+      <c r="AU5" s="311"/>
+      <c r="AV5" s="311"/>
+      <c r="AW5" s="311"/>
+      <c r="AX5" s="311"/>
+      <c r="AY5" s="311"/>
+      <c r="AZ5" s="311"/>
+      <c r="BA5" s="311"/>
+      <c r="BB5" s="311"/>
+      <c r="BC5" s="311"/>
+      <c r="BD5" s="311"/>
+      <c r="BE5" s="311"/>
+      <c r="BF5" s="311"/>
+      <c r="BG5" s="311"/>
+      <c r="BH5" s="311"/>
+      <c r="BI5" s="311"/>
+    </row>
+    <row r="6" spans="1:61" ht="18.75">
+      <c r="A6" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B6" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="303">
+        <v>1730</v>
+      </c>
+      <c r="D6" s="303">
+        <v>1906</v>
+      </c>
+      <c r="E6" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="304" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="304" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="304" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="313" t="s">
+        <v>521</v>
+      </c>
+      <c r="J6" s="303"/>
+      <c r="K6" s="306" t="s">
+        <v>511</v>
+      </c>
+      <c r="L6" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="314" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="310" t="s">
+        <v>202</v>
+      </c>
+      <c r="O6" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="305">
+        <v>0</v>
+      </c>
+      <c r="R6" s="305">
+        <v>14</v>
+      </c>
+      <c r="S6" s="305" t="s">
+        <v>512</v>
+      </c>
+      <c r="T6" s="311"/>
+      <c r="U6" s="311"/>
+      <c r="V6" s="311"/>
+      <c r="W6" s="311"/>
+      <c r="X6" s="311"/>
+      <c r="Y6" s="311"/>
+      <c r="Z6" s="311"/>
+      <c r="AA6" s="311"/>
+      <c r="AB6" s="311"/>
+      <c r="AC6" s="311"/>
+      <c r="AD6" s="311"/>
+      <c r="AE6" s="311"/>
+      <c r="AF6" s="311"/>
+      <c r="AG6" s="311"/>
+      <c r="AH6" s="311"/>
+      <c r="AI6" s="311"/>
+      <c r="AJ6" s="311"/>
+      <c r="AK6" s="311"/>
+      <c r="AL6" s="311"/>
+      <c r="AM6" s="311"/>
+      <c r="AN6" s="311"/>
+      <c r="AO6" s="311"/>
+      <c r="AP6" s="311"/>
+      <c r="AQ6" s="311"/>
+      <c r="AR6" s="311"/>
+      <c r="AS6" s="311"/>
+      <c r="AT6" s="311"/>
+      <c r="AU6" s="311"/>
+      <c r="AV6" s="311"/>
+      <c r="AW6" s="311"/>
+      <c r="AX6" s="311"/>
+      <c r="AY6" s="311"/>
+      <c r="AZ6" s="311"/>
+      <c r="BA6" s="311"/>
+      <c r="BB6" s="311"/>
+      <c r="BC6" s="311"/>
+      <c r="BD6" s="311"/>
+      <c r="BE6" s="311"/>
+      <c r="BF6" s="311"/>
+      <c r="BG6" s="311"/>
+      <c r="BH6" s="311"/>
+      <c r="BI6" s="311"/>
+    </row>
+    <row r="7" spans="1:61" ht="18.75">
+      <c r="A7" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B7" s="303" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="303">
+        <v>1805</v>
+      </c>
+      <c r="D7" s="303">
+        <v>1939</v>
+      </c>
+      <c r="E7" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="304" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="304" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="304" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="313" t="s">
+        <v>522</v>
+      </c>
+      <c r="J7" s="303"/>
+      <c r="K7" s="306" t="s">
+        <v>513</v>
+      </c>
+      <c r="L7" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="314" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="310" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="305">
+        <v>0</v>
+      </c>
+      <c r="R7" s="305">
+        <v>14</v>
+      </c>
+      <c r="S7" s="305" t="s">
+        <v>514</v>
+      </c>
+      <c r="T7" s="311"/>
+      <c r="U7" s="311"/>
+      <c r="V7" s="311"/>
+      <c r="W7" s="311"/>
+      <c r="X7" s="311"/>
+      <c r="Y7" s="311"/>
+      <c r="Z7" s="311"/>
+      <c r="AA7" s="311"/>
+      <c r="AB7" s="311"/>
+      <c r="AC7" s="311"/>
+      <c r="AD7" s="311"/>
+      <c r="AE7" s="311"/>
+      <c r="AF7" s="311"/>
+      <c r="AG7" s="311"/>
+      <c r="AH7" s="311"/>
+      <c r="AI7" s="311"/>
+      <c r="AJ7" s="311"/>
+      <c r="AK7" s="311"/>
+      <c r="AL7" s="311"/>
+      <c r="AM7" s="311"/>
+      <c r="AN7" s="311"/>
+      <c r="AO7" s="311"/>
+      <c r="AP7" s="311"/>
+      <c r="AQ7" s="311"/>
+      <c r="AR7" s="311"/>
+      <c r="AS7" s="311"/>
+      <c r="AT7" s="311"/>
+      <c r="AU7" s="311"/>
+      <c r="AV7" s="311"/>
+      <c r="AW7" s="311"/>
+      <c r="AX7" s="311"/>
+      <c r="AY7" s="311"/>
+      <c r="AZ7" s="311"/>
+      <c r="BA7" s="311"/>
+      <c r="BB7" s="311"/>
+      <c r="BC7" s="311"/>
+      <c r="BD7" s="311"/>
+      <c r="BE7" s="311"/>
+      <c r="BF7" s="311"/>
+      <c r="BG7" s="311"/>
+      <c r="BH7" s="311"/>
+      <c r="BI7" s="311"/>
+    </row>
+    <row r="8" spans="1:61" ht="18.75">
+      <c r="A8" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B8" s="303" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="303">
+        <v>1900</v>
+      </c>
+      <c r="D8" s="303">
+        <v>2022</v>
+      </c>
+      <c r="E8" s="304" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="304" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="304" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="304" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="313" t="s">
+        <v>523</v>
+      </c>
+      <c r="J8" s="303"/>
+      <c r="K8" s="306" t="s">
+        <v>516</v>
+      </c>
+      <c r="L8" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="314" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="310" t="s">
+        <v>257</v>
+      </c>
+      <c r="O8" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="305">
+        <v>0</v>
+      </c>
+      <c r="R8" s="305">
+        <v>14</v>
+      </c>
+      <c r="S8" s="305"/>
+      <c r="T8" s="311"/>
+      <c r="U8" s="311"/>
+      <c r="V8" s="311"/>
+      <c r="W8" s="311"/>
+      <c r="X8" s="311"/>
+      <c r="Y8" s="311"/>
+      <c r="Z8" s="311"/>
+      <c r="AA8" s="311"/>
+      <c r="AB8" s="311"/>
+      <c r="AC8" s="311"/>
+      <c r="AD8" s="311"/>
+      <c r="AE8" s="311"/>
+      <c r="AF8" s="311"/>
+      <c r="AG8" s="311"/>
+      <c r="AH8" s="311"/>
+      <c r="AI8" s="311"/>
+      <c r="AJ8" s="311"/>
+      <c r="AK8" s="311"/>
+      <c r="AL8" s="311"/>
+      <c r="AM8" s="311"/>
+      <c r="AN8" s="311"/>
+      <c r="AO8" s="311"/>
+      <c r="AP8" s="311"/>
+      <c r="AQ8" s="311"/>
+      <c r="AR8" s="311"/>
+      <c r="AS8" s="311"/>
+      <c r="AT8" s="311"/>
+      <c r="AU8" s="311"/>
+      <c r="AV8" s="311"/>
+      <c r="AW8" s="311"/>
+      <c r="AX8" s="311"/>
+      <c r="AY8" s="311"/>
+      <c r="AZ8" s="311"/>
+      <c r="BA8" s="311"/>
+      <c r="BB8" s="311"/>
+      <c r="BC8" s="311"/>
+      <c r="BD8" s="311"/>
+      <c r="BE8" s="311"/>
+      <c r="BF8" s="311"/>
+      <c r="BG8" s="311"/>
+      <c r="BH8" s="311"/>
+      <c r="BI8" s="311"/>
+    </row>
+    <row r="9" spans="1:61" ht="18.75">
+      <c r="A9" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B9" s="303" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="303">
+        <v>1929</v>
+      </c>
+      <c r="D9" s="303">
+        <v>2059</v>
+      </c>
+      <c r="E9" s="304" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="304" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="304" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="304" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="313" t="s">
+        <v>524</v>
+      </c>
+      <c r="J9" s="303"/>
+      <c r="K9" s="306" t="s">
+        <v>516</v>
+      </c>
+      <c r="L9" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="316" t="s">
+        <v>457</v>
+      </c>
+      <c r="N9" s="310" t="s">
+        <v>386</v>
+      </c>
+      <c r="O9" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="305">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="305">
+        <v>0</v>
+      </c>
+      <c r="R9" s="305">
+        <v>8</v>
+      </c>
+      <c r="S9" s="305"/>
+      <c r="T9" s="311"/>
+      <c r="U9" s="311"/>
+      <c r="V9" s="311"/>
+      <c r="W9" s="311"/>
+      <c r="X9" s="311"/>
+      <c r="Y9" s="311"/>
+      <c r="Z9" s="311"/>
+      <c r="AA9" s="311"/>
+      <c r="AB9" s="311"/>
+      <c r="AC9" s="311"/>
+      <c r="AD9" s="311"/>
+      <c r="AE9" s="311"/>
+      <c r="AF9" s="311"/>
+      <c r="AG9" s="311"/>
+      <c r="AH9" s="311"/>
+      <c r="AI9" s="311"/>
+      <c r="AJ9" s="311"/>
+      <c r="AK9" s="311"/>
+      <c r="AL9" s="311"/>
+      <c r="AM9" s="311"/>
+      <c r="AN9" s="311"/>
+      <c r="AO9" s="311"/>
+      <c r="AP9" s="311"/>
+      <c r="AQ9" s="311"/>
+      <c r="AR9" s="311"/>
+      <c r="AS9" s="311"/>
+      <c r="AT9" s="311"/>
+      <c r="AU9" s="311"/>
+      <c r="AV9" s="311"/>
+      <c r="AW9" s="311"/>
+      <c r="AX9" s="311"/>
+      <c r="AY9" s="311"/>
+      <c r="AZ9" s="311"/>
+      <c r="BA9" s="311"/>
+      <c r="BB9" s="311"/>
+      <c r="BC9" s="311"/>
+      <c r="BD9" s="311"/>
+      <c r="BE9" s="311"/>
+      <c r="BF9" s="311"/>
+      <c r="BG9" s="311"/>
+      <c r="BH9" s="311"/>
+      <c r="BI9" s="311"/>
+    </row>
+    <row r="10" spans="1:61" s="298" customFormat="1" ht="18.75">
+      <c r="A10" s="302">
+        <v>43213</v>
+      </c>
+      <c r="B10" s="303" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="303">
+        <v>1530</v>
+      </c>
+      <c r="D10" s="303">
+        <v>1631</v>
+      </c>
+      <c r="E10" s="304" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="304" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="304" t="s">
+        <v>407</v>
+      </c>
+      <c r="I10" s="312" t="s">
+        <v>525</v>
+      </c>
+      <c r="J10" s="303"/>
+      <c r="K10" s="306" t="s">
+        <v>526</v>
+      </c>
+      <c r="L10" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="316" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="315" t="s">
+        <v>142</v>
+      </c>
+      <c r="O10" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="305">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="305">
+        <v>0</v>
+      </c>
+      <c r="R10" s="305">
+        <v>14</v>
+      </c>
+      <c r="S10" s="305"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6210" firstSheet="14" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6210" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="520">
   <si>
     <t>王成</t>
   </si>
@@ -1692,24 +1692,6 @@
     <t>0024859</t>
   </si>
   <si>
-    <t>徐思</t>
-  </si>
-  <si>
-    <t>武汉商超A休闲食品1号仓</t>
-  </si>
-  <si>
-    <t>宇培园区</t>
-  </si>
-  <si>
-    <t>汉南生鲜仓</t>
-  </si>
-  <si>
-    <t>0020606</t>
-  </si>
-  <si>
-    <t>0024182</t>
-  </si>
-  <si>
     <t>0024860</t>
   </si>
   <si>
@@ -1732,12 +1714,6 @@
   </si>
   <si>
     <t>WW0017450</t>
-  </si>
-  <si>
-    <t>WW0016462</t>
-  </si>
-  <si>
-    <t>WW0016460</t>
   </si>
   <si>
     <t>WW0016867</t>
@@ -1758,6 +1734,9 @@
   <si>
     <t>0076696</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024861</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3015,6 +2994,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -21144,10 +21126,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI10"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21297,7 +21279,7 @@
         <v>196</v>
       </c>
       <c r="I2" s="313" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J2" s="303"/>
       <c r="K2" s="306" t="s">
@@ -21396,7 +21378,7 @@
         <v>196</v>
       </c>
       <c r="I3" s="313" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J3" s="303"/>
       <c r="K3" s="306" t="s">
@@ -21474,41 +21456,41 @@
         <v>43213</v>
       </c>
       <c r="B4" s="303" t="s">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="C4" s="303">
-        <v>1705</v>
+        <v>1730</v>
       </c>
       <c r="D4" s="303">
-        <v>1750</v>
+        <v>1906</v>
       </c>
       <c r="E4" s="304" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="304" t="s">
-        <v>506</v>
+        <v>67</v>
       </c>
       <c r="G4" s="304" t="s">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="H4" s="304" t="s">
-        <v>508</v>
+        <v>196</v>
       </c>
       <c r="I4" s="313" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J4" s="303"/>
       <c r="K4" s="306" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L4" s="301" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="314" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="N4" s="310" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="O4" s="301" t="s">
         <v>10</v>
@@ -21522,7 +21504,9 @@
       <c r="R4" s="305">
         <v>14</v>
       </c>
-      <c r="S4" s="305"/>
+      <c r="S4" s="305" t="s">
+        <v>506</v>
+      </c>
       <c r="T4" s="311"/>
       <c r="U4" s="311"/>
       <c r="V4" s="311"/>
@@ -21571,41 +21555,41 @@
         <v>43213</v>
       </c>
       <c r="B5" s="303" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="303">
-        <v>1440</v>
+        <v>1805</v>
       </c>
       <c r="D5" s="303">
-        <v>1525</v>
+        <v>1939</v>
       </c>
       <c r="E5" s="304" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="304" t="s">
-        <v>506</v>
+        <v>67</v>
       </c>
       <c r="G5" s="304" t="s">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="H5" s="304" t="s">
-        <v>508</v>
+        <v>196</v>
       </c>
       <c r="I5" s="313" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J5" s="303"/>
       <c r="K5" s="306" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L5" s="301" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="314" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="N5" s="310" t="s">
-        <v>9</v>
+        <v>213</v>
       </c>
       <c r="O5" s="301" t="s">
         <v>10</v>
@@ -21619,7 +21603,9 @@
       <c r="R5" s="305">
         <v>14</v>
       </c>
-      <c r="S5" s="305"/>
+      <c r="S5" s="305" t="s">
+        <v>508</v>
+      </c>
       <c r="T5" s="311"/>
       <c r="U5" s="311"/>
       <c r="V5" s="311"/>
@@ -21668,19 +21654,19 @@
         <v>43213</v>
       </c>
       <c r="B6" s="303" t="s">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="C6" s="303">
-        <v>1730</v>
+        <v>1900</v>
       </c>
       <c r="D6" s="303">
-        <v>1906</v>
+        <v>2022</v>
       </c>
       <c r="E6" s="304" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F6" s="304" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="G6" s="304" t="s">
         <v>3</v>
@@ -21689,20 +21675,20 @@
         <v>196</v>
       </c>
       <c r="I6" s="313" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J6" s="303"/>
       <c r="K6" s="306" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L6" s="301" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="314" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="N6" s="310" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="O6" s="301" t="s">
         <v>10</v>
@@ -21716,9 +21702,7 @@
       <c r="R6" s="305">
         <v>14</v>
       </c>
-      <c r="S6" s="305" t="s">
-        <v>512</v>
-      </c>
+      <c r="S6" s="305"/>
       <c r="T6" s="311"/>
       <c r="U6" s="311"/>
       <c r="V6" s="311"/>
@@ -21770,16 +21754,16 @@
         <v>503</v>
       </c>
       <c r="C7" s="303">
-        <v>1805</v>
+        <v>1929</v>
       </c>
       <c r="D7" s="303">
-        <v>1939</v>
+        <v>2059</v>
       </c>
       <c r="E7" s="304" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F7" s="304" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="G7" s="304" t="s">
         <v>3</v>
@@ -21788,36 +21772,34 @@
         <v>196</v>
       </c>
       <c r="I7" s="313" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J7" s="303"/>
-      <c r="K7" s="306" t="s">
-        <v>513</v>
+      <c r="K7" s="317" t="s">
+        <v>519</v>
       </c>
       <c r="L7" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="314" t="s">
-        <v>212</v>
+      <c r="M7" s="316" t="s">
+        <v>457</v>
       </c>
       <c r="N7" s="310" t="s">
-        <v>213</v>
+        <v>386</v>
       </c>
       <c r="O7" s="301" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="305">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="305">
         <v>0</v>
       </c>
       <c r="R7" s="305">
-        <v>14</v>
-      </c>
-      <c r="S7" s="305" t="s">
-        <v>514</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="S7" s="305"/>
       <c r="T7" s="311"/>
       <c r="U7" s="311"/>
       <c r="V7" s="311"/>
@@ -21861,46 +21843,46 @@
       <c r="BH7" s="311"/>
       <c r="BI7" s="311"/>
     </row>
-    <row r="8" spans="1:61" ht="18.75">
+    <row r="8" spans="1:61" s="298" customFormat="1" ht="18.75">
       <c r="A8" s="302">
         <v>43213</v>
       </c>
       <c r="B8" s="303" t="s">
-        <v>515</v>
+        <v>403</v>
       </c>
       <c r="C8" s="303">
-        <v>1900</v>
+        <v>1530</v>
       </c>
       <c r="D8" s="303">
-        <v>2022</v>
+        <v>1631</v>
       </c>
       <c r="E8" s="304" t="s">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="F8" s="304" t="s">
-        <v>209</v>
+        <v>405</v>
       </c>
       <c r="G8" s="304" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="304" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="313" t="s">
-        <v>523</v>
+        <v>407</v>
+      </c>
+      <c r="I8" s="312" t="s">
+        <v>517</v>
       </c>
       <c r="J8" s="303"/>
       <c r="K8" s="306" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L8" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="314" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="310" t="s">
-        <v>257</v>
+      <c r="M8" s="316" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="315" t="s">
+        <v>142</v>
       </c>
       <c r="O8" s="301" t="s">
         <v>10</v>
@@ -21915,200 +21897,6 @@
         <v>14</v>
       </c>
       <c r="S8" s="305"/>
-      <c r="T8" s="311"/>
-      <c r="U8" s="311"/>
-      <c r="V8" s="311"/>
-      <c r="W8" s="311"/>
-      <c r="X8" s="311"/>
-      <c r="Y8" s="311"/>
-      <c r="Z8" s="311"/>
-      <c r="AA8" s="311"/>
-      <c r="AB8" s="311"/>
-      <c r="AC8" s="311"/>
-      <c r="AD8" s="311"/>
-      <c r="AE8" s="311"/>
-      <c r="AF8" s="311"/>
-      <c r="AG8" s="311"/>
-      <c r="AH8" s="311"/>
-      <c r="AI8" s="311"/>
-      <c r="AJ8" s="311"/>
-      <c r="AK8" s="311"/>
-      <c r="AL8" s="311"/>
-      <c r="AM8" s="311"/>
-      <c r="AN8" s="311"/>
-      <c r="AO8" s="311"/>
-      <c r="AP8" s="311"/>
-      <c r="AQ8" s="311"/>
-      <c r="AR8" s="311"/>
-      <c r="AS8" s="311"/>
-      <c r="AT8" s="311"/>
-      <c r="AU8" s="311"/>
-      <c r="AV8" s="311"/>
-      <c r="AW8" s="311"/>
-      <c r="AX8" s="311"/>
-      <c r="AY8" s="311"/>
-      <c r="AZ8" s="311"/>
-      <c r="BA8" s="311"/>
-      <c r="BB8" s="311"/>
-      <c r="BC8" s="311"/>
-      <c r="BD8" s="311"/>
-      <c r="BE8" s="311"/>
-      <c r="BF8" s="311"/>
-      <c r="BG8" s="311"/>
-      <c r="BH8" s="311"/>
-      <c r="BI8" s="311"/>
-    </row>
-    <row r="9" spans="1:61" ht="18.75">
-      <c r="A9" s="302">
-        <v>43213</v>
-      </c>
-      <c r="B9" s="303" t="s">
-        <v>503</v>
-      </c>
-      <c r="C9" s="303">
-        <v>1929</v>
-      </c>
-      <c r="D9" s="303">
-        <v>2059</v>
-      </c>
-      <c r="E9" s="304" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="304" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="304" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="304" t="s">
-        <v>196</v>
-      </c>
-      <c r="I9" s="313" t="s">
-        <v>524</v>
-      </c>
-      <c r="J9" s="303"/>
-      <c r="K9" s="306" t="s">
-        <v>516</v>
-      </c>
-      <c r="L9" s="301" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="316" t="s">
-        <v>457</v>
-      </c>
-      <c r="N9" s="310" t="s">
-        <v>386</v>
-      </c>
-      <c r="O9" s="301" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="305">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="305">
-        <v>0</v>
-      </c>
-      <c r="R9" s="305">
-        <v>8</v>
-      </c>
-      <c r="S9" s="305"/>
-      <c r="T9" s="311"/>
-      <c r="U9" s="311"/>
-      <c r="V9" s="311"/>
-      <c r="W9" s="311"/>
-      <c r="X9" s="311"/>
-      <c r="Y9" s="311"/>
-      <c r="Z9" s="311"/>
-      <c r="AA9" s="311"/>
-      <c r="AB9" s="311"/>
-      <c r="AC9" s="311"/>
-      <c r="AD9" s="311"/>
-      <c r="AE9" s="311"/>
-      <c r="AF9" s="311"/>
-      <c r="AG9" s="311"/>
-      <c r="AH9" s="311"/>
-      <c r="AI9" s="311"/>
-      <c r="AJ9" s="311"/>
-      <c r="AK9" s="311"/>
-      <c r="AL9" s="311"/>
-      <c r="AM9" s="311"/>
-      <c r="AN9" s="311"/>
-      <c r="AO9" s="311"/>
-      <c r="AP9" s="311"/>
-      <c r="AQ9" s="311"/>
-      <c r="AR9" s="311"/>
-      <c r="AS9" s="311"/>
-      <c r="AT9" s="311"/>
-      <c r="AU9" s="311"/>
-      <c r="AV9" s="311"/>
-      <c r="AW9" s="311"/>
-      <c r="AX9" s="311"/>
-      <c r="AY9" s="311"/>
-      <c r="AZ9" s="311"/>
-      <c r="BA9" s="311"/>
-      <c r="BB9" s="311"/>
-      <c r="BC9" s="311"/>
-      <c r="BD9" s="311"/>
-      <c r="BE9" s="311"/>
-      <c r="BF9" s="311"/>
-      <c r="BG9" s="311"/>
-      <c r="BH9" s="311"/>
-      <c r="BI9" s="311"/>
-    </row>
-    <row r="10" spans="1:61" s="298" customFormat="1" ht="18.75">
-      <c r="A10" s="302">
-        <v>43213</v>
-      </c>
-      <c r="B10" s="303" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="303">
-        <v>1530</v>
-      </c>
-      <c r="D10" s="303">
-        <v>1631</v>
-      </c>
-      <c r="E10" s="304" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" s="304" t="s">
-        <v>405</v>
-      </c>
-      <c r="G10" s="304" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="304" t="s">
-        <v>407</v>
-      </c>
-      <c r="I10" s="312" t="s">
-        <v>525</v>
-      </c>
-      <c r="J10" s="303"/>
-      <c r="K10" s="306" t="s">
-        <v>526</v>
-      </c>
-      <c r="L10" s="301" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="316" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="315" t="s">
-        <v>142</v>
-      </c>
-      <c r="O10" s="301" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="305">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="305">
-        <v>0</v>
-      </c>
-      <c r="R10" s="305">
-        <v>14</v>
-      </c>
-      <c r="S10" s="305"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6210" firstSheet="14" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6210" firstSheet="14" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,17 @@
     <sheet name="4-21" sheetId="22" r:id="rId22"/>
     <sheet name="4-22" sheetId="23" r:id="rId23"/>
     <sheet name="4-23" sheetId="24" r:id="rId24"/>
+    <sheet name="4-24" sheetId="25" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="539">
   <si>
     <t>王成</t>
   </si>
@@ -1737,6 +1738,63 @@
   </si>
   <si>
     <t>0024861</t>
+  </si>
+  <si>
+    <t>0024817</t>
+  </si>
+  <si>
+    <t>0024862</t>
+  </si>
+  <si>
+    <t>0029931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3袋 </t>
+  </si>
+  <si>
+    <t>0024815</t>
+  </si>
+  <si>
+    <t>15袋</t>
+  </si>
+  <si>
+    <t>0024863</t>
+  </si>
+  <si>
+    <t>0024883</t>
+  </si>
+  <si>
+    <t>林芬</t>
+  </si>
+  <si>
+    <t>0051248</t>
+  </si>
+  <si>
+    <t>0024840</t>
+  </si>
+  <si>
+    <t>WW0017201</t>
+  </si>
+  <si>
+    <t>WW0016869</t>
+  </si>
+  <si>
+    <t>WW0018019</t>
+  </si>
+  <si>
+    <t>WW0018266</t>
+  </si>
+  <si>
+    <t>WW0016824</t>
+  </si>
+  <si>
+    <t>WW0018711</t>
+  </si>
+  <si>
+    <t>WW0015935</t>
+  </si>
+  <si>
+    <t>WW0017888</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2997,6 +3055,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -21128,7 +21231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -21897,6 +22000,926 @@
         <v>14</v>
       </c>
       <c r="S8" s="305"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BI9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" ht="15">
+      <c r="A1" s="325" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="325" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="325" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="325" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="325" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="325" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="325" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="325" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="325" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="325" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="326" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="325" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="326" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="326" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="325" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="325" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="325" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="325" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="327" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="319"/>
+      <c r="AA1" s="319"/>
+      <c r="AB1" s="319"/>
+      <c r="AC1" s="319"/>
+      <c r="AD1" s="319"/>
+      <c r="AE1" s="319"/>
+      <c r="AF1" s="319"/>
+      <c r="AG1" s="319"/>
+      <c r="AH1" s="320"/>
+      <c r="AI1" s="320"/>
+      <c r="AJ1" s="320"/>
+      <c r="AK1" s="320"/>
+      <c r="AL1" s="320"/>
+      <c r="AM1" s="320"/>
+      <c r="AN1" s="320"/>
+      <c r="AO1" s="320"/>
+      <c r="AP1" s="320"/>
+      <c r="AQ1" s="320"/>
+      <c r="AR1" s="320"/>
+      <c r="AS1" s="320"/>
+      <c r="AT1" s="320"/>
+      <c r="AU1" s="320"/>
+      <c r="AV1" s="320"/>
+      <c r="AW1" s="320"/>
+      <c r="AX1" s="320"/>
+      <c r="AY1" s="320"/>
+      <c r="AZ1" s="320"/>
+      <c r="BA1" s="320"/>
+      <c r="BB1" s="320"/>
+      <c r="BC1" s="320"/>
+      <c r="BD1" s="320"/>
+      <c r="BE1" s="320"/>
+      <c r="BF1" s="320"/>
+      <c r="BG1" s="320"/>
+      <c r="BH1" s="320"/>
+      <c r="BI1" s="320"/>
+    </row>
+    <row r="2" spans="1:61" ht="18.75">
+      <c r="A2" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B2" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="331">
+        <v>1459</v>
+      </c>
+      <c r="D2" s="331">
+        <v>1636</v>
+      </c>
+      <c r="E2" s="332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="332" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="329" t="s">
+        <v>531</v>
+      </c>
+      <c r="J2" s="318"/>
+      <c r="K2" s="324" t="s">
+        <v>520</v>
+      </c>
+      <c r="L2" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="330" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" s="328" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="323">
+        <v>1</v>
+      </c>
+      <c r="R2" s="323">
+        <v>15</v>
+      </c>
+      <c r="S2" s="323"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
+      <c r="W2" s="318"/>
+      <c r="X2" s="318"/>
+      <c r="Y2" s="318"/>
+      <c r="Z2" s="318"/>
+      <c r="AA2" s="318"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="318"/>
+      <c r="AD2" s="318"/>
+      <c r="AE2" s="318"/>
+      <c r="AF2" s="318"/>
+      <c r="AG2" s="318"/>
+      <c r="AH2" s="318"/>
+      <c r="AI2" s="318"/>
+      <c r="AJ2" s="318"/>
+      <c r="AK2" s="318"/>
+      <c r="AL2" s="318"/>
+      <c r="AM2" s="318"/>
+      <c r="AN2" s="318"/>
+      <c r="AO2" s="318"/>
+      <c r="AP2" s="318"/>
+      <c r="AQ2" s="318"/>
+      <c r="AR2" s="318"/>
+      <c r="AS2" s="318"/>
+      <c r="AT2" s="318"/>
+      <c r="AU2" s="318"/>
+      <c r="AV2" s="318"/>
+      <c r="AW2" s="318"/>
+      <c r="AX2" s="318"/>
+      <c r="AY2" s="318"/>
+      <c r="AZ2" s="318"/>
+      <c r="BA2" s="318"/>
+      <c r="BB2" s="318"/>
+      <c r="BC2" s="318"/>
+      <c r="BD2" s="318"/>
+      <c r="BE2" s="318"/>
+      <c r="BF2" s="318"/>
+      <c r="BG2" s="318"/>
+      <c r="BH2" s="318"/>
+      <c r="BI2" s="318"/>
+    </row>
+    <row r="3" spans="1:61" ht="18.75">
+      <c r="A3" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B3" s="331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="331">
+        <v>1315</v>
+      </c>
+      <c r="D3" s="331">
+        <v>1439</v>
+      </c>
+      <c r="E3" s="332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="332" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="329" t="s">
+        <v>532</v>
+      </c>
+      <c r="J3" s="318"/>
+      <c r="K3" s="324" t="s">
+        <v>521</v>
+      </c>
+      <c r="L3" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="330" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" s="328" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="323">
+        <v>0</v>
+      </c>
+      <c r="R3" s="323">
+        <v>14</v>
+      </c>
+      <c r="S3" s="323"/>
+      <c r="T3" s="318"/>
+      <c r="U3" s="318"/>
+      <c r="V3" s="318"/>
+      <c r="W3" s="318"/>
+      <c r="X3" s="318"/>
+      <c r="Y3" s="318"/>
+      <c r="Z3" s="318"/>
+      <c r="AA3" s="318"/>
+      <c r="AB3" s="318"/>
+      <c r="AC3" s="318"/>
+      <c r="AD3" s="318"/>
+      <c r="AE3" s="318"/>
+      <c r="AF3" s="318"/>
+      <c r="AG3" s="318"/>
+      <c r="AH3" s="318"/>
+      <c r="AI3" s="318"/>
+      <c r="AJ3" s="318"/>
+      <c r="AK3" s="318"/>
+      <c r="AL3" s="318"/>
+      <c r="AM3" s="318"/>
+      <c r="AN3" s="318"/>
+      <c r="AO3" s="318"/>
+      <c r="AP3" s="318"/>
+      <c r="AQ3" s="318"/>
+      <c r="AR3" s="318"/>
+      <c r="AS3" s="318"/>
+      <c r="AT3" s="318"/>
+      <c r="AU3" s="318"/>
+      <c r="AV3" s="318"/>
+      <c r="AW3" s="318"/>
+      <c r="AX3" s="318"/>
+      <c r="AY3" s="318"/>
+      <c r="AZ3" s="318"/>
+      <c r="BA3" s="318"/>
+      <c r="BB3" s="318"/>
+      <c r="BC3" s="318"/>
+      <c r="BD3" s="318"/>
+      <c r="BE3" s="318"/>
+      <c r="BF3" s="318"/>
+      <c r="BG3" s="318"/>
+      <c r="BH3" s="318"/>
+      <c r="BI3" s="318"/>
+    </row>
+    <row r="4" spans="1:61" ht="18.75">
+      <c r="A4" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B4" s="331" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" s="331">
+        <v>1925</v>
+      </c>
+      <c r="D4" s="331">
+        <v>2106</v>
+      </c>
+      <c r="E4" s="332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="332" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="329" t="s">
+        <v>533</v>
+      </c>
+      <c r="J4" s="318"/>
+      <c r="K4" s="324" t="s">
+        <v>522</v>
+      </c>
+      <c r="L4" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="330" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="328" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="323">
+        <v>0</v>
+      </c>
+      <c r="R4" s="323">
+        <v>14</v>
+      </c>
+      <c r="S4" s="323" t="s">
+        <v>523</v>
+      </c>
+      <c r="T4" s="318"/>
+      <c r="U4" s="318"/>
+      <c r="V4" s="318"/>
+      <c r="W4" s="318"/>
+      <c r="X4" s="318"/>
+      <c r="Y4" s="318"/>
+      <c r="Z4" s="318"/>
+      <c r="AA4" s="318"/>
+      <c r="AB4" s="318"/>
+      <c r="AC4" s="318"/>
+      <c r="AD4" s="318"/>
+      <c r="AE4" s="318"/>
+      <c r="AF4" s="318"/>
+      <c r="AG4" s="318"/>
+      <c r="AH4" s="318"/>
+      <c r="AI4" s="318"/>
+      <c r="AJ4" s="318"/>
+      <c r="AK4" s="318"/>
+      <c r="AL4" s="318"/>
+      <c r="AM4" s="318"/>
+      <c r="AN4" s="318"/>
+      <c r="AO4" s="318"/>
+      <c r="AP4" s="318"/>
+      <c r="AQ4" s="318"/>
+      <c r="AR4" s="318"/>
+      <c r="AS4" s="318"/>
+      <c r="AT4" s="318"/>
+      <c r="AU4" s="318"/>
+      <c r="AV4" s="318"/>
+      <c r="AW4" s="318"/>
+      <c r="AX4" s="318"/>
+      <c r="AY4" s="318"/>
+      <c r="AZ4" s="318"/>
+      <c r="BA4" s="318"/>
+      <c r="BB4" s="318"/>
+      <c r="BC4" s="318"/>
+      <c r="BD4" s="318"/>
+      <c r="BE4" s="318"/>
+      <c r="BF4" s="318"/>
+      <c r="BG4" s="318"/>
+      <c r="BH4" s="318"/>
+      <c r="BI4" s="318"/>
+    </row>
+    <row r="5" spans="1:61" ht="18.75">
+      <c r="A5" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B5" s="331" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="331">
+        <v>1810</v>
+      </c>
+      <c r="D5" s="331">
+        <v>1943</v>
+      </c>
+      <c r="E5" s="332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="332" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="329" t="s">
+        <v>534</v>
+      </c>
+      <c r="J5" s="318"/>
+      <c r="K5" s="324" t="s">
+        <v>524</v>
+      </c>
+      <c r="L5" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="330" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="328" t="s">
+        <v>386</v>
+      </c>
+      <c r="O5" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="323">
+        <v>0</v>
+      </c>
+      <c r="R5" s="323">
+        <v>14</v>
+      </c>
+      <c r="S5" s="323" t="s">
+        <v>525</v>
+      </c>
+      <c r="T5" s="318"/>
+      <c r="U5" s="318"/>
+      <c r="V5" s="318"/>
+      <c r="W5" s="318"/>
+      <c r="X5" s="318"/>
+      <c r="Y5" s="318"/>
+      <c r="Z5" s="318"/>
+      <c r="AA5" s="318"/>
+      <c r="AB5" s="318"/>
+      <c r="AC5" s="318"/>
+      <c r="AD5" s="318"/>
+      <c r="AE5" s="318"/>
+      <c r="AF5" s="318"/>
+      <c r="AG5" s="318"/>
+      <c r="AH5" s="318"/>
+      <c r="AI5" s="318"/>
+      <c r="AJ5" s="318"/>
+      <c r="AK5" s="318"/>
+      <c r="AL5" s="318"/>
+      <c r="AM5" s="318"/>
+      <c r="AN5" s="318"/>
+      <c r="AO5" s="318"/>
+      <c r="AP5" s="318"/>
+      <c r="AQ5" s="318"/>
+      <c r="AR5" s="318"/>
+      <c r="AS5" s="318"/>
+      <c r="AT5" s="318"/>
+      <c r="AU5" s="318"/>
+      <c r="AV5" s="318"/>
+      <c r="AW5" s="318"/>
+      <c r="AX5" s="318"/>
+      <c r="AY5" s="318"/>
+      <c r="AZ5" s="318"/>
+      <c r="BA5" s="318"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="318"/>
+      <c r="BD5" s="318"/>
+      <c r="BE5" s="318"/>
+      <c r="BF5" s="318"/>
+      <c r="BG5" s="318"/>
+      <c r="BH5" s="318"/>
+      <c r="BI5" s="318"/>
+    </row>
+    <row r="6" spans="1:61" ht="18.75">
+      <c r="A6" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B6" s="331" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="331">
+        <v>1830</v>
+      </c>
+      <c r="D6" s="331">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="332" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="I6" s="329" t="s">
+        <v>535</v>
+      </c>
+      <c r="J6" s="318"/>
+      <c r="K6" s="324" t="s">
+        <v>526</v>
+      </c>
+      <c r="L6" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="330" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="328" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="323">
+        <v>0</v>
+      </c>
+      <c r="R6" s="323">
+        <v>14</v>
+      </c>
+      <c r="S6" s="323" t="s">
+        <v>367</v>
+      </c>
+      <c r="T6" s="318"/>
+      <c r="U6" s="318"/>
+      <c r="V6" s="318"/>
+      <c r="W6" s="318"/>
+      <c r="X6" s="318"/>
+      <c r="Y6" s="318"/>
+      <c r="Z6" s="318"/>
+      <c r="AA6" s="318"/>
+      <c r="AB6" s="318"/>
+      <c r="AC6" s="318"/>
+      <c r="AD6" s="318"/>
+      <c r="AE6" s="318"/>
+      <c r="AF6" s="318"/>
+      <c r="AG6" s="318"/>
+      <c r="AH6" s="318"/>
+      <c r="AI6" s="318"/>
+      <c r="AJ6" s="318"/>
+      <c r="AK6" s="318"/>
+      <c r="AL6" s="318"/>
+      <c r="AM6" s="318"/>
+      <c r="AN6" s="318"/>
+      <c r="AO6" s="318"/>
+      <c r="AP6" s="318"/>
+      <c r="AQ6" s="318"/>
+      <c r="AR6" s="318"/>
+      <c r="AS6" s="318"/>
+      <c r="AT6" s="318"/>
+      <c r="AU6" s="318"/>
+      <c r="AV6" s="318"/>
+      <c r="AW6" s="318"/>
+      <c r="AX6" s="318"/>
+      <c r="AY6" s="318"/>
+      <c r="AZ6" s="318"/>
+      <c r="BA6" s="318"/>
+      <c r="BB6" s="318"/>
+      <c r="BC6" s="318"/>
+      <c r="BD6" s="318"/>
+      <c r="BE6" s="318"/>
+      <c r="BF6" s="318"/>
+      <c r="BG6" s="318"/>
+      <c r="BH6" s="318"/>
+      <c r="BI6" s="318"/>
+    </row>
+    <row r="7" spans="1:61" ht="18.75">
+      <c r="A7" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B7" s="331" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="331">
+        <v>1929</v>
+      </c>
+      <c r="D7" s="331">
+        <v>2105</v>
+      </c>
+      <c r="E7" s="332" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="332" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="332" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="329" t="s">
+        <v>536</v>
+      </c>
+      <c r="J7" s="318"/>
+      <c r="K7" s="324" t="s">
+        <v>527</v>
+      </c>
+      <c r="L7" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="330" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="328" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="323">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="323">
+        <v>0</v>
+      </c>
+      <c r="R7" s="323">
+        <v>13</v>
+      </c>
+      <c r="S7" s="323" t="s">
+        <v>367</v>
+      </c>
+      <c r="T7" s="318"/>
+      <c r="U7" s="318"/>
+      <c r="V7" s="318"/>
+      <c r="W7" s="318"/>
+      <c r="X7" s="318"/>
+      <c r="Y7" s="318"/>
+      <c r="Z7" s="318"/>
+      <c r="AA7" s="318"/>
+      <c r="AB7" s="318"/>
+      <c r="AC7" s="318"/>
+      <c r="AD7" s="318"/>
+      <c r="AE7" s="318"/>
+      <c r="AF7" s="318"/>
+      <c r="AG7" s="318"/>
+      <c r="AH7" s="318"/>
+      <c r="AI7" s="318"/>
+      <c r="AJ7" s="318"/>
+      <c r="AK7" s="318"/>
+      <c r="AL7" s="318"/>
+      <c r="AM7" s="318"/>
+      <c r="AN7" s="318"/>
+      <c r="AO7" s="318"/>
+      <c r="AP7" s="318"/>
+      <c r="AQ7" s="318"/>
+      <c r="AR7" s="318"/>
+      <c r="AS7" s="318"/>
+      <c r="AT7" s="318"/>
+      <c r="AU7" s="318"/>
+      <c r="AV7" s="318"/>
+      <c r="AW7" s="318"/>
+      <c r="AX7" s="318"/>
+      <c r="AY7" s="318"/>
+      <c r="AZ7" s="318"/>
+      <c r="BA7" s="318"/>
+      <c r="BB7" s="318"/>
+      <c r="BC7" s="318"/>
+      <c r="BD7" s="318"/>
+      <c r="BE7" s="318"/>
+      <c r="BF7" s="318"/>
+      <c r="BG7" s="318"/>
+      <c r="BH7" s="318"/>
+      <c r="BI7" s="318"/>
+    </row>
+    <row r="8" spans="1:61" ht="18.75">
+      <c r="A8" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B8" s="331" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="331">
+        <v>1800</v>
+      </c>
+      <c r="D8" s="331">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="332" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="332" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="332" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" s="332" t="s">
+        <v>407</v>
+      </c>
+      <c r="I8" s="329" t="s">
+        <v>537</v>
+      </c>
+      <c r="J8" s="318"/>
+      <c r="K8" s="324" t="s">
+        <v>529</v>
+      </c>
+      <c r="L8" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="330" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" s="328" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="323">
+        <v>0</v>
+      </c>
+      <c r="R8" s="323">
+        <v>14</v>
+      </c>
+      <c r="S8" s="323"/>
+      <c r="T8" s="318"/>
+      <c r="U8" s="318"/>
+      <c r="V8" s="318"/>
+      <c r="W8" s="318"/>
+      <c r="X8" s="318"/>
+      <c r="Y8" s="318"/>
+      <c r="Z8" s="318"/>
+      <c r="AA8" s="318"/>
+      <c r="AB8" s="318"/>
+      <c r="AC8" s="318"/>
+      <c r="AD8" s="318"/>
+      <c r="AE8" s="318"/>
+      <c r="AF8" s="318"/>
+      <c r="AG8" s="318"/>
+      <c r="AH8" s="318"/>
+      <c r="AI8" s="318"/>
+      <c r="AJ8" s="318"/>
+      <c r="AK8" s="318"/>
+      <c r="AL8" s="318"/>
+      <c r="AM8" s="318"/>
+      <c r="AN8" s="318"/>
+      <c r="AO8" s="318"/>
+      <c r="AP8" s="318"/>
+      <c r="AQ8" s="318"/>
+      <c r="AR8" s="318"/>
+      <c r="AS8" s="318"/>
+      <c r="AT8" s="318"/>
+      <c r="AU8" s="318"/>
+      <c r="AV8" s="318"/>
+      <c r="AW8" s="318"/>
+      <c r="AX8" s="318"/>
+      <c r="AY8" s="318"/>
+      <c r="AZ8" s="318"/>
+      <c r="BA8" s="318"/>
+      <c r="BB8" s="318"/>
+      <c r="BC8" s="318"/>
+      <c r="BD8" s="318"/>
+      <c r="BE8" s="318"/>
+      <c r="BF8" s="318"/>
+      <c r="BG8" s="318"/>
+      <c r="BH8" s="318"/>
+      <c r="BI8" s="318"/>
+    </row>
+    <row r="9" spans="1:61" ht="18.75">
+      <c r="A9" s="322">
+        <v>43214</v>
+      </c>
+      <c r="B9" s="331" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="331">
+        <v>1550</v>
+      </c>
+      <c r="D9" s="331">
+        <v>1715</v>
+      </c>
+      <c r="E9" s="332" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="332" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="332" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" s="332" t="s">
+        <v>407</v>
+      </c>
+      <c r="I9" s="329" t="s">
+        <v>538</v>
+      </c>
+      <c r="J9" s="318"/>
+      <c r="K9" s="324" t="s">
+        <v>530</v>
+      </c>
+      <c r="L9" s="321" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="330" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="328" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="323">
+        <v>0</v>
+      </c>
+      <c r="R9" s="323">
+        <v>14</v>
+      </c>
+      <c r="S9" s="323"/>
+      <c r="T9" s="318"/>
+      <c r="U9" s="318"/>
+      <c r="V9" s="318"/>
+      <c r="W9" s="318"/>
+      <c r="X9" s="318"/>
+      <c r="Y9" s="318"/>
+      <c r="Z9" s="318"/>
+      <c r="AA9" s="318"/>
+      <c r="AB9" s="318"/>
+      <c r="AC9" s="318"/>
+      <c r="AD9" s="318"/>
+      <c r="AE9" s="318"/>
+      <c r="AF9" s="318"/>
+      <c r="AG9" s="318"/>
+      <c r="AH9" s="318"/>
+      <c r="AI9" s="318"/>
+      <c r="AJ9" s="318"/>
+      <c r="AK9" s="318"/>
+      <c r="AL9" s="318"/>
+      <c r="AM9" s="318"/>
+      <c r="AN9" s="318"/>
+      <c r="AO9" s="318"/>
+      <c r="AP9" s="318"/>
+      <c r="AQ9" s="318"/>
+      <c r="AR9" s="318"/>
+      <c r="AS9" s="318"/>
+      <c r="AT9" s="318"/>
+      <c r="AU9" s="318"/>
+      <c r="AV9" s="318"/>
+      <c r="AW9" s="318"/>
+      <c r="AX9" s="318"/>
+      <c r="AY9" s="318"/>
+      <c r="AZ9" s="318"/>
+      <c r="BA9" s="318"/>
+      <c r="BB9" s="318"/>
+      <c r="BC9" s="318"/>
+      <c r="BD9" s="318"/>
+      <c r="BE9" s="318"/>
+      <c r="BF9" s="318"/>
+      <c r="BG9" s="318"/>
+      <c r="BH9" s="318"/>
+      <c r="BI9" s="318"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/4月报表/4月常福报表.xlsx
+++ b/4月报表/4月常福报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bobox\weiwei\4月报表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{21E3BACE-322F-47C9-97DD-70B1980D1478}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6210" firstSheet="14" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="6210" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4-1" sheetId="1" r:id="rId1"/>
@@ -32,16 +38,18 @@
     <sheet name="4-22" sheetId="23" r:id="rId23"/>
     <sheet name="4-23" sheetId="24" r:id="rId24"/>
     <sheet name="4-24" sheetId="25" r:id="rId25"/>
+    <sheet name="4-25" sheetId="26" r:id="rId26"/>
+    <sheet name="4-26" sheetId="27" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId26"/>
+    <externalReference r:id="rId28"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="587">
   <si>
     <t>王成</t>
   </si>
@@ -1795,18 +1803,200 @@
   </si>
   <si>
     <t>WW0017888</t>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051458</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡允源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6米</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028577</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈安寿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028625</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭智</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16762</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051261</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17739</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024852</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15936</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051249</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>益马园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉百货B家具建材仓1号库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028608</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028609</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051461</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024179</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051264</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0076697</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0028644</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个袋子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051460</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>程斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4箱9个袋子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0024835</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈丹丹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新地园区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉新地分拣退货组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗兰西蒂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0051252</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WW0020006</t>
+  </si>
+  <si>
+    <t>WW0020007</t>
+  </si>
+  <si>
+    <t>WW0016006</t>
+  </si>
+  <si>
+    <t>WW0016466</t>
+  </si>
+  <si>
+    <t>WW0016766</t>
+  </si>
+  <si>
+    <t>WW0016677</t>
+  </si>
+  <si>
+    <t>WW0016200</t>
+  </si>
+  <si>
+    <t>WW0018272</t>
+  </si>
+  <si>
+    <t>WW0018662</t>
+  </si>
+  <si>
+    <t>WW0015942</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00&quot;：&quot;00"/>
     <numFmt numFmtId="177" formatCode="&quot;WW00&quot;@"/>
     <numFmt numFmtId="178" formatCode="&quot;鄂A&quot;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1969,7 +2159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2018,6 +2208,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2102,7 +2316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3101,38 +3315,95 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 2 2 2" xfId="21"/>
-    <cellStyle name="常规 2 2 3" xfId="24"/>
-    <cellStyle name="常规 2 3" xfId="8"/>
-    <cellStyle name="常规 2 3 2" xfId="16"/>
-    <cellStyle name="常规 2 4" xfId="12"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 3 2" xfId="9"/>
-    <cellStyle name="常规 3 2 2" xfId="17"/>
-    <cellStyle name="常规 3 3" xfId="13"/>
-    <cellStyle name="常规 4" xfId="6"/>
-    <cellStyle name="常规 4 2" xfId="14"/>
-    <cellStyle name="常规 5" xfId="7"/>
-    <cellStyle name="常规 5 2" xfId="15"/>
-    <cellStyle name="常规 6" xfId="3"/>
-    <cellStyle name="常规 7" xfId="10"/>
-    <cellStyle name="常规 7 2" xfId="22"/>
-    <cellStyle name="常规 7 3" xfId="25"/>
-    <cellStyle name="常规 8" xfId="11"/>
-    <cellStyle name="常规 8 2" xfId="20"/>
-    <cellStyle name="常规 8 3" xfId="18"/>
-    <cellStyle name="常规 9" xfId="1"/>
-    <cellStyle name="常规 9 2" xfId="19"/>
-    <cellStyle name="常规 9 2 2" xfId="23"/>
-    <cellStyle name="常规 9 2 3" xfId="26"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 7" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 7 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 7 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 8" xfId="11" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 8 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 8 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 9" xfId="1" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 9 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 9 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 9 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <gradientFill degree="90">
@@ -3817,11 +4088,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="4-1"/>
@@ -3844,9 +4123,15 @@
       <sheetName val="4-18"/>
       <sheetName val="4-19"/>
       <sheetName val="4-20"/>
+      <sheetName val="4-21"/>
+      <sheetName val="4-22"/>
+      <sheetName val="4-23"/>
+      <sheetName val="4-24"/>
       <sheetName val="ch"/>
       <sheetName val="分析"/>
       <sheetName val="汇总明线"/>
+      <sheetName val="4-25"/>
+      <sheetName val="4-26"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3869,7 +4154,11 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24">
         <row r="1">
           <cell r="A1" t="str">
             <v>陈和敏</v>
@@ -3888,7 +4177,7 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>危志坤</v>
+            <v>程斌</v>
           </cell>
           <cell r="B3" t="str">
             <v>鄂ANH299</v>
@@ -4142,16 +4431,26 @@
             <v>鄂AMR731</v>
           </cell>
         </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>胡允源</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>鄂ADU616</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4193,7 +4492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4225,9 +4524,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4259,6 +4576,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4434,14 +4769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -4458,7 +4793,7 @@
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.5" customHeight="1">
+    <row r="1" spans="1:60" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -4556,7 +4891,7 @@
       <c r="BG1" s="12"/>
       <c r="BH1" s="12"/>
     </row>
-    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="2" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -4610,7 +4945,7 @@
       </c>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="3" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -4664,7 +4999,7 @@
       </c>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="4" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -4718,7 +5053,7 @@
       </c>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="5" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -4772,7 +5107,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="6" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -4826,7 +5161,7 @@
       </c>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25">
+    <row r="7" spans="1:60" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -4887,14 +5222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -4916,7 +5251,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="83" t="s">
         <v>36</v>
       </c>
@@ -5023,7 +5358,7 @@
       <c r="BJ1" s="76"/>
       <c r="BK1" s="76"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="78">
         <v>43200</v>
       </c>
@@ -5126,7 +5461,7 @@
       <c r="BJ2" s="88"/>
       <c r="BK2" s="88"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="78">
         <v>43200</v>
       </c>
@@ -5229,7 +5564,7 @@
       <c r="BJ3" s="88"/>
       <c r="BK3" s="88"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="78">
         <v>43200</v>
       </c>
@@ -5332,7 +5667,7 @@
       <c r="BJ4" s="88"/>
       <c r="BK4" s="88"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="78">
         <v>43200</v>
       </c>
@@ -5435,7 +5770,7 @@
       <c r="BJ5" s="88"/>
       <c r="BK5" s="88"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="78">
         <v>43200</v>
       </c>
@@ -5546,14 +5881,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -5576,7 +5911,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -5683,7 +6018,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="93">
         <v>43201</v>
       </c>
@@ -5788,7 +6123,7 @@
       <c r="BJ2" s="103"/>
       <c r="BK2" s="103"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="93">
         <v>43201</v>
       </c>
@@ -5893,7 +6228,7 @@
       <c r="BJ3" s="103"/>
       <c r="BK3" s="103"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="93">
         <v>43201</v>
       </c>
@@ -5998,7 +6333,7 @@
       <c r="BJ4" s="103"/>
       <c r="BK4" s="103"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="93">
         <v>43201</v>
       </c>
@@ -6103,7 +6438,7 @@
       <c r="BJ5" s="103"/>
       <c r="BK5" s="103"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="93">
         <v>43201</v>
       </c>
@@ -6218,14 +6553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6247,7 +6582,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -6354,7 +6689,7 @@
       <c r="BJ1" s="91"/>
       <c r="BK1" s="91"/>
     </row>
-    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="93">
         <v>43202</v>
       </c>
@@ -6422,7 +6757,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="93">
         <v>43202</v>
       </c>
@@ -6490,7 +6825,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="93">
         <v>43202</v>
       </c>
@@ -6558,7 +6893,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="103" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="93">
         <v>43202</v>
       </c>
@@ -6629,42 +6964,42 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K2:L5 I2:I5">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J5">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I5">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="24" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="23" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="57"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -6686,7 +7021,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="115" t="s">
         <v>36</v>
       </c>
@@ -6793,7 +7128,7 @@
       <c r="BJ1" s="108"/>
       <c r="BK1" s="108"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="110">
         <v>43203</v>
       </c>
@@ -6898,7 +7233,7 @@
       <c r="BJ2" s="120"/>
       <c r="BK2" s="120"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="110">
         <v>43203</v>
       </c>
@@ -7003,7 +7338,7 @@
       <c r="BJ3" s="120"/>
       <c r="BK3" s="120"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="110">
         <v>43203</v>
       </c>
@@ -7108,7 +7443,7 @@
       <c r="BJ4" s="120"/>
       <c r="BK4" s="120"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="110">
         <v>43203</v>
       </c>
@@ -7221,14 +7556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7250,7 +7585,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="131" t="s">
         <v>36</v>
       </c>
@@ -7357,7 +7692,7 @@
       <c r="BJ1" s="124"/>
       <c r="BK1" s="124"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="126">
         <v>43204</v>
       </c>
@@ -7460,7 +7795,7 @@
       <c r="BJ2" s="136"/>
       <c r="BK2" s="136"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="126">
         <v>43204</v>
       </c>
@@ -7563,7 +7898,7 @@
       <c r="BJ3" s="136"/>
       <c r="BK3" s="136"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="126">
         <v>43204</v>
       </c>
@@ -7666,7 +8001,7 @@
       <c r="BJ4" s="136"/>
       <c r="BK4" s="136"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="126">
         <v>43204</v>
       </c>
@@ -7777,14 +8112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -7806,7 +8141,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="150" t="s">
         <v>36</v>
       </c>
@@ -7913,7 +8248,7 @@
       <c r="BJ1" s="142"/>
       <c r="BK1" s="142"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="144">
         <v>43205</v>
       </c>
@@ -8016,7 +8351,7 @@
       <c r="BJ2" s="155"/>
       <c r="BK2" s="155"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="144">
         <v>43205</v>
       </c>
@@ -8119,7 +8454,7 @@
       <c r="BJ3" s="155"/>
       <c r="BK3" s="155"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="144">
         <v>43205</v>
       </c>
@@ -8222,7 +8557,7 @@
       <c r="BJ4" s="155"/>
       <c r="BK4" s="155"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="144">
         <v>43205</v>
       </c>
@@ -8325,7 +8660,7 @@
       <c r="BJ5" s="155"/>
       <c r="BK5" s="155"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="144">
         <v>43205</v>
       </c>
@@ -8436,14 +8771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -8464,7 +8799,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="169" t="s">
         <v>36</v>
       </c>
@@ -8568,7 +8903,7 @@
       <c r="BI1" s="162"/>
       <c r="BJ1" s="162"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75">
+    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="164">
         <v>43206</v>
       </c>
@@ -8670,7 +9005,7 @@
       <c r="BI2" s="174"/>
       <c r="BJ2" s="174"/>
     </row>
-    <row r="3" spans="1:62" ht="18.75">
+    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="164">
         <v>43206</v>
       </c>
@@ -8772,7 +9107,7 @@
       <c r="BI3" s="174"/>
       <c r="BJ3" s="174"/>
     </row>
-    <row r="4" spans="1:62" ht="18.75">
+    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="164">
         <v>43206</v>
       </c>
@@ -8876,7 +9211,7 @@
       <c r="BI4" s="174"/>
       <c r="BJ4" s="174"/>
     </row>
-    <row r="5" spans="1:62" ht="18.75">
+    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="164">
         <v>43206</v>
       </c>
@@ -8986,14 +9321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -9014,7 +9349,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="185" t="s">
         <v>36</v>
       </c>
@@ -9118,7 +9453,7 @@
       <c r="BI1" s="178"/>
       <c r="BJ1" s="178"/>
     </row>
-    <row r="2" spans="1:62" ht="18.75">
+    <row r="2" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="180">
         <v>43207</v>
       </c>
@@ -9220,7 +9555,7 @@
       <c r="BI2" s="190"/>
       <c r="BJ2" s="190"/>
     </row>
-    <row r="3" spans="1:62" ht="18.75">
+    <row r="3" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="180">
         <v>43207</v>
       </c>
@@ -9322,7 +9657,7 @@
       <c r="BI3" s="190"/>
       <c r="BJ3" s="190"/>
     </row>
-    <row r="4" spans="1:62" ht="18.75">
+    <row r="4" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="180">
         <v>43207</v>
       </c>
@@ -9424,7 +9759,7 @@
       <c r="BI4" s="190"/>
       <c r="BJ4" s="190"/>
     </row>
-    <row r="5" spans="1:62" ht="18.75">
+    <row r="5" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="180">
         <v>43207</v>
       </c>
@@ -9526,7 +9861,7 @@
       <c r="BI5" s="190"/>
       <c r="BJ5" s="190"/>
     </row>
-    <row r="6" spans="1:62" ht="18.75">
+    <row r="6" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="180">
         <v>43207</v>
       </c>
@@ -9628,7 +9963,7 @@
       <c r="BI6" s="190"/>
       <c r="BJ6" s="190"/>
     </row>
-    <row r="7" spans="1:62" ht="18.75">
+    <row r="7" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="180">
         <v>43207</v>
       </c>
@@ -9730,7 +10065,7 @@
       <c r="BI7" s="190"/>
       <c r="BJ7" s="190"/>
     </row>
-    <row r="8" spans="1:62" ht="18.75">
+    <row r="8" spans="1:62" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="180">
         <v>43207</v>
       </c>
@@ -9832,7 +10167,7 @@
       <c r="BI8" s="190"/>
       <c r="BJ8" s="190"/>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="180">
         <v>43207</v>
       </c>
@@ -9934,7 +10269,7 @@
       <c r="BI9" s="190"/>
       <c r="BJ9" s="190"/>
     </row>
-    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="180">
         <v>43207</v>
       </c>
@@ -10034,7 +10369,7 @@
       <c r="BI10" s="190"/>
       <c r="BJ10" s="190"/>
     </row>
-    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+    <row r="11" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="194">
         <v>43207</v>
       </c>
@@ -10134,7 +10469,7 @@
       <c r="BH11" s="192"/>
       <c r="BI11" s="192"/>
     </row>
-    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="1:62" s="176" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="180"/>
       <c r="B12" s="181"/>
       <c r="C12" s="181"/>
@@ -10198,12 +10533,12 @@
       <c r="BI12" s="190"/>
       <c r="BJ12" s="190"/>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M17">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="13:14">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M23">
         <v>309</v>
       </c>
@@ -10211,7 +10546,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="24" spans="13:14">
+    <row r="24" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M24">
         <v>353</v>
       </c>
@@ -10219,22 +10554,22 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="13:14">
+    <row r="25" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M25">
         <v>791</v>
       </c>
     </row>
-    <row r="26" spans="13:14">
+    <row r="26" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M26">
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="13:14">
+    <row r="27" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M27">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="13:14">
+    <row r="28" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M28">
         <v>291</v>
       </c>
@@ -10247,14 +10582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -10276,7 +10611,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15">
+    <row r="1" spans="1:63" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="214" t="s">
         <v>36</v>
       </c>
@@ -10383,7 +10718,7 @@
       <c r="BJ1" s="207"/>
       <c r="BK1" s="207"/>
     </row>
-    <row r="2" spans="1:63" ht="18.75">
+    <row r="2" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="209">
         <v>43208</v>
       </c>
@@ -10488,7 +10823,7 @@
       <c r="BJ2" s="219"/>
       <c r="BK2" s="219"/>
     </row>
-    <row r="3" spans="1:63" ht="18.75">
+    <row r="3" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="209">
         <v>43208</v>
       </c>
@@ -10593,7 +10928,7 @@
       <c r="BJ3" s="219"/>
       <c r="BK3" s="219"/>
     </row>
-    <row r="4" spans="1:63" ht="18.75">
+    <row r="4" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="209">
         <v>43208</v>
       </c>
@@ -10698,7 +11033,7 @@
       <c r="BJ4" s="219"/>
       <c r="BK4" s="219"/>
     </row>
-    <row r="5" spans="1:63" ht="18.75">
+    <row r="5" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="209">
         <v>43208</v>
       </c>
@@ -10803,7 +11138,7 @@
       <c r="BJ5" s="219"/>
       <c r="BK5" s="219"/>
     </row>
-    <row r="6" spans="1:63" ht="18.75">
+    <row r="6" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="209">
         <v>43208</v>
       </c>
@@ -10908,7 +11243,7 @@
       <c r="BJ6" s="219"/>
       <c r="BK6" s="219"/>
     </row>
-    <row r="7" spans="1:63" ht="18.75">
+    <row r="7" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="209">
         <v>43208</v>
       </c>
@@ -11013,7 +11348,7 @@
       <c r="BJ7" s="219"/>
       <c r="BK7" s="219"/>
     </row>
-    <row r="8" spans="1:63" ht="18.75">
+    <row r="8" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="209">
         <v>43208</v>
       </c>
@@ -11118,7 +11453,7 @@
       <c r="BJ8" s="219"/>
       <c r="BK8" s="219"/>
     </row>
-    <row r="9" spans="1:63" ht="18.75">
+    <row r="9" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="209">
         <v>43208</v>
       </c>
@@ -11223,7 +11558,7 @@
       <c r="BJ9" s="219"/>
       <c r="BK9" s="219"/>
     </row>
-    <row r="10" spans="1:63" ht="18.75">
+    <row r="10" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="209">
         <v>43208</v>
       </c>
@@ -11328,7 +11663,7 @@
       <c r="BJ10" s="219"/>
       <c r="BK10" s="219"/>
     </row>
-    <row r="11" spans="1:63" ht="18.75">
+    <row r="11" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="209">
         <v>43208</v>
       </c>
@@ -11433,7 +11768,7 @@
       <c r="BJ11" s="219"/>
       <c r="BK11" s="219"/>
     </row>
-    <row r="12" spans="1:63" ht="18.75">
+    <row r="12" spans="1:63" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="224">
         <v>43208</v>
       </c>
@@ -11538,7 +11873,7 @@
       <c r="BJ12" s="231"/>
       <c r="BK12" s="231"/>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.15">
       <c r="O15" s="222" t="s">
         <v>411</v>
       </c>
@@ -11551,14 +11886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BI71"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
@@ -11578,7 +11913,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="10" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:61" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -11679,7 +12014,7 @@
       <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
     </row>
-    <row r="2" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="2" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>43191</v>
       </c>
@@ -11736,7 +12071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="3" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>43191</v>
       </c>
@@ -11793,7 +12128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="4" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>43191</v>
       </c>
@@ -11850,7 +12185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="5" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>43191</v>
       </c>
@@ -11907,7 +12242,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="6" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>43191</v>
       </c>
@@ -11964,7 +12299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="20" customFormat="1" ht="18.75">
+    <row r="7" spans="1:61" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>43191</v>
       </c>
@@ -12021,7 +12356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="8" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="58">
         <v>43192</v>
       </c>
@@ -12120,7 +12455,7 @@
       <c r="BH8" s="34"/>
       <c r="BI8" s="34"/>
     </row>
-    <row r="9" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="9" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="58">
         <v>43192</v>
       </c>
@@ -12219,7 +12554,7 @@
       <c r="BH9" s="34"/>
       <c r="BI9" s="34"/>
     </row>
-    <row r="10" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="10" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="58">
         <v>43192</v>
       </c>
@@ -12318,7 +12653,7 @@
       <c r="BH10" s="34"/>
       <c r="BI10" s="34"/>
     </row>
-    <row r="11" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="11" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="58">
         <v>43192</v>
       </c>
@@ -12417,7 +12752,7 @@
       <c r="BH11" s="34"/>
       <c r="BI11" s="34"/>
     </row>
-    <row r="12" spans="1:61" s="10" customFormat="1" ht="18.75">
+    <row r="12" spans="1:61" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="58">
         <v>43192</v>
       </c>
@@ -12516,7 +12851,7 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
     </row>
-    <row r="13" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="13" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="39">
         <v>43193</v>
       </c>
@@ -12615,7 +12950,7 @@
       <c r="BH13" s="41"/>
       <c r="BI13" s="41"/>
     </row>
-    <row r="14" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="14" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="39">
         <v>43193</v>
       </c>
@@ -12714,7 +13049,7 @@
       <c r="BH14" s="41"/>
       <c r="BI14" s="41"/>
     </row>
-    <row r="15" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="15" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="39">
         <v>43193</v>
       </c>
@@ -12813,7 +13148,7 @@
       <c r="BH15" s="41"/>
       <c r="BI15" s="41"/>
     </row>
-    <row r="16" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="16" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="39">
         <v>43193</v>
       </c>
@@ -12912,7 +13247,7 @@
       <c r="BH16" s="41"/>
       <c r="BI16" s="41"/>
     </row>
-    <row r="17" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="17" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="39">
         <v>43193</v>
       </c>
@@ -13011,7 +13346,7 @@
       <c r="BH17" s="41"/>
       <c r="BI17" s="41"/>
     </row>
-    <row r="18" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="18" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="39">
         <v>43193</v>
       </c>
@@ -13110,7 +13445,7 @@
       <c r="BH18" s="41"/>
       <c r="BI18" s="41"/>
     </row>
-    <row r="19" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="19" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="58">
         <v>43194</v>
       </c>
@@ -13171,7 +13506,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="20" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="20" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="58">
         <v>43194</v>
       </c>
@@ -13232,7 +13567,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="21" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="58">
         <v>43194</v>
       </c>
@@ -13293,7 +13628,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="22" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="22" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="58">
         <v>43194</v>
       </c>
@@ -13354,7 +13689,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="23" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="23" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="58">
         <v>43195</v>
       </c>
@@ -13415,7 +13750,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="24" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A24" s="58">
         <v>43195</v>
       </c>
@@ -13476,7 +13811,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="25" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A25" s="58">
         <v>43195</v>
       </c>
@@ -13537,7 +13872,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="26" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="26" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A26" s="58">
         <v>43195</v>
       </c>
@@ -13598,7 +13933,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="27" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="27" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A27" s="58">
         <v>43196</v>
       </c>
@@ -13659,7 +13994,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="28" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="28" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A28" s="58">
         <v>43196</v>
       </c>
@@ -13720,7 +14055,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="29" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A29" s="58">
         <v>43196</v>
       </c>
@@ -13781,7 +14116,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="30" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="30" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A30" s="58">
         <v>43196</v>
       </c>
@@ -13842,7 +14177,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="31" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="31" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="58">
         <v>43197</v>
       </c>
@@ -13903,7 +14238,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="32" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A32" s="58">
         <v>43197</v>
       </c>
@@ -13964,7 +14299,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="33" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="33" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A33" s="58">
         <v>43197</v>
       </c>
@@ -14025,7 +14360,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="34" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="34" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A34" s="58">
         <v>43197</v>
       </c>
@@ -14086,7 +14421,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="35" spans="1:61" s="69" customFormat="1" ht="18.75">
+    <row r="35" spans="1:61" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A35" s="58">
         <v>43197</v>
       </c>
@@ -14147,7 +14482,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="36" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="36" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A36" s="144">
         <v>43198</v>
       </c>
@@ -14208,7 +14543,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="37" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="37" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A37" s="144">
         <v>43198</v>
       </c>
@@ -14269,7 +14604,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="38" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="38" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A38" s="144">
         <v>43198</v>
       </c>
@@ -14330,7 +14665,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="39" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="39" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A39" s="144">
         <v>43198</v>
       </c>
@@ -14391,7 +14726,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="40" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="40" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A40" s="144">
         <v>43198</v>
       </c>
@@ -14452,7 +14787,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="41" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="41" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A41" s="144">
         <v>43199</v>
       </c>
@@ -14513,7 +14848,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="42" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="42" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A42" s="144">
         <v>43199</v>
       </c>
@@ -14574,7 +14909,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="43" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="43" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A43" s="144">
         <v>43199</v>
       </c>
@@ -14635,7 +14970,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="44" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="44" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A44" s="144">
         <v>43199</v>
       </c>
@@ -14696,7 +15031,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="45" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="45" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A45" s="144">
         <v>43200</v>
       </c>
@@ -14795,7 +15130,7 @@
       <c r="BH45" s="155"/>
       <c r="BI45" s="155"/>
     </row>
-    <row r="46" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="46" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A46" s="144">
         <v>43200</v>
       </c>
@@ -14894,7 +15229,7 @@
       <c r="BH46" s="155"/>
       <c r="BI46" s="155"/>
     </row>
-    <row r="47" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="47" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A47" s="144">
         <v>43200</v>
       </c>
@@ -14993,7 +15328,7 @@
       <c r="BH47" s="155"/>
       <c r="BI47" s="155"/>
     </row>
-    <row r="48" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="48" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A48" s="144">
         <v>43200</v>
       </c>
@@ -15092,7 +15427,7 @@
       <c r="BH48" s="155"/>
       <c r="BI48" s="155"/>
     </row>
-    <row r="49" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="49" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A49" s="144">
         <v>43200</v>
       </c>
@@ -15191,7 +15526,7 @@
       <c r="BH49" s="155"/>
       <c r="BI49" s="155"/>
     </row>
-    <row r="50" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="50" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A50" s="144">
         <v>43201</v>
       </c>
@@ -15290,7 +15625,7 @@
       <c r="BH50" s="155"/>
       <c r="BI50" s="155"/>
     </row>
-    <row r="51" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="51" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A51" s="144">
         <v>43201</v>
       </c>
@@ -15389,7 +15724,7 @@
       <c r="BH51" s="155"/>
       <c r="BI51" s="155"/>
     </row>
-    <row r="52" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="52" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A52" s="144">
         <v>43201</v>
       </c>
@@ -15488,7 +15823,7 @@
       <c r="BH52" s="155"/>
       <c r="BI52" s="155"/>
     </row>
-    <row r="53" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="53" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A53" s="144">
         <v>43201</v>
       </c>
@@ -15587,7 +15922,7 @@
       <c r="BH53" s="155"/>
       <c r="BI53" s="155"/>
     </row>
-    <row r="54" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="54" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A54" s="144">
         <v>43201</v>
       </c>
@@ -15688,7 +16023,7 @@
       <c r="BH54" s="155"/>
       <c r="BI54" s="155"/>
     </row>
-    <row r="55" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="55" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A55" s="144">
         <v>43202</v>
       </c>
@@ -15749,7 +16084,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="56" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="56" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A56" s="144">
         <v>43202</v>
       </c>
@@ -15810,7 +16145,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="57" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="57" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A57" s="144">
         <v>43202</v>
       </c>
@@ -15871,7 +16206,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="58" spans="1:61" s="155" customFormat="1" ht="18.75">
+    <row r="58" spans="1:61" s="155" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A58" s="144">
         <v>43202</v>
       </c>
@@ -15932,7 +16267,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="59" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="59" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A59" s="144">
         <v>43203</v>
       </c>
@@ -16031,7 +16366,7 @@
       <c r="BH59" s="155"/>
       <c r="BI59" s="155"/>
     </row>
-    <row r="60" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="60" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A60" s="144">
         <v>43203</v>
       </c>
@@ -16130,7 +16465,7 @@
       <c r="BH60" s="155"/>
       <c r="BI60" s="155"/>
     </row>
-    <row r="61" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="61" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A61" s="144">
         <v>43203</v>
       </c>
@@ -16229,7 +16564,7 @@
       <c r="BH61" s="155"/>
       <c r="BI61" s="155"/>
     </row>
-    <row r="62" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="62" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A62" s="144">
         <v>43203</v>
       </c>
@@ -16328,7 +16663,7 @@
       <c r="BH62" s="155"/>
       <c r="BI62" s="155"/>
     </row>
-    <row r="63" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="63" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A63" s="144">
         <v>43204</v>
       </c>
@@ -16427,7 +16762,7 @@
       <c r="BH63" s="155"/>
       <c r="BI63" s="155"/>
     </row>
-    <row r="64" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="64" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A64" s="144">
         <v>43204</v>
       </c>
@@ -16526,7 +16861,7 @@
       <c r="BH64" s="155"/>
       <c r="BI64" s="155"/>
     </row>
-    <row r="65" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="65" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A65" s="144">
         <v>43204</v>
       </c>
@@ -16625,7 +16960,7 @@
       <c r="BH65" s="155"/>
       <c r="BI65" s="155"/>
     </row>
-    <row r="66" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="66" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A66" s="144">
         <v>43204</v>
       </c>
@@ -16724,7 +17059,7 @@
       <c r="BH66" s="155"/>
       <c r="BI66" s="155"/>
     </row>
-    <row r="67" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="67" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A67" s="144">
         <v>43205</v>
       </c>
@@ -16823,7 +17158,7 @@
       <c r="BH67" s="155"/>
       <c r="BI67" s="155"/>
     </row>
-    <row r="68" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="68" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A68" s="144">
         <v>43205</v>
       </c>
@@ -16922,7 +17257,7 @@
       <c r="BH68" s="155"/>
       <c r="BI68" s="155"/>
     </row>
-    <row r="69" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="69" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A69" s="144">
         <v>43205</v>
       </c>
@@ -17021,7 +17356,7 @@
       <c r="BH69" s="155"/>
       <c r="BI69" s="155"/>
     </row>
-    <row r="70" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="70" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A70" s="144">
         <v>43205</v>
       </c>
@@ -17120,7 +17455,7 @@
       <c r="BH70" s="155"/>
       <c r="BI70" s="155"/>
     </row>
-    <row r="71" spans="1:61" s="140" customFormat="1" ht="18.75">
+    <row r="71" spans="1:61" s="140" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A71" s="144">
         <v>43205</v>
       </c>
@@ -17222,73 +17557,73 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J21">
-    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K21">
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J22">
-    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J26">
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:K26">
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K30">
-    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:K22">
-    <cfRule type="duplicateValues" dxfId="14" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:K26">
-    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J30">
-    <cfRule type="duplicateValues" dxfId="12" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:K30">
-    <cfRule type="duplicateValues" dxfId="11" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K35">
-    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:J35">
-    <cfRule type="duplicateValues" dxfId="9" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:K35">
-    <cfRule type="duplicateValues" dxfId="8" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:K40">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:K44">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J44">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:K58">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:J58">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:J40">
-    <cfRule type="duplicateValues" dxfId="2" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:K44">
-    <cfRule type="duplicateValues" dxfId="1" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:K40">
-    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="106"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17296,14 +17631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -17321,7 +17656,7 @@
     <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15">
+    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>36</v>
       </c>
@@ -17419,7 +17754,7 @@
       <c r="BG1" s="23"/>
       <c r="BH1" s="23"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75">
+    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="29">
         <v>43192</v>
       </c>
@@ -17517,7 +17852,7 @@
       <c r="BG2" s="34"/>
       <c r="BH2" s="34"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75">
+    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="29">
         <v>43192</v>
       </c>
@@ -17615,7 +17950,7 @@
       <c r="BG3" s="34"/>
       <c r="BH3" s="34"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75">
+    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="29">
         <v>43192</v>
       </c>
@@ -17713,7 +18048,7 @@
       <c r="BG4" s="34"/>
       <c r="BH4" s="34"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75">
+    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="29">
         <v>43192</v>
       </c>
@@ -17811,7 +18146,7 @@
       <c r="BG5" s="34"/>
       <c r="BH5" s="34"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75">
+    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="29">
         <v>43192</v>
       </c>
@@ -17917,14 +18252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -17943,7 +18278,7 @@
     <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="15">
+    <row r="1" spans="1:60" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="242" t="s">
         <v>36</v>
       </c>
@@ -18041,7 +18376,7 @@
       <c r="BG1" s="235"/>
       <c r="BH1" s="235"/>
     </row>
-    <row r="2" spans="1:60" ht="18.75">
+    <row r="2" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="237">
         <v>43209</v>
       </c>
@@ -18139,7 +18474,7 @@
       <c r="BG2" s="247"/>
       <c r="BH2" s="247"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75">
+    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="237">
         <v>43209</v>
       </c>
@@ -18237,7 +18572,7 @@
       <c r="BG3" s="247"/>
       <c r="BH3" s="247"/>
     </row>
-    <row r="4" spans="1:60" ht="18.75">
+    <row r="4" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="237">
         <v>43209</v>
       </c>
@@ -18335,7 +18670,7 @@
       <c r="BG4" s="247"/>
       <c r="BH4" s="247"/>
     </row>
-    <row r="5" spans="1:60" ht="18.75">
+    <row r="5" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="237">
         <v>43209</v>
       </c>
@@ -18433,7 +18768,7 @@
       <c r="BG5" s="247"/>
       <c r="BH5" s="247"/>
     </row>
-    <row r="6" spans="1:60" ht="18.75">
+    <row r="6" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="237">
         <v>43209</v>
       </c>
@@ -18531,7 +18866,7 @@
       <c r="BG6" s="247"/>
       <c r="BH6" s="247"/>
     </row>
-    <row r="7" spans="1:60" ht="18.75">
+    <row r="7" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="237">
         <v>43209</v>
       </c>
@@ -18627,7 +18962,7 @@
       <c r="BG7" s="247"/>
       <c r="BH7" s="247"/>
     </row>
-    <row r="8" spans="1:60" ht="18.75">
+    <row r="8" spans="1:60" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="237">
         <v>43209</v>
       </c>
@@ -18723,7 +19058,7 @@
       <c r="BG8" s="247"/>
       <c r="BH8" s="247"/>
     </row>
-    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75">
+    <row r="9" spans="1:60" s="222" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="237">
         <v>43209</v>
       </c>
@@ -18821,7 +19156,7 @@
       <c r="BG9" s="247"/>
       <c r="BH9" s="247"/>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="L14" s="222" t="s">
         <v>431</v>
       </c>
@@ -18834,14 +19169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:BH9"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -18859,7 +19194,7 @@
     <col min="17" max="18" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:60" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="242" t="s">
         <v>36</v>
       </c>
@@ -18957,7 +19292,7 @@
       <c r="BG1" s="235"/>
       <c r="BH1" s="235"/>
     </row>
-    <row r="2" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="2" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="237">
         <v>43210</v>
       </c>
@@ -19014,7 +19349,7 @@
       </c>
       <c r="R2" s="236"/>
     </row>
-    <row r="3" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="3" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="237">
         <v>43210</v>
       </c>
@@ -19073,7 +19408,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="4" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="237">
         <v>43210</v>
       </c>
@@ -19132,7 +19467,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="5" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="237">
         <v>43210</v>
       </c>
@@ -19191,7 +19526,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="6" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="237">
         <v>43210</v>
       </c>
@@ -19250,7 +19585,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="7" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="237">
         <v>43210</v>
       </c>
@@ -19307,7 +19642,7 @@
       </c>
       <c r="R7" s="236"/>
     </row>
-    <row r="8" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="8" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="237">
         <v>43210</v>
       </c>
@@ -19364,7 +19699,7 @@
       </c>
       <c r="R8" s="236"/>
     </row>
-    <row r="9" spans="1:60" s="247" customFormat="1" ht="18.75">
+    <row r="9" spans="1:60" s="247" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="237">
         <v>43210</v>
       </c>
@@ -19430,14 +19765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:BI10"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -19457,7 +19792,7 @@
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="257" t="s">
         <v>36</v>
       </c>
@@ -19558,7 +19893,7 @@
       <c r="BH1" s="250"/>
       <c r="BI1" s="250"/>
     </row>
-    <row r="2" spans="1:61" ht="18.75">
+    <row r="2" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="252">
         <v>43211</v>
       </c>
@@ -19657,7 +19992,7 @@
       <c r="BH2" s="261"/>
       <c r="BI2" s="261"/>
     </row>
-    <row r="3" spans="1:61" ht="18.75">
+    <row r="3" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="252">
         <v>43211</v>
       </c>
@@ -19756,7 +20091,7 @@
       <c r="BH3" s="261"/>
       <c r="BI3" s="261"/>
     </row>
-    <row r="4" spans="1:61" ht="18.75">
+    <row r="4" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="252">
         <v>43211</v>
       </c>
@@ -19853,7 +20188,7 @@
       <c r="BH4" s="261"/>
       <c r="BI4" s="261"/>
     </row>
-    <row r="5" spans="1:61" ht="18.75">
+    <row r="5" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="252">
         <v>43211</v>
       </c>
@@ -19952,7 +20287,7 @@
       <c r="BH5" s="261"/>
       <c r="BI5" s="261"/>
     </row>
-    <row r="6" spans="1:61" ht="18.75">
+    <row r="6" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="252">
         <v>43211</v>
       </c>
@@ -20049,7 +20384,7 @@
       <c r="BH6" s="261"/>
       <c r="BI6" s="261"/>
     </row>
-    <row r="7" spans="1:61" ht="18.75">
+    <row r="7" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="252">
         <v>43211</v>
       </c>
@@ -20146,7 +20481,7 @@
       <c r="BH7" s="261"/>
       <c r="BI7" s="261"/>
     </row>
-    <row r="8" spans="1:61" ht="18.75">
+    <row r="8" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="252">
         <v>43211</v>
       </c>
@@ -20245,7 +20580,7 @@
       <c r="BH8" s="261"/>
       <c r="BI8" s="261"/>
     </row>
-    <row r="9" spans="1:61" ht="18.75">
+    <row r="9" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="252">
         <v>43211</v>
       </c>
@@ -20342,7 +20677,7 @@
       <c r="BH9" s="261"/>
       <c r="BI9" s="261"/>
     </row>
-    <row r="10" spans="1:61" ht="18.75">
+    <row r="10" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="265">
         <v>43211</v>
       </c>
@@ -20447,14 +20782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -20474,7 +20809,7 @@
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="282" t="s">
         <v>36</v>
       </c>
@@ -20575,7 +20910,7 @@
       <c r="BH1" s="275"/>
       <c r="BI1" s="275"/>
     </row>
-    <row r="2" spans="1:61" ht="18.75">
+    <row r="2" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="277">
         <v>43212</v>
       </c>
@@ -20672,7 +21007,7 @@
       <c r="BH2" s="286"/>
       <c r="BI2" s="286"/>
     </row>
-    <row r="3" spans="1:61" ht="18.75">
+    <row r="3" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="277">
         <v>43212</v>
       </c>
@@ -20771,7 +21106,7 @@
       <c r="BH3" s="286"/>
       <c r="BI3" s="286"/>
     </row>
-    <row r="4" spans="1:61" ht="18.75">
+    <row r="4" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="277">
         <v>43212</v>
       </c>
@@ -20870,7 +21205,7 @@
       <c r="BH4" s="286"/>
       <c r="BI4" s="286"/>
     </row>
-    <row r="5" spans="1:61" ht="18.75">
+    <row r="5" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="277">
         <v>43212</v>
       </c>
@@ -20969,7 +21304,7 @@
       <c r="BH5" s="286"/>
       <c r="BI5" s="286"/>
     </row>
-    <row r="6" spans="1:61" ht="18.75">
+    <row r="6" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="277">
         <v>43212</v>
       </c>
@@ -21068,7 +21403,7 @@
       <c r="BH6" s="286"/>
       <c r="BI6" s="286"/>
     </row>
-    <row r="7" spans="1:61" ht="18.75">
+    <row r="7" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="277">
         <v>43212</v>
       </c>
@@ -21165,7 +21500,7 @@
       <c r="BH7" s="286"/>
       <c r="BI7" s="286"/>
     </row>
-    <row r="8" spans="1:61" ht="18.75">
+    <row r="8" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="290">
         <v>43212</v>
       </c>
@@ -21228,14 +21563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -21255,7 +21590,7 @@
     <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="307" t="s">
         <v>36</v>
       </c>
@@ -21356,7 +21691,7 @@
       <c r="BH1" s="300"/>
       <c r="BI1" s="300"/>
     </row>
-    <row r="2" spans="1:61" ht="18.75">
+    <row r="2" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="302">
         <v>43213</v>
       </c>
@@ -21455,7 +21790,7 @@
       <c r="BH2" s="311"/>
       <c r="BI2" s="311"/>
     </row>
-    <row r="3" spans="1:61" ht="18.75">
+    <row r="3" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="302">
         <v>43213</v>
       </c>
@@ -21554,7 +21889,7 @@
       <c r="BH3" s="311"/>
       <c r="BI3" s="311"/>
     </row>
-    <row r="4" spans="1:61" ht="18.75">
+    <row r="4" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="302">
         <v>43213</v>
       </c>
@@ -21653,7 +21988,7 @@
       <c r="BH4" s="311"/>
       <c r="BI4" s="311"/>
     </row>
-    <row r="5" spans="1:61" ht="18.75">
+    <row r="5" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="302">
         <v>43213</v>
       </c>
@@ -21752,7 +22087,7 @@
       <c r="BH5" s="311"/>
       <c r="BI5" s="311"/>
     </row>
-    <row r="6" spans="1:61" ht="18.75">
+    <row r="6" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="302">
         <v>43213</v>
       </c>
@@ -21849,7 +22184,7 @@
       <c r="BH6" s="311"/>
       <c r="BI6" s="311"/>
     </row>
-    <row r="7" spans="1:61" ht="18.75">
+    <row r="7" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="302">
         <v>43213</v>
       </c>
@@ -21946,7 +22281,7 @@
       <c r="BH7" s="311"/>
       <c r="BI7" s="311"/>
     </row>
-    <row r="8" spans="1:61" s="298" customFormat="1" ht="18.75">
+    <row r="8" spans="1:61" s="298" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="302">
         <v>43213</v>
       </c>
@@ -22009,14 +22344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:BI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -22036,7 +22371,7 @@
     <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="325" t="s">
         <v>36</v>
       </c>
@@ -22137,7 +22472,7 @@
       <c r="BH1" s="320"/>
       <c r="BI1" s="320"/>
     </row>
-    <row r="2" spans="1:61" ht="18.75">
+    <row r="2" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="322">
         <v>43214</v>
       </c>
@@ -22234,7 +22569,7 @@
       <c r="BH2" s="318"/>
       <c r="BI2" s="318"/>
     </row>
-    <row r="3" spans="1:61" ht="18.75">
+    <row r="3" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="322">
         <v>43214</v>
       </c>
@@ -22331,7 +22666,7 @@
       <c r="BH3" s="318"/>
       <c r="BI3" s="318"/>
     </row>
-    <row r="4" spans="1:61" ht="18.75">
+    <row r="4" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="322">
         <v>43214</v>
       </c>
@@ -22430,7 +22765,7 @@
       <c r="BH4" s="318"/>
       <c r="BI4" s="318"/>
     </row>
-    <row r="5" spans="1:61" ht="18.75">
+    <row r="5" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="322">
         <v>43214</v>
       </c>
@@ -22529,7 +22864,7 @@
       <c r="BH5" s="318"/>
       <c r="BI5" s="318"/>
     </row>
-    <row r="6" spans="1:61" ht="18.75">
+    <row r="6" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="322">
         <v>43214</v>
       </c>
@@ -22628,7 +22963,7 @@
       <c r="BH6" s="318"/>
       <c r="BI6" s="318"/>
     </row>
-    <row r="7" spans="1:61" ht="18.75">
+    <row r="7" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="322">
         <v>43214</v>
       </c>
@@ -22727,7 +23062,7 @@
       <c r="BH7" s="318"/>
       <c r="BI7" s="318"/>
     </row>
-    <row r="8" spans="1:61" ht="18.75">
+    <row r="8" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="322">
         <v>43214</v>
       </c>
@@ -22824,7 +23159,7 @@
       <c r="BH8" s="318"/>
       <c r="BI8" s="318"/>
     </row>
-    <row r="9" spans="1:61" ht="18.75">
+    <row r="9" spans="1:61" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="322">
         <v>43214</v>
       </c>
@@ -22928,15 +23263,1210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE9185A-B895-4C36-ABE0-B04F67DA17ED}">
+  <dimension ref="A1:BI7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="325" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="325" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="325" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="325" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="325" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="325" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="325" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="325" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="325" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="325" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="326" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="325" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="326" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="326" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="325" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="325" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="325" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="325" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="327" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="319"/>
+      <c r="AA1" s="319"/>
+      <c r="AB1" s="319"/>
+      <c r="AC1" s="319"/>
+      <c r="AD1" s="319"/>
+      <c r="AE1" s="319"/>
+      <c r="AF1" s="319"/>
+      <c r="AG1" s="319"/>
+      <c r="AH1" s="320"/>
+      <c r="AI1" s="320"/>
+      <c r="AJ1" s="320"/>
+      <c r="AK1" s="320"/>
+      <c r="AL1" s="320"/>
+      <c r="AM1" s="320"/>
+      <c r="AN1" s="320"/>
+      <c r="AO1" s="320"/>
+      <c r="AP1" s="320"/>
+      <c r="AQ1" s="320"/>
+      <c r="AR1" s="320"/>
+      <c r="AS1" s="320"/>
+      <c r="AT1" s="320"/>
+      <c r="AU1" s="320"/>
+      <c r="AV1" s="320"/>
+      <c r="AW1" s="320"/>
+      <c r="AX1" s="320"/>
+      <c r="AY1" s="320"/>
+      <c r="AZ1" s="320"/>
+      <c r="BA1" s="320"/>
+      <c r="BB1" s="320"/>
+      <c r="BC1" s="320"/>
+      <c r="BD1" s="320"/>
+      <c r="BE1" s="320"/>
+      <c r="BF1" s="320"/>
+      <c r="BG1" s="320"/>
+      <c r="BH1" s="320"/>
+      <c r="BI1" s="320"/>
+    </row>
+    <row r="2" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="322">
+        <v>43215</v>
+      </c>
+      <c r="B2" s="331" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="331">
+        <v>1216</v>
+      </c>
+      <c r="D2" s="331">
+        <v>1400</v>
+      </c>
+      <c r="E2" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="312" t="s">
+        <v>539</v>
+      </c>
+      <c r="J2" s="333"/>
+      <c r="K2" s="324" t="s">
+        <v>540</v>
+      </c>
+      <c r="L2" s="321" t="str">
+        <f t="shared" ref="L2:L7" si="0">IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="330" t="str">
+        <f>VLOOKUP(N2,[1]ch!A:B,2,0)</f>
+        <v>鄂ADU616</v>
+      </c>
+      <c r="N2" s="328" t="s">
+        <v>541</v>
+      </c>
+      <c r="O2" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P2" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="323">
+        <v>0</v>
+      </c>
+      <c r="R2" s="323">
+        <f t="shared" ref="R2:R7" si="1">SUM(P2:Q2)</f>
+        <v>14</v>
+      </c>
+      <c r="S2" s="323"/>
+    </row>
+    <row r="3" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="322">
+        <v>43215</v>
+      </c>
+      <c r="B3" s="331" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="331">
+        <v>1910</v>
+      </c>
+      <c r="D3" s="331">
+        <v>2048</v>
+      </c>
+      <c r="E3" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="312" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" s="334"/>
+      <c r="K3" s="324" t="s">
+        <v>544</v>
+      </c>
+      <c r="L3" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="330" t="str">
+        <f>VLOOKUP(N3,[1]ch!A:B,2,0)</f>
+        <v>鄂ABY256</v>
+      </c>
+      <c r="N3" s="328" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P3" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="323">
+        <v>0</v>
+      </c>
+      <c r="R3" s="323">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S3" s="323"/>
+    </row>
+    <row r="4" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="322">
+        <v>43215</v>
+      </c>
+      <c r="B4" s="331" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="331">
+        <v>1830</v>
+      </c>
+      <c r="D4" s="331">
+        <v>1957</v>
+      </c>
+      <c r="E4" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="312" t="s">
+        <v>546</v>
+      </c>
+      <c r="J4" s="334"/>
+      <c r="K4" s="324" t="s">
+        <v>547</v>
+      </c>
+      <c r="L4" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="330" t="str">
+        <f>VLOOKUP(N4,[1]ch!A:B,2,0)</f>
+        <v>鄂ALU291</v>
+      </c>
+      <c r="N4" s="328" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P4" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="323">
+        <v>0</v>
+      </c>
+      <c r="R4" s="323">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S4" s="323" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="322">
+        <v>43215</v>
+      </c>
+      <c r="B5" s="331" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="331">
+        <v>1800</v>
+      </c>
+      <c r="D5" s="331">
+        <v>1930</v>
+      </c>
+      <c r="E5" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="312" t="s">
+        <v>550</v>
+      </c>
+      <c r="J5" s="334"/>
+      <c r="K5" s="324" t="s">
+        <v>551</v>
+      </c>
+      <c r="L5" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M5" s="330" t="str">
+        <f>VLOOKUP(N5,[1]ch!A:B,2,0)</f>
+        <v>粤BES791</v>
+      </c>
+      <c r="N5" s="328" t="s">
+        <v>240</v>
+      </c>
+      <c r="O5" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P5" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="323">
+        <v>0</v>
+      </c>
+      <c r="R5" s="323">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S5" s="323"/>
+    </row>
+    <row r="6" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="322">
+        <v>43215</v>
+      </c>
+      <c r="B6" s="331" t="s">
+        <v>545</v>
+      </c>
+      <c r="C6" s="331">
+        <v>1929</v>
+      </c>
+      <c r="D6" s="331">
+        <v>2146</v>
+      </c>
+      <c r="E6" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="312" t="s">
+        <v>552</v>
+      </c>
+      <c r="J6" s="334"/>
+      <c r="K6" s="324" t="s">
+        <v>553</v>
+      </c>
+      <c r="L6" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M6" s="330" t="str">
+        <f>VLOOKUP(N6,[1]ch!A:B,2,0)</f>
+        <v>鄂AZR876</v>
+      </c>
+      <c r="N6" s="328" t="s">
+        <v>436</v>
+      </c>
+      <c r="O6" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P6" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="323">
+        <v>0</v>
+      </c>
+      <c r="R6" s="323">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S6" s="323"/>
+    </row>
+    <row r="7" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="322">
+        <v>43215</v>
+      </c>
+      <c r="B7" s="331" t="s">
+        <v>545</v>
+      </c>
+      <c r="C7" s="331">
+        <v>1929</v>
+      </c>
+      <c r="D7" s="331">
+        <v>2114</v>
+      </c>
+      <c r="E7" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="312" t="s">
+        <v>554</v>
+      </c>
+      <c r="J7" s="335"/>
+      <c r="K7" s="324" t="s">
+        <v>555</v>
+      </c>
+      <c r="L7" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M7" s="330" t="str">
+        <f>VLOOKUP(N7,[1]ch!A:B,2,0)</f>
+        <v>鄂AZR992</v>
+      </c>
+      <c r="N7" s="328" t="s">
+        <v>176</v>
+      </c>
+      <c r="O7" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P7" s="323">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="323">
+        <v>0</v>
+      </c>
+      <c r="R7" s="323">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S7" s="323"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I7">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1239B7EE-D6B1-4A59-8FD4-6BBB79386775}">
+  <dimension ref="A1:BI11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="325" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="325" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="325" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="325" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="325" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="325" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="325" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="325" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="325" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="325" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="326" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="325" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="326" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="326" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="325" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="325" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="325" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="325" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="327" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="319"/>
+      <c r="U1" s="319"/>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
+      <c r="X1" s="319"/>
+      <c r="Y1" s="319"/>
+      <c r="Z1" s="319"/>
+      <c r="AA1" s="319"/>
+      <c r="AB1" s="319"/>
+      <c r="AC1" s="319"/>
+      <c r="AD1" s="319"/>
+      <c r="AE1" s="319"/>
+      <c r="AF1" s="319"/>
+      <c r="AG1" s="319"/>
+      <c r="AH1" s="320"/>
+      <c r="AI1" s="320"/>
+      <c r="AJ1" s="320"/>
+      <c r="AK1" s="320"/>
+      <c r="AL1" s="320"/>
+      <c r="AM1" s="320"/>
+      <c r="AN1" s="320"/>
+      <c r="AO1" s="320"/>
+      <c r="AP1" s="320"/>
+      <c r="AQ1" s="320"/>
+      <c r="AR1" s="320"/>
+      <c r="AS1" s="320"/>
+      <c r="AT1" s="320"/>
+      <c r="AU1" s="320"/>
+      <c r="AV1" s="320"/>
+      <c r="AW1" s="320"/>
+      <c r="AX1" s="320"/>
+      <c r="AY1" s="320"/>
+      <c r="AZ1" s="320"/>
+      <c r="BA1" s="320"/>
+      <c r="BB1" s="320"/>
+      <c r="BC1" s="320"/>
+      <c r="BD1" s="320"/>
+      <c r="BE1" s="320"/>
+      <c r="BF1" s="320"/>
+      <c r="BG1" s="320"/>
+      <c r="BH1" s="320"/>
+      <c r="BI1" s="320"/>
+    </row>
+    <row r="2" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B2" s="331" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="331">
+        <v>1740</v>
+      </c>
+      <c r="D2" s="331">
+        <v>1805</v>
+      </c>
+      <c r="E2" s="332" t="s">
+        <v>557</v>
+      </c>
+      <c r="F2" s="332" t="s">
+        <v>558</v>
+      </c>
+      <c r="G2" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="332" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="329" t="s">
+        <v>577</v>
+      </c>
+      <c r="K2" s="324" t="s">
+        <v>559</v>
+      </c>
+      <c r="L2" s="321" t="str">
+        <f>IF(A2&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M2" s="330" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="328" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P2" s="323">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="323">
+        <v>0</v>
+      </c>
+      <c r="R2" s="323">
+        <f>SUM(P2:Q2)</f>
+        <v>8</v>
+      </c>
+      <c r="S2" s="323"/>
+    </row>
+    <row r="3" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B3" s="331" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="331">
+        <v>2228</v>
+      </c>
+      <c r="D3" s="331">
+        <v>2256</v>
+      </c>
+      <c r="E3" s="332" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="332" t="s">
+        <v>558</v>
+      </c>
+      <c r="G3" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="332" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="329" t="s">
+        <v>578</v>
+      </c>
+      <c r="K3" s="324" t="s">
+        <v>560</v>
+      </c>
+      <c r="L3" s="321" t="str">
+        <f t="shared" ref="L3:L11" si="0">IF(A3&lt;&gt;"","武汉威伟机械","------")</f>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M3" s="330" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="328" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P3" s="323">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="323">
+        <v>1</v>
+      </c>
+      <c r="R3" s="323">
+        <f>SUM(P3:Q3)</f>
+        <v>8</v>
+      </c>
+      <c r="S3" s="323"/>
+    </row>
+    <row r="4" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B4" s="331" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="331">
+        <v>1850</v>
+      </c>
+      <c r="D4" s="331">
+        <v>2012</v>
+      </c>
+      <c r="E4" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="329" t="s">
+        <v>579</v>
+      </c>
+      <c r="K4" s="324" t="s">
+        <v>561</v>
+      </c>
+      <c r="L4" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M4" s="330" t="s">
+        <v>490</v>
+      </c>
+      <c r="N4" s="328" t="s">
+        <v>541</v>
+      </c>
+      <c r="O4" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P4" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="323">
+        <v>0</v>
+      </c>
+      <c r="R4" s="323">
+        <f>SUM(P4:Q4)</f>
+        <v>14</v>
+      </c>
+      <c r="S4" s="323"/>
+    </row>
+    <row r="5" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B5" s="331" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="331">
+        <v>1909</v>
+      </c>
+      <c r="D5" s="331">
+        <v>2110</v>
+      </c>
+      <c r="E5" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="329" t="s">
+        <v>580</v>
+      </c>
+      <c r="K5" s="324" t="s">
+        <v>562</v>
+      </c>
+      <c r="L5" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M5" s="330" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="328" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P5" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="323">
+        <v>1</v>
+      </c>
+      <c r="R5" s="323">
+        <f>SUM(P5:Q5)</f>
+        <v>15</v>
+      </c>
+      <c r="S5" s="323"/>
+    </row>
+    <row r="6" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B6" s="331" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="331">
+        <v>1835</v>
+      </c>
+      <c r="D6" s="331">
+        <v>2014</v>
+      </c>
+      <c r="E6" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="329" t="s">
+        <v>581</v>
+      </c>
+      <c r="K6" s="324" t="s">
+        <v>563</v>
+      </c>
+      <c r="L6" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M6" s="330" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="328" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P6" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="323">
+        <v>0</v>
+      </c>
+      <c r="R6" s="323">
+        <f>SUM(P6:Q6)</f>
+        <v>14</v>
+      </c>
+      <c r="S6" s="323"/>
+    </row>
+    <row r="7" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B7" s="331" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="331">
+        <v>1820</v>
+      </c>
+      <c r="D7" s="331">
+        <v>1959</v>
+      </c>
+      <c r="E7" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="329" t="s">
+        <v>582</v>
+      </c>
+      <c r="K7" s="324" t="s">
+        <v>564</v>
+      </c>
+      <c r="L7" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M7" s="330" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="328" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P7" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="323">
+        <v>0</v>
+      </c>
+      <c r="R7" s="323">
+        <f>SUM(P7:Q7)</f>
+        <v>14</v>
+      </c>
+      <c r="S7" s="323"/>
+    </row>
+    <row r="8" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B8" s="331" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="331">
+        <v>1300</v>
+      </c>
+      <c r="D8" s="331">
+        <v>1435</v>
+      </c>
+      <c r="E8" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="329" t="s">
+        <v>583</v>
+      </c>
+      <c r="K8" s="324" t="s">
+        <v>565</v>
+      </c>
+      <c r="L8" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M8" s="330" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="328" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P8" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="323">
+        <v>0</v>
+      </c>
+      <c r="R8" s="323">
+        <f>SUM(P8:Q8)</f>
+        <v>14</v>
+      </c>
+      <c r="S8" s="323" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B9" s="331" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="331">
+        <v>1700</v>
+      </c>
+      <c r="D9" s="331">
+        <v>1830</v>
+      </c>
+      <c r="E9" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="329" t="s">
+        <v>584</v>
+      </c>
+      <c r="K9" s="324" t="s">
+        <v>567</v>
+      </c>
+      <c r="L9" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M9" s="330" t="s">
+        <v>93</v>
+      </c>
+      <c r="N9" s="328" t="s">
+        <v>568</v>
+      </c>
+      <c r="O9" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P9" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="323">
+        <v>0</v>
+      </c>
+      <c r="R9" s="323">
+        <f>SUM(P9:Q9)</f>
+        <v>14</v>
+      </c>
+      <c r="S9" s="323" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B10" s="331" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="331">
+        <v>1540</v>
+      </c>
+      <c r="D10" s="331">
+        <v>1740</v>
+      </c>
+      <c r="E10" s="332" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="332" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="332" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="332" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="329" t="s">
+        <v>585</v>
+      </c>
+      <c r="K10" s="324" t="s">
+        <v>570</v>
+      </c>
+      <c r="L10" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M10" s="330" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="328" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P10" s="323">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="323">
+        <v>0</v>
+      </c>
+      <c r="R10" s="323">
+        <f>SUM(P10:Q10)</f>
+        <v>14</v>
+      </c>
+      <c r="S10" s="323"/>
+    </row>
+    <row r="11" spans="1:61" s="318" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="322">
+        <v>43216</v>
+      </c>
+      <c r="B11" s="331" t="s">
+        <v>571</v>
+      </c>
+      <c r="C11" s="331">
+        <v>1910</v>
+      </c>
+      <c r="D11" s="331">
+        <v>2110</v>
+      </c>
+      <c r="E11" s="332" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" s="332" t="s">
+        <v>573</v>
+      </c>
+      <c r="G11" s="332" t="s">
+        <v>574</v>
+      </c>
+      <c r="H11" s="332" t="s">
+        <v>575</v>
+      </c>
+      <c r="I11" s="329" t="s">
+        <v>586</v>
+      </c>
+      <c r="K11" s="324" t="s">
+        <v>576</v>
+      </c>
+      <c r="L11" s="321" t="str">
+        <f t="shared" si="0"/>
+        <v>武汉威伟机械</v>
+      </c>
+      <c r="M11" s="330" t="s">
+        <v>180</v>
+      </c>
+      <c r="N11" s="328" t="s">
+        <v>176</v>
+      </c>
+      <c r="O11" s="321" t="s">
+        <v>542</v>
+      </c>
+      <c r="P11" s="323">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="323">
+        <v>0</v>
+      </c>
+      <c r="R11" s="323">
+        <f>SUM(P11:Q11)</f>
+        <v>13</v>
+      </c>
+      <c r="S11" s="323"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -22955,7 +24485,7 @@
     <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15">
+    <row r="1" spans="1:61" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>36</v>
       </c>
@@ -23056,7 +24586,7 @@
       <c r="BH1" s="49"/>
       <c r="BI1" s="49"/>
     </row>
-    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="2" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="39">
         <v>43193</v>
       </c>
@@ -23155,7 +24685,7 @@
       <c r="BH2" s="41"/>
       <c r="BI2" s="41"/>
     </row>
-    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="3" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="39">
         <v>43193</v>
       </c>
@@ -23254,7 +24784,7 @@
       <c r="BH3" s="41"/>
       <c r="BI3" s="41"/>
     </row>
-    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="4" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="39">
         <v>43193</v>
       </c>
@@ -23353,7 +24883,7 @@
       <c r="BH4" s="41"/>
       <c r="BI4" s="41"/>
     </row>
-    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="5" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="39">
         <v>43193</v>
       </c>
@@ -23452,7 +24982,7 @@
       <c r="BH5" s="41"/>
       <c r="BI5" s="41"/>
     </row>
-    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="6" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="39">
         <v>43193</v>
       </c>
@@ -23551,7 +25081,7 @@
       <c r="BH6" s="41"/>
       <c r="BI6" s="41"/>
     </row>
-    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75">
+    <row r="7" spans="1:61" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="39">
         <v>43193</v>
       </c>
@@ -23658,14 +25188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -23686,7 +25216,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15">
+    <row r="1" spans="1:62" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -23790,7 +25320,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43194</v>
       </c>
@@ -23855,7 +25385,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43194</v>
       </c>
@@ -23920,7 +25450,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43194</v>
       </c>
@@ -23985,7 +25515,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43194</v>
       </c>
@@ -24053,22 +25583,22 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24076,14 +25606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -24104,7 +25634,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="10" customFormat="1" ht="15">
+    <row r="1" spans="1:62" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -24208,7 +25738,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43195</v>
       </c>
@@ -24271,7 +25801,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43195</v>
       </c>
@@ -24334,7 +25864,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43195</v>
       </c>
@@ -24397,7 +25927,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43195</v>
       </c>
@@ -24463,30 +25993,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -24510,7 +26040,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -24617,7 +26147,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43196</v>
       </c>
@@ -24683,7 +26213,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43196</v>
       </c>
@@ -24749,7 +26279,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43196</v>
       </c>
@@ -24815,7 +26345,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43196</v>
       </c>
@@ -24884,16 +26414,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I2:L5">
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J5">
-    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
-    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24901,14 +26431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -24932,7 +26462,7 @@
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -25039,7 +26569,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43197</v>
       </c>
@@ -25105,7 +26635,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43197</v>
       </c>
@@ -25171,7 +26701,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43197</v>
       </c>
@@ -25237,7 +26767,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43197</v>
       </c>
@@ -25303,7 +26833,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="58">
         <v>43197</v>
       </c>
@@ -25372,30 +26902,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -25417,7 +26947,7 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:63" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -25524,7 +27054,7 @@
       <c r="BJ1" s="56"/>
       <c r="BK1" s="56"/>
     </row>
-    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43198</v>
       </c>
@@ -25590,7 +27120,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43198</v>
       </c>
@@ -25656,7 +27186,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43198</v>
       </c>
@@ -25722,7 +27252,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43198</v>
       </c>
@@ -25788,7 +27318,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75">
+    <row r="6" spans="1:63" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="58">
         <v>43198</v>
       </c>
@@ -25857,30 +27387,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:L6">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J6">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -25901,7 +27431,7 @@
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:62" s="71" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
         <v>36</v>
       </c>
@@ -26005,7 +27535,7 @@
       <c r="BI1" s="56"/>
       <c r="BJ1" s="56"/>
     </row>
-    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="2" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="58">
         <v>43199</v>
       </c>
@@ -26070,7 +27600,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="3" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="58">
         <v>43199</v>
       </c>
@@ -26135,7 +27665,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="4" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="58">
         <v>43199</v>
       </c>
@@ -26200,7 +27730,7 @@
         <v>分拣摆渡</v>
       </c>
     </row>
-    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75">
+    <row r="5" spans="1:62" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="58">
         <v>43199</v>
       </c>
@@ -26268,16 +27798,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:K1">
-    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:K5">
-    <cfRule type="duplicateValues" dxfId="32" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="duplicateValues" dxfId="31" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="54"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
